--- a/Commands.xlsx
+++ b/Commands.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Blad2!$A$1:$H$378</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Blad2!$A$1:$H$381</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="471">
   <si>
     <t>IF</t>
   </si>
@@ -1423,6 +1423,15 @@
   </si>
   <si>
     <t>Remark</t>
+  </si>
+  <si>
+    <t>BEEPSPRVAL</t>
+  </si>
+  <si>
+    <t>STARZERO</t>
+  </si>
+  <si>
+    <t>STARSPRVAR</t>
   </si>
 </sst>
 </file>
@@ -7565,13 +7574,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI395"/>
+  <dimension ref="A1:AI398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C231" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C327" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24:AI24"/>
+      <selection pane="bottomRight" activeCell="H317" sqref="H317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9397,17 +9406,17 @@
       <c r="AI40" s="8"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>8</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>29</v>
+      <c r="A41" s="6"/>
+      <c r="B41" s="41" t="s">
+        <v>468</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="G41" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H41" s="9"/>
       <c r="I41" s="2"/>
       <c r="J41" s="9"/>
@@ -9438,16 +9447,16 @@
       <c r="AI41" s="8"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="41" t="s">
-        <v>218</v>
+      <c r="A42" s="6">
+        <v>8</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>29</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="2"/>
@@ -9481,16 +9490,16 @@
     <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="F43" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G43" s="9"/>
-      <c r="H43" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H43" s="9"/>
       <c r="I43" s="2"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -9520,18 +9529,18 @@
       <c r="AI43" s="8"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>9</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>35</v>
+      <c r="A44" s="6"/>
+      <c r="B44" s="41" t="s">
+        <v>219</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="I44" s="2"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -9561,9 +9570,11 @@
       <c r="AI44" s="8"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="41" t="s">
-        <v>414</v>
+      <c r="A45" s="6">
+        <v>9</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>35</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -9582,9 +9593,7 @@
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
       <c r="S45" s="2"/>
-      <c r="T45" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T45" s="9"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
@@ -9594,9 +9603,7 @@
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
       <c r="AC45" s="2"/>
-      <c r="AD45" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD45" s="9"/>
       <c r="AE45" s="9"/>
       <c r="AF45" s="9"/>
       <c r="AG45" s="9"/>
@@ -9606,14 +9613,12 @@
     <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="41" t="s">
-        <v>220</v>
+        <v>414</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="2"/>
@@ -9627,7 +9632,9 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
       <c r="S46" s="2"/>
-      <c r="T46" s="9"/>
+      <c r="T46" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
@@ -9637,7 +9644,9 @@
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
       <c r="AC46" s="2"/>
-      <c r="AD46" s="9"/>
+      <c r="AD46" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE46" s="9"/>
       <c r="AF46" s="9"/>
       <c r="AG46" s="9"/>
@@ -9647,16 +9656,16 @@
     <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="F47" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G47" s="9"/>
-      <c r="H47" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H47" s="9"/>
       <c r="I47" s="2"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -9686,18 +9695,18 @@
       <c r="AI47" s="8"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>10</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>95</v>
+      <c r="A48" s="6"/>
+      <c r="B48" s="41" t="s">
+        <v>221</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="I48" s="2"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -9717,9 +9726,7 @@
       <c r="Y48" s="9"/>
       <c r="Z48" s="9"/>
       <c r="AA48" s="9"/>
-      <c r="AB48" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AB48" s="9"/>
       <c r="AC48" s="2"/>
       <c r="AD48" s="9"/>
       <c r="AE48" s="9"/>
@@ -9730,14 +9737,12 @@
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>11</v>
-      </c>
-      <c r="B49" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>108</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -9762,7 +9767,9 @@
       <c r="Y49" s="9"/>
       <c r="Z49" s="9"/>
       <c r="AA49" s="9"/>
-      <c r="AB49" s="9"/>
+      <c r="AB49" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AC49" s="2"/>
       <c r="AD49" s="9"/>
       <c r="AE49" s="9"/>
@@ -9773,10 +9780,10 @@
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>108</v>
@@ -9816,10 +9823,10 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>108</v>
@@ -9859,10 +9866,10 @@
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" s="42" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>108</v>
@@ -9902,12 +9909,14 @@
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>15</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -9942,16 +9951,16 @@
       <c r="AI53" s="8"/>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="41" t="s">
-        <v>222</v>
+      <c r="A54" s="6">
+        <v>15</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="2"/>
@@ -9985,16 +9994,16 @@
     <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
+      <c r="F55" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G55" s="9"/>
-      <c r="H55" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H55" s="9"/>
       <c r="I55" s="2"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -10024,20 +10033,18 @@
       <c r="AI55" s="8"/>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
-        <v>16</v>
-      </c>
-      <c r="B56" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A56" s="6"/>
+      <c r="B56" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
+      <c r="H56" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="I56" s="2"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -10068,12 +10075,14 @@
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>17</v>
-      </c>
-      <c r="B57" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -10108,16 +10117,16 @@
       <c r="AI57" s="8"/>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="40" t="s">
-        <v>224</v>
+      <c r="A58" s="6">
+        <v>17</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="2"/>
@@ -10151,16 +10160,16 @@
     <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
+      <c r="F59" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G59" s="9"/>
-      <c r="H59" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H59" s="9"/>
       <c r="I59" s="2"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -10190,20 +10199,18 @@
       <c r="AI59" s="8"/>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <v>18</v>
-      </c>
-      <c r="B60" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A60" s="6"/>
+      <c r="B60" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
+      <c r="H60" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="I60" s="2"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -10234,12 +10241,14 @@
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>19</v>
-      </c>
-      <c r="B61" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -10274,16 +10283,16 @@
       <c r="AI61" s="8"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="41" t="s">
-        <v>226</v>
+      <c r="A62" s="6">
+        <v>19</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>17</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="2"/>
@@ -10317,15 +10326,15 @@
     <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="41" t="s">
-        <v>406</v>
+        <v>226</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F63" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="2"/>
       <c r="J63" s="9"/>
@@ -10358,16 +10367,16 @@
     <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="41" t="s">
-        <v>227</v>
+        <v>406</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="G64" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H64" s="9"/>
       <c r="I64" s="2"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -10399,14 +10408,16 @@
     <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="41" t="s">
-        <v>440</v>
+        <v>227</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
+      <c r="H65" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="I65" s="2"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -10436,11 +10447,9 @@
       <c r="AI65" s="8"/>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
-        <v>20</v>
-      </c>
-      <c r="B66" s="43" t="s">
-        <v>36</v>
+      <c r="A66" s="6"/>
+      <c r="B66" s="41" t="s">
+        <v>440</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -10477,16 +10486,16 @@
       <c r="AI66" s="8"/>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="41" t="s">
-        <v>409</v>
+      <c r="A67" s="6">
+        <v>20</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>36</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="2"/>
@@ -10520,16 +10529,16 @@
     <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
+      <c r="F68" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G68" s="9"/>
-      <c r="H68" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H68" s="9"/>
       <c r="I68" s="2"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -10559,18 +10568,18 @@
       <c r="AI68" s="8"/>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
-        <v>21</v>
-      </c>
-      <c r="B69" s="43" t="s">
-        <v>34</v>
+      <c r="A69" s="6"/>
+      <c r="B69" s="41" t="s">
+        <v>410</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
+      <c r="H69" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="I69" s="2"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -10600,9 +10609,11 @@
       <c r="AI69" s="8"/>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="41" t="s">
-        <v>438</v>
+      <c r="A70" s="6">
+        <v>21</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>34</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -10641,14 +10652,12 @@
     <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="41" t="s">
-        <v>228</v>
+        <v>438</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="2"/>
@@ -10682,16 +10691,16 @@
     <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
+      <c r="F72" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G72" s="9"/>
-      <c r="H72" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H72" s="9"/>
       <c r="I72" s="2"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -10723,16 +10732,16 @@
     <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="41" t="s">
-        <v>439</v>
+        <v>229</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="I73" s="2"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -10762,17 +10771,17 @@
       <c r="AI73" s="8"/>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
-        <v>22</v>
-      </c>
-      <c r="B74" s="42" t="s">
-        <v>81</v>
+      <c r="A74" s="6"/>
+      <c r="B74" s="41" t="s">
+        <v>439</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="G74" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H74" s="9"/>
       <c r="I74" s="2"/>
       <c r="J74" s="9"/>
@@ -10803,11 +10812,11 @@
       <c r="AI74" s="8"/>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B75" s="43" t="s">
-        <v>423</v>
+      <c r="A75" s="6">
+        <v>22</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>81</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -10844,9 +10853,11 @@
       <c r="AI75" s="8"/>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="41" t="s">
-        <v>424</v>
+      <c r="A76" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>423</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -10885,7 +10896,7 @@
     <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -10924,7 +10935,7 @@
     <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -10963,7 +10974,7 @@
     <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -11000,11 +11011,9 @@
       <c r="AI79" s="8"/>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
-        <v>23</v>
-      </c>
-      <c r="B80" s="43" t="s">
-        <v>40</v>
+      <c r="A80" s="6"/>
+      <c r="B80" s="41" t="s">
+        <v>427</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -11041,16 +11050,16 @@
       <c r="AI80" s="8"/>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="41" t="s">
-        <v>230</v>
+      <c r="A81" s="6">
+        <v>23</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="2"/>
@@ -11084,16 +11093,16 @@
     <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
+      <c r="F82" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G82" s="9"/>
-      <c r="H82" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H82" s="9"/>
       <c r="I82" s="2"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
@@ -11123,20 +11132,18 @@
       <c r="AI82" s="8"/>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
-        <v>24</v>
-      </c>
-      <c r="B83" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A83" s="6"/>
+      <c r="B83" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
+      <c r="H83" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="I83" s="2"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
@@ -11167,12 +11174,14 @@
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>25</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C84" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="B84" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
@@ -11193,9 +11202,7 @@
       <c r="U84" s="9"/>
       <c r="V84" s="9"/>
       <c r="W84" s="9"/>
-      <c r="X84" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
@@ -11210,10 +11217,10 @@
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>26</v>
-      </c>
-      <c r="B85" s="43" t="s">
-        <v>48</v>
+        <v>25</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -11236,7 +11243,9 @@
       <c r="U85" s="9"/>
       <c r="V85" s="9"/>
       <c r="W85" s="9"/>
-      <c r="X85" s="9"/>
+      <c r="X85" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
@@ -11247,21 +11256,19 @@
       <c r="AF85" s="9"/>
       <c r="AG85" s="9"/>
       <c r="AH85" s="2"/>
-      <c r="AI85" s="8" t="s">
-        <v>190</v>
-      </c>
+      <c r="AI85" s="8"/>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="41" t="s">
-        <v>232</v>
+      <c r="A86" s="6">
+        <v>26</v>
+      </c>
+      <c r="B86" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
-      <c r="F86" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F86" s="9"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="2"/>
@@ -11290,12 +11297,14 @@
       <c r="AF86" s="9"/>
       <c r="AG86" s="9"/>
       <c r="AH86" s="2"/>
-      <c r="AI86" s="8"/>
+      <c r="AI86" s="8" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="41" t="s">
-        <v>417</v>
+        <v>232</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -11336,7 +11345,7 @@
     <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -11377,7 +11386,7 @@
     <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="41" t="s">
-        <v>233</v>
+        <v>418</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -11416,16 +11425,16 @@
       <c r="AI89" s="8"/>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
-        <v>27</v>
-      </c>
-      <c r="B90" s="43" t="s">
-        <v>69</v>
+      <c r="A90" s="6"/>
+      <c r="B90" s="41" t="s">
+        <v>233</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
+      <c r="F90" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="2"/>
@@ -11457,16 +11466,16 @@
       <c r="AI90" s="8"/>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="41" t="s">
-        <v>234</v>
+      <c r="A91" s="6">
+        <v>27</v>
+      </c>
+      <c r="B91" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
-      <c r="F91" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F91" s="9"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="2"/>
@@ -11478,14 +11487,10 @@
       <c r="O91" s="9"/>
       <c r="P91" s="9"/>
       <c r="Q91" s="9"/>
-      <c r="R91" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="R91" s="9"/>
       <c r="S91" s="2"/>
       <c r="T91" s="9"/>
-      <c r="U91" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U91" s="9"/>
       <c r="V91" s="9"/>
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
@@ -11504,7 +11509,7 @@
     <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -11528,11 +11533,11 @@
       </c>
       <c r="S92" s="2"/>
       <c r="T92" s="9"/>
-      <c r="U92" s="9"/>
+      <c r="U92" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V92" s="9"/>
-      <c r="W92" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W92" s="9"/>
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
@@ -11549,15 +11554,15 @@
     <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F93" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="2"/>
       <c r="J93" s="9"/>
@@ -11573,11 +11578,11 @@
       </c>
       <c r="S93" s="2"/>
       <c r="T93" s="9"/>
-      <c r="U93" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U93" s="9"/>
       <c r="V93" s="9"/>
-      <c r="W93" s="9"/>
+      <c r="W93" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
@@ -11594,7 +11599,7 @@
     <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -11618,11 +11623,11 @@
       </c>
       <c r="S94" s="2"/>
       <c r="T94" s="9"/>
-      <c r="U94" s="9"/>
+      <c r="U94" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V94" s="9"/>
-      <c r="W94" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W94" s="9"/>
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
@@ -11637,19 +11642,17 @@
       <c r="AI94" s="8"/>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
-        <v>28</v>
-      </c>
-      <c r="B95" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A95" s="6"/>
+      <c r="B95" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
+      <c r="G95" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H95" s="9"/>
       <c r="I95" s="2"/>
       <c r="J95" s="9"/>
@@ -11660,12 +11663,16 @@
       <c r="O95" s="9"/>
       <c r="P95" s="9"/>
       <c r="Q95" s="9"/>
-      <c r="R95" s="9"/>
+      <c r="R95" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="S95" s="2"/>
       <c r="T95" s="9"/>
       <c r="U95" s="9"/>
       <c r="V95" s="9"/>
-      <c r="W95" s="9"/>
+      <c r="W95" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
@@ -11681,10 +11688,10 @@
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>108</v>
@@ -11724,10 +11731,10 @@
     </row>
     <row r="97" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B97" s="42" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>108</v>
@@ -11767,10 +11774,10 @@
     </row>
     <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>108</v>
@@ -11810,10 +11817,10 @@
     </row>
     <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>108</v>
@@ -11853,10 +11860,10 @@
     </row>
     <row r="100" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B100" s="42" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>108</v>
@@ -11896,12 +11903,14 @@
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>34</v>
-      </c>
-      <c r="B101" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C101" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="B101" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
@@ -11936,16 +11945,16 @@
       <c r="AI101" s="8"/>
     </row>
     <row r="102" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
-      <c r="B102" s="41" t="s">
-        <v>238</v>
+      <c r="A102" s="6">
+        <v>34</v>
+      </c>
+      <c r="B102" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F102" s="9"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="2"/>
@@ -11979,16 +11988,16 @@
     <row r="103" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
+      <c r="F103" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G103" s="9"/>
-      <c r="H103" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H103" s="9"/>
       <c r="I103" s="2"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
@@ -12018,20 +12027,18 @@
       <c r="AI103" s="8"/>
     </row>
     <row r="104" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A104" s="6">
-        <v>35</v>
-      </c>
-      <c r="B104" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A104" s="6"/>
+      <c r="B104" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
+      <c r="H104" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="I104" s="2"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -12062,17 +12069,20 @@
     </row>
     <row r="105" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <v>36</v>
-      </c>
-      <c r="B105" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C105" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="B105" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
+      <c r="I105" s="2"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
@@ -12082,6 +12092,7 @@
       <c r="P105" s="9"/>
       <c r="Q105" s="9"/>
       <c r="R105" s="9"/>
+      <c r="S105" s="2"/>
       <c r="T105" s="9"/>
       <c r="U105" s="9"/>
       <c r="V105" s="9"/>
@@ -12091,23 +12102,25 @@
       <c r="Z105" s="9"/>
       <c r="AA105" s="9"/>
       <c r="AB105" s="9"/>
+      <c r="AC105" s="2"/>
       <c r="AD105" s="9"/>
       <c r="AE105" s="9"/>
       <c r="AF105" s="9"/>
       <c r="AG105" s="9"/>
+      <c r="AH105" s="2"/>
       <c r="AI105" s="8"/>
     </row>
     <row r="106" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
-      <c r="B106" s="41" t="s">
-        <v>240</v>
+      <c r="A106" s="6">
+        <v>36</v>
+      </c>
+      <c r="B106" s="43" t="s">
+        <v>61</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
-      <c r="F106" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F106" s="9"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="J106" s="9"/>
@@ -12137,16 +12150,16 @@
     <row r="107" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
+      <c r="F107" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G107" s="9"/>
-      <c r="H107" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
@@ -12172,18 +12185,18 @@
       <c r="AI107" s="8"/>
     </row>
     <row r="108" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A108" s="6">
-        <v>37</v>
-      </c>
-      <c r="B108" s="43" t="s">
-        <v>79</v>
+      <c r="A108" s="6"/>
+      <c r="B108" s="41" t="s">
+        <v>241</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
+      <c r="H108" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
@@ -12209,54 +12222,46 @@
       <c r="AI108" s="8"/>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A109" s="6"/>
-      <c r="B109" s="45" t="s">
-        <v>459</v>
-      </c>
-      <c r="C109" s="48"/>
-      <c r="D109" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E109" s="48"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="48"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="49"/>
-      <c r="J109" s="48"/>
-      <c r="K109" s="48"/>
-      <c r="L109" s="48"/>
-      <c r="M109" s="48"/>
-      <c r="N109" s="48"/>
-      <c r="O109" s="48"/>
-      <c r="P109" s="48"/>
-      <c r="Q109" s="48"/>
-      <c r="R109" s="48"/>
-      <c r="S109" s="49"/>
-      <c r="T109" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="U109" s="48"/>
-      <c r="V109" s="48"/>
-      <c r="W109" s="48"/>
-      <c r="X109" s="48"/>
-      <c r="Y109" s="48"/>
-      <c r="Z109" s="48"/>
-      <c r="AA109" s="48"/>
-      <c r="AB109" s="48"/>
-      <c r="AC109" s="49"/>
-      <c r="AD109" s="48"/>
-      <c r="AE109" s="48"/>
-      <c r="AF109" s="48"/>
-      <c r="AG109" s="48"/>
-      <c r="AH109" s="49"/>
-      <c r="AI109" s="50" t="s">
-        <v>464</v>
-      </c>
+      <c r="A109" s="6">
+        <v>37</v>
+      </c>
+      <c r="B109" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="T109" s="9"/>
+      <c r="U109" s="9"/>
+      <c r="V109" s="9"/>
+      <c r="W109" s="9"/>
+      <c r="X109" s="9"/>
+      <c r="Y109" s="9"/>
+      <c r="Z109" s="9"/>
+      <c r="AA109" s="9"/>
+      <c r="AB109" s="9"/>
+      <c r="AD109" s="9"/>
+      <c r="AE109" s="9"/>
+      <c r="AF109" s="9"/>
+      <c r="AG109" s="9"/>
+      <c r="AI109" s="8"/>
     </row>
     <row r="110" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C110" s="48"/>
       <c r="D110" s="48" t="s">
@@ -12277,12 +12282,12 @@
       <c r="Q110" s="48"/>
       <c r="R110" s="48"/>
       <c r="S110" s="49"/>
-      <c r="T110" s="48"/>
+      <c r="T110" s="48" t="s">
+        <v>108</v>
+      </c>
       <c r="U110" s="48"/>
       <c r="V110" s="48"/>
-      <c r="W110" s="48" t="s">
-        <v>108</v>
-      </c>
+      <c r="W110" s="48"/>
       <c r="X110" s="48"/>
       <c r="Y110" s="48"/>
       <c r="Z110" s="48"/>
@@ -12300,47 +12305,53 @@
     </row>
     <row r="111" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
-      <c r="B111" s="41" t="s">
-        <v>461</v>
-      </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
-      <c r="M111" s="9"/>
-      <c r="N111" s="9"/>
-      <c r="O111" s="9"/>
-      <c r="P111" s="9"/>
-      <c r="Q111" s="9"/>
-      <c r="R111" s="9"/>
-      <c r="T111" s="9"/>
-      <c r="U111" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="V111" s="9"/>
-      <c r="W111" s="9"/>
-      <c r="X111" s="9"/>
-      <c r="Y111" s="9"/>
-      <c r="Z111" s="9"/>
-      <c r="AA111" s="9"/>
-      <c r="AB111" s="9"/>
-      <c r="AD111" s="9"/>
-      <c r="AE111" s="9"/>
-      <c r="AF111" s="9"/>
-      <c r="AG111" s="9"/>
-      <c r="AI111" s="8"/>
+      <c r="B111" s="45" t="s">
+        <v>460</v>
+      </c>
+      <c r="C111" s="48"/>
+      <c r="D111" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E111" s="48"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="49"/>
+      <c r="J111" s="48"/>
+      <c r="K111" s="48"/>
+      <c r="L111" s="48"/>
+      <c r="M111" s="48"/>
+      <c r="N111" s="48"/>
+      <c r="O111" s="48"/>
+      <c r="P111" s="48"/>
+      <c r="Q111" s="48"/>
+      <c r="R111" s="48"/>
+      <c r="S111" s="49"/>
+      <c r="T111" s="48"/>
+      <c r="U111" s="48"/>
+      <c r="V111" s="48"/>
+      <c r="W111" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="X111" s="48"/>
+      <c r="Y111" s="48"/>
+      <c r="Z111" s="48"/>
+      <c r="AA111" s="48"/>
+      <c r="AB111" s="48"/>
+      <c r="AC111" s="49"/>
+      <c r="AD111" s="48"/>
+      <c r="AE111" s="48"/>
+      <c r="AF111" s="48"/>
+      <c r="AG111" s="48"/>
+      <c r="AH111" s="49"/>
+      <c r="AI111" s="50" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="112" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
-      <c r="B112" s="44" t="s">
-        <v>462</v>
+      <c r="B112" s="41" t="s">
+        <v>461</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9" t="s">
@@ -12360,10 +12371,10 @@
       <c r="Q112" s="9"/>
       <c r="R112" s="9"/>
       <c r="T112" s="9"/>
-      <c r="U112" s="9"/>
-      <c r="V112" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U112" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V112" s="9"/>
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
@@ -12378,15 +12389,15 @@
     </row>
     <row r="113" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
-      <c r="B113" s="41" t="s">
-        <v>455</v>
+      <c r="B113" s="44" t="s">
+        <v>462</v>
       </c>
       <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
+      <c r="D113" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="E113" s="9"/>
-      <c r="F113" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F113" s="9"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="J113" s="9"/>
@@ -12398,11 +12409,11 @@
       <c r="P113" s="9"/>
       <c r="Q113" s="9"/>
       <c r="R113" s="9"/>
-      <c r="T113" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T113" s="9"/>
       <c r="U113" s="9"/>
-      <c r="V113" s="9"/>
+      <c r="V113" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
@@ -12418,7 +12429,7 @@
     <row r="114" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="41" t="s">
-        <v>243</v>
+        <v>455</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -12437,12 +12448,12 @@
       <c r="P114" s="9"/>
       <c r="Q114" s="9"/>
       <c r="R114" s="9"/>
-      <c r="T114" s="9"/>
+      <c r="T114" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="U114" s="9"/>
       <c r="V114" s="9"/>
-      <c r="W114" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W114" s="9"/>
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
@@ -12457,7 +12468,7 @@
     <row r="115" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="41" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -12477,11 +12488,11 @@
       <c r="Q115" s="9"/>
       <c r="R115" s="9"/>
       <c r="T115" s="9"/>
-      <c r="U115" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U115" s="9"/>
       <c r="V115" s="9"/>
-      <c r="W115" s="9"/>
+      <c r="W115" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
@@ -12495,8 +12506,8 @@
     </row>
     <row r="116" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
-      <c r="B116" s="44" t="s">
-        <v>456</v>
+      <c r="B116" s="41" t="s">
+        <v>242</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
@@ -12516,10 +12527,10 @@
       <c r="Q116" s="9"/>
       <c r="R116" s="9"/>
       <c r="T116" s="9"/>
-      <c r="U116" s="9"/>
-      <c r="V116" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U116" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V116" s="9"/>
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
@@ -12534,92 +12545,92 @@
     </row>
     <row r="117" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
-      <c r="B117" s="45" t="s">
-        <v>457</v>
-      </c>
-      <c r="C117" s="48"/>
-      <c r="D117" s="48"/>
-      <c r="E117" s="48"/>
-      <c r="F117" s="48"/>
-      <c r="G117" s="48"/>
-      <c r="H117" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="I117" s="49"/>
-      <c r="J117" s="48"/>
-      <c r="K117" s="48"/>
-      <c r="L117" s="48"/>
-      <c r="M117" s="48"/>
-      <c r="N117" s="48"/>
-      <c r="O117" s="48"/>
-      <c r="P117" s="48"/>
-      <c r="Q117" s="48"/>
-      <c r="R117" s="48"/>
-      <c r="S117" s="49"/>
-      <c r="T117" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="U117" s="48"/>
-      <c r="V117" s="48"/>
-      <c r="W117" s="48"/>
-      <c r="X117" s="48"/>
-      <c r="Y117" s="48"/>
-      <c r="Z117" s="48"/>
-      <c r="AA117" s="48"/>
-      <c r="AB117" s="48"/>
-      <c r="AC117" s="49"/>
-      <c r="AD117" s="48"/>
-      <c r="AE117" s="48"/>
-      <c r="AF117" s="48"/>
-      <c r="AG117" s="48"/>
-      <c r="AH117" s="49"/>
-      <c r="AI117" s="50" t="s">
-        <v>464</v>
-      </c>
+      <c r="B117" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="T117" s="9"/>
+      <c r="U117" s="9"/>
+      <c r="V117" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W117" s="9"/>
+      <c r="X117" s="9"/>
+      <c r="Y117" s="9"/>
+      <c r="Z117" s="9"/>
+      <c r="AA117" s="9"/>
+      <c r="AB117" s="9"/>
+      <c r="AD117" s="9"/>
+      <c r="AE117" s="9"/>
+      <c r="AF117" s="9"/>
+      <c r="AG117" s="9"/>
+      <c r="AI117" s="8"/>
     </row>
     <row r="118" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
-      <c r="B118" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="9"/>
-      <c r="M118" s="9"/>
-      <c r="N118" s="9"/>
-      <c r="O118" s="9"/>
-      <c r="P118" s="9"/>
-      <c r="Q118" s="9"/>
-      <c r="R118" s="9"/>
-      <c r="T118" s="9"/>
-      <c r="U118" s="9"/>
-      <c r="V118" s="9"/>
-      <c r="W118" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="X118" s="9"/>
-      <c r="Y118" s="9"/>
-      <c r="Z118" s="9"/>
-      <c r="AA118" s="9"/>
-      <c r="AB118" s="9"/>
-      <c r="AD118" s="9"/>
-      <c r="AE118" s="9"/>
-      <c r="AF118" s="9"/>
-      <c r="AG118" s="9"/>
-      <c r="AI118" s="8"/>
+      <c r="B118" s="45" t="s">
+        <v>457</v>
+      </c>
+      <c r="C118" s="48"/>
+      <c r="D118" s="48"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="I118" s="49"/>
+      <c r="J118" s="48"/>
+      <c r="K118" s="48"/>
+      <c r="L118" s="48"/>
+      <c r="M118" s="48"/>
+      <c r="N118" s="48"/>
+      <c r="O118" s="48"/>
+      <c r="P118" s="48"/>
+      <c r="Q118" s="48"/>
+      <c r="R118" s="48"/>
+      <c r="S118" s="49"/>
+      <c r="T118" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="U118" s="48"/>
+      <c r="V118" s="48"/>
+      <c r="W118" s="48"/>
+      <c r="X118" s="48"/>
+      <c r="Y118" s="48"/>
+      <c r="Z118" s="48"/>
+      <c r="AA118" s="48"/>
+      <c r="AB118" s="48"/>
+      <c r="AC118" s="49"/>
+      <c r="AD118" s="48"/>
+      <c r="AE118" s="48"/>
+      <c r="AF118" s="48"/>
+      <c r="AG118" s="48"/>
+      <c r="AH118" s="49"/>
+      <c r="AI118" s="50" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="119" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
-      <c r="B119" s="44" t="s">
-        <v>244</v>
+      <c r="B119" s="41" t="s">
+        <v>245</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -12639,11 +12650,11 @@
       <c r="Q119" s="9"/>
       <c r="R119" s="9"/>
       <c r="T119" s="9"/>
-      <c r="U119" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U119" s="9"/>
       <c r="V119" s="9"/>
-      <c r="W119" s="9"/>
+      <c r="W119" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
@@ -12658,7 +12669,7 @@
     <row r="120" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="44" t="s">
-        <v>458</v>
+        <v>244</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -12678,10 +12689,10 @@
       <c r="Q120" s="9"/>
       <c r="R120" s="9"/>
       <c r="T120" s="9"/>
-      <c r="U120" s="9"/>
-      <c r="V120" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U120" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V120" s="9"/>
       <c r="W120" s="9"/>
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
@@ -12696,17 +12707,17 @@
     </row>
     <row r="121" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
-      <c r="B121" s="41" t="s">
-        <v>451</v>
+      <c r="B121" s="44" t="s">
+        <v>458</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
@@ -12718,7 +12729,9 @@
       <c r="R121" s="9"/>
       <c r="T121" s="9"/>
       <c r="U121" s="9"/>
-      <c r="V121" s="9"/>
+      <c r="V121" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="W121" s="9"/>
       <c r="X121" s="9"/>
       <c r="Y121" s="9"/>
@@ -12734,7 +12747,7 @@
     <row r="122" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
@@ -12771,7 +12784,7 @@
     <row r="123" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="41" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -12808,7 +12821,7 @@
     <row r="124" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="41" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -12843,19 +12856,17 @@
       <c r="AI124" s="8"/>
     </row>
     <row r="125" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A125" s="6">
-        <v>38</v>
-      </c>
-      <c r="B125" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A125" s="6"/>
+      <c r="B125" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
+      <c r="G125" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
@@ -12883,12 +12894,14 @@
     </row>
     <row r="126" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
-        <v>39</v>
-      </c>
-      <c r="B126" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C126" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="B126" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
@@ -12919,16 +12932,16 @@
       <c r="AI126" s="8"/>
     </row>
     <row r="127" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A127" s="6"/>
-      <c r="B127" s="41" t="s">
-        <v>402</v>
+      <c r="A127" s="6">
+        <v>39</v>
+      </c>
+      <c r="B127" s="43" t="s">
+        <v>26</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
-      <c r="F127" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
       <c r="J127" s="9"/>
@@ -12958,16 +12971,16 @@
     <row r="128" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="41" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
+      <c r="F128" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G128" s="9"/>
-      <c r="H128" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
@@ -12993,18 +13006,18 @@
       <c r="AI128" s="8"/>
     </row>
     <row r="129" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A129" s="6">
-        <v>40</v>
-      </c>
-      <c r="B129" s="43" t="s">
-        <v>15</v>
+      <c r="A129" s="6"/>
+      <c r="B129" s="41" t="s">
+        <v>403</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
+      <c r="H129" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
@@ -13030,9 +13043,11 @@
       <c r="AI129" s="8"/>
     </row>
     <row r="130" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A130" s="6"/>
-      <c r="B130" s="41" t="s">
-        <v>421</v>
+      <c r="A130" s="6">
+        <v>40</v>
+      </c>
+      <c r="B130" s="43" t="s">
+        <v>15</v>
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
@@ -13049,9 +13064,7 @@
       <c r="P130" s="9"/>
       <c r="Q130" s="9"/>
       <c r="R130" s="9"/>
-      <c r="T130" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T130" s="9"/>
       <c r="U130" s="9"/>
       <c r="V130" s="9"/>
       <c r="W130" s="9"/>
@@ -13060,9 +13073,7 @@
       <c r="Z130" s="9"/>
       <c r="AA130" s="9"/>
       <c r="AB130" s="9"/>
-      <c r="AD130" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD130" s="9"/>
       <c r="AE130" s="9"/>
       <c r="AF130" s="9"/>
       <c r="AG130" s="9"/>
@@ -13071,14 +13082,12 @@
     <row r="131" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="41" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F131" s="9"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="J131" s="9"/>
@@ -13090,7 +13099,9 @@
       <c r="P131" s="9"/>
       <c r="Q131" s="9"/>
       <c r="R131" s="9"/>
-      <c r="T131" s="9"/>
+      <c r="T131" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="U131" s="9"/>
       <c r="V131" s="9"/>
       <c r="W131" s="9"/>
@@ -13099,7 +13110,9 @@
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
       <c r="AB131" s="9"/>
-      <c r="AD131" s="9"/>
+      <c r="AD131" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE131" s="9"/>
       <c r="AF131" s="9"/>
       <c r="AG131" s="9"/>
@@ -13108,16 +13121,16 @@
     <row r="132" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
+      <c r="F132" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G132" s="9"/>
-      <c r="H132" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
@@ -13143,18 +13156,18 @@
       <c r="AI132" s="8"/>
     </row>
     <row r="133" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A133" s="6">
-        <v>41</v>
-      </c>
-      <c r="B133" s="43" t="s">
-        <v>0</v>
+      <c r="A133" s="6"/>
+      <c r="B133" s="41" t="s">
+        <v>420</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
+      <c r="H133" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
@@ -13180,21 +13193,19 @@
       <c r="AI133" s="8"/>
     </row>
     <row r="134" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A134" s="6"/>
-      <c r="B134" s="41" t="s">
-        <v>401</v>
+      <c r="A134" s="6">
+        <v>41</v>
+      </c>
+      <c r="B134" s="43" t="s">
+        <v>0</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
-      <c r="J134" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
       <c r="M134" s="9"/>
@@ -13203,9 +13214,7 @@
       <c r="P134" s="9"/>
       <c r="Q134" s="9"/>
       <c r="R134" s="9"/>
-      <c r="T134" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T134" s="9"/>
       <c r="U134" s="9"/>
       <c r="V134" s="9"/>
       <c r="W134" s="9"/>
@@ -13214,9 +13223,7 @@
       <c r="Z134" s="9"/>
       <c r="AA134" s="9"/>
       <c r="AB134" s="9"/>
-      <c r="AD134" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD134" s="9"/>
       <c r="AE134" s="9"/>
       <c r="AF134" s="9"/>
       <c r="AG134" s="9"/>
@@ -13225,7 +13232,7 @@
     <row r="135" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="41" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
@@ -13235,10 +13242,10 @@
       </c>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
-      <c r="J135" s="9"/>
-      <c r="K135" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J135" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K135" s="9"/>
       <c r="L135" s="9"/>
       <c r="M135" s="9"/>
       <c r="N135" s="9"/>
@@ -13268,7 +13275,7 @@
     <row r="136" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="41" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -13279,10 +13286,10 @@
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="J136" s="9"/>
-      <c r="K136" s="9"/>
-      <c r="L136" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K136" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L136" s="9"/>
       <c r="M136" s="9"/>
       <c r="N136" s="9"/>
       <c r="O136" s="9"/>
@@ -13311,7 +13318,7 @@
     <row r="137" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="41" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -13323,10 +13330,10 @@
       <c r="H137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
-      <c r="L137" s="9"/>
-      <c r="M137" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L137" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M137" s="9"/>
       <c r="N137" s="9"/>
       <c r="O137" s="9"/>
       <c r="P137" s="9"/>
@@ -13354,7 +13361,7 @@
     <row r="138" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
@@ -13367,10 +13374,10 @@
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c r="L138" s="9"/>
-      <c r="M138" s="9"/>
-      <c r="N138" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M138" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N138" s="9"/>
       <c r="O138" s="9"/>
       <c r="P138" s="9"/>
       <c r="Q138" s="9"/>
@@ -13397,7 +13404,7 @@
     <row r="139" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
@@ -13411,10 +13418,10 @@
       <c r="K139" s="9"/>
       <c r="L139" s="9"/>
       <c r="M139" s="9"/>
-      <c r="N139" s="9"/>
-      <c r="O139" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N139" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O139" s="9"/>
       <c r="P139" s="9"/>
       <c r="Q139" s="9"/>
       <c r="R139" s="9"/>
@@ -13440,7 +13447,7 @@
     <row r="140" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="41" t="s">
-        <v>246</v>
+        <v>400</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
@@ -13450,21 +13457,21 @@
       </c>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
-      <c r="J140" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c r="L140" s="9"/>
       <c r="M140" s="9"/>
       <c r="N140" s="9"/>
-      <c r="O140" s="9"/>
+      <c r="O140" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P140" s="9"/>
       <c r="Q140" s="9"/>
       <c r="R140" s="9"/>
-      <c r="T140" s="9"/>
-      <c r="U140" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T140" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U140" s="9"/>
       <c r="V140" s="9"/>
       <c r="W140" s="9"/>
       <c r="X140" s="9"/>
@@ -13472,7 +13479,9 @@
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>
-      <c r="AD140" s="9"/>
+      <c r="AD140" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE140" s="9"/>
       <c r="AF140" s="9"/>
       <c r="AG140" s="9"/>
@@ -13481,7 +13490,7 @@
     <row r="141" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -13491,10 +13500,10 @@
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
-      <c r="J141" s="9"/>
-      <c r="K141" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J141" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K141" s="9"/>
       <c r="L141" s="9"/>
       <c r="M141" s="9"/>
       <c r="N141" s="9"/>
@@ -13522,7 +13531,7 @@
     <row r="142" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -13533,10 +13542,10 @@
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
       <c r="J142" s="9"/>
-      <c r="K142" s="9"/>
-      <c r="L142" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K142" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L142" s="9"/>
       <c r="M142" s="9"/>
       <c r="N142" s="9"/>
       <c r="O142" s="9"/>
@@ -13563,7 +13572,7 @@
     <row r="143" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
@@ -13575,10 +13584,10 @@
       <c r="H143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
-      <c r="L143" s="9"/>
-      <c r="M143" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L143" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M143" s="9"/>
       <c r="N143" s="9"/>
       <c r="O143" s="9"/>
       <c r="P143" s="9"/>
@@ -13604,7 +13613,7 @@
     <row r="144" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
@@ -13617,10 +13626,10 @@
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
-      <c r="M144" s="9"/>
-      <c r="N144" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M144" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N144" s="9"/>
       <c r="O144" s="9"/>
       <c r="P144" s="9"/>
       <c r="Q144" s="9"/>
@@ -13645,7 +13654,7 @@
     <row r="145" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
@@ -13659,10 +13668,10 @@
       <c r="K145" s="9"/>
       <c r="L145" s="9"/>
       <c r="M145" s="9"/>
-      <c r="N145" s="9"/>
-      <c r="O145" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N145" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O145" s="9"/>
       <c r="P145" s="9"/>
       <c r="Q145" s="9"/>
       <c r="R145" s="9"/>
@@ -13686,7 +13695,7 @@
     <row r="146" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
@@ -13696,22 +13705,22 @@
       </c>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
-      <c r="J146" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c r="L146" s="9"/>
       <c r="M146" s="9"/>
       <c r="N146" s="9"/>
-      <c r="O146" s="9"/>
+      <c r="O146" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P146" s="9"/>
       <c r="Q146" s="9"/>
       <c r="R146" s="9"/>
       <c r="T146" s="9"/>
-      <c r="U146" s="9"/>
-      <c r="V146" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U146" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V146" s="9"/>
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
       <c r="Y146" s="9"/>
@@ -13727,7 +13736,7 @@
     <row r="147" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
@@ -13737,10 +13746,10 @@
       </c>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
-      <c r="J147" s="9"/>
-      <c r="K147" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J147" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K147" s="9"/>
       <c r="L147" s="9"/>
       <c r="M147" s="9"/>
       <c r="N147" s="9"/>
@@ -13768,7 +13777,7 @@
     <row r="148" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
@@ -13779,10 +13788,10 @@
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
       <c r="J148" s="9"/>
-      <c r="K148" s="9"/>
-      <c r="L148" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K148" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L148" s="9"/>
       <c r="M148" s="9"/>
       <c r="N148" s="9"/>
       <c r="O148" s="9"/>
@@ -13809,7 +13818,7 @@
     <row r="149" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
@@ -13821,10 +13830,10 @@
       <c r="H149" s="9"/>
       <c r="J149" s="9"/>
       <c r="K149" s="9"/>
-      <c r="L149" s="9"/>
-      <c r="M149" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L149" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M149" s="9"/>
       <c r="N149" s="9"/>
       <c r="O149" s="9"/>
       <c r="P149" s="9"/>
@@ -13850,7 +13859,7 @@
     <row r="150" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="41" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
@@ -13863,10 +13872,10 @@
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
       <c r="L150" s="9"/>
-      <c r="M150" s="9"/>
-      <c r="N150" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M150" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N150" s="9"/>
       <c r="O150" s="9"/>
       <c r="P150" s="9"/>
       <c r="Q150" s="9"/>
@@ -13891,7 +13900,7 @@
     <row r="151" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
@@ -13905,10 +13914,10 @@
       <c r="K151" s="9"/>
       <c r="L151" s="9"/>
       <c r="M151" s="9"/>
-      <c r="N151" s="9"/>
-      <c r="O151" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N151" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O151" s="9"/>
       <c r="P151" s="9"/>
       <c r="Q151" s="9"/>
       <c r="R151" s="9"/>
@@ -13932,7 +13941,7 @@
     <row r="152" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="41" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
@@ -13942,23 +13951,23 @@
       </c>
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
-      <c r="J152" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J152" s="9"/>
       <c r="K152" s="9"/>
       <c r="L152" s="9"/>
       <c r="M152" s="9"/>
       <c r="N152" s="9"/>
-      <c r="O152" s="9"/>
+      <c r="O152" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P152" s="9"/>
       <c r="Q152" s="9"/>
       <c r="R152" s="9"/>
       <c r="T152" s="9"/>
       <c r="U152" s="9"/>
-      <c r="V152" s="9"/>
-      <c r="W152" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V152" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W152" s="9"/>
       <c r="X152" s="9"/>
       <c r="Y152" s="9"/>
       <c r="Z152" s="9"/>
@@ -13973,7 +13982,7 @@
     <row r="153" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
@@ -13983,10 +13992,10 @@
       </c>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
-      <c r="J153" s="9"/>
-      <c r="K153" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J153" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K153" s="9"/>
       <c r="L153" s="9"/>
       <c r="M153" s="9"/>
       <c r="N153" s="9"/>
@@ -14014,7 +14023,7 @@
     <row r="154" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -14025,10 +14034,10 @@
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
       <c r="J154" s="9"/>
-      <c r="K154" s="9"/>
-      <c r="L154" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K154" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L154" s="9"/>
       <c r="M154" s="9"/>
       <c r="N154" s="9"/>
       <c r="O154" s="9"/>
@@ -14055,7 +14064,7 @@
     <row r="155" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -14067,10 +14076,10 @@
       <c r="H155" s="9"/>
       <c r="J155" s="9"/>
       <c r="K155" s="9"/>
-      <c r="L155" s="9"/>
-      <c r="M155" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L155" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M155" s="9"/>
       <c r="N155" s="9"/>
       <c r="O155" s="9"/>
       <c r="P155" s="9"/>
@@ -14096,7 +14105,7 @@
     <row r="156" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -14109,10 +14118,10 @@
       <c r="J156" s="9"/>
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
-      <c r="M156" s="9"/>
-      <c r="N156" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M156" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N156" s="9"/>
       <c r="O156" s="9"/>
       <c r="P156" s="9"/>
       <c r="Q156" s="9"/>
@@ -14137,7 +14146,7 @@
     <row r="157" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
@@ -14151,10 +14160,10 @@
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
       <c r="M157" s="9"/>
-      <c r="N157" s="9"/>
-      <c r="O157" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N157" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O157" s="9"/>
       <c r="P157" s="9"/>
       <c r="Q157" s="9"/>
       <c r="R157" s="9"/>
@@ -14178,41 +14187,39 @@
     <row r="158" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="41" t="s">
-        <v>395</v>
+        <v>275</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F158" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G158" s="9"/>
       <c r="H158" s="9"/>
-      <c r="J158" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J158" s="9"/>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
       <c r="M158" s="9"/>
       <c r="N158" s="9"/>
-      <c r="O158" s="9"/>
+      <c r="O158" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P158" s="9"/>
       <c r="Q158" s="9"/>
       <c r="R158" s="9"/>
-      <c r="T158" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T158" s="9"/>
       <c r="U158" s="9"/>
       <c r="V158" s="9"/>
-      <c r="W158" s="9"/>
+      <c r="W158" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X158" s="9"/>
       <c r="Y158" s="9"/>
       <c r="Z158" s="9"/>
       <c r="AA158" s="9"/>
       <c r="AB158" s="9"/>
-      <c r="AD158" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD158" s="9"/>
       <c r="AE158" s="9"/>
       <c r="AF158" s="9"/>
       <c r="AG158" s="9"/>
@@ -14221,7 +14228,7 @@
     <row r="159" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="41" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -14231,10 +14238,10 @@
         <v>108</v>
       </c>
       <c r="H159" s="9"/>
-      <c r="J159" s="9"/>
-      <c r="K159" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J159" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K159" s="9"/>
       <c r="L159" s="9"/>
       <c r="M159" s="9"/>
       <c r="N159" s="9"/>
@@ -14264,7 +14271,7 @@
     <row r="160" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
@@ -14275,10 +14282,10 @@
       </c>
       <c r="H160" s="9"/>
       <c r="J160" s="9"/>
-      <c r="K160" s="9"/>
-      <c r="L160" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K160" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L160" s="9"/>
       <c r="M160" s="9"/>
       <c r="N160" s="9"/>
       <c r="O160" s="9"/>
@@ -14307,7 +14314,7 @@
     <row r="161" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="41" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
@@ -14319,10 +14326,10 @@
       <c r="H161" s="9"/>
       <c r="J161" s="9"/>
       <c r="K161" s="9"/>
-      <c r="L161" s="9"/>
-      <c r="M161" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L161" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M161" s="9"/>
       <c r="N161" s="9"/>
       <c r="O161" s="9"/>
       <c r="P161" s="9"/>
@@ -14350,7 +14357,7 @@
     <row r="162" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
@@ -14363,10 +14370,10 @@
       <c r="J162" s="9"/>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
-      <c r="M162" s="9"/>
-      <c r="N162" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M162" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N162" s="9"/>
       <c r="O162" s="9"/>
       <c r="P162" s="9"/>
       <c r="Q162" s="9"/>
@@ -14393,7 +14400,7 @@
     <row r="163" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="41" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -14407,10 +14414,10 @@
       <c r="K163" s="9"/>
       <c r="L163" s="9"/>
       <c r="M163" s="9"/>
-      <c r="N163" s="9"/>
-      <c r="O163" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N163" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O163" s="9"/>
       <c r="P163" s="9"/>
       <c r="Q163" s="9"/>
       <c r="R163" s="9"/>
@@ -14436,7 +14443,7 @@
     <row r="164" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="41" t="s">
-        <v>258</v>
+        <v>394</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -14446,21 +14453,21 @@
         <v>108</v>
       </c>
       <c r="H164" s="9"/>
-      <c r="J164" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J164" s="9"/>
       <c r="K164" s="9"/>
       <c r="L164" s="9"/>
       <c r="M164" s="9"/>
       <c r="N164" s="9"/>
-      <c r="O164" s="9"/>
+      <c r="O164" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P164" s="9"/>
       <c r="Q164" s="9"/>
       <c r="R164" s="9"/>
-      <c r="T164" s="9"/>
-      <c r="U164" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T164" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U164" s="9"/>
       <c r="V164" s="9"/>
       <c r="W164" s="9"/>
       <c r="X164" s="9"/>
@@ -14468,7 +14475,9 @@
       <c r="Z164" s="9"/>
       <c r="AA164" s="9"/>
       <c r="AB164" s="9"/>
-      <c r="AD164" s="9"/>
+      <c r="AD164" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE164" s="9"/>
       <c r="AF164" s="9"/>
       <c r="AG164" s="9"/>
@@ -14477,7 +14486,7 @@
     <row r="165" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -14487,10 +14496,10 @@
         <v>108</v>
       </c>
       <c r="H165" s="9"/>
-      <c r="J165" s="9"/>
-      <c r="K165" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J165" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K165" s="9"/>
       <c r="L165" s="9"/>
       <c r="M165" s="9"/>
       <c r="N165" s="9"/>
@@ -14518,7 +14527,7 @@
     <row r="166" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -14529,10 +14538,10 @@
       </c>
       <c r="H166" s="9"/>
       <c r="J166" s="9"/>
-      <c r="K166" s="9"/>
-      <c r="L166" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K166" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L166" s="9"/>
       <c r="M166" s="9"/>
       <c r="N166" s="9"/>
       <c r="O166" s="9"/>
@@ -14559,7 +14568,7 @@
     <row r="167" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -14571,10 +14580,10 @@
       <c r="H167" s="9"/>
       <c r="J167" s="9"/>
       <c r="K167" s="9"/>
-      <c r="L167" s="9"/>
-      <c r="M167" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L167" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M167" s="9"/>
       <c r="N167" s="9"/>
       <c r="O167" s="9"/>
       <c r="P167" s="9"/>
@@ -14600,7 +14609,7 @@
     <row r="168" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
@@ -14613,10 +14622,10 @@
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
-      <c r="M168" s="9"/>
-      <c r="N168" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M168" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N168" s="9"/>
       <c r="O168" s="9"/>
       <c r="P168" s="9"/>
       <c r="Q168" s="9"/>
@@ -14641,7 +14650,7 @@
     <row r="169" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
@@ -14655,10 +14664,10 @@
       <c r="K169" s="9"/>
       <c r="L169" s="9"/>
       <c r="M169" s="9"/>
-      <c r="N169" s="9"/>
-      <c r="O169" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N169" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O169" s="9"/>
       <c r="P169" s="9"/>
       <c r="Q169" s="9"/>
       <c r="R169" s="9"/>
@@ -14682,7 +14691,7 @@
     <row r="170" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
@@ -14692,22 +14701,22 @@
         <v>108</v>
       </c>
       <c r="H170" s="9"/>
-      <c r="J170" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J170" s="9"/>
       <c r="K170" s="9"/>
       <c r="L170" s="9"/>
       <c r="M170" s="9"/>
       <c r="N170" s="9"/>
-      <c r="O170" s="9"/>
+      <c r="O170" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P170" s="9"/>
       <c r="Q170" s="9"/>
       <c r="R170" s="9"/>
       <c r="T170" s="9"/>
-      <c r="U170" s="9"/>
-      <c r="V170" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U170" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V170" s="9"/>
       <c r="W170" s="9"/>
       <c r="X170" s="9"/>
       <c r="Y170" s="9"/>
@@ -14723,7 +14732,7 @@
     <row r="171" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
@@ -14733,10 +14742,10 @@
         <v>108</v>
       </c>
       <c r="H171" s="9"/>
-      <c r="J171" s="9"/>
-      <c r="K171" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J171" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K171" s="9"/>
       <c r="L171" s="9"/>
       <c r="M171" s="9"/>
       <c r="N171" s="9"/>
@@ -14764,7 +14773,7 @@
     <row r="172" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
@@ -14775,10 +14784,10 @@
       </c>
       <c r="H172" s="9"/>
       <c r="J172" s="9"/>
-      <c r="K172" s="9"/>
-      <c r="L172" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K172" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L172" s="9"/>
       <c r="M172" s="9"/>
       <c r="N172" s="9"/>
       <c r="O172" s="9"/>
@@ -14805,7 +14814,7 @@
     <row r="173" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -14817,10 +14826,10 @@
       <c r="H173" s="9"/>
       <c r="J173" s="9"/>
       <c r="K173" s="9"/>
-      <c r="L173" s="9"/>
-      <c r="M173" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L173" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M173" s="9"/>
       <c r="N173" s="9"/>
       <c r="O173" s="9"/>
       <c r="P173" s="9"/>
@@ -14846,7 +14855,7 @@
     <row r="174" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
@@ -14859,10 +14868,10 @@
       <c r="J174" s="9"/>
       <c r="K174" s="9"/>
       <c r="L174" s="9"/>
-      <c r="M174" s="9"/>
-      <c r="N174" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M174" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N174" s="9"/>
       <c r="O174" s="9"/>
       <c r="P174" s="9"/>
       <c r="Q174" s="9"/>
@@ -14887,7 +14896,7 @@
     <row r="175" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
@@ -14901,10 +14910,10 @@
       <c r="K175" s="9"/>
       <c r="L175" s="9"/>
       <c r="M175" s="9"/>
-      <c r="N175" s="9"/>
-      <c r="O175" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N175" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O175" s="9"/>
       <c r="P175" s="9"/>
       <c r="Q175" s="9"/>
       <c r="R175" s="9"/>
@@ -14928,7 +14937,7 @@
     <row r="176" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="41" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
@@ -14938,23 +14947,23 @@
         <v>108</v>
       </c>
       <c r="H176" s="9"/>
-      <c r="J176" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
       <c r="M176" s="9"/>
       <c r="N176" s="9"/>
-      <c r="O176" s="9"/>
+      <c r="O176" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P176" s="9"/>
       <c r="Q176" s="9"/>
       <c r="R176" s="9"/>
       <c r="T176" s="9"/>
       <c r="U176" s="9"/>
-      <c r="V176" s="9"/>
-      <c r="W176" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V176" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W176" s="9"/>
       <c r="X176" s="9"/>
       <c r="Y176" s="9"/>
       <c r="Z176" s="9"/>
@@ -14969,7 +14978,7 @@
     <row r="177" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
@@ -14979,10 +14988,10 @@
         <v>108</v>
       </c>
       <c r="H177" s="9"/>
-      <c r="J177" s="9"/>
-      <c r="K177" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J177" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K177" s="9"/>
       <c r="L177" s="9"/>
       <c r="M177" s="9"/>
       <c r="N177" s="9"/>
@@ -15010,7 +15019,7 @@
     <row r="178" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
@@ -15021,10 +15030,10 @@
       </c>
       <c r="H178" s="9"/>
       <c r="J178" s="9"/>
-      <c r="K178" s="9"/>
-      <c r="L178" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K178" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L178" s="9"/>
       <c r="M178" s="9"/>
       <c r="N178" s="9"/>
       <c r="O178" s="9"/>
@@ -15051,7 +15060,7 @@
     <row r="179" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
@@ -15063,10 +15072,10 @@
       <c r="H179" s="9"/>
       <c r="J179" s="9"/>
       <c r="K179" s="9"/>
-      <c r="L179" s="9"/>
-      <c r="M179" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L179" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M179" s="9"/>
       <c r="N179" s="9"/>
       <c r="O179" s="9"/>
       <c r="P179" s="9"/>
@@ -15092,7 +15101,7 @@
     <row r="180" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
@@ -15105,10 +15114,10 @@
       <c r="J180" s="9"/>
       <c r="K180" s="9"/>
       <c r="L180" s="9"/>
-      <c r="M180" s="9"/>
-      <c r="N180" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M180" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="N180" s="9"/>
       <c r="O180" s="9"/>
       <c r="P180" s="9"/>
       <c r="Q180" s="9"/>
@@ -15133,7 +15142,7 @@
     <row r="181" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
@@ -15147,10 +15156,10 @@
       <c r="K181" s="9"/>
       <c r="L181" s="9"/>
       <c r="M181" s="9"/>
-      <c r="N181" s="9"/>
-      <c r="O181" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N181" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O181" s="9"/>
       <c r="P181" s="9"/>
       <c r="Q181" s="9"/>
       <c r="R181" s="9"/>
@@ -15172,31 +15181,35 @@
       <c r="AI181" s="8"/>
     </row>
     <row r="182" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A182" s="6">
-        <v>42</v>
-      </c>
-      <c r="B182" s="43" t="s">
-        <v>191</v>
+      <c r="A182" s="6"/>
+      <c r="B182" s="41" t="s">
+        <v>281</v>
       </c>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
-      <c r="G182" s="9"/>
+      <c r="G182" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H182" s="9"/>
       <c r="J182" s="9"/>
       <c r="K182" s="9"/>
       <c r="L182" s="9"/>
       <c r="M182" s="9"/>
       <c r="N182" s="9"/>
-      <c r="O182" s="9"/>
+      <c r="O182" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P182" s="9"/>
       <c r="Q182" s="9"/>
       <c r="R182" s="9"/>
       <c r="T182" s="9"/>
       <c r="U182" s="9"/>
       <c r="V182" s="9"/>
-      <c r="W182" s="9"/>
+      <c r="W182" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X182" s="9"/>
       <c r="Y182" s="9"/>
       <c r="Z182" s="9"/>
@@ -15209,13 +15222,13 @@
       <c r="AI182" s="8"/>
     </row>
     <row r="183" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A183" s="6"/>
-      <c r="B183" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A183" s="6">
+        <v>42</v>
+      </c>
+      <c r="B183" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C183" s="9"/>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
@@ -15246,11 +15259,9 @@
       <c r="AI183" s="8"/>
     </row>
     <row r="184" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A184" s="6">
-        <v>43</v>
-      </c>
-      <c r="B184" s="43" t="s">
-        <v>192</v>
+      <c r="A184" s="6"/>
+      <c r="B184" s="41" t="s">
+        <v>124</v>
       </c>
       <c r="C184" s="9" t="s">
         <v>108</v>
@@ -15285,9 +15296,11 @@
       <c r="AI184" s="8"/>
     </row>
     <row r="185" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A185" s="6"/>
-      <c r="B185" s="41" t="s">
-        <v>125</v>
+      <c r="A185" s="6">
+        <v>43</v>
+      </c>
+      <c r="B185" s="43" t="s">
+        <v>192</v>
       </c>
       <c r="C185" s="9" t="s">
         <v>108</v>
@@ -15322,13 +15335,13 @@
       <c r="AI185" s="8"/>
     </row>
     <row r="186" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A186" s="6">
-        <v>44</v>
-      </c>
-      <c r="B186" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C186" s="9"/>
+      <c r="A186" s="6"/>
+      <c r="B186" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
@@ -15348,9 +15361,7 @@
       <c r="V186" s="9"/>
       <c r="W186" s="9"/>
       <c r="X186" s="9"/>
-      <c r="Y186" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="Y186" s="9"/>
       <c r="Z186" s="9"/>
       <c r="AA186" s="9"/>
       <c r="AB186" s="9"/>
@@ -15361,9 +15372,11 @@
       <c r="AI186" s="8"/>
     </row>
     <row r="187" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A187" s="6"/>
-      <c r="B187" s="41" t="s">
-        <v>121</v>
+      <c r="A187" s="6">
+        <v>44</v>
+      </c>
+      <c r="B187" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
@@ -15385,7 +15398,9 @@
       <c r="V187" s="9"/>
       <c r="W187" s="9"/>
       <c r="X187" s="9"/>
-      <c r="Y187" s="9"/>
+      <c r="Y187" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="Z187" s="9"/>
       <c r="AA187" s="9"/>
       <c r="AB187" s="9"/>
@@ -15398,7 +15413,7 @@
     <row r="188" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="41" t="s">
-        <v>413</v>
+        <v>121</v>
       </c>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
@@ -15431,15 +15446,11 @@
       <c r="AI188" s="8"/>
     </row>
     <row r="189" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A189" s="6">
-        <v>45</v>
-      </c>
-      <c r="B189" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="C189" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A189" s="6"/>
+      <c r="B189" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="C189" s="9"/>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
@@ -15471,10 +15482,10 @@
     </row>
     <row r="190" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B190" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C190" s="9" t="s">
         <v>108</v>
@@ -15510,12 +15521,14 @@
     </row>
     <row r="191" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
-        <v>47</v>
-      </c>
-      <c r="B191" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C191" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="B191" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
@@ -15546,16 +15559,16 @@
       <c r="AI191" s="8"/>
     </row>
     <row r="192" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A192" s="6"/>
-      <c r="B192" s="41" t="s">
-        <v>282</v>
+      <c r="A192" s="6">
+        <v>47</v>
+      </c>
+      <c r="B192" s="43" t="s">
+        <v>38</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
-      <c r="F192" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F192" s="9"/>
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
       <c r="J192" s="9"/>
@@ -15585,16 +15598,16 @@
     <row r="193" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
-      <c r="F193" s="9"/>
+      <c r="F193" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G193" s="9"/>
-      <c r="H193" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H193" s="9"/>
       <c r="J193" s="9"/>
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
@@ -15620,18 +15633,18 @@
       <c r="AI193" s="8"/>
     </row>
     <row r="194" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A194" s="6">
-        <v>48</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>120</v>
+      <c r="A194" s="6"/>
+      <c r="B194" s="41" t="s">
+        <v>283</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
       <c r="G194" s="9"/>
-      <c r="H194" s="9"/>
+      <c r="H194" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J194" s="9"/>
       <c r="K194" s="9"/>
       <c r="L194" s="9"/>
@@ -15648,9 +15661,7 @@
       <c r="X194" s="9"/>
       <c r="Y194" s="9"/>
       <c r="Z194" s="9"/>
-      <c r="AA194" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AA194" s="9"/>
       <c r="AB194" s="9"/>
       <c r="AD194" s="9"/>
       <c r="AE194" s="9"/>
@@ -15660,10 +15671,10 @@
     </row>
     <row r="195" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
-        <v>49</v>
-      </c>
-      <c r="B195" s="43" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
@@ -15687,7 +15698,9 @@
       <c r="X195" s="9"/>
       <c r="Y195" s="9"/>
       <c r="Z195" s="9"/>
-      <c r="AA195" s="9"/>
+      <c r="AA195" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AB195" s="9"/>
       <c r="AD195" s="9"/>
       <c r="AE195" s="9"/>
@@ -15696,16 +15709,16 @@
       <c r="AI195" s="8"/>
     </row>
     <row r="196" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A196" s="6"/>
-      <c r="B196" s="41" t="s">
-        <v>284</v>
+      <c r="A196" s="6">
+        <v>49</v>
+      </c>
+      <c r="B196" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
-      <c r="F196" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F196" s="9"/>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
       <c r="J196" s="9"/>
@@ -15735,16 +15748,16 @@
     <row r="197" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
-      <c r="F197" s="9"/>
+      <c r="F197" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G197" s="9"/>
-      <c r="H197" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H197" s="9"/>
       <c r="J197" s="9"/>
       <c r="K197" s="9"/>
       <c r="L197" s="9"/>
@@ -15770,20 +15783,18 @@
       <c r="AI197" s="8"/>
     </row>
     <row r="198" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A198" s="6">
-        <v>50</v>
-      </c>
-      <c r="B198" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A198" s="6"/>
+      <c r="B198" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
       <c r="G198" s="9"/>
-      <c r="H198" s="9"/>
+      <c r="H198" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J198" s="9"/>
       <c r="K198" s="9"/>
       <c r="L198" s="9"/>
@@ -15810,12 +15821,14 @@
     </row>
     <row r="199" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
-        <v>51</v>
-      </c>
-      <c r="B199" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C199" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="B199" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
@@ -15834,9 +15847,7 @@
       <c r="U199" s="9"/>
       <c r="V199" s="9"/>
       <c r="W199" s="9"/>
-      <c r="X199" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="X199" s="9"/>
       <c r="Y199" s="9"/>
       <c r="Z199" s="9"/>
       <c r="AA199" s="9"/>
@@ -15848,14 +15859,14 @@
       <c r="AI199" s="8"/>
     </row>
     <row r="200" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A200" s="6"/>
-      <c r="B200" s="41" t="s">
-        <v>445</v>
+      <c r="A200" s="6">
+        <v>51</v>
+      </c>
+      <c r="B200" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C200" s="9"/>
-      <c r="D200" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="D200" s="9"/>
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
       <c r="G200" s="9"/>
@@ -15873,7 +15884,9 @@
       <c r="U200" s="9"/>
       <c r="V200" s="9"/>
       <c r="W200" s="9"/>
-      <c r="X200" s="9"/>
+      <c r="X200" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="Y200" s="9"/>
       <c r="Z200" s="9"/>
       <c r="AA200" s="9"/>
@@ -15887,16 +15900,16 @@
     <row r="201" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C201" s="9"/>
-      <c r="D201" s="9"/>
+      <c r="D201" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
       <c r="G201" s="9"/>
-      <c r="H201" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H201" s="9"/>
       <c r="J201" s="9"/>
       <c r="K201" s="9"/>
       <c r="L201" s="9"/>
@@ -15924,16 +15937,16 @@
     <row r="202" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="41" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
-      <c r="F202" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F202" s="9"/>
       <c r="G202" s="9"/>
-      <c r="H202" s="9"/>
+      <c r="H202" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J202" s="9"/>
       <c r="K202" s="9"/>
       <c r="L202" s="9"/>
@@ -15961,15 +15974,15 @@
     <row r="203" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
-      <c r="F203" s="9"/>
-      <c r="G203" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F203" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G203" s="9"/>
       <c r="H203" s="9"/>
       <c r="J203" s="9"/>
       <c r="K203" s="9"/>
@@ -15996,17 +16009,17 @@
       <c r="AI203" s="8"/>
     </row>
     <row r="204" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A204" s="6">
-        <v>52</v>
-      </c>
-      <c r="B204" s="43" t="s">
-        <v>150</v>
+      <c r="A204" s="6"/>
+      <c r="B204" s="41" t="s">
+        <v>448</v>
       </c>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
-      <c r="G204" s="9"/>
+      <c r="G204" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H204" s="9"/>
       <c r="J204" s="9"/>
       <c r="K204" s="9"/>
@@ -16033,16 +16046,16 @@
       <c r="AI204" s="8"/>
     </row>
     <row r="205" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A205" s="6"/>
-      <c r="B205" s="41" t="s">
-        <v>389</v>
+      <c r="A205" s="6">
+        <v>52</v>
+      </c>
+      <c r="B205" s="43" t="s">
+        <v>150</v>
       </c>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
-      <c r="F205" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F205" s="9"/>
       <c r="G205" s="9"/>
       <c r="H205" s="9"/>
       <c r="J205" s="9"/>
@@ -16054,9 +16067,7 @@
       <c r="P205" s="9"/>
       <c r="Q205" s="9"/>
       <c r="R205" s="9"/>
-      <c r="T205" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T205" s="9"/>
       <c r="U205" s="9"/>
       <c r="V205" s="9"/>
       <c r="W205" s="9"/>
@@ -16065,9 +16076,7 @@
       <c r="Z205" s="9"/>
       <c r="AA205" s="9"/>
       <c r="AB205" s="9"/>
-      <c r="AD205" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD205" s="9"/>
       <c r="AE205" s="9"/>
       <c r="AF205" s="9"/>
       <c r="AG205" s="9"/>
@@ -16076,7 +16085,7 @@
     <row r="206" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="41" t="s">
-        <v>286</v>
+        <v>389</v>
       </c>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
@@ -16095,10 +16104,10 @@
       <c r="P206" s="9"/>
       <c r="Q206" s="9"/>
       <c r="R206" s="9"/>
-      <c r="T206" s="9"/>
-      <c r="U206" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T206" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U206" s="9"/>
       <c r="V206" s="9"/>
       <c r="W206" s="9"/>
       <c r="X206" s="9"/>
@@ -16106,7 +16115,9 @@
       <c r="Z206" s="9"/>
       <c r="AA206" s="9"/>
       <c r="AB206" s="9"/>
-      <c r="AD206" s="9"/>
+      <c r="AD206" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE206" s="9"/>
       <c r="AF206" s="9"/>
       <c r="AG206" s="9"/>
@@ -16115,7 +16126,7 @@
     <row r="207" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
@@ -16135,10 +16146,10 @@
       <c r="Q207" s="9"/>
       <c r="R207" s="9"/>
       <c r="T207" s="9"/>
-      <c r="U207" s="9"/>
-      <c r="V207" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U207" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V207" s="9"/>
       <c r="W207" s="9"/>
       <c r="X207" s="9"/>
       <c r="Y207" s="9"/>
@@ -16154,7 +16165,7 @@
     <row r="208" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
@@ -16175,10 +16186,10 @@
       <c r="R208" s="9"/>
       <c r="T208" s="9"/>
       <c r="U208" s="9"/>
-      <c r="V208" s="9"/>
-      <c r="W208" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V208" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W208" s="9"/>
       <c r="X208" s="9"/>
       <c r="Y208" s="9"/>
       <c r="Z208" s="9"/>
@@ -16193,15 +16204,15 @@
     <row r="209" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="41" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
-      <c r="F209" s="9"/>
-      <c r="G209" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F209" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G209" s="9"/>
       <c r="H209" s="9"/>
       <c r="J209" s="9"/>
       <c r="K209" s="9"/>
@@ -16212,20 +16223,18 @@
       <c r="P209" s="9"/>
       <c r="Q209" s="9"/>
       <c r="R209" s="9"/>
-      <c r="T209" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T209" s="9"/>
       <c r="U209" s="9"/>
       <c r="V209" s="9"/>
-      <c r="W209" s="9"/>
+      <c r="W209" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X209" s="9"/>
       <c r="Y209" s="9"/>
       <c r="Z209" s="9"/>
       <c r="AA209" s="9"/>
       <c r="AB209" s="9"/>
-      <c r="AD209" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD209" s="9"/>
       <c r="AE209" s="9"/>
       <c r="AF209" s="9"/>
       <c r="AG209" s="9"/>
@@ -16234,7 +16243,7 @@
     <row r="210" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="41" t="s">
-        <v>289</v>
+        <v>388</v>
       </c>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
@@ -16253,10 +16262,10 @@
       <c r="P210" s="9"/>
       <c r="Q210" s="9"/>
       <c r="R210" s="9"/>
-      <c r="T210" s="9"/>
-      <c r="U210" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T210" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U210" s="9"/>
       <c r="V210" s="9"/>
       <c r="W210" s="9"/>
       <c r="X210" s="9"/>
@@ -16264,7 +16273,9 @@
       <c r="Z210" s="9"/>
       <c r="AA210" s="9"/>
       <c r="AB210" s="9"/>
-      <c r="AD210" s="9"/>
+      <c r="AD210" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE210" s="9"/>
       <c r="AF210" s="9"/>
       <c r="AG210" s="9"/>
@@ -16273,7 +16284,7 @@
     <row r="211" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
@@ -16293,10 +16304,10 @@
       <c r="Q211" s="9"/>
       <c r="R211" s="9"/>
       <c r="T211" s="9"/>
-      <c r="U211" s="9"/>
-      <c r="V211" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U211" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V211" s="9"/>
       <c r="W211" s="9"/>
       <c r="X211" s="9"/>
       <c r="Y211" s="9"/>
@@ -16312,7 +16323,7 @@
     <row r="212" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
@@ -16333,10 +16344,10 @@
       <c r="R212" s="9"/>
       <c r="T212" s="9"/>
       <c r="U212" s="9"/>
-      <c r="V212" s="9"/>
-      <c r="W212" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V212" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W212" s="9"/>
       <c r="X212" s="9"/>
       <c r="Y212" s="9"/>
       <c r="Z212" s="9"/>
@@ -16349,17 +16360,17 @@
       <c r="AI212" s="8"/>
     </row>
     <row r="213" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A213" s="6">
-        <v>53</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>45</v>
+      <c r="A213" s="6"/>
+      <c r="B213" s="41" t="s">
+        <v>291</v>
       </c>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
       <c r="F213" s="9"/>
-      <c r="G213" s="9"/>
+      <c r="G213" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H213" s="9"/>
       <c r="J213" s="9"/>
       <c r="K213" s="9"/>
@@ -16373,13 +16384,13 @@
       <c r="T213" s="9"/>
       <c r="U213" s="9"/>
       <c r="V213" s="9"/>
-      <c r="W213" s="9"/>
+      <c r="W213" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X213" s="9"/>
       <c r="Y213" s="9"/>
       <c r="Z213" s="9"/>
-      <c r="AA213" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AA213" s="9"/>
       <c r="AB213" s="9"/>
       <c r="AD213" s="9"/>
       <c r="AE213" s="9"/>
@@ -16389,10 +16400,10 @@
     </row>
     <row r="214" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
-        <v>54</v>
-      </c>
-      <c r="B214" s="43" t="s">
-        <v>91</v>
+        <v>53</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
@@ -16416,7 +16427,9 @@
       <c r="X214" s="9"/>
       <c r="Y214" s="9"/>
       <c r="Z214" s="9"/>
-      <c r="AA214" s="9"/>
+      <c r="AA214" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AB214" s="9"/>
       <c r="AD214" s="9"/>
       <c r="AE214" s="9"/>
@@ -16425,14 +16438,14 @@
       <c r="AI214" s="8"/>
     </row>
     <row r="215" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A215" s="6"/>
-      <c r="B215" s="41" t="s">
-        <v>431</v>
+      <c r="A215" s="6">
+        <v>54</v>
+      </c>
+      <c r="B215" s="43" t="s">
+        <v>91</v>
       </c>
       <c r="C215" s="9"/>
-      <c r="D215" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="D215" s="9"/>
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
       <c r="G215" s="9"/>
@@ -16464,14 +16477,14 @@
     <row r="216" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="41" t="s">
-        <v>292</v>
+        <v>431</v>
       </c>
       <c r="C216" s="9"/>
-      <c r="D216" s="9"/>
+      <c r="D216" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="E216" s="9"/>
-      <c r="F216" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F216" s="9"/>
       <c r="G216" s="9"/>
       <c r="H216" s="9"/>
       <c r="J216" s="9"/>
@@ -16501,16 +16514,16 @@
     <row r="217" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
-      <c r="F217" s="9"/>
+      <c r="F217" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G217" s="9"/>
-      <c r="H217" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H217" s="9"/>
       <c r="J217" s="9"/>
       <c r="K217" s="9"/>
       <c r="L217" s="9"/>
@@ -16536,18 +16549,18 @@
       <c r="AI217" s="8"/>
     </row>
     <row r="218" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A218" s="6">
-        <v>55</v>
-      </c>
-      <c r="B218" s="43" t="s">
-        <v>68</v>
+      <c r="A218" s="6"/>
+      <c r="B218" s="41" t="s">
+        <v>293</v>
       </c>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
       <c r="G218" s="9"/>
-      <c r="H218" s="9"/>
+      <c r="H218" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J218" s="9"/>
       <c r="K218" s="9"/>
       <c r="L218" s="9"/>
@@ -16573,16 +16586,16 @@
       <c r="AI218" s="8"/>
     </row>
     <row r="219" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A219" s="6"/>
-      <c r="B219" s="41" t="s">
-        <v>294</v>
+      <c r="A219" s="6">
+        <v>55</v>
+      </c>
+      <c r="B219" s="43" t="s">
+        <v>68</v>
       </c>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
-      <c r="F219" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F219" s="9"/>
       <c r="G219" s="9"/>
       <c r="H219" s="9"/>
       <c r="J219" s="9"/>
@@ -16593,13 +16606,9 @@
       <c r="O219" s="9"/>
       <c r="P219" s="9"/>
       <c r="Q219" s="9"/>
-      <c r="R219" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="R219" s="9"/>
       <c r="T219" s="9"/>
-      <c r="U219" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U219" s="9"/>
       <c r="V219" s="9"/>
       <c r="W219" s="9"/>
       <c r="X219" s="9"/>
@@ -16616,7 +16625,7 @@
     <row r="220" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
@@ -16638,10 +16647,10 @@
         <v>108</v>
       </c>
       <c r="T220" s="9"/>
-      <c r="U220" s="9"/>
-      <c r="V220" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U220" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V220" s="9"/>
       <c r="W220" s="9"/>
       <c r="X220" s="9"/>
       <c r="Y220" s="9"/>
@@ -16657,7 +16666,7 @@
     <row r="221" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
@@ -16680,10 +16689,10 @@
       </c>
       <c r="T221" s="9"/>
       <c r="U221" s="9"/>
-      <c r="V221" s="9"/>
-      <c r="W221" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V221" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W221" s="9"/>
       <c r="X221" s="9"/>
       <c r="Y221" s="9"/>
       <c r="Z221" s="9"/>
@@ -16698,15 +16707,15 @@
     <row r="222" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
-      <c r="F222" s="9"/>
-      <c r="G222" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F222" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G222" s="9"/>
       <c r="H222" s="9"/>
       <c r="J222" s="9"/>
       <c r="K222" s="9"/>
@@ -16720,11 +16729,11 @@
         <v>108</v>
       </c>
       <c r="T222" s="9"/>
-      <c r="U222" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U222" s="9"/>
       <c r="V222" s="9"/>
-      <c r="W222" s="9"/>
+      <c r="W222" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X222" s="9"/>
       <c r="Y222" s="9"/>
       <c r="Z222" s="9"/>
@@ -16739,7 +16748,7 @@
     <row r="223" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
@@ -16761,10 +16770,10 @@
         <v>108</v>
       </c>
       <c r="T223" s="9"/>
-      <c r="U223" s="9"/>
-      <c r="V223" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U223" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V223" s="9"/>
       <c r="W223" s="9"/>
       <c r="X223" s="9"/>
       <c r="Y223" s="9"/>
@@ -16780,7 +16789,7 @@
     <row r="224" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
@@ -16803,10 +16812,10 @@
       </c>
       <c r="T224" s="9"/>
       <c r="U224" s="9"/>
-      <c r="V224" s="9"/>
-      <c r="W224" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V224" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W224" s="9"/>
       <c r="X224" s="9"/>
       <c r="Y224" s="9"/>
       <c r="Z224" s="9"/>
@@ -16819,17 +16828,17 @@
       <c r="AI224" s="8"/>
     </row>
     <row r="225" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A225" s="6">
-        <v>56</v>
-      </c>
-      <c r="B225" s="43" t="s">
-        <v>133</v>
+      <c r="A225" s="6"/>
+      <c r="B225" s="41" t="s">
+        <v>299</v>
       </c>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
-      <c r="G225" s="9"/>
+      <c r="G225" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H225" s="9"/>
       <c r="J225" s="9"/>
       <c r="K225" s="9"/>
@@ -16839,11 +16848,15 @@
       <c r="O225" s="9"/>
       <c r="P225" s="9"/>
       <c r="Q225" s="9"/>
-      <c r="R225" s="9"/>
+      <c r="R225" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="T225" s="9"/>
       <c r="U225" s="9"/>
       <c r="V225" s="9"/>
-      <c r="W225" s="9"/>
+      <c r="W225" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X225" s="9"/>
       <c r="Y225" s="9"/>
       <c r="Z225" s="9"/>
@@ -16856,16 +16869,16 @@
       <c r="AI225" s="8"/>
     </row>
     <row r="226" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A226" s="6"/>
-      <c r="B226" s="40" t="s">
-        <v>300</v>
+      <c r="A226" s="6">
+        <v>56</v>
+      </c>
+      <c r="B226" s="43" t="s">
+        <v>133</v>
       </c>
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
-      <c r="F226" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F226" s="9"/>
       <c r="G226" s="9"/>
       <c r="H226" s="9"/>
       <c r="J226" s="9"/>
@@ -16895,16 +16908,16 @@
     <row r="227" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
-      <c r="F227" s="9"/>
+      <c r="F227" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G227" s="9"/>
-      <c r="H227" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H227" s="9"/>
       <c r="J227" s="9"/>
       <c r="K227" s="9"/>
       <c r="L227" s="9"/>
@@ -16930,20 +16943,18 @@
       <c r="AI227" s="8"/>
     </row>
     <row r="228" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A228" s="6">
-        <v>57</v>
-      </c>
-      <c r="B228" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C228" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A228" s="6"/>
+      <c r="B228" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="C228" s="9"/>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
       <c r="F228" s="9"/>
       <c r="G228" s="9"/>
-      <c r="H228" s="9"/>
+      <c r="H228" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J228" s="9"/>
       <c r="K228" s="9"/>
       <c r="L228" s="9"/>
@@ -16970,10 +16981,10 @@
     </row>
     <row r="229" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B229" s="42" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C229" s="9" t="s">
         <v>108</v>
@@ -17009,12 +17020,14 @@
     </row>
     <row r="230" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
-        <v>59</v>
-      </c>
-      <c r="B230" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C230" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="B230" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
       <c r="F230" s="9"/>
@@ -17045,16 +17058,16 @@
       <c r="AI230" s="8"/>
     </row>
     <row r="231" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A231" s="6"/>
-      <c r="B231" s="40" t="s">
-        <v>302</v>
+      <c r="A231" s="6">
+        <v>59</v>
+      </c>
+      <c r="B231" s="43" t="s">
+        <v>78</v>
       </c>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
-      <c r="F231" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F231" s="9"/>
       <c r="G231" s="9"/>
       <c r="H231" s="9"/>
       <c r="J231" s="9"/>
@@ -17084,16 +17097,16 @@
     <row r="232" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
-      <c r="F232" s="9"/>
+      <c r="F232" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G232" s="9"/>
-      <c r="H232" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H232" s="9"/>
       <c r="J232" s="9"/>
       <c r="K232" s="9"/>
       <c r="L232" s="9"/>
@@ -17119,18 +17132,18 @@
       <c r="AI232" s="8"/>
     </row>
     <row r="233" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A233" s="6">
-        <v>60</v>
-      </c>
-      <c r="B233" s="43" t="s">
-        <v>37</v>
+      <c r="A233" s="6"/>
+      <c r="B233" s="40" t="s">
+        <v>303</v>
       </c>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
       <c r="G233" s="9"/>
-      <c r="H233" s="9"/>
+      <c r="H233" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J233" s="9"/>
       <c r="K233" s="9"/>
       <c r="L233" s="9"/>
@@ -17156,9 +17169,11 @@
       <c r="AI233" s="8"/>
     </row>
     <row r="234" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A234" s="6"/>
-      <c r="B234" s="41" t="s">
-        <v>432</v>
+      <c r="A234" s="6">
+        <v>60</v>
+      </c>
+      <c r="B234" s="43" t="s">
+        <v>37</v>
       </c>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
@@ -17175,9 +17190,7 @@
       <c r="P234" s="9"/>
       <c r="Q234" s="9"/>
       <c r="R234" s="9"/>
-      <c r="T234" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T234" s="9"/>
       <c r="U234" s="9"/>
       <c r="V234" s="9"/>
       <c r="W234" s="9"/>
@@ -17186,9 +17199,7 @@
       <c r="Z234" s="9"/>
       <c r="AA234" s="9"/>
       <c r="AB234" s="9"/>
-      <c r="AD234" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD234" s="9"/>
       <c r="AE234" s="9"/>
       <c r="AF234" s="9"/>
       <c r="AG234" s="9"/>
@@ -17197,14 +17208,12 @@
     <row r="235" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="41" t="s">
-        <v>304</v>
+        <v>432</v>
       </c>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
-      <c r="F235" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F235" s="9"/>
       <c r="G235" s="9"/>
       <c r="H235" s="9"/>
       <c r="J235" s="9"/>
@@ -17216,7 +17225,9 @@
       <c r="P235" s="9"/>
       <c r="Q235" s="9"/>
       <c r="R235" s="9"/>
-      <c r="T235" s="9"/>
+      <c r="T235" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="U235" s="9"/>
       <c r="V235" s="9"/>
       <c r="W235" s="9"/>
@@ -17225,7 +17236,9 @@
       <c r="Z235" s="9"/>
       <c r="AA235" s="9"/>
       <c r="AB235" s="9"/>
-      <c r="AD235" s="9"/>
+      <c r="AD235" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE235" s="9"/>
       <c r="AF235" s="9"/>
       <c r="AG235" s="9"/>
@@ -17234,16 +17247,16 @@
     <row r="236" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
-      <c r="F236" s="9"/>
+      <c r="F236" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G236" s="9"/>
-      <c r="H236" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H236" s="9"/>
       <c r="J236" s="9"/>
       <c r="K236" s="9"/>
       <c r="L236" s="9"/>
@@ -17269,20 +17282,18 @@
       <c r="AI236" s="8"/>
     </row>
     <row r="237" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A237" s="6">
-        <v>61</v>
-      </c>
-      <c r="B237" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C237" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A237" s="6"/>
+      <c r="B237" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="C237" s="9"/>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
       <c r="G237" s="9"/>
-      <c r="H237" s="9"/>
+      <c r="H237" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J237" s="9"/>
       <c r="K237" s="9"/>
       <c r="L237" s="9"/>
@@ -17309,10 +17320,10 @@
     </row>
     <row r="238" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="C238" s="9" t="s">
         <v>108</v>
@@ -17348,10 +17359,10 @@
     </row>
     <row r="239" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C239" s="9" t="s">
         <v>108</v>
@@ -17387,10 +17398,10 @@
     </row>
     <row r="240" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C240" s="9" t="s">
         <v>108</v>
@@ -17426,10 +17437,10 @@
     </row>
     <row r="241" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>108</v>
@@ -17465,12 +17476,14 @@
     </row>
     <row r="242" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
-        <v>66</v>
-      </c>
-      <c r="B242" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C242" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
@@ -17501,16 +17514,16 @@
       <c r="AI242" s="8"/>
     </row>
     <row r="243" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A243" s="6"/>
-      <c r="B243" s="40" t="s">
-        <v>306</v>
+      <c r="A243" s="6">
+        <v>66</v>
+      </c>
+      <c r="B243" s="43" t="s">
+        <v>83</v>
       </c>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
       <c r="E243" s="9"/>
-      <c r="F243" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F243" s="9"/>
       <c r="G243" s="9"/>
       <c r="H243" s="9"/>
       <c r="J243" s="9"/>
@@ -17523,9 +17536,7 @@
       <c r="Q243" s="9"/>
       <c r="R243" s="9"/>
       <c r="T243" s="9"/>
-      <c r="U243" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U243" s="9"/>
       <c r="V243" s="9"/>
       <c r="W243" s="9"/>
       <c r="X243" s="9"/>
@@ -17542,7 +17553,7 @@
     <row r="244" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
@@ -17562,10 +17573,10 @@
       <c r="Q244" s="9"/>
       <c r="R244" s="9"/>
       <c r="T244" s="9"/>
-      <c r="U244" s="9"/>
-      <c r="V244" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U244" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V244" s="9"/>
       <c r="W244" s="9"/>
       <c r="X244" s="9"/>
       <c r="Y244" s="9"/>
@@ -17581,7 +17592,7 @@
     <row r="245" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
@@ -17602,10 +17613,10 @@
       <c r="R245" s="9"/>
       <c r="T245" s="9"/>
       <c r="U245" s="9"/>
-      <c r="V245" s="9"/>
-      <c r="W245" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V245" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W245" s="9"/>
       <c r="X245" s="9"/>
       <c r="Y245" s="9"/>
       <c r="Z245" s="9"/>
@@ -17620,15 +17631,15 @@
     <row r="246" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
-      <c r="F246" s="9"/>
-      <c r="G246" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F246" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G246" s="9"/>
       <c r="H246" s="9"/>
       <c r="J246" s="9"/>
       <c r="K246" s="9"/>
@@ -17640,11 +17651,11 @@
       <c r="Q246" s="9"/>
       <c r="R246" s="9"/>
       <c r="T246" s="9"/>
-      <c r="U246" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U246" s="9"/>
       <c r="V246" s="9"/>
-      <c r="W246" s="9"/>
+      <c r="W246" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X246" s="9"/>
       <c r="Y246" s="9"/>
       <c r="Z246" s="9"/>
@@ -17659,7 +17670,7 @@
     <row r="247" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
@@ -17679,10 +17690,10 @@
       <c r="Q247" s="9"/>
       <c r="R247" s="9"/>
       <c r="T247" s="9"/>
-      <c r="U247" s="9"/>
-      <c r="V247" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U247" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V247" s="9"/>
       <c r="W247" s="9"/>
       <c r="X247" s="9"/>
       <c r="Y247" s="9"/>
@@ -17698,7 +17709,7 @@
     <row r="248" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
@@ -17719,10 +17730,10 @@
       <c r="R248" s="9"/>
       <c r="T248" s="9"/>
       <c r="U248" s="9"/>
-      <c r="V248" s="9"/>
-      <c r="W248" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V248" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W248" s="9"/>
       <c r="X248" s="9"/>
       <c r="Y248" s="9"/>
       <c r="Z248" s="9"/>
@@ -17737,16 +17748,16 @@
     <row r="249" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
       <c r="E249" s="9"/>
       <c r="F249" s="9"/>
-      <c r="G249" s="9"/>
-      <c r="H249" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="G249" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H249" s="9"/>
       <c r="J249" s="9"/>
       <c r="K249" s="9"/>
       <c r="L249" s="9"/>
@@ -17757,11 +17768,11 @@
       <c r="Q249" s="9"/>
       <c r="R249" s="9"/>
       <c r="T249" s="9"/>
-      <c r="U249" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U249" s="9"/>
       <c r="V249" s="9"/>
-      <c r="W249" s="9"/>
+      <c r="W249" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X249" s="9"/>
       <c r="Y249" s="9"/>
       <c r="Z249" s="9"/>
@@ -17776,7 +17787,7 @@
     <row r="250" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
@@ -17796,10 +17807,10 @@
       <c r="Q250" s="9"/>
       <c r="R250" s="9"/>
       <c r="T250" s="9"/>
-      <c r="U250" s="9"/>
-      <c r="V250" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U250" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V250" s="9"/>
       <c r="W250" s="9"/>
       <c r="X250" s="9"/>
       <c r="Y250" s="9"/>
@@ -17815,7 +17826,7 @@
     <row r="251" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
@@ -17836,10 +17847,10 @@
       <c r="R251" s="9"/>
       <c r="T251" s="9"/>
       <c r="U251" s="9"/>
-      <c r="V251" s="9"/>
-      <c r="W251" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V251" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W251" s="9"/>
       <c r="X251" s="9"/>
       <c r="Y251" s="9"/>
       <c r="Z251" s="9"/>
@@ -17852,18 +17863,18 @@
       <c r="AI251" s="8"/>
     </row>
     <row r="252" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A252" s="6">
-        <v>67</v>
-      </c>
-      <c r="B252" s="43" t="s">
-        <v>41</v>
+      <c r="A252" s="6"/>
+      <c r="B252" s="40" t="s">
+        <v>314</v>
       </c>
       <c r="C252" s="9"/>
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
       <c r="F252" s="9"/>
       <c r="G252" s="9"/>
-      <c r="H252" s="9"/>
+      <c r="H252" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J252" s="9"/>
       <c r="K252" s="9"/>
       <c r="L252" s="9"/>
@@ -17876,13 +17887,13 @@
       <c r="T252" s="9"/>
       <c r="U252" s="9"/>
       <c r="V252" s="9"/>
-      <c r="W252" s="9"/>
+      <c r="W252" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X252" s="9"/>
       <c r="Y252" s="9"/>
       <c r="Z252" s="9"/>
-      <c r="AA252" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AA252" s="9"/>
       <c r="AB252" s="9"/>
       <c r="AD252" s="9"/>
       <c r="AE252" s="9"/>
@@ -17891,65 +17902,57 @@
       <c r="AI252" s="8"/>
     </row>
     <row r="253" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A253" s="6"/>
-      <c r="B253" s="45" t="s">
-        <v>416</v>
-      </c>
-      <c r="C253" s="48"/>
-      <c r="D253" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E253" s="48"/>
-      <c r="F253" s="48"/>
-      <c r="G253" s="48"/>
-      <c r="H253" s="48"/>
-      <c r="I253" s="49"/>
-      <c r="J253" s="48"/>
-      <c r="K253" s="48"/>
-      <c r="L253" s="48"/>
-      <c r="M253" s="48"/>
-      <c r="N253" s="48"/>
-      <c r="O253" s="48"/>
-      <c r="P253" s="48"/>
-      <c r="Q253" s="48"/>
-      <c r="R253" s="48"/>
-      <c r="S253" s="49"/>
-      <c r="T253" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="U253" s="48"/>
-      <c r="V253" s="48"/>
-      <c r="W253" s="48"/>
-      <c r="X253" s="48"/>
-      <c r="Y253" s="48"/>
-      <c r="Z253" s="48"/>
-      <c r="AA253" s="48"/>
-      <c r="AB253" s="48"/>
-      <c r="AC253" s="49"/>
-      <c r="AD253" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE253" s="48"/>
-      <c r="AF253" s="48"/>
-      <c r="AG253" s="48"/>
-      <c r="AH253" s="49"/>
-      <c r="AI253" s="50" t="s">
-        <v>465</v>
-      </c>
+      <c r="A253" s="6">
+        <v>67</v>
+      </c>
+      <c r="B253" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C253" s="9"/>
+      <c r="D253" s="9"/>
+      <c r="E253" s="9"/>
+      <c r="F253" s="9"/>
+      <c r="G253" s="9"/>
+      <c r="H253" s="9"/>
+      <c r="J253" s="9"/>
+      <c r="K253" s="9"/>
+      <c r="L253" s="9"/>
+      <c r="M253" s="9"/>
+      <c r="N253" s="9"/>
+      <c r="O253" s="9"/>
+      <c r="P253" s="9"/>
+      <c r="Q253" s="9"/>
+      <c r="R253" s="9"/>
+      <c r="T253" s="9"/>
+      <c r="U253" s="9"/>
+      <c r="V253" s="9"/>
+      <c r="W253" s="9"/>
+      <c r="X253" s="9"/>
+      <c r="Y253" s="9"/>
+      <c r="Z253" s="9"/>
+      <c r="AA253" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB253" s="9"/>
+      <c r="AD253" s="9"/>
+      <c r="AE253" s="9"/>
+      <c r="AF253" s="9"/>
+      <c r="AG253" s="9"/>
+      <c r="AI253" s="8"/>
     </row>
     <row r="254" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="45" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C254" s="48"/>
-      <c r="D254" s="48"/>
+      <c r="D254" s="48" t="s">
+        <v>108</v>
+      </c>
       <c r="E254" s="48"/>
       <c r="F254" s="48"/>
       <c r="G254" s="48"/>
-      <c r="H254" s="48" t="s">
-        <v>108</v>
-      </c>
+      <c r="H254" s="48"/>
       <c r="I254" s="49"/>
       <c r="J254" s="48"/>
       <c r="K254" s="48"/>
@@ -17961,7 +17964,9 @@
       <c r="Q254" s="48"/>
       <c r="R254" s="48"/>
       <c r="S254" s="49"/>
-      <c r="T254" s="48"/>
+      <c r="T254" s="48" t="s">
+        <v>108</v>
+      </c>
       <c r="U254" s="48"/>
       <c r="V254" s="48"/>
       <c r="W254" s="48"/>
@@ -17971,7 +17976,9 @@
       <c r="AA254" s="48"/>
       <c r="AB254" s="48"/>
       <c r="AC254" s="49"/>
-      <c r="AD254" s="48"/>
+      <c r="AD254" s="48" t="s">
+        <v>108</v>
+      </c>
       <c r="AE254" s="48"/>
       <c r="AF254" s="48"/>
       <c r="AG254" s="48"/>
@@ -17981,46 +17988,54 @@
       </c>
     </row>
     <row r="255" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A255" s="6">
+      <c r="A255" s="6"/>
+      <c r="B255" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="C255" s="48"/>
+      <c r="D255" s="48"/>
+      <c r="E255" s="48"/>
+      <c r="F255" s="48"/>
+      <c r="G255" s="48"/>
+      <c r="H255" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="I255" s="49"/>
+      <c r="J255" s="48"/>
+      <c r="K255" s="48"/>
+      <c r="L255" s="48"/>
+      <c r="M255" s="48"/>
+      <c r="N255" s="48"/>
+      <c r="O255" s="48"/>
+      <c r="P255" s="48"/>
+      <c r="Q255" s="48"/>
+      <c r="R255" s="48"/>
+      <c r="S255" s="49"/>
+      <c r="T255" s="48"/>
+      <c r="U255" s="48"/>
+      <c r="V255" s="48"/>
+      <c r="W255" s="48"/>
+      <c r="X255" s="48"/>
+      <c r="Y255" s="48"/>
+      <c r="Z255" s="48"/>
+      <c r="AA255" s="48"/>
+      <c r="AB255" s="48"/>
+      <c r="AC255" s="49"/>
+      <c r="AD255" s="48"/>
+      <c r="AE255" s="48"/>
+      <c r="AF255" s="48"/>
+      <c r="AG255" s="48"/>
+      <c r="AH255" s="49"/>
+      <c r="AI255" s="50" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="256" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A256" s="6">
         <v>68</v>
       </c>
-      <c r="B255" s="43" t="s">
+      <c r="B256" s="43" t="s">
         <v>42</v>
-      </c>
-      <c r="C255" s="9"/>
-      <c r="D255" s="9"/>
-      <c r="E255" s="9"/>
-      <c r="F255" s="9"/>
-      <c r="G255" s="9"/>
-      <c r="H255" s="9"/>
-      <c r="J255" s="9"/>
-      <c r="K255" s="9"/>
-      <c r="L255" s="9"/>
-      <c r="M255" s="9"/>
-      <c r="N255" s="9"/>
-      <c r="O255" s="9"/>
-      <c r="P255" s="9"/>
-      <c r="Q255" s="9"/>
-      <c r="R255" s="9"/>
-      <c r="T255" s="9"/>
-      <c r="U255" s="9"/>
-      <c r="V255" s="9"/>
-      <c r="W255" s="9"/>
-      <c r="X255" s="9"/>
-      <c r="Y255" s="9"/>
-      <c r="Z255" s="9"/>
-      <c r="AA255" s="9"/>
-      <c r="AB255" s="9"/>
-      <c r="AD255" s="9"/>
-      <c r="AE255" s="9"/>
-      <c r="AF255" s="9"/>
-      <c r="AG255" s="9"/>
-      <c r="AI255" s="8"/>
-    </row>
-    <row r="256" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A256" s="6"/>
-      <c r="B256" s="41" t="s">
-        <v>433</v>
       </c>
       <c r="C256" s="9"/>
       <c r="D256" s="9"/>
@@ -18055,14 +18070,12 @@
     <row r="257" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C257" s="9"/>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
-      <c r="F257" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F257" s="9"/>
       <c r="G257" s="9"/>
       <c r="H257" s="9"/>
       <c r="J257" s="9"/>
@@ -18092,16 +18105,16 @@
     <row r="258" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C258" s="9"/>
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
-      <c r="F258" s="9"/>
+      <c r="F258" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G258" s="9"/>
-      <c r="H258" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H258" s="9"/>
       <c r="J258" s="9"/>
       <c r="K258" s="9"/>
       <c r="L258" s="9"/>
@@ -18127,18 +18140,18 @@
       <c r="AI258" s="8"/>
     </row>
     <row r="259" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A259" s="6">
-        <v>69</v>
-      </c>
-      <c r="B259" s="43" t="s">
-        <v>62</v>
+      <c r="A259" s="6"/>
+      <c r="B259" s="41" t="s">
+        <v>435</v>
       </c>
       <c r="C259" s="9"/>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
       <c r="F259" s="9"/>
       <c r="G259" s="9"/>
-      <c r="H259" s="9"/>
+      <c r="H259" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J259" s="9"/>
       <c r="K259" s="9"/>
       <c r="L259" s="9"/>
@@ -18164,24 +18177,18 @@
       <c r="AI259" s="8"/>
     </row>
     <row r="260" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A260" s="6"/>
-      <c r="B260" s="41" t="s">
+      <c r="A260" s="6">
+        <v>69</v>
+      </c>
+      <c r="B260" s="43" t="s">
         <v>62</v>
       </c>
       <c r="C260" s="9"/>
-      <c r="D260" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="D260" s="9"/>
       <c r="E260" s="9"/>
-      <c r="F260" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G260" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H260" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F260" s="9"/>
+      <c r="G260" s="9"/>
+      <c r="H260" s="9"/>
       <c r="J260" s="9"/>
       <c r="K260" s="9"/>
       <c r="L260" s="9"/>
@@ -18191,50 +18198,40 @@
       <c r="P260" s="9"/>
       <c r="Q260" s="9"/>
       <c r="R260" s="9"/>
-      <c r="T260" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U260" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="V260" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="W260" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T260" s="9"/>
+      <c r="U260" s="9"/>
+      <c r="V260" s="9"/>
+      <c r="W260" s="9"/>
       <c r="X260" s="9"/>
       <c r="Y260" s="9"/>
       <c r="Z260" s="9"/>
       <c r="AA260" s="9"/>
       <c r="AB260" s="9"/>
-      <c r="AD260" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE260" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF260" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG260" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD260" s="9"/>
+      <c r="AE260" s="9"/>
+      <c r="AF260" s="9"/>
+      <c r="AG260" s="9"/>
       <c r="AI260" s="8"/>
     </row>
     <row r="261" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A261" s="6">
-        <v>70</v>
-      </c>
-      <c r="B261" s="43" t="s">
-        <v>20</v>
+      <c r="A261" s="6"/>
+      <c r="B261" s="41" t="s">
+        <v>62</v>
       </c>
       <c r="C261" s="9"/>
-      <c r="D261" s="9"/>
+      <c r="D261" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="E261" s="9"/>
-      <c r="F261" s="9"/>
-      <c r="G261" s="9"/>
-      <c r="H261" s="9"/>
+      <c r="F261" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G261" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H261" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J261" s="9"/>
       <c r="K261" s="9"/>
       <c r="L261" s="9"/>
@@ -18244,25 +18241,43 @@
       <c r="P261" s="9"/>
       <c r="Q261" s="9"/>
       <c r="R261" s="9"/>
-      <c r="T261" s="9"/>
-      <c r="U261" s="9"/>
-      <c r="V261" s="9"/>
-      <c r="W261" s="9"/>
+      <c r="T261" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U261" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V261" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W261" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X261" s="9"/>
       <c r="Y261" s="9"/>
       <c r="Z261" s="9"/>
       <c r="AA261" s="9"/>
       <c r="AB261" s="9"/>
-      <c r="AD261" s="9"/>
-      <c r="AE261" s="9"/>
-      <c r="AF261" s="9"/>
-      <c r="AG261" s="9"/>
+      <c r="AD261" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE261" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF261" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG261" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AI261" s="8"/>
     </row>
     <row r="262" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A262" s="6"/>
-      <c r="B262" s="41" t="s">
-        <v>422</v>
+      <c r="A262" s="6">
+        <v>70</v>
+      </c>
+      <c r="B262" s="43" t="s">
+        <v>20</v>
       </c>
       <c r="C262" s="9"/>
       <c r="D262" s="9"/>
@@ -18279,9 +18294,7 @@
       <c r="P262" s="9"/>
       <c r="Q262" s="9"/>
       <c r="R262" s="9"/>
-      <c r="T262" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T262" s="9"/>
       <c r="U262" s="9"/>
       <c r="V262" s="9"/>
       <c r="W262" s="9"/>
@@ -18290,9 +18303,7 @@
       <c r="Z262" s="9"/>
       <c r="AA262" s="9"/>
       <c r="AB262" s="9"/>
-      <c r="AD262" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD262" s="9"/>
       <c r="AE262" s="9"/>
       <c r="AF262" s="9"/>
       <c r="AG262" s="9"/>
@@ -18301,16 +18312,14 @@
     <row r="263" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="41" t="s">
-        <v>316</v>
+        <v>422</v>
       </c>
       <c r="C263" s="9"/>
       <c r="D263" s="9"/>
       <c r="E263" s="9"/>
       <c r="F263" s="9"/>
       <c r="G263" s="9"/>
-      <c r="H263" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H263" s="9"/>
       <c r="J263" s="9"/>
       <c r="K263" s="9"/>
       <c r="L263" s="9"/>
@@ -18320,7 +18329,9 @@
       <c r="P263" s="9"/>
       <c r="Q263" s="9"/>
       <c r="R263" s="9"/>
-      <c r="T263" s="9"/>
+      <c r="T263" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="U263" s="9"/>
       <c r="V263" s="9"/>
       <c r="W263" s="9"/>
@@ -18329,7 +18340,9 @@
       <c r="Z263" s="9"/>
       <c r="AA263" s="9"/>
       <c r="AB263" s="9"/>
-      <c r="AD263" s="9"/>
+      <c r="AD263" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE263" s="9"/>
       <c r="AF263" s="9"/>
       <c r="AG263" s="9"/>
@@ -18338,16 +18351,16 @@
     <row r="264" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="41" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C264" s="9"/>
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
-      <c r="F264" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F264" s="9"/>
       <c r="G264" s="9"/>
-      <c r="H264" s="9"/>
+      <c r="H264" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J264" s="9"/>
       <c r="K264" s="9"/>
       <c r="L264" s="9"/>
@@ -18373,16 +18386,16 @@
       <c r="AI264" s="8"/>
     </row>
     <row r="265" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A265" s="6">
-        <v>71</v>
-      </c>
-      <c r="B265" s="43" t="s">
-        <v>27</v>
+      <c r="A265" s="6"/>
+      <c r="B265" s="41" t="s">
+        <v>315</v>
       </c>
       <c r="C265" s="9"/>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
-      <c r="F265" s="9"/>
+      <c r="F265" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G265" s="9"/>
       <c r="H265" s="9"/>
       <c r="J265" s="9"/>
@@ -18410,16 +18423,16 @@
       <c r="AI265" s="8"/>
     </row>
     <row r="266" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A266" s="6"/>
-      <c r="B266" s="40" t="s">
-        <v>317</v>
+      <c r="A266" s="6">
+        <v>71</v>
+      </c>
+      <c r="B266" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="C266" s="9"/>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
-      <c r="F266" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F266" s="9"/>
       <c r="G266" s="9"/>
       <c r="H266" s="9"/>
       <c r="J266" s="9"/>
@@ -18448,17 +18461,17 @@
     </row>
     <row r="267" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
-      <c r="B267" s="40" t="s">
-        <v>318</v>
+      <c r="B267" s="41" t="s">
+        <v>317</v>
       </c>
       <c r="C267" s="9"/>
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
-      <c r="F267" s="9"/>
+      <c r="F267" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G267" s="9"/>
-      <c r="H267" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H267" s="9"/>
       <c r="J267" s="9"/>
       <c r="K267" s="9"/>
       <c r="L267" s="9"/>
@@ -18484,18 +18497,18 @@
       <c r="AI267" s="8"/>
     </row>
     <row r="268" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A268" s="6">
-        <v>72</v>
-      </c>
-      <c r="B268" s="43" t="s">
-        <v>80</v>
+      <c r="A268" s="6"/>
+      <c r="B268" s="41" t="s">
+        <v>318</v>
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
       <c r="F268" s="9"/>
       <c r="G268" s="9"/>
-      <c r="H268" s="9"/>
+      <c r="H268" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J268" s="9"/>
       <c r="K268" s="9"/>
       <c r="L268" s="9"/>
@@ -18521,16 +18534,16 @@
       <c r="AI268" s="8"/>
     </row>
     <row r="269" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A269" s="6"/>
-      <c r="B269" s="41" t="s">
-        <v>407</v>
+      <c r="A269" s="6">
+        <v>72</v>
+      </c>
+      <c r="B269" s="43" t="s">
+        <v>80</v>
       </c>
       <c r="C269" s="9"/>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
-      <c r="F269" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F269" s="9"/>
       <c r="G269" s="9"/>
       <c r="H269" s="9"/>
       <c r="J269" s="9"/>
@@ -18560,15 +18573,15 @@
     <row r="270" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C270" s="9"/>
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
-      <c r="F270" s="9"/>
-      <c r="G270" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F270" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G270" s="9"/>
       <c r="H270" s="9"/>
       <c r="J270" s="9"/>
       <c r="K270" s="9"/>
@@ -18595,19 +18608,17 @@
       <c r="AI270" s="8"/>
     </row>
     <row r="271" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A271" s="6">
-        <v>73</v>
-      </c>
-      <c r="B271" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C271" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A271" s="6"/>
+      <c r="B271" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="C271" s="9"/>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
       <c r="F271" s="9"/>
-      <c r="G271" s="9"/>
+      <c r="G271" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H271" s="9"/>
       <c r="J271" s="9"/>
       <c r="K271" s="9"/>
@@ -18635,10 +18646,10 @@
     </row>
     <row r="272" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B272" s="42" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C272" s="9" t="s">
         <v>108</v>
@@ -18674,10 +18685,10 @@
     </row>
     <row r="273" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
-        <v>75</v>
-      </c>
-      <c r="B273" s="43" t="s">
-        <v>132</v>
+        <v>74</v>
+      </c>
+      <c r="B273" s="42" t="s">
+        <v>25</v>
       </c>
       <c r="C273" s="9" t="s">
         <v>108</v>
@@ -18712,11 +18723,15 @@
       <c r="AI273" s="8"/>
     </row>
     <row r="274" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A274" s="6"/>
-      <c r="B274" s="41" t="s">
-        <v>441</v>
-      </c>
-      <c r="C274" s="9"/>
+      <c r="A274" s="6">
+        <v>75</v>
+      </c>
+      <c r="B274" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
       <c r="F274" s="9"/>
@@ -18749,16 +18764,14 @@
     <row r="275" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="41" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C275" s="9"/>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
       <c r="F275" s="9"/>
       <c r="G275" s="9"/>
-      <c r="H275" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H275" s="9"/>
       <c r="J275" s="9"/>
       <c r="K275" s="9"/>
       <c r="L275" s="9"/>
@@ -18786,16 +18799,16 @@
     <row r="276" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="41" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C276" s="9"/>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
-      <c r="F276" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F276" s="9"/>
       <c r="G276" s="9"/>
-      <c r="H276" s="9"/>
+      <c r="H276" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J276" s="9"/>
       <c r="K276" s="9"/>
       <c r="L276" s="9"/>
@@ -18823,15 +18836,15 @@
     <row r="277" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="41" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C277" s="9"/>
       <c r="D277" s="9"/>
       <c r="E277" s="9"/>
-      <c r="F277" s="9"/>
-      <c r="G277" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F277" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G277" s="9"/>
       <c r="H277" s="9"/>
       <c r="J277" s="9"/>
       <c r="K277" s="9"/>
@@ -18858,17 +18871,17 @@
       <c r="AI277" s="8"/>
     </row>
     <row r="278" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A278" s="6">
-        <v>76</v>
-      </c>
-      <c r="B278" s="43" t="s">
-        <v>66</v>
+      <c r="A278" s="6"/>
+      <c r="B278" s="41" t="s">
+        <v>444</v>
       </c>
       <c r="C278" s="9"/>
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
       <c r="F278" s="9"/>
-      <c r="G278" s="9"/>
+      <c r="G278" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H278" s="9"/>
       <c r="J278" s="9"/>
       <c r="K278" s="9"/>
@@ -18895,9 +18908,11 @@
       <c r="AI278" s="8"/>
     </row>
     <row r="279" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A279" s="6"/>
-      <c r="B279" s="41" t="s">
-        <v>436</v>
+      <c r="A279" s="6">
+        <v>76</v>
+      </c>
+      <c r="B279" s="43" t="s">
+        <v>66</v>
       </c>
       <c r="C279" s="9"/>
       <c r="D279" s="9"/>
@@ -18932,14 +18947,12 @@
     <row r="280" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="41" t="s">
-        <v>319</v>
+        <v>436</v>
       </c>
       <c r="C280" s="9"/>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
-      <c r="F280" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F280" s="9"/>
       <c r="G280" s="9"/>
       <c r="H280" s="9"/>
       <c r="J280" s="9"/>
@@ -18969,16 +18982,16 @@
     <row r="281" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
-      <c r="F281" s="9"/>
+      <c r="F281" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G281" s="9"/>
-      <c r="H281" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H281" s="9"/>
       <c r="J281" s="9"/>
       <c r="K281" s="9"/>
       <c r="L281" s="9"/>
@@ -19004,20 +19017,18 @@
       <c r="AI281" s="8"/>
     </row>
     <row r="282" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A282" s="6">
-        <v>77</v>
-      </c>
-      <c r="B282" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C282" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A282" s="6"/>
+      <c r="B282" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="C282" s="9"/>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
       <c r="F282" s="9"/>
       <c r="G282" s="9"/>
-      <c r="H282" s="9"/>
+      <c r="H282" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J282" s="9"/>
       <c r="K282" s="9"/>
       <c r="L282" s="9"/>
@@ -19044,10 +19055,10 @@
     </row>
     <row r="283" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B283" s="42" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="C283" s="9" t="s">
         <v>108</v>
@@ -19083,12 +19094,14 @@
     </row>
     <row r="284" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
-        <v>79</v>
-      </c>
-      <c r="B284" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C284" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="B284" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D284" s="9"/>
       <c r="E284" s="9"/>
       <c r="F284" s="9"/>
@@ -19119,16 +19132,16 @@
       <c r="AI284" s="8"/>
     </row>
     <row r="285" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A285" s="6"/>
-      <c r="B285" s="41" t="s">
-        <v>321</v>
+      <c r="A285" s="6">
+        <v>79</v>
+      </c>
+      <c r="B285" s="43" t="s">
+        <v>28</v>
       </c>
       <c r="C285" s="9"/>
       <c r="D285" s="9"/>
       <c r="E285" s="9"/>
-      <c r="F285" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F285" s="9"/>
       <c r="G285" s="9"/>
       <c r="H285" s="9"/>
       <c r="J285" s="9"/>
@@ -19158,16 +19171,16 @@
     <row r="286" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C286" s="9"/>
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
-      <c r="F286" s="9"/>
+      <c r="F286" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G286" s="9"/>
-      <c r="H286" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H286" s="9"/>
       <c r="J286" s="9"/>
       <c r="K286" s="9"/>
       <c r="L286" s="9"/>
@@ -19193,20 +19206,18 @@
       <c r="AI286" s="8"/>
     </row>
     <row r="287" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A287" s="6">
-        <v>80</v>
-      </c>
-      <c r="B287" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C287" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A287" s="6"/>
+      <c r="B287" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="C287" s="9"/>
       <c r="D287" s="9"/>
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
       <c r="G287" s="9"/>
-      <c r="H287" s="9"/>
+      <c r="H287" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J287" s="9"/>
       <c r="K287" s="9"/>
       <c r="L287" s="9"/>
@@ -19233,10 +19244,10 @@
     </row>
     <row r="288" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B288" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C288" s="9" t="s">
         <v>108</v>
@@ -19272,10 +19283,10 @@
     </row>
     <row r="289" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B289" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C289" s="9" t="s">
         <v>108</v>
@@ -19311,10 +19322,10 @@
     </row>
     <row r="290" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B290" s="42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C290" s="9" t="s">
         <v>108</v>
@@ -19350,10 +19361,10 @@
     </row>
     <row r="291" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B291" s="42" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="C291" s="9" t="s">
         <v>108</v>
@@ -19389,10 +19400,10 @@
     </row>
     <row r="292" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B292" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C292" s="9" t="s">
         <v>108</v>
@@ -19428,10 +19439,10 @@
     </row>
     <row r="293" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B293" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C293" s="9" t="s">
         <v>108</v>
@@ -19467,10 +19478,10 @@
     </row>
     <row r="294" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
-        <v>87</v>
-      </c>
-      <c r="B294" s="8" t="s">
-        <v>76</v>
+        <v>86</v>
+      </c>
+      <c r="B294" s="42" t="s">
+        <v>119</v>
       </c>
       <c r="C294" s="9" t="s">
         <v>108</v>
@@ -19506,12 +19517,14 @@
     </row>
     <row r="295" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
-        <v>88</v>
-      </c>
-      <c r="B295" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C295" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D295" s="9"/>
       <c r="E295" s="9"/>
       <c r="F295" s="9"/>
@@ -19542,16 +19555,16 @@
       <c r="AI295" s="8"/>
     </row>
     <row r="296" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A296" s="6"/>
-      <c r="B296" s="40" t="s">
-        <v>323</v>
+      <c r="A296" s="6">
+        <v>88</v>
+      </c>
+      <c r="B296" s="43" t="s">
+        <v>32</v>
       </c>
       <c r="C296" s="9"/>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
-      <c r="F296" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F296" s="9"/>
       <c r="G296" s="9"/>
       <c r="H296" s="9"/>
       <c r="J296" s="9"/>
@@ -19581,16 +19594,16 @@
     <row r="297" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="40" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C297" s="9"/>
       <c r="D297" s="9"/>
       <c r="E297" s="9"/>
-      <c r="F297" s="9"/>
+      <c r="F297" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G297" s="9"/>
-      <c r="H297" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H297" s="9"/>
       <c r="J297" s="9"/>
       <c r="K297" s="9"/>
       <c r="L297" s="9"/>
@@ -19616,18 +19629,18 @@
       <c r="AI297" s="8"/>
     </row>
     <row r="298" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A298" s="6">
-        <v>89</v>
-      </c>
-      <c r="B298" s="43" t="s">
-        <v>24</v>
+      <c r="A298" s="6"/>
+      <c r="B298" s="40" t="s">
+        <v>324</v>
       </c>
       <c r="C298" s="9"/>
       <c r="D298" s="9"/>
       <c r="E298" s="9"/>
       <c r="F298" s="9"/>
       <c r="G298" s="9"/>
-      <c r="H298" s="9"/>
+      <c r="H298" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J298" s="9"/>
       <c r="K298" s="9"/>
       <c r="L298" s="9"/>
@@ -19653,16 +19666,16 @@
       <c r="AI298" s="8"/>
     </row>
     <row r="299" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A299" s="6"/>
-      <c r="B299" s="41" t="s">
-        <v>325</v>
+      <c r="A299" s="6">
+        <v>89</v>
+      </c>
+      <c r="B299" s="43" t="s">
+        <v>24</v>
       </c>
       <c r="C299" s="9"/>
       <c r="D299" s="9"/>
       <c r="E299" s="9"/>
-      <c r="F299" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F299" s="9"/>
       <c r="G299" s="9"/>
       <c r="H299" s="9"/>
       <c r="J299" s="9"/>
@@ -19675,9 +19688,7 @@
       <c r="Q299" s="9"/>
       <c r="R299" s="9"/>
       <c r="T299" s="9"/>
-      <c r="U299" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U299" s="9"/>
       <c r="V299" s="9"/>
       <c r="W299" s="9"/>
       <c r="X299" s="9"/>
@@ -19694,7 +19705,7 @@
     <row r="300" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C300" s="9"/>
       <c r="D300" s="9"/>
@@ -19733,16 +19744,16 @@
     <row r="301" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C301" s="9"/>
       <c r="D301" s="9"/>
       <c r="E301" s="9"/>
-      <c r="F301" s="9"/>
+      <c r="F301" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G301" s="9"/>
-      <c r="H301" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H301" s="9"/>
       <c r="J301" s="9"/>
       <c r="K301" s="9"/>
       <c r="L301" s="9"/>
@@ -19753,11 +19764,11 @@
       <c r="Q301" s="9"/>
       <c r="R301" s="9"/>
       <c r="T301" s="9"/>
-      <c r="U301" s="9"/>
+      <c r="U301" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V301" s="9"/>
-      <c r="W301" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W301" s="9"/>
       <c r="X301" s="9"/>
       <c r="Y301" s="9"/>
       <c r="Z301" s="9"/>
@@ -19772,14 +19783,16 @@
     <row r="302" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="41" t="s">
-        <v>430</v>
+        <v>327</v>
       </c>
       <c r="C302" s="9"/>
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
       <c r="G302" s="9"/>
-      <c r="H302" s="9"/>
+      <c r="H302" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J302" s="9"/>
       <c r="K302" s="9"/>
       <c r="L302" s="9"/>
@@ -19789,20 +19802,18 @@
       <c r="P302" s="9"/>
       <c r="Q302" s="9"/>
       <c r="R302" s="9"/>
-      <c r="T302" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T302" s="9"/>
       <c r="U302" s="9"/>
       <c r="V302" s="9"/>
-      <c r="W302" s="9"/>
+      <c r="W302" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X302" s="9"/>
       <c r="Y302" s="9"/>
       <c r="Z302" s="9"/>
       <c r="AA302" s="9"/>
       <c r="AB302" s="9"/>
-      <c r="AD302" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD302" s="9"/>
       <c r="AE302" s="9"/>
       <c r="AF302" s="9"/>
       <c r="AG302" s="9"/>
@@ -19811,16 +19822,14 @@
     <row r="303" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="41" t="s">
-        <v>328</v>
+        <v>430</v>
       </c>
       <c r="C303" s="9"/>
       <c r="D303" s="9"/>
       <c r="E303" s="9"/>
       <c r="F303" s="9"/>
       <c r="G303" s="9"/>
-      <c r="H303" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H303" s="9"/>
       <c r="J303" s="9"/>
       <c r="K303" s="9"/>
       <c r="L303" s="9"/>
@@ -19830,38 +19839,38 @@
       <c r="P303" s="9"/>
       <c r="Q303" s="9"/>
       <c r="R303" s="9"/>
-      <c r="T303" s="9"/>
+      <c r="T303" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="U303" s="9"/>
       <c r="V303" s="9"/>
-      <c r="W303" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W303" s="9"/>
       <c r="X303" s="9"/>
       <c r="Y303" s="9"/>
       <c r="Z303" s="9"/>
       <c r="AA303" s="9"/>
       <c r="AB303" s="9"/>
-      <c r="AD303" s="9"/>
+      <c r="AD303" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE303" s="9"/>
       <c r="AF303" s="9"/>
       <c r="AG303" s="9"/>
       <c r="AI303" s="8"/>
     </row>
     <row r="304" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A304" s="6">
-        <v>90</v>
-      </c>
-      <c r="B304" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C304" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A304" s="6"/>
+      <c r="B304" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="C304" s="9"/>
       <c r="D304" s="9"/>
       <c r="E304" s="9"/>
       <c r="F304" s="9"/>
       <c r="G304" s="9"/>
-      <c r="H304" s="9"/>
+      <c r="H304" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J304" s="9"/>
       <c r="K304" s="9"/>
       <c r="L304" s="9"/>
@@ -19874,7 +19883,9 @@
       <c r="T304" s="9"/>
       <c r="U304" s="9"/>
       <c r="V304" s="9"/>
-      <c r="W304" s="9"/>
+      <c r="W304" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X304" s="9"/>
       <c r="Y304" s="9"/>
       <c r="Z304" s="9"/>
@@ -19888,10 +19899,10 @@
     </row>
     <row r="305" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B305" s="42" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C305" s="9" t="s">
         <v>108</v>
@@ -19927,12 +19938,14 @@
     </row>
     <row r="306" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
-        <v>92</v>
-      </c>
-      <c r="B306" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C306" s="9"/>
+        <v>91</v>
+      </c>
+      <c r="B306" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C306" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D306" s="9"/>
       <c r="E306" s="9"/>
       <c r="F306" s="9"/>
@@ -19963,16 +19976,16 @@
       <c r="AI306" s="8"/>
     </row>
     <row r="307" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A307" s="6"/>
-      <c r="B307" s="41" t="s">
-        <v>383</v>
+      <c r="A307" s="6">
+        <v>92</v>
+      </c>
+      <c r="B307" s="43" t="s">
+        <v>70</v>
       </c>
       <c r="C307" s="9"/>
       <c r="D307" s="9"/>
       <c r="E307" s="9"/>
-      <c r="F307" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F307" s="9"/>
       <c r="G307" s="9"/>
       <c r="H307" s="9"/>
       <c r="J307" s="9"/>
@@ -20002,16 +20015,16 @@
     <row r="308" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C308" s="9"/>
       <c r="D308" s="9"/>
       <c r="E308" s="9"/>
-      <c r="F308" s="9"/>
+      <c r="F308" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G308" s="9"/>
-      <c r="H308" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H308" s="9"/>
       <c r="J308" s="9"/>
       <c r="K308" s="9"/>
       <c r="L308" s="9"/>
@@ -20037,20 +20050,18 @@
       <c r="AI308" s="8"/>
     </row>
     <row r="309" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A309" s="6">
-        <v>93</v>
-      </c>
-      <c r="B309" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C309" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A309" s="6"/>
+      <c r="B309" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="C309" s="9"/>
       <c r="D309" s="9"/>
       <c r="E309" s="9"/>
       <c r="F309" s="9"/>
       <c r="G309" s="9"/>
-      <c r="H309" s="9"/>
+      <c r="H309" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J309" s="9"/>
       <c r="K309" s="9"/>
       <c r="L309" s="9"/>
@@ -20077,10 +20088,10 @@
     </row>
     <row r="310" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B310" s="42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C310" s="9" t="s">
         <v>108</v>
@@ -20116,10 +20127,10 @@
     </row>
     <row r="311" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B311" s="42" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C311" s="9" t="s">
         <v>108</v>
@@ -20155,12 +20166,14 @@
     </row>
     <row r="312" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
-        <v>96</v>
-      </c>
-      <c r="B312" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C312" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="B312" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C312" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D312" s="9"/>
       <c r="E312" s="9"/>
       <c r="F312" s="9"/>
@@ -20179,9 +20192,7 @@
       <c r="U312" s="9"/>
       <c r="V312" s="9"/>
       <c r="W312" s="9"/>
-      <c r="X312" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="X312" s="9"/>
       <c r="Y312" s="9"/>
       <c r="Z312" s="9"/>
       <c r="AA312" s="9"/>
@@ -20193,18 +20204,18 @@
       <c r="AI312" s="8"/>
     </row>
     <row r="313" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A313" s="6"/>
-      <c r="B313" s="41" t="s">
-        <v>428</v>
+      <c r="A313" s="6">
+        <v>96</v>
+      </c>
+      <c r="B313" s="43" t="s">
+        <v>73</v>
       </c>
       <c r="C313" s="9"/>
       <c r="D313" s="9"/>
       <c r="E313" s="9"/>
       <c r="F313" s="9"/>
       <c r="G313" s="9"/>
-      <c r="H313" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H313" s="9"/>
       <c r="J313" s="9"/>
       <c r="K313" s="9"/>
       <c r="L313" s="9"/>
@@ -20218,7 +20229,9 @@
       <c r="U313" s="9"/>
       <c r="V313" s="9"/>
       <c r="W313" s="9"/>
-      <c r="X313" s="9"/>
+      <c r="X313" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="Y313" s="9"/>
       <c r="Z313" s="9"/>
       <c r="AA313" s="9"/>
@@ -20231,15 +20244,15 @@
     </row>
     <row r="314" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
-      <c r="B314" s="40" t="s">
-        <v>429</v>
+      <c r="B314" s="41" t="s">
+        <v>469</v>
       </c>
       <c r="C314" s="9"/>
-      <c r="D314" s="9"/>
+      <c r="D314" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="E314" s="9"/>
-      <c r="F314" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F314" s="9"/>
       <c r="G314" s="9"/>
       <c r="H314" s="9"/>
       <c r="J314" s="9"/>
@@ -20267,20 +20280,18 @@
       <c r="AI314" s="8"/>
     </row>
     <row r="315" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A315" s="6">
-        <v>97</v>
-      </c>
-      <c r="B315" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C315" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A315" s="6"/>
+      <c r="B315" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="C315" s="9"/>
       <c r="D315" s="9"/>
       <c r="E315" s="9"/>
       <c r="F315" s="9"/>
       <c r="G315" s="9"/>
-      <c r="H315" s="9"/>
+      <c r="H315" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J315" s="9"/>
       <c r="K315" s="9"/>
       <c r="L315" s="9"/>
@@ -20306,18 +20317,16 @@
       <c r="AI315" s="8"/>
     </row>
     <row r="316" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A316" s="6">
-        <v>98</v>
-      </c>
-      <c r="B316" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C316" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A316" s="6"/>
+      <c r="B316" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="C316" s="9"/>
       <c r="D316" s="9"/>
       <c r="E316" s="9"/>
-      <c r="F316" s="9"/>
+      <c r="F316" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G316" s="9"/>
       <c r="H316" s="9"/>
       <c r="J316" s="9"/>
@@ -20345,19 +20354,17 @@
       <c r="AI316" s="8"/>
     </row>
     <row r="317" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A317" s="6">
-        <v>99</v>
-      </c>
-      <c r="B317" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C317" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A317" s="6"/>
+      <c r="B317" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="C317" s="9"/>
       <c r="D317" s="9"/>
       <c r="E317" s="9"/>
       <c r="F317" s="9"/>
-      <c r="G317" s="9"/>
+      <c r="G317" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H317" s="9"/>
       <c r="J317" s="9"/>
       <c r="K317" s="9"/>
@@ -20385,12 +20392,14 @@
     </row>
     <row r="318" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
-        <v>100</v>
-      </c>
-      <c r="B318" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C318" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="B318" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C318" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D318" s="9"/>
       <c r="E318" s="9"/>
       <c r="F318" s="9"/>
@@ -20421,16 +20430,18 @@
       <c r="AI318" s="8"/>
     </row>
     <row r="319" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A319" s="6"/>
-      <c r="B319" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="C319" s="9"/>
+      <c r="A319" s="6">
+        <v>98</v>
+      </c>
+      <c r="B319" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C319" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D319" s="9"/>
       <c r="E319" s="9"/>
-      <c r="F319" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F319" s="9"/>
       <c r="G319" s="9"/>
       <c r="H319" s="9"/>
       <c r="J319" s="9"/>
@@ -20443,9 +20454,7 @@
       <c r="Q319" s="9"/>
       <c r="R319" s="9"/>
       <c r="T319" s="9"/>
-      <c r="U319" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U319" s="9"/>
       <c r="V319" s="9"/>
       <c r="W319" s="9"/>
       <c r="X319" s="9"/>
@@ -20460,16 +20469,18 @@
       <c r="AI319" s="8"/>
     </row>
     <row r="320" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A320" s="6"/>
-      <c r="B320" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="C320" s="9"/>
+      <c r="A320" s="6">
+        <v>99</v>
+      </c>
+      <c r="B320" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C320" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D320" s="9"/>
       <c r="E320" s="9"/>
-      <c r="F320" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F320" s="9"/>
       <c r="G320" s="9"/>
       <c r="H320" s="9"/>
       <c r="J320" s="9"/>
@@ -20484,9 +20495,7 @@
       <c r="T320" s="9"/>
       <c r="U320" s="9"/>
       <c r="V320" s="9"/>
-      <c r="W320" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W320" s="9"/>
       <c r="X320" s="9"/>
       <c r="Y320" s="9"/>
       <c r="Z320" s="9"/>
@@ -20499,18 +20508,18 @@
       <c r="AI320" s="8"/>
     </row>
     <row r="321" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A321" s="6"/>
-      <c r="B321" s="40" t="s">
-        <v>332</v>
+      <c r="A321" s="6">
+        <v>100</v>
+      </c>
+      <c r="B321" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="C321" s="9"/>
       <c r="D321" s="9"/>
       <c r="E321" s="9"/>
       <c r="F321" s="9"/>
       <c r="G321" s="9"/>
-      <c r="H321" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H321" s="9"/>
       <c r="J321" s="9"/>
       <c r="K321" s="9"/>
       <c r="L321" s="9"/>
@@ -20521,9 +20530,7 @@
       <c r="Q321" s="9"/>
       <c r="R321" s="9"/>
       <c r="T321" s="9"/>
-      <c r="U321" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U321" s="9"/>
       <c r="V321" s="9"/>
       <c r="W321" s="9"/>
       <c r="X321" s="9"/>
@@ -20540,16 +20547,16 @@
     <row r="322" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="40" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C322" s="9"/>
       <c r="D322" s="9"/>
       <c r="E322" s="9"/>
-      <c r="F322" s="9"/>
+      <c r="F322" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G322" s="9"/>
-      <c r="H322" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H322" s="9"/>
       <c r="J322" s="9"/>
       <c r="K322" s="9"/>
       <c r="L322" s="9"/>
@@ -20560,11 +20567,11 @@
       <c r="Q322" s="9"/>
       <c r="R322" s="9"/>
       <c r="T322" s="9"/>
-      <c r="U322" s="9"/>
+      <c r="U322" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V322" s="9"/>
-      <c r="W322" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W322" s="9"/>
       <c r="X322" s="9"/>
       <c r="Y322" s="9"/>
       <c r="Z322" s="9"/>
@@ -20577,18 +20584,16 @@
       <c r="AI322" s="8"/>
     </row>
     <row r="323" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A323" s="6">
-        <v>101</v>
-      </c>
-      <c r="B323" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C323" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A323" s="6"/>
+      <c r="B323" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="C323" s="9"/>
       <c r="D323" s="9"/>
       <c r="E323" s="9"/>
-      <c r="F323" s="9"/>
+      <c r="F323" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G323" s="9"/>
       <c r="H323" s="9"/>
       <c r="J323" s="9"/>
@@ -20603,7 +20608,9 @@
       <c r="T323" s="9"/>
       <c r="U323" s="9"/>
       <c r="V323" s="9"/>
-      <c r="W323" s="9"/>
+      <c r="W323" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X323" s="9"/>
       <c r="Y323" s="9"/>
       <c r="Z323" s="9"/>
@@ -20616,20 +20623,18 @@
       <c r="AI323" s="8"/>
     </row>
     <row r="324" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A324" s="6">
-        <v>102</v>
-      </c>
-      <c r="B324" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C324" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A324" s="6"/>
+      <c r="B324" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="C324" s="9"/>
       <c r="D324" s="9"/>
       <c r="E324" s="9"/>
       <c r="F324" s="9"/>
       <c r="G324" s="9"/>
-      <c r="H324" s="9"/>
+      <c r="H324" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J324" s="9"/>
       <c r="K324" s="9"/>
       <c r="L324" s="9"/>
@@ -20640,7 +20645,9 @@
       <c r="Q324" s="9"/>
       <c r="R324" s="9"/>
       <c r="T324" s="9"/>
-      <c r="U324" s="9"/>
+      <c r="U324" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V324" s="9"/>
       <c r="W324" s="9"/>
       <c r="X324" s="9"/>
@@ -20655,18 +20662,18 @@
       <c r="AI324" s="8"/>
     </row>
     <row r="325" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A325" s="6">
-        <v>103</v>
-      </c>
-      <c r="B325" s="43" t="s">
-        <v>86</v>
+      <c r="A325" s="6"/>
+      <c r="B325" s="40" t="s">
+        <v>331</v>
       </c>
       <c r="C325" s="9"/>
       <c r="D325" s="9"/>
       <c r="E325" s="9"/>
       <c r="F325" s="9"/>
       <c r="G325" s="9"/>
-      <c r="H325" s="9"/>
+      <c r="H325" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J325" s="9"/>
       <c r="K325" s="9"/>
       <c r="L325" s="9"/>
@@ -20679,7 +20686,9 @@
       <c r="T325" s="9"/>
       <c r="U325" s="9"/>
       <c r="V325" s="9"/>
-      <c r="W325" s="9"/>
+      <c r="W325" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X325" s="9"/>
       <c r="Y325" s="9"/>
       <c r="Z325" s="9"/>
@@ -20692,16 +20701,18 @@
       <c r="AI325" s="8"/>
     </row>
     <row r="326" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A326" s="6"/>
-      <c r="B326" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="C326" s="9"/>
+      <c r="A326" s="6">
+        <v>101</v>
+      </c>
+      <c r="B326" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C326" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D326" s="9"/>
       <c r="E326" s="9"/>
-      <c r="F326" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F326" s="9"/>
       <c r="G326" s="9"/>
       <c r="H326" s="9"/>
       <c r="J326" s="9"/>
@@ -20729,18 +20740,20 @@
       <c r="AI326" s="8"/>
     </row>
     <row r="327" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A327" s="6"/>
-      <c r="B327" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="C327" s="9"/>
+      <c r="A327" s="6">
+        <v>102</v>
+      </c>
+      <c r="B327" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C327" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D327" s="9"/>
       <c r="E327" s="9"/>
       <c r="F327" s="9"/>
       <c r="G327" s="9"/>
-      <c r="H327" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H327" s="9"/>
       <c r="J327" s="9"/>
       <c r="K327" s="9"/>
       <c r="L327" s="9"/>
@@ -20767,14 +20780,12 @@
     </row>
     <row r="328" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
-        <v>105</v>
-      </c>
-      <c r="B328" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C328" s="9" t="s">
-        <v>108</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B328" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C328" s="9"/>
       <c r="D328" s="9"/>
       <c r="E328" s="9"/>
       <c r="F328" s="9"/>
@@ -20805,16 +20816,16 @@
       <c r="AI328" s="8"/>
     </row>
     <row r="329" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A329" s="6">
-        <v>106</v>
-      </c>
-      <c r="B329" s="43" t="s">
-        <v>1</v>
+      <c r="A329" s="6"/>
+      <c r="B329" s="40" t="s">
+        <v>333</v>
       </c>
       <c r="C329" s="9"/>
       <c r="D329" s="9"/>
       <c r="E329" s="9"/>
-      <c r="F329" s="9"/>
+      <c r="F329" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G329" s="9"/>
       <c r="H329" s="9"/>
       <c r="J329" s="9"/>
@@ -20843,20 +20854,18 @@
     </row>
     <row r="330" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
-      <c r="B330" s="41" t="s">
-        <v>335</v>
+      <c r="B330" s="40" t="s">
+        <v>334</v>
       </c>
       <c r="C330" s="9"/>
       <c r="D330" s="9"/>
       <c r="E330" s="9"/>
-      <c r="F330" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F330" s="9"/>
       <c r="G330" s="9"/>
-      <c r="H330" s="9"/>
-      <c r="J330" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H330" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J330" s="9"/>
       <c r="K330" s="9"/>
       <c r="L330" s="9"/>
       <c r="M330" s="9"/>
@@ -20865,9 +20874,7 @@
       <c r="P330" s="9"/>
       <c r="Q330" s="9"/>
       <c r="R330" s="9"/>
-      <c r="T330" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T330" s="9"/>
       <c r="U330" s="9"/>
       <c r="V330" s="9"/>
       <c r="W330" s="9"/>
@@ -20876,31 +20883,29 @@
       <c r="Z330" s="9"/>
       <c r="AA330" s="9"/>
       <c r="AB330" s="9"/>
-      <c r="AD330" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD330" s="9"/>
       <c r="AE330" s="9"/>
       <c r="AF330" s="9"/>
       <c r="AG330" s="9"/>
       <c r="AI330" s="8"/>
     </row>
     <row r="331" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A331" s="6"/>
-      <c r="B331" s="41" t="s">
-        <v>336</v>
-      </c>
-      <c r="C331" s="9"/>
+      <c r="A331" s="6">
+        <v>105</v>
+      </c>
+      <c r="B331" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C331" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D331" s="9"/>
       <c r="E331" s="9"/>
-      <c r="F331" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F331" s="9"/>
       <c r="G331" s="9"/>
       <c r="H331" s="9"/>
       <c r="J331" s="9"/>
-      <c r="K331" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K331" s="9"/>
       <c r="L331" s="9"/>
       <c r="M331" s="9"/>
       <c r="N331" s="9"/>
@@ -20908,9 +20913,7 @@
       <c r="P331" s="9"/>
       <c r="Q331" s="9"/>
       <c r="R331" s="9"/>
-      <c r="T331" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T331" s="9"/>
       <c r="U331" s="9"/>
       <c r="V331" s="9"/>
       <c r="W331" s="9"/>
@@ -20919,41 +20922,35 @@
       <c r="Z331" s="9"/>
       <c r="AA331" s="9"/>
       <c r="AB331" s="9"/>
-      <c r="AD331" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD331" s="9"/>
       <c r="AE331" s="9"/>
       <c r="AF331" s="9"/>
       <c r="AG331" s="9"/>
       <c r="AI331" s="8"/>
     </row>
     <row r="332" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A332" s="6"/>
-      <c r="B332" s="41" t="s">
-        <v>337</v>
+      <c r="A332" s="6">
+        <v>106</v>
+      </c>
+      <c r="B332" s="43" t="s">
+        <v>1</v>
       </c>
       <c r="C332" s="9"/>
       <c r="D332" s="9"/>
       <c r="E332" s="9"/>
-      <c r="F332" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F332" s="9"/>
       <c r="G332" s="9"/>
       <c r="H332" s="9"/>
       <c r="J332" s="9"/>
       <c r="K332" s="9"/>
-      <c r="L332" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L332" s="9"/>
       <c r="M332" s="9"/>
       <c r="N332" s="9"/>
       <c r="O332" s="9"/>
       <c r="P332" s="9"/>
       <c r="Q332" s="9"/>
       <c r="R332" s="9"/>
-      <c r="T332" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T332" s="9"/>
       <c r="U332" s="9"/>
       <c r="V332" s="9"/>
       <c r="W332" s="9"/>
@@ -20962,9 +20959,7 @@
       <c r="Z332" s="9"/>
       <c r="AA332" s="9"/>
       <c r="AB332" s="9"/>
-      <c r="AD332" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD332" s="9"/>
       <c r="AE332" s="9"/>
       <c r="AF332" s="9"/>
       <c r="AG332" s="9"/>
@@ -20973,7 +20968,7 @@
     <row r="333" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="41" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C333" s="9"/>
       <c r="D333" s="9"/>
@@ -20983,12 +20978,12 @@
       </c>
       <c r="G333" s="9"/>
       <c r="H333" s="9"/>
-      <c r="J333" s="9"/>
+      <c r="J333" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K333" s="9"/>
       <c r="L333" s="9"/>
-      <c r="M333" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M333" s="9"/>
       <c r="N333" s="9"/>
       <c r="O333" s="9"/>
       <c r="P333" s="9"/>
@@ -21016,7 +21011,7 @@
     <row r="334" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="41" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C334" s="9"/>
       <c r="D334" s="9"/>
@@ -21027,12 +21022,12 @@
       <c r="G334" s="9"/>
       <c r="H334" s="9"/>
       <c r="J334" s="9"/>
-      <c r="K334" s="9"/>
+      <c r="K334" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L334" s="9"/>
       <c r="M334" s="9"/>
-      <c r="N334" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N334" s="9"/>
       <c r="O334" s="9"/>
       <c r="P334" s="9"/>
       <c r="Q334" s="9"/>
@@ -21059,7 +21054,7 @@
     <row r="335" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="41" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C335" s="9"/>
       <c r="D335" s="9"/>
@@ -21071,12 +21066,12 @@
       <c r="H335" s="9"/>
       <c r="J335" s="9"/>
       <c r="K335" s="9"/>
-      <c r="L335" s="9"/>
+      <c r="L335" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M335" s="9"/>
       <c r="N335" s="9"/>
-      <c r="O335" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O335" s="9"/>
       <c r="P335" s="9"/>
       <c r="Q335" s="9"/>
       <c r="R335" s="9"/>
@@ -21102,7 +21097,7 @@
     <row r="336" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="41" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C336" s="9"/>
       <c r="D336" s="9"/>
@@ -21112,21 +21107,21 @@
       </c>
       <c r="G336" s="9"/>
       <c r="H336" s="9"/>
-      <c r="J336" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J336" s="9"/>
       <c r="K336" s="9"/>
       <c r="L336" s="9"/>
-      <c r="M336" s="9"/>
+      <c r="M336" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N336" s="9"/>
       <c r="O336" s="9"/>
       <c r="P336" s="9"/>
       <c r="Q336" s="9"/>
       <c r="R336" s="9"/>
-      <c r="T336" s="9"/>
-      <c r="U336" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T336" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U336" s="9"/>
       <c r="V336" s="9"/>
       <c r="W336" s="9"/>
       <c r="X336" s="9"/>
@@ -21134,7 +21129,9 @@
       <c r="Z336" s="9"/>
       <c r="AA336" s="9"/>
       <c r="AB336" s="9"/>
-      <c r="AD336" s="9"/>
+      <c r="AD336" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE336" s="9"/>
       <c r="AF336" s="9"/>
       <c r="AG336" s="9"/>
@@ -21143,7 +21140,7 @@
     <row r="337" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="41" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C337" s="9"/>
       <c r="D337" s="9"/>
@@ -21154,20 +21151,20 @@
       <c r="G337" s="9"/>
       <c r="H337" s="9"/>
       <c r="J337" s="9"/>
-      <c r="K337" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K337" s="9"/>
       <c r="L337" s="9"/>
       <c r="M337" s="9"/>
-      <c r="N337" s="9"/>
+      <c r="N337" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O337" s="9"/>
       <c r="P337" s="9"/>
       <c r="Q337" s="9"/>
       <c r="R337" s="9"/>
-      <c r="T337" s="9"/>
-      <c r="U337" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T337" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U337" s="9"/>
       <c r="V337" s="9"/>
       <c r="W337" s="9"/>
       <c r="X337" s="9"/>
@@ -21175,7 +21172,9 @@
       <c r="Z337" s="9"/>
       <c r="AA337" s="9"/>
       <c r="AB337" s="9"/>
-      <c r="AD337" s="9"/>
+      <c r="AD337" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE337" s="9"/>
       <c r="AF337" s="9"/>
       <c r="AG337" s="9"/>
@@ -21184,7 +21183,7 @@
     <row r="338" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="41" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C338" s="9"/>
       <c r="D338" s="9"/>
@@ -21196,19 +21195,19 @@
       <c r="H338" s="9"/>
       <c r="J338" s="9"/>
       <c r="K338" s="9"/>
-      <c r="L338" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L338" s="9"/>
       <c r="M338" s="9"/>
       <c r="N338" s="9"/>
-      <c r="O338" s="9"/>
+      <c r="O338" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P338" s="9"/>
       <c r="Q338" s="9"/>
       <c r="R338" s="9"/>
-      <c r="T338" s="9"/>
-      <c r="U338" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T338" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U338" s="9"/>
       <c r="V338" s="9"/>
       <c r="W338" s="9"/>
       <c r="X338" s="9"/>
@@ -21216,7 +21215,9 @@
       <c r="Z338" s="9"/>
       <c r="AA338" s="9"/>
       <c r="AB338" s="9"/>
-      <c r="AD338" s="9"/>
+      <c r="AD338" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE338" s="9"/>
       <c r="AF338" s="9"/>
       <c r="AG338" s="9"/>
@@ -21225,7 +21226,7 @@
     <row r="339" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="41" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C339" s="9"/>
       <c r="D339" s="9"/>
@@ -21235,12 +21236,12 @@
       </c>
       <c r="G339" s="9"/>
       <c r="H339" s="9"/>
-      <c r="J339" s="9"/>
+      <c r="J339" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K339" s="9"/>
       <c r="L339" s="9"/>
-      <c r="M339" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M339" s="9"/>
       <c r="N339" s="9"/>
       <c r="O339" s="9"/>
       <c r="P339" s="9"/>
@@ -21266,7 +21267,7 @@
     <row r="340" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="41" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C340" s="9"/>
       <c r="D340" s="9"/>
@@ -21277,12 +21278,12 @@
       <c r="G340" s="9"/>
       <c r="H340" s="9"/>
       <c r="J340" s="9"/>
-      <c r="K340" s="9"/>
+      <c r="K340" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L340" s="9"/>
       <c r="M340" s="9"/>
-      <c r="N340" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N340" s="9"/>
       <c r="O340" s="9"/>
       <c r="P340" s="9"/>
       <c r="Q340" s="9"/>
@@ -21307,7 +21308,7 @@
     <row r="341" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="41" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
@@ -21319,12 +21320,12 @@
       <c r="H341" s="9"/>
       <c r="J341" s="9"/>
       <c r="K341" s="9"/>
-      <c r="L341" s="9"/>
+      <c r="L341" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M341" s="9"/>
       <c r="N341" s="9"/>
-      <c r="O341" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O341" s="9"/>
       <c r="P341" s="9"/>
       <c r="Q341" s="9"/>
       <c r="R341" s="9"/>
@@ -21348,7 +21349,7 @@
     <row r="342" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="41" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
@@ -21358,22 +21359,22 @@
       </c>
       <c r="G342" s="9"/>
       <c r="H342" s="9"/>
-      <c r="J342" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J342" s="9"/>
       <c r="K342" s="9"/>
       <c r="L342" s="9"/>
-      <c r="M342" s="9"/>
+      <c r="M342" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N342" s="9"/>
       <c r="O342" s="9"/>
       <c r="P342" s="9"/>
       <c r="Q342" s="9"/>
       <c r="R342" s="9"/>
       <c r="T342" s="9"/>
-      <c r="U342" s="9"/>
-      <c r="V342" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U342" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V342" s="9"/>
       <c r="W342" s="9"/>
       <c r="X342" s="9"/>
       <c r="Y342" s="9"/>
@@ -21389,7 +21390,7 @@
     <row r="343" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="41" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C343" s="9"/>
       <c r="D343" s="9"/>
@@ -21400,21 +21401,21 @@
       <c r="G343" s="9"/>
       <c r="H343" s="9"/>
       <c r="J343" s="9"/>
-      <c r="K343" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K343" s="9"/>
       <c r="L343" s="9"/>
       <c r="M343" s="9"/>
-      <c r="N343" s="9"/>
+      <c r="N343" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O343" s="9"/>
       <c r="P343" s="9"/>
       <c r="Q343" s="9"/>
       <c r="R343" s="9"/>
       <c r="T343" s="9"/>
-      <c r="U343" s="9"/>
-      <c r="V343" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U343" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V343" s="9"/>
       <c r="W343" s="9"/>
       <c r="X343" s="9"/>
       <c r="Y343" s="9"/>
@@ -21430,7 +21431,7 @@
     <row r="344" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="41" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C344" s="9"/>
       <c r="D344" s="9"/>
@@ -21442,20 +21443,20 @@
       <c r="H344" s="9"/>
       <c r="J344" s="9"/>
       <c r="K344" s="9"/>
-      <c r="L344" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L344" s="9"/>
       <c r="M344" s="9"/>
       <c r="N344" s="9"/>
-      <c r="O344" s="9"/>
+      <c r="O344" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P344" s="9"/>
       <c r="Q344" s="9"/>
       <c r="R344" s="9"/>
       <c r="T344" s="9"/>
-      <c r="U344" s="9"/>
-      <c r="V344" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U344" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V344" s="9"/>
       <c r="W344" s="9"/>
       <c r="X344" s="9"/>
       <c r="Y344" s="9"/>
@@ -21471,7 +21472,7 @@
     <row r="345" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="41" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
@@ -21481,12 +21482,12 @@
       </c>
       <c r="G345" s="9"/>
       <c r="H345" s="9"/>
-      <c r="J345" s="9"/>
+      <c r="J345" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K345" s="9"/>
       <c r="L345" s="9"/>
-      <c r="M345" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M345" s="9"/>
       <c r="N345" s="9"/>
       <c r="O345" s="9"/>
       <c r="P345" s="9"/>
@@ -21512,7 +21513,7 @@
     <row r="346" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="41" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
@@ -21523,12 +21524,12 @@
       <c r="G346" s="9"/>
       <c r="H346" s="9"/>
       <c r="J346" s="9"/>
-      <c r="K346" s="9"/>
+      <c r="K346" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L346" s="9"/>
       <c r="M346" s="9"/>
-      <c r="N346" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N346" s="9"/>
       <c r="O346" s="9"/>
       <c r="P346" s="9"/>
       <c r="Q346" s="9"/>
@@ -21553,7 +21554,7 @@
     <row r="347" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="41" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C347" s="9"/>
       <c r="D347" s="9"/>
@@ -21565,12 +21566,12 @@
       <c r="H347" s="9"/>
       <c r="J347" s="9"/>
       <c r="K347" s="9"/>
-      <c r="L347" s="9"/>
+      <c r="L347" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M347" s="9"/>
       <c r="N347" s="9"/>
-      <c r="O347" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O347" s="9"/>
       <c r="P347" s="9"/>
       <c r="Q347" s="9"/>
       <c r="R347" s="9"/>
@@ -21594,7 +21595,7 @@
     <row r="348" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="41" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C348" s="9"/>
       <c r="D348" s="9"/>
@@ -21604,12 +21605,12 @@
       </c>
       <c r="G348" s="9"/>
       <c r="H348" s="9"/>
-      <c r="J348" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J348" s="9"/>
       <c r="K348" s="9"/>
       <c r="L348" s="9"/>
-      <c r="M348" s="9"/>
+      <c r="M348" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N348" s="9"/>
       <c r="O348" s="9"/>
       <c r="P348" s="9"/>
@@ -21617,10 +21618,10 @@
       <c r="R348" s="9"/>
       <c r="T348" s="9"/>
       <c r="U348" s="9"/>
-      <c r="V348" s="9"/>
-      <c r="W348" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V348" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W348" s="9"/>
       <c r="X348" s="9"/>
       <c r="Y348" s="9"/>
       <c r="Z348" s="9"/>
@@ -21635,7 +21636,7 @@
     <row r="349" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="41" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
@@ -21646,22 +21647,22 @@
       <c r="G349" s="9"/>
       <c r="H349" s="9"/>
       <c r="J349" s="9"/>
-      <c r="K349" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K349" s="9"/>
       <c r="L349" s="9"/>
       <c r="M349" s="9"/>
-      <c r="N349" s="9"/>
+      <c r="N349" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O349" s="9"/>
       <c r="P349" s="9"/>
       <c r="Q349" s="9"/>
       <c r="R349" s="9"/>
       <c r="T349" s="9"/>
       <c r="U349" s="9"/>
-      <c r="V349" s="9"/>
-      <c r="W349" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V349" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W349" s="9"/>
       <c r="X349" s="9"/>
       <c r="Y349" s="9"/>
       <c r="Z349" s="9"/>
@@ -21676,7 +21677,7 @@
     <row r="350" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="41" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C350" s="9"/>
       <c r="D350" s="9"/>
@@ -21688,21 +21689,21 @@
       <c r="H350" s="9"/>
       <c r="J350" s="9"/>
       <c r="K350" s="9"/>
-      <c r="L350" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L350" s="9"/>
       <c r="M350" s="9"/>
       <c r="N350" s="9"/>
-      <c r="O350" s="9"/>
+      <c r="O350" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P350" s="9"/>
       <c r="Q350" s="9"/>
       <c r="R350" s="9"/>
       <c r="T350" s="9"/>
       <c r="U350" s="9"/>
-      <c r="V350" s="9"/>
-      <c r="W350" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V350" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W350" s="9"/>
       <c r="X350" s="9"/>
       <c r="Y350" s="9"/>
       <c r="Z350" s="9"/>
@@ -21717,7 +21718,7 @@
     <row r="351" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="41" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C351" s="9"/>
       <c r="D351" s="9"/>
@@ -21727,12 +21728,12 @@
       </c>
       <c r="G351" s="9"/>
       <c r="H351" s="9"/>
-      <c r="J351" s="9"/>
+      <c r="J351" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K351" s="9"/>
       <c r="L351" s="9"/>
-      <c r="M351" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M351" s="9"/>
       <c r="N351" s="9"/>
       <c r="O351" s="9"/>
       <c r="P351" s="9"/>
@@ -21758,7 +21759,7 @@
     <row r="352" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="41" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C352" s="9"/>
       <c r="D352" s="9"/>
@@ -21769,12 +21770,12 @@
       <c r="G352" s="9"/>
       <c r="H352" s="9"/>
       <c r="J352" s="9"/>
-      <c r="K352" s="9"/>
+      <c r="K352" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L352" s="9"/>
       <c r="M352" s="9"/>
-      <c r="N352" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N352" s="9"/>
       <c r="O352" s="9"/>
       <c r="P352" s="9"/>
       <c r="Q352" s="9"/>
@@ -21799,7 +21800,7 @@
     <row r="353" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="41" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C353" s="9"/>
       <c r="D353" s="9"/>
@@ -21811,12 +21812,12 @@
       <c r="H353" s="9"/>
       <c r="J353" s="9"/>
       <c r="K353" s="9"/>
-      <c r="L353" s="9"/>
+      <c r="L353" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M353" s="9"/>
       <c r="N353" s="9"/>
-      <c r="O353" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O353" s="9"/>
       <c r="P353" s="9"/>
       <c r="Q353" s="9"/>
       <c r="R353" s="9"/>
@@ -21840,41 +21841,39 @@
     <row r="354" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="41" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C354" s="9"/>
       <c r="D354" s="9"/>
       <c r="E354" s="9"/>
-      <c r="F354" s="9"/>
-      <c r="G354" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F354" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G354" s="9"/>
       <c r="H354" s="9"/>
-      <c r="J354" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J354" s="9"/>
       <c r="K354" s="9"/>
       <c r="L354" s="9"/>
-      <c r="M354" s="9"/>
+      <c r="M354" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N354" s="9"/>
       <c r="O354" s="9"/>
       <c r="P354" s="9"/>
       <c r="Q354" s="9"/>
       <c r="R354" s="9"/>
-      <c r="T354" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T354" s="9"/>
       <c r="U354" s="9"/>
       <c r="V354" s="9"/>
-      <c r="W354" s="9"/>
+      <c r="W354" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X354" s="9"/>
       <c r="Y354" s="9"/>
       <c r="Z354" s="9"/>
       <c r="AA354" s="9"/>
       <c r="AB354" s="9"/>
-      <c r="AD354" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD354" s="9"/>
       <c r="AE354" s="9"/>
       <c r="AF354" s="9"/>
       <c r="AG354" s="9"/>
@@ -21883,41 +21882,39 @@
     <row r="355" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="41" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C355" s="9"/>
       <c r="D355" s="9"/>
       <c r="E355" s="9"/>
-      <c r="F355" s="9"/>
-      <c r="G355" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F355" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G355" s="9"/>
       <c r="H355" s="9"/>
       <c r="J355" s="9"/>
-      <c r="K355" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K355" s="9"/>
       <c r="L355" s="9"/>
       <c r="M355" s="9"/>
-      <c r="N355" s="9"/>
+      <c r="N355" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O355" s="9"/>
       <c r="P355" s="9"/>
       <c r="Q355" s="9"/>
       <c r="R355" s="9"/>
-      <c r="T355" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T355" s="9"/>
       <c r="U355" s="9"/>
       <c r="V355" s="9"/>
-      <c r="W355" s="9"/>
+      <c r="W355" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X355" s="9"/>
       <c r="Y355" s="9"/>
       <c r="Z355" s="9"/>
       <c r="AA355" s="9"/>
       <c r="AB355" s="9"/>
-      <c r="AD355" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD355" s="9"/>
       <c r="AE355" s="9"/>
       <c r="AF355" s="9"/>
       <c r="AG355" s="9"/>
@@ -21926,41 +21923,39 @@
     <row r="356" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="41" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C356" s="9"/>
       <c r="D356" s="9"/>
       <c r="E356" s="9"/>
-      <c r="F356" s="9"/>
-      <c r="G356" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F356" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G356" s="9"/>
       <c r="H356" s="9"/>
       <c r="J356" s="9"/>
       <c r="K356" s="9"/>
-      <c r="L356" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L356" s="9"/>
       <c r="M356" s="9"/>
       <c r="N356" s="9"/>
-      <c r="O356" s="9"/>
+      <c r="O356" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P356" s="9"/>
       <c r="Q356" s="9"/>
       <c r="R356" s="9"/>
-      <c r="T356" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T356" s="9"/>
       <c r="U356" s="9"/>
       <c r="V356" s="9"/>
-      <c r="W356" s="9"/>
+      <c r="W356" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X356" s="9"/>
       <c r="Y356" s="9"/>
       <c r="Z356" s="9"/>
       <c r="AA356" s="9"/>
       <c r="AB356" s="9"/>
-      <c r="AD356" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD356" s="9"/>
       <c r="AE356" s="9"/>
       <c r="AF356" s="9"/>
       <c r="AG356" s="9"/>
@@ -21969,7 +21964,7 @@
     <row r="357" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="41" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C357" s="9"/>
       <c r="D357" s="9"/>
@@ -21979,12 +21974,12 @@
         <v>108</v>
       </c>
       <c r="H357" s="9"/>
-      <c r="J357" s="9"/>
+      <c r="J357" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K357" s="9"/>
       <c r="L357" s="9"/>
-      <c r="M357" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M357" s="9"/>
       <c r="N357" s="9"/>
       <c r="O357" s="9"/>
       <c r="P357" s="9"/>
@@ -22012,7 +22007,7 @@
     <row r="358" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="41" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C358" s="9"/>
       <c r="D358" s="9"/>
@@ -22023,12 +22018,12 @@
       </c>
       <c r="H358" s="9"/>
       <c r="J358" s="9"/>
-      <c r="K358" s="9"/>
+      <c r="K358" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L358" s="9"/>
       <c r="M358" s="9"/>
-      <c r="N358" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N358" s="9"/>
       <c r="O358" s="9"/>
       <c r="P358" s="9"/>
       <c r="Q358" s="9"/>
@@ -22055,7 +22050,7 @@
     <row r="359" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="41" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C359" s="9"/>
       <c r="D359" s="9"/>
@@ -22067,12 +22062,12 @@
       <c r="H359" s="9"/>
       <c r="J359" s="9"/>
       <c r="K359" s="9"/>
-      <c r="L359" s="9"/>
+      <c r="L359" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M359" s="9"/>
       <c r="N359" s="9"/>
-      <c r="O359" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O359" s="9"/>
       <c r="P359" s="9"/>
       <c r="Q359" s="9"/>
       <c r="R359" s="9"/>
@@ -22098,7 +22093,7 @@
     <row r="360" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="41" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C360" s="9"/>
       <c r="D360" s="9"/>
@@ -22108,21 +22103,21 @@
         <v>108</v>
       </c>
       <c r="H360" s="9"/>
-      <c r="J360" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J360" s="9"/>
       <c r="K360" s="9"/>
       <c r="L360" s="9"/>
-      <c r="M360" s="9"/>
+      <c r="M360" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N360" s="9"/>
       <c r="O360" s="9"/>
       <c r="P360" s="9"/>
       <c r="Q360" s="9"/>
       <c r="R360" s="9"/>
-      <c r="T360" s="9"/>
-      <c r="U360" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T360" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U360" s="9"/>
       <c r="V360" s="9"/>
       <c r="W360" s="9"/>
       <c r="X360" s="9"/>
@@ -22130,7 +22125,9 @@
       <c r="Z360" s="9"/>
       <c r="AA360" s="9"/>
       <c r="AB360" s="9"/>
-      <c r="AD360" s="9"/>
+      <c r="AD360" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE360" s="9"/>
       <c r="AF360" s="9"/>
       <c r="AG360" s="9"/>
@@ -22139,7 +22136,7 @@
     <row r="361" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="41" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C361" s="9"/>
       <c r="D361" s="9"/>
@@ -22150,20 +22147,20 @@
       </c>
       <c r="H361" s="9"/>
       <c r="J361" s="9"/>
-      <c r="K361" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K361" s="9"/>
       <c r="L361" s="9"/>
       <c r="M361" s="9"/>
-      <c r="N361" s="9"/>
+      <c r="N361" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O361" s="9"/>
       <c r="P361" s="9"/>
       <c r="Q361" s="9"/>
       <c r="R361" s="9"/>
-      <c r="T361" s="9"/>
-      <c r="U361" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T361" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U361" s="9"/>
       <c r="V361" s="9"/>
       <c r="W361" s="9"/>
       <c r="X361" s="9"/>
@@ -22171,7 +22168,9 @@
       <c r="Z361" s="9"/>
       <c r="AA361" s="9"/>
       <c r="AB361" s="9"/>
-      <c r="AD361" s="9"/>
+      <c r="AD361" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE361" s="9"/>
       <c r="AF361" s="9"/>
       <c r="AG361" s="9"/>
@@ -22180,7 +22179,7 @@
     <row r="362" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="41" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C362" s="9"/>
       <c r="D362" s="9"/>
@@ -22192,19 +22191,19 @@
       <c r="H362" s="9"/>
       <c r="J362" s="9"/>
       <c r="K362" s="9"/>
-      <c r="L362" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L362" s="9"/>
       <c r="M362" s="9"/>
       <c r="N362" s="9"/>
-      <c r="O362" s="9"/>
+      <c r="O362" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P362" s="9"/>
       <c r="Q362" s="9"/>
       <c r="R362" s="9"/>
-      <c r="T362" s="9"/>
-      <c r="U362" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T362" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U362" s="9"/>
       <c r="V362" s="9"/>
       <c r="W362" s="9"/>
       <c r="X362" s="9"/>
@@ -22212,7 +22211,9 @@
       <c r="Z362" s="9"/>
       <c r="AA362" s="9"/>
       <c r="AB362" s="9"/>
-      <c r="AD362" s="9"/>
+      <c r="AD362" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE362" s="9"/>
       <c r="AF362" s="9"/>
       <c r="AG362" s="9"/>
@@ -22221,7 +22222,7 @@
     <row r="363" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="41" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C363" s="9"/>
       <c r="D363" s="9"/>
@@ -22231,12 +22232,12 @@
         <v>108</v>
       </c>
       <c r="H363" s="9"/>
-      <c r="J363" s="9"/>
+      <c r="J363" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K363" s="9"/>
       <c r="L363" s="9"/>
-      <c r="M363" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M363" s="9"/>
       <c r="N363" s="9"/>
       <c r="O363" s="9"/>
       <c r="P363" s="9"/>
@@ -22262,7 +22263,7 @@
     <row r="364" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="41" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C364" s="9"/>
       <c r="D364" s="9"/>
@@ -22273,12 +22274,12 @@
       </c>
       <c r="H364" s="9"/>
       <c r="J364" s="9"/>
-      <c r="K364" s="9"/>
+      <c r="K364" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L364" s="9"/>
       <c r="M364" s="9"/>
-      <c r="N364" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N364" s="9"/>
       <c r="O364" s="9"/>
       <c r="P364" s="9"/>
       <c r="Q364" s="9"/>
@@ -22303,7 +22304,7 @@
     <row r="365" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="41" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C365" s="9"/>
       <c r="D365" s="9"/>
@@ -22315,12 +22316,12 @@
       <c r="H365" s="9"/>
       <c r="J365" s="9"/>
       <c r="K365" s="9"/>
-      <c r="L365" s="9"/>
+      <c r="L365" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M365" s="9"/>
       <c r="N365" s="9"/>
-      <c r="O365" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O365" s="9"/>
       <c r="P365" s="9"/>
       <c r="Q365" s="9"/>
       <c r="R365" s="9"/>
@@ -22344,7 +22345,7 @@
     <row r="366" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="41" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C366" s="9"/>
       <c r="D366" s="9"/>
@@ -22354,22 +22355,22 @@
         <v>108</v>
       </c>
       <c r="H366" s="9"/>
-      <c r="J366" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J366" s="9"/>
       <c r="K366" s="9"/>
       <c r="L366" s="9"/>
-      <c r="M366" s="9"/>
+      <c r="M366" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N366" s="9"/>
       <c r="O366" s="9"/>
       <c r="P366" s="9"/>
       <c r="Q366" s="9"/>
       <c r="R366" s="9"/>
       <c r="T366" s="9"/>
-      <c r="U366" s="9"/>
-      <c r="V366" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U366" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V366" s="9"/>
       <c r="W366" s="9"/>
       <c r="X366" s="9"/>
       <c r="Y366" s="9"/>
@@ -22385,7 +22386,7 @@
     <row r="367" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="41" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C367" s="9"/>
       <c r="D367" s="9"/>
@@ -22396,21 +22397,21 @@
       </c>
       <c r="H367" s="9"/>
       <c r="J367" s="9"/>
-      <c r="K367" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K367" s="9"/>
       <c r="L367" s="9"/>
       <c r="M367" s="9"/>
-      <c r="N367" s="9"/>
+      <c r="N367" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O367" s="9"/>
       <c r="P367" s="9"/>
       <c r="Q367" s="9"/>
       <c r="R367" s="9"/>
       <c r="T367" s="9"/>
-      <c r="U367" s="9"/>
-      <c r="V367" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U367" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V367" s="9"/>
       <c r="W367" s="9"/>
       <c r="X367" s="9"/>
       <c r="Y367" s="9"/>
@@ -22426,7 +22427,7 @@
     <row r="368" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="41" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C368" s="9"/>
       <c r="D368" s="9"/>
@@ -22438,20 +22439,20 @@
       <c r="H368" s="9"/>
       <c r="J368" s="9"/>
       <c r="K368" s="9"/>
-      <c r="L368" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L368" s="9"/>
       <c r="M368" s="9"/>
       <c r="N368" s="9"/>
-      <c r="O368" s="9"/>
+      <c r="O368" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P368" s="9"/>
       <c r="Q368" s="9"/>
       <c r="R368" s="9"/>
       <c r="T368" s="9"/>
-      <c r="U368" s="9"/>
-      <c r="V368" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U368" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V368" s="9"/>
       <c r="W368" s="9"/>
       <c r="X368" s="9"/>
       <c r="Y368" s="9"/>
@@ -22467,7 +22468,7 @@
     <row r="369" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="41" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C369" s="9"/>
       <c r="D369" s="9"/>
@@ -22477,12 +22478,12 @@
         <v>108</v>
       </c>
       <c r="H369" s="9"/>
-      <c r="J369" s="9"/>
+      <c r="J369" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K369" s="9"/>
       <c r="L369" s="9"/>
-      <c r="M369" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M369" s="9"/>
       <c r="N369" s="9"/>
       <c r="O369" s="9"/>
       <c r="P369" s="9"/>
@@ -22508,7 +22509,7 @@
     <row r="370" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="41" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C370" s="9"/>
       <c r="D370" s="9"/>
@@ -22519,12 +22520,12 @@
       </c>
       <c r="H370" s="9"/>
       <c r="J370" s="9"/>
-      <c r="K370" s="9"/>
+      <c r="K370" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L370" s="9"/>
       <c r="M370" s="9"/>
-      <c r="N370" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N370" s="9"/>
       <c r="O370" s="9"/>
       <c r="P370" s="9"/>
       <c r="Q370" s="9"/>
@@ -22549,7 +22550,7 @@
     <row r="371" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="41" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C371" s="9"/>
       <c r="D371" s="9"/>
@@ -22561,12 +22562,12 @@
       <c r="H371" s="9"/>
       <c r="J371" s="9"/>
       <c r="K371" s="9"/>
-      <c r="L371" s="9"/>
+      <c r="L371" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M371" s="9"/>
       <c r="N371" s="9"/>
-      <c r="O371" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O371" s="9"/>
       <c r="P371" s="9"/>
       <c r="Q371" s="9"/>
       <c r="R371" s="9"/>
@@ -22590,7 +22591,7 @@
     <row r="372" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="41" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C372" s="9"/>
       <c r="D372" s="9"/>
@@ -22600,12 +22601,12 @@
         <v>108</v>
       </c>
       <c r="H372" s="9"/>
-      <c r="J372" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J372" s="9"/>
       <c r="K372" s="9"/>
       <c r="L372" s="9"/>
-      <c r="M372" s="9"/>
+      <c r="M372" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N372" s="9"/>
       <c r="O372" s="9"/>
       <c r="P372" s="9"/>
@@ -22613,10 +22614,10 @@
       <c r="R372" s="9"/>
       <c r="T372" s="9"/>
       <c r="U372" s="9"/>
-      <c r="V372" s="9"/>
-      <c r="W372" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V372" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W372" s="9"/>
       <c r="X372" s="9"/>
       <c r="Y372" s="9"/>
       <c r="Z372" s="9"/>
@@ -22631,7 +22632,7 @@
     <row r="373" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="41" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C373" s="9"/>
       <c r="D373" s="9"/>
@@ -22642,22 +22643,22 @@
       </c>
       <c r="H373" s="9"/>
       <c r="J373" s="9"/>
-      <c r="K373" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K373" s="9"/>
       <c r="L373" s="9"/>
       <c r="M373" s="9"/>
-      <c r="N373" s="9"/>
+      <c r="N373" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O373" s="9"/>
       <c r="P373" s="9"/>
       <c r="Q373" s="9"/>
       <c r="R373" s="9"/>
       <c r="T373" s="9"/>
       <c r="U373" s="9"/>
-      <c r="V373" s="9"/>
-      <c r="W373" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V373" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W373" s="9"/>
       <c r="X373" s="9"/>
       <c r="Y373" s="9"/>
       <c r="Z373" s="9"/>
@@ -22672,7 +22673,7 @@
     <row r="374" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="41" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C374" s="9"/>
       <c r="D374" s="9"/>
@@ -22684,21 +22685,21 @@
       <c r="H374" s="9"/>
       <c r="J374" s="9"/>
       <c r="K374" s="9"/>
-      <c r="L374" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L374" s="9"/>
       <c r="M374" s="9"/>
       <c r="N374" s="9"/>
-      <c r="O374" s="9"/>
+      <c r="O374" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P374" s="9"/>
       <c r="Q374" s="9"/>
       <c r="R374" s="9"/>
       <c r="T374" s="9"/>
       <c r="U374" s="9"/>
-      <c r="V374" s="9"/>
-      <c r="W374" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V374" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W374" s="9"/>
       <c r="X374" s="9"/>
       <c r="Y374" s="9"/>
       <c r="Z374" s="9"/>
@@ -22713,7 +22714,7 @@
     <row r="375" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="41" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C375" s="9"/>
       <c r="D375" s="9"/>
@@ -22723,12 +22724,12 @@
         <v>108</v>
       </c>
       <c r="H375" s="9"/>
-      <c r="J375" s="9"/>
+      <c r="J375" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K375" s="9"/>
       <c r="L375" s="9"/>
-      <c r="M375" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M375" s="9"/>
       <c r="N375" s="9"/>
       <c r="O375" s="9"/>
       <c r="P375" s="9"/>
@@ -22754,7 +22755,7 @@
     <row r="376" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="41" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C376" s="9"/>
       <c r="D376" s="9"/>
@@ -22765,12 +22766,12 @@
       </c>
       <c r="H376" s="9"/>
       <c r="J376" s="9"/>
-      <c r="K376" s="9"/>
+      <c r="K376" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L376" s="9"/>
       <c r="M376" s="9"/>
-      <c r="N376" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N376" s="9"/>
       <c r="O376" s="9"/>
       <c r="P376" s="9"/>
       <c r="Q376" s="9"/>
@@ -22795,7 +22796,7 @@
     <row r="377" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="41" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C377" s="9"/>
       <c r="D377" s="9"/>
@@ -22807,12 +22808,12 @@
       <c r="H377" s="9"/>
       <c r="J377" s="9"/>
       <c r="K377" s="9"/>
-      <c r="L377" s="9"/>
+      <c r="L377" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M377" s="9"/>
       <c r="N377" s="9"/>
-      <c r="O377" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O377" s="9"/>
       <c r="P377" s="9"/>
       <c r="Q377" s="9"/>
       <c r="R377" s="9"/>
@@ -22834,24 +22835,24 @@
       <c r="AI377" s="8"/>
     </row>
     <row r="378" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A378" s="6">
-        <v>107</v>
-      </c>
-      <c r="B378" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C378" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A378" s="6"/>
+      <c r="B378" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="C378" s="9"/>
       <c r="D378" s="9"/>
       <c r="E378" s="9"/>
       <c r="F378" s="9"/>
-      <c r="G378" s="9"/>
+      <c r="G378" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H378" s="9"/>
       <c r="J378" s="9"/>
       <c r="K378" s="9"/>
       <c r="L378" s="9"/>
-      <c r="M378" s="9"/>
+      <c r="M378" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N378" s="9"/>
       <c r="O378" s="9"/>
       <c r="P378" s="9"/>
@@ -22860,7 +22861,9 @@
       <c r="T378" s="9"/>
       <c r="U378" s="9"/>
       <c r="V378" s="9"/>
-      <c r="W378" s="9"/>
+      <c r="W378" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X378" s="9"/>
       <c r="Y378" s="9"/>
       <c r="Z378" s="9"/>
@@ -22872,20 +22875,126 @@
       <c r="AG378" s="9"/>
       <c r="AI378" s="8"/>
     </row>
+    <row r="379" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A379" s="6"/>
+      <c r="B379" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="C379" s="9"/>
+      <c r="D379" s="9"/>
+      <c r="E379" s="9"/>
+      <c r="F379" s="9"/>
+      <c r="G379" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H379" s="9"/>
+      <c r="J379" s="9"/>
+      <c r="K379" s="9"/>
+      <c r="L379" s="9"/>
+      <c r="M379" s="9"/>
+      <c r="N379" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O379" s="9"/>
+      <c r="P379" s="9"/>
+      <c r="Q379" s="9"/>
+      <c r="R379" s="9"/>
+      <c r="T379" s="9"/>
+      <c r="U379" s="9"/>
+      <c r="V379" s="9"/>
+      <c r="W379" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X379" s="9"/>
+      <c r="Y379" s="9"/>
+      <c r="Z379" s="9"/>
+      <c r="AA379" s="9"/>
+      <c r="AB379" s="9"/>
+      <c r="AD379" s="9"/>
+      <c r="AE379" s="9"/>
+      <c r="AF379" s="9"/>
+      <c r="AG379" s="9"/>
+      <c r="AI379" s="8"/>
+    </row>
     <row r="380" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B380" s="5"/>
-      <c r="C380" s="5"/>
-      <c r="D380" s="5"/>
+      <c r="A380" s="6"/>
+      <c r="B380" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="C380" s="9"/>
+      <c r="D380" s="9"/>
+      <c r="E380" s="9"/>
+      <c r="F380" s="9"/>
+      <c r="G380" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H380" s="9"/>
+      <c r="J380" s="9"/>
+      <c r="K380" s="9"/>
+      <c r="L380" s="9"/>
+      <c r="M380" s="9"/>
+      <c r="N380" s="9"/>
+      <c r="O380" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P380" s="9"/>
+      <c r="Q380" s="9"/>
+      <c r="R380" s="9"/>
+      <c r="T380" s="9"/>
+      <c r="U380" s="9"/>
+      <c r="V380" s="9"/>
+      <c r="W380" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X380" s="9"/>
+      <c r="Y380" s="9"/>
+      <c r="Z380" s="9"/>
+      <c r="AA380" s="9"/>
+      <c r="AB380" s="9"/>
+      <c r="AD380" s="9"/>
+      <c r="AE380" s="9"/>
+      <c r="AF380" s="9"/>
+      <c r="AG380" s="9"/>
+      <c r="AI380" s="8"/>
     </row>
     <row r="381" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B381" s="5"/>
-      <c r="C381" s="5"/>
-      <c r="D381" s="5"/>
-    </row>
-    <row r="382" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B382" s="5"/>
-      <c r="C382" s="5"/>
-      <c r="D382" s="5"/>
+      <c r="A381" s="6">
+        <v>107</v>
+      </c>
+      <c r="B381" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C381" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D381" s="9"/>
+      <c r="E381" s="9"/>
+      <c r="F381" s="9"/>
+      <c r="G381" s="9"/>
+      <c r="H381" s="9"/>
+      <c r="J381" s="9"/>
+      <c r="K381" s="9"/>
+      <c r="L381" s="9"/>
+      <c r="M381" s="9"/>
+      <c r="N381" s="9"/>
+      <c r="O381" s="9"/>
+      <c r="P381" s="9"/>
+      <c r="Q381" s="9"/>
+      <c r="R381" s="9"/>
+      <c r="T381" s="9"/>
+      <c r="U381" s="9"/>
+      <c r="V381" s="9"/>
+      <c r="W381" s="9"/>
+      <c r="X381" s="9"/>
+      <c r="Y381" s="9"/>
+      <c r="Z381" s="9"/>
+      <c r="AA381" s="9"/>
+      <c r="AB381" s="9"/>
+      <c r="AD381" s="9"/>
+      <c r="AE381" s="9"/>
+      <c r="AF381" s="9"/>
+      <c r="AG381" s="9"/>
+      <c r="AI381" s="8"/>
     </row>
     <row r="383" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B383" s="5"/>
@@ -22951,6 +23060,21 @@
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
+    </row>
+    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B396" s="5"/>
+      <c r="C396" s="5"/>
+      <c r="D396" s="5"/>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B397" s="5"/>
+      <c r="C397" s="5"/>
+      <c r="D397" s="5"/>
+    </row>
+    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B398" s="5"/>
+      <c r="C398" s="5"/>
+      <c r="D398" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Commands.xlsx
+++ b/Commands.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Blad2!$A$1:$H$381</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Blad2!$A$1:$H$383</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="473">
   <si>
     <t>IF</t>
   </si>
@@ -1432,6 +1432,12 @@
   </si>
   <si>
     <t>STARSPRVAR</t>
+  </si>
+  <si>
+    <t>TICKERVARZERO</t>
+  </si>
+  <si>
+    <t>TICKERZERO</t>
   </si>
 </sst>
 </file>
@@ -7574,13 +7580,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI398"/>
+  <dimension ref="A1:AI400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C327" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H317" sqref="H317"/>
+      <selection pane="bottomRight" activeCell="W322" sqref="W322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20546,15 +20552,15 @@
     </row>
     <row r="322" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
-      <c r="B322" s="40" t="s">
-        <v>329</v>
+      <c r="B322" s="41" t="s">
+        <v>472</v>
       </c>
       <c r="C322" s="9"/>
-      <c r="D322" s="9"/>
+      <c r="D322" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="E322" s="9"/>
-      <c r="F322" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F322" s="9"/>
       <c r="G322" s="9"/>
       <c r="H322" s="9"/>
       <c r="J322" s="9"/>
@@ -20567,9 +20573,7 @@
       <c r="Q322" s="9"/>
       <c r="R322" s="9"/>
       <c r="T322" s="9"/>
-      <c r="U322" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U322" s="9"/>
       <c r="V322" s="9"/>
       <c r="W322" s="9"/>
       <c r="X322" s="9"/>
@@ -20585,17 +20589,17 @@
     </row>
     <row r="323" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
-      <c r="B323" s="40" t="s">
-        <v>330</v>
+      <c r="B323" s="41" t="s">
+        <v>331</v>
       </c>
       <c r="C323" s="9"/>
       <c r="D323" s="9"/>
       <c r="E323" s="9"/>
-      <c r="F323" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F323" s="9"/>
       <c r="G323" s="9"/>
-      <c r="H323" s="9"/>
+      <c r="H323" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J323" s="9"/>
       <c r="K323" s="9"/>
       <c r="L323" s="9"/>
@@ -20624,7 +20628,7 @@
     </row>
     <row r="324" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
-      <c r="B324" s="40" t="s">
+      <c r="B324" s="41" t="s">
         <v>332</v>
       </c>
       <c r="C324" s="9"/>
@@ -20663,17 +20667,17 @@
     </row>
     <row r="325" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
-      <c r="B325" s="40" t="s">
-        <v>331</v>
+      <c r="B325" s="41" t="s">
+        <v>471</v>
       </c>
       <c r="C325" s="9"/>
       <c r="D325" s="9"/>
       <c r="E325" s="9"/>
-      <c r="F325" s="9"/>
+      <c r="F325" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G325" s="9"/>
-      <c r="H325" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H325" s="9"/>
       <c r="J325" s="9"/>
       <c r="K325" s="9"/>
       <c r="L325" s="9"/>
@@ -20683,12 +20687,12 @@
       <c r="P325" s="9"/>
       <c r="Q325" s="9"/>
       <c r="R325" s="9"/>
-      <c r="T325" s="9"/>
+      <c r="T325" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="U325" s="9"/>
       <c r="V325" s="9"/>
-      <c r="W325" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W325" s="9"/>
       <c r="X325" s="9"/>
       <c r="Y325" s="9"/>
       <c r="Z325" s="9"/>
@@ -20701,18 +20705,16 @@
       <c r="AI325" s="8"/>
     </row>
     <row r="326" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A326" s="6">
-        <v>101</v>
-      </c>
-      <c r="B326" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C326" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A326" s="6"/>
+      <c r="B326" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="C326" s="9"/>
       <c r="D326" s="9"/>
       <c r="E326" s="9"/>
-      <c r="F326" s="9"/>
+      <c r="F326" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G326" s="9"/>
       <c r="H326" s="9"/>
       <c r="J326" s="9"/>
@@ -20727,7 +20729,9 @@
       <c r="T326" s="9"/>
       <c r="U326" s="9"/>
       <c r="V326" s="9"/>
-      <c r="W326" s="9"/>
+      <c r="W326" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X326" s="9"/>
       <c r="Y326" s="9"/>
       <c r="Z326" s="9"/>
@@ -20740,18 +20744,16 @@
       <c r="AI326" s="8"/>
     </row>
     <row r="327" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A327" s="6">
-        <v>102</v>
-      </c>
-      <c r="B327" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C327" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A327" s="6"/>
+      <c r="B327" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="C327" s="9"/>
       <c r="D327" s="9"/>
       <c r="E327" s="9"/>
-      <c r="F327" s="9"/>
+      <c r="F327" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G327" s="9"/>
       <c r="H327" s="9"/>
       <c r="J327" s="9"/>
@@ -20764,7 +20766,9 @@
       <c r="Q327" s="9"/>
       <c r="R327" s="9"/>
       <c r="T327" s="9"/>
-      <c r="U327" s="9"/>
+      <c r="U327" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V327" s="9"/>
       <c r="W327" s="9"/>
       <c r="X327" s="9"/>
@@ -20780,12 +20784,14 @@
     </row>
     <row r="328" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
-        <v>103</v>
-      </c>
-      <c r="B328" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C328" s="9"/>
+        <v>101</v>
+      </c>
+      <c r="B328" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C328" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D328" s="9"/>
       <c r="E328" s="9"/>
       <c r="F328" s="9"/>
@@ -20816,16 +20822,18 @@
       <c r="AI328" s="8"/>
     </row>
     <row r="329" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A329" s="6"/>
-      <c r="B329" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="C329" s="9"/>
+      <c r="A329" s="6">
+        <v>102</v>
+      </c>
+      <c r="B329" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C329" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D329" s="9"/>
       <c r="E329" s="9"/>
-      <c r="F329" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F329" s="9"/>
       <c r="G329" s="9"/>
       <c r="H329" s="9"/>
       <c r="J329" s="9"/>
@@ -20853,18 +20861,18 @@
       <c r="AI329" s="8"/>
     </row>
     <row r="330" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A330" s="6"/>
-      <c r="B330" s="40" t="s">
-        <v>334</v>
+      <c r="A330" s="6">
+        <v>103</v>
+      </c>
+      <c r="B330" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="C330" s="9"/>
       <c r="D330" s="9"/>
       <c r="E330" s="9"/>
       <c r="F330" s="9"/>
       <c r="G330" s="9"/>
-      <c r="H330" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H330" s="9"/>
       <c r="J330" s="9"/>
       <c r="K330" s="9"/>
       <c r="L330" s="9"/>
@@ -20890,18 +20898,16 @@
       <c r="AI330" s="8"/>
     </row>
     <row r="331" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A331" s="6">
-        <v>105</v>
-      </c>
-      <c r="B331" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C331" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A331" s="6"/>
+      <c r="B331" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="C331" s="9"/>
       <c r="D331" s="9"/>
       <c r="E331" s="9"/>
-      <c r="F331" s="9"/>
+      <c r="F331" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G331" s="9"/>
       <c r="H331" s="9"/>
       <c r="J331" s="9"/>
@@ -20929,18 +20935,18 @@
       <c r="AI331" s="8"/>
     </row>
     <row r="332" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A332" s="6">
-        <v>106</v>
-      </c>
-      <c r="B332" s="43" t="s">
-        <v>1</v>
+      <c r="A332" s="6"/>
+      <c r="B332" s="40" t="s">
+        <v>334</v>
       </c>
       <c r="C332" s="9"/>
       <c r="D332" s="9"/>
       <c r="E332" s="9"/>
       <c r="F332" s="9"/>
       <c r="G332" s="9"/>
-      <c r="H332" s="9"/>
+      <c r="H332" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J332" s="9"/>
       <c r="K332" s="9"/>
       <c r="L332" s="9"/>
@@ -20966,21 +20972,21 @@
       <c r="AI332" s="8"/>
     </row>
     <row r="333" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A333" s="6"/>
-      <c r="B333" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="C333" s="9"/>
+      <c r="A333" s="6">
+        <v>105</v>
+      </c>
+      <c r="B333" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C333" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D333" s="9"/>
       <c r="E333" s="9"/>
-      <c r="F333" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F333" s="9"/>
       <c r="G333" s="9"/>
       <c r="H333" s="9"/>
-      <c r="J333" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J333" s="9"/>
       <c r="K333" s="9"/>
       <c r="L333" s="9"/>
       <c r="M333" s="9"/>
@@ -20989,9 +20995,7 @@
       <c r="P333" s="9"/>
       <c r="Q333" s="9"/>
       <c r="R333" s="9"/>
-      <c r="T333" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T333" s="9"/>
       <c r="U333" s="9"/>
       <c r="V333" s="9"/>
       <c r="W333" s="9"/>
@@ -21000,31 +21004,27 @@
       <c r="Z333" s="9"/>
       <c r="AA333" s="9"/>
       <c r="AB333" s="9"/>
-      <c r="AD333" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD333" s="9"/>
       <c r="AE333" s="9"/>
       <c r="AF333" s="9"/>
       <c r="AG333" s="9"/>
       <c r="AI333" s="8"/>
     </row>
     <row r="334" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A334" s="6"/>
-      <c r="B334" s="41" t="s">
-        <v>336</v>
+      <c r="A334" s="6">
+        <v>106</v>
+      </c>
+      <c r="B334" s="43" t="s">
+        <v>1</v>
       </c>
       <c r="C334" s="9"/>
       <c r="D334" s="9"/>
       <c r="E334" s="9"/>
-      <c r="F334" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F334" s="9"/>
       <c r="G334" s="9"/>
       <c r="H334" s="9"/>
       <c r="J334" s="9"/>
-      <c r="K334" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K334" s="9"/>
       <c r="L334" s="9"/>
       <c r="M334" s="9"/>
       <c r="N334" s="9"/>
@@ -21032,9 +21032,7 @@
       <c r="P334" s="9"/>
       <c r="Q334" s="9"/>
       <c r="R334" s="9"/>
-      <c r="T334" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T334" s="9"/>
       <c r="U334" s="9"/>
       <c r="V334" s="9"/>
       <c r="W334" s="9"/>
@@ -21043,9 +21041,7 @@
       <c r="Z334" s="9"/>
       <c r="AA334" s="9"/>
       <c r="AB334" s="9"/>
-      <c r="AD334" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD334" s="9"/>
       <c r="AE334" s="9"/>
       <c r="AF334" s="9"/>
       <c r="AG334" s="9"/>
@@ -21054,7 +21050,7 @@
     <row r="335" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="41" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C335" s="9"/>
       <c r="D335" s="9"/>
@@ -21064,11 +21060,11 @@
       </c>
       <c r="G335" s="9"/>
       <c r="H335" s="9"/>
-      <c r="J335" s="9"/>
+      <c r="J335" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K335" s="9"/>
-      <c r="L335" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L335" s="9"/>
       <c r="M335" s="9"/>
       <c r="N335" s="9"/>
       <c r="O335" s="9"/>
@@ -21097,7 +21093,7 @@
     <row r="336" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="41" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C336" s="9"/>
       <c r="D336" s="9"/>
@@ -21108,11 +21104,11 @@
       <c r="G336" s="9"/>
       <c r="H336" s="9"/>
       <c r="J336" s="9"/>
-      <c r="K336" s="9"/>
+      <c r="K336" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L336" s="9"/>
-      <c r="M336" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M336" s="9"/>
       <c r="N336" s="9"/>
       <c r="O336" s="9"/>
       <c r="P336" s="9"/>
@@ -21140,7 +21136,7 @@
     <row r="337" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="41" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C337" s="9"/>
       <c r="D337" s="9"/>
@@ -21152,11 +21148,11 @@
       <c r="H337" s="9"/>
       <c r="J337" s="9"/>
       <c r="K337" s="9"/>
-      <c r="L337" s="9"/>
+      <c r="L337" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M337" s="9"/>
-      <c r="N337" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N337" s="9"/>
       <c r="O337" s="9"/>
       <c r="P337" s="9"/>
       <c r="Q337" s="9"/>
@@ -21183,7 +21179,7 @@
     <row r="338" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="41" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C338" s="9"/>
       <c r="D338" s="9"/>
@@ -21196,11 +21192,11 @@
       <c r="J338" s="9"/>
       <c r="K338" s="9"/>
       <c r="L338" s="9"/>
-      <c r="M338" s="9"/>
+      <c r="M338" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N338" s="9"/>
-      <c r="O338" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O338" s="9"/>
       <c r="P338" s="9"/>
       <c r="Q338" s="9"/>
       <c r="R338" s="9"/>
@@ -21226,7 +21222,7 @@
     <row r="339" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="41" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C339" s="9"/>
       <c r="D339" s="9"/>
@@ -21236,21 +21232,21 @@
       </c>
       <c r="G339" s="9"/>
       <c r="H339" s="9"/>
-      <c r="J339" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J339" s="9"/>
       <c r="K339" s="9"/>
       <c r="L339" s="9"/>
       <c r="M339" s="9"/>
-      <c r="N339" s="9"/>
+      <c r="N339" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O339" s="9"/>
       <c r="P339" s="9"/>
       <c r="Q339" s="9"/>
       <c r="R339" s="9"/>
-      <c r="T339" s="9"/>
-      <c r="U339" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T339" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U339" s="9"/>
       <c r="V339" s="9"/>
       <c r="W339" s="9"/>
       <c r="X339" s="9"/>
@@ -21258,7 +21254,9 @@
       <c r="Z339" s="9"/>
       <c r="AA339" s="9"/>
       <c r="AB339" s="9"/>
-      <c r="AD339" s="9"/>
+      <c r="AD339" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE339" s="9"/>
       <c r="AF339" s="9"/>
       <c r="AG339" s="9"/>
@@ -21267,7 +21265,7 @@
     <row r="340" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="41" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C340" s="9"/>
       <c r="D340" s="9"/>
@@ -21278,20 +21276,20 @@
       <c r="G340" s="9"/>
       <c r="H340" s="9"/>
       <c r="J340" s="9"/>
-      <c r="K340" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K340" s="9"/>
       <c r="L340" s="9"/>
       <c r="M340" s="9"/>
       <c r="N340" s="9"/>
-      <c r="O340" s="9"/>
+      <c r="O340" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P340" s="9"/>
       <c r="Q340" s="9"/>
       <c r="R340" s="9"/>
-      <c r="T340" s="9"/>
-      <c r="U340" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T340" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U340" s="9"/>
       <c r="V340" s="9"/>
       <c r="W340" s="9"/>
       <c r="X340" s="9"/>
@@ -21299,7 +21297,9 @@
       <c r="Z340" s="9"/>
       <c r="AA340" s="9"/>
       <c r="AB340" s="9"/>
-      <c r="AD340" s="9"/>
+      <c r="AD340" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE340" s="9"/>
       <c r="AF340" s="9"/>
       <c r="AG340" s="9"/>
@@ -21308,7 +21308,7 @@
     <row r="341" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
@@ -21318,11 +21318,11 @@
       </c>
       <c r="G341" s="9"/>
       <c r="H341" s="9"/>
-      <c r="J341" s="9"/>
+      <c r="J341" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K341" s="9"/>
-      <c r="L341" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L341" s="9"/>
       <c r="M341" s="9"/>
       <c r="N341" s="9"/>
       <c r="O341" s="9"/>
@@ -21349,7 +21349,7 @@
     <row r="342" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="41" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
@@ -21360,11 +21360,11 @@
       <c r="G342" s="9"/>
       <c r="H342" s="9"/>
       <c r="J342" s="9"/>
-      <c r="K342" s="9"/>
+      <c r="K342" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L342" s="9"/>
-      <c r="M342" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M342" s="9"/>
       <c r="N342" s="9"/>
       <c r="O342" s="9"/>
       <c r="P342" s="9"/>
@@ -21390,7 +21390,7 @@
     <row r="343" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C343" s="9"/>
       <c r="D343" s="9"/>
@@ -21402,11 +21402,11 @@
       <c r="H343" s="9"/>
       <c r="J343" s="9"/>
       <c r="K343" s="9"/>
-      <c r="L343" s="9"/>
+      <c r="L343" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M343" s="9"/>
-      <c r="N343" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N343" s="9"/>
       <c r="O343" s="9"/>
       <c r="P343" s="9"/>
       <c r="Q343" s="9"/>
@@ -21431,7 +21431,7 @@
     <row r="344" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="41" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C344" s="9"/>
       <c r="D344" s="9"/>
@@ -21444,11 +21444,11 @@
       <c r="J344" s="9"/>
       <c r="K344" s="9"/>
       <c r="L344" s="9"/>
-      <c r="M344" s="9"/>
+      <c r="M344" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N344" s="9"/>
-      <c r="O344" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O344" s="9"/>
       <c r="P344" s="9"/>
       <c r="Q344" s="9"/>
       <c r="R344" s="9"/>
@@ -21472,7 +21472,7 @@
     <row r="345" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="41" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
@@ -21482,22 +21482,22 @@
       </c>
       <c r="G345" s="9"/>
       <c r="H345" s="9"/>
-      <c r="J345" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J345" s="9"/>
       <c r="K345" s="9"/>
       <c r="L345" s="9"/>
       <c r="M345" s="9"/>
-      <c r="N345" s="9"/>
+      <c r="N345" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O345" s="9"/>
       <c r="P345" s="9"/>
       <c r="Q345" s="9"/>
       <c r="R345" s="9"/>
       <c r="T345" s="9"/>
-      <c r="U345" s="9"/>
-      <c r="V345" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U345" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V345" s="9"/>
       <c r="W345" s="9"/>
       <c r="X345" s="9"/>
       <c r="Y345" s="9"/>
@@ -21513,7 +21513,7 @@
     <row r="346" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="41" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
@@ -21524,21 +21524,21 @@
       <c r="G346" s="9"/>
       <c r="H346" s="9"/>
       <c r="J346" s="9"/>
-      <c r="K346" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K346" s="9"/>
       <c r="L346" s="9"/>
       <c r="M346" s="9"/>
       <c r="N346" s="9"/>
-      <c r="O346" s="9"/>
+      <c r="O346" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P346" s="9"/>
       <c r="Q346" s="9"/>
       <c r="R346" s="9"/>
       <c r="T346" s="9"/>
-      <c r="U346" s="9"/>
-      <c r="V346" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U346" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V346" s="9"/>
       <c r="W346" s="9"/>
       <c r="X346" s="9"/>
       <c r="Y346" s="9"/>
@@ -21554,7 +21554,7 @@
     <row r="347" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="41" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C347" s="9"/>
       <c r="D347" s="9"/>
@@ -21564,11 +21564,11 @@
       </c>
       <c r="G347" s="9"/>
       <c r="H347" s="9"/>
-      <c r="J347" s="9"/>
+      <c r="J347" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K347" s="9"/>
-      <c r="L347" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L347" s="9"/>
       <c r="M347" s="9"/>
       <c r="N347" s="9"/>
       <c r="O347" s="9"/>
@@ -21595,7 +21595,7 @@
     <row r="348" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="41" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C348" s="9"/>
       <c r="D348" s="9"/>
@@ -21606,11 +21606,11 @@
       <c r="G348" s="9"/>
       <c r="H348" s="9"/>
       <c r="J348" s="9"/>
-      <c r="K348" s="9"/>
+      <c r="K348" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L348" s="9"/>
-      <c r="M348" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M348" s="9"/>
       <c r="N348" s="9"/>
       <c r="O348" s="9"/>
       <c r="P348" s="9"/>
@@ -21636,7 +21636,7 @@
     <row r="349" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="41" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
@@ -21648,11 +21648,11 @@
       <c r="H349" s="9"/>
       <c r="J349" s="9"/>
       <c r="K349" s="9"/>
-      <c r="L349" s="9"/>
+      <c r="L349" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M349" s="9"/>
-      <c r="N349" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N349" s="9"/>
       <c r="O349" s="9"/>
       <c r="P349" s="9"/>
       <c r="Q349" s="9"/>
@@ -21677,7 +21677,7 @@
     <row r="350" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C350" s="9"/>
       <c r="D350" s="9"/>
@@ -21690,11 +21690,11 @@
       <c r="J350" s="9"/>
       <c r="K350" s="9"/>
       <c r="L350" s="9"/>
-      <c r="M350" s="9"/>
+      <c r="M350" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N350" s="9"/>
-      <c r="O350" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O350" s="9"/>
       <c r="P350" s="9"/>
       <c r="Q350" s="9"/>
       <c r="R350" s="9"/>
@@ -21718,7 +21718,7 @@
     <row r="351" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="41" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C351" s="9"/>
       <c r="D351" s="9"/>
@@ -21728,23 +21728,23 @@
       </c>
       <c r="G351" s="9"/>
       <c r="H351" s="9"/>
-      <c r="J351" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J351" s="9"/>
       <c r="K351" s="9"/>
       <c r="L351" s="9"/>
       <c r="M351" s="9"/>
-      <c r="N351" s="9"/>
+      <c r="N351" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O351" s="9"/>
       <c r="P351" s="9"/>
       <c r="Q351" s="9"/>
       <c r="R351" s="9"/>
       <c r="T351" s="9"/>
       <c r="U351" s="9"/>
-      <c r="V351" s="9"/>
-      <c r="W351" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V351" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W351" s="9"/>
       <c r="X351" s="9"/>
       <c r="Y351" s="9"/>
       <c r="Z351" s="9"/>
@@ -21759,7 +21759,7 @@
     <row r="352" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="41" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C352" s="9"/>
       <c r="D352" s="9"/>
@@ -21770,22 +21770,22 @@
       <c r="G352" s="9"/>
       <c r="H352" s="9"/>
       <c r="J352" s="9"/>
-      <c r="K352" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K352" s="9"/>
       <c r="L352" s="9"/>
       <c r="M352" s="9"/>
       <c r="N352" s="9"/>
-      <c r="O352" s="9"/>
+      <c r="O352" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P352" s="9"/>
       <c r="Q352" s="9"/>
       <c r="R352" s="9"/>
       <c r="T352" s="9"/>
       <c r="U352" s="9"/>
-      <c r="V352" s="9"/>
-      <c r="W352" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V352" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W352" s="9"/>
       <c r="X352" s="9"/>
       <c r="Y352" s="9"/>
       <c r="Z352" s="9"/>
@@ -21800,7 +21800,7 @@
     <row r="353" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="41" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C353" s="9"/>
       <c r="D353" s="9"/>
@@ -21810,11 +21810,11 @@
       </c>
       <c r="G353" s="9"/>
       <c r="H353" s="9"/>
-      <c r="J353" s="9"/>
+      <c r="J353" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K353" s="9"/>
-      <c r="L353" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L353" s="9"/>
       <c r="M353" s="9"/>
       <c r="N353" s="9"/>
       <c r="O353" s="9"/>
@@ -21841,7 +21841,7 @@
     <row r="354" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="41" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C354" s="9"/>
       <c r="D354" s="9"/>
@@ -21852,11 +21852,11 @@
       <c r="G354" s="9"/>
       <c r="H354" s="9"/>
       <c r="J354" s="9"/>
-      <c r="K354" s="9"/>
+      <c r="K354" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L354" s="9"/>
-      <c r="M354" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M354" s="9"/>
       <c r="N354" s="9"/>
       <c r="O354" s="9"/>
       <c r="P354" s="9"/>
@@ -21882,7 +21882,7 @@
     <row r="355" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="41" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C355" s="9"/>
       <c r="D355" s="9"/>
@@ -21894,11 +21894,11 @@
       <c r="H355" s="9"/>
       <c r="J355" s="9"/>
       <c r="K355" s="9"/>
-      <c r="L355" s="9"/>
+      <c r="L355" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M355" s="9"/>
-      <c r="N355" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N355" s="9"/>
       <c r="O355" s="9"/>
       <c r="P355" s="9"/>
       <c r="Q355" s="9"/>
@@ -21923,7 +21923,7 @@
     <row r="356" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="41" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C356" s="9"/>
       <c r="D356" s="9"/>
@@ -21936,11 +21936,11 @@
       <c r="J356" s="9"/>
       <c r="K356" s="9"/>
       <c r="L356" s="9"/>
-      <c r="M356" s="9"/>
+      <c r="M356" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N356" s="9"/>
-      <c r="O356" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O356" s="9"/>
       <c r="P356" s="9"/>
       <c r="Q356" s="9"/>
       <c r="R356" s="9"/>
@@ -21964,41 +21964,39 @@
     <row r="357" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="41" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C357" s="9"/>
       <c r="D357" s="9"/>
       <c r="E357" s="9"/>
-      <c r="F357" s="9"/>
-      <c r="G357" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F357" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G357" s="9"/>
       <c r="H357" s="9"/>
-      <c r="J357" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J357" s="9"/>
       <c r="K357" s="9"/>
       <c r="L357" s="9"/>
       <c r="M357" s="9"/>
-      <c r="N357" s="9"/>
+      <c r="N357" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O357" s="9"/>
       <c r="P357" s="9"/>
       <c r="Q357" s="9"/>
       <c r="R357" s="9"/>
-      <c r="T357" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T357" s="9"/>
       <c r="U357" s="9"/>
       <c r="V357" s="9"/>
-      <c r="W357" s="9"/>
+      <c r="W357" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X357" s="9"/>
       <c r="Y357" s="9"/>
       <c r="Z357" s="9"/>
       <c r="AA357" s="9"/>
       <c r="AB357" s="9"/>
-      <c r="AD357" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD357" s="9"/>
       <c r="AE357" s="9"/>
       <c r="AF357" s="9"/>
       <c r="AG357" s="9"/>
@@ -22007,41 +22005,39 @@
     <row r="358" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="41" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C358" s="9"/>
       <c r="D358" s="9"/>
       <c r="E358" s="9"/>
-      <c r="F358" s="9"/>
-      <c r="G358" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F358" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G358" s="9"/>
       <c r="H358" s="9"/>
       <c r="J358" s="9"/>
-      <c r="K358" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K358" s="9"/>
       <c r="L358" s="9"/>
       <c r="M358" s="9"/>
       <c r="N358" s="9"/>
-      <c r="O358" s="9"/>
+      <c r="O358" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P358" s="9"/>
       <c r="Q358" s="9"/>
       <c r="R358" s="9"/>
-      <c r="T358" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T358" s="9"/>
       <c r="U358" s="9"/>
       <c r="V358" s="9"/>
-      <c r="W358" s="9"/>
+      <c r="W358" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X358" s="9"/>
       <c r="Y358" s="9"/>
       <c r="Z358" s="9"/>
       <c r="AA358" s="9"/>
       <c r="AB358" s="9"/>
-      <c r="AD358" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD358" s="9"/>
       <c r="AE358" s="9"/>
       <c r="AF358" s="9"/>
       <c r="AG358" s="9"/>
@@ -22050,7 +22046,7 @@
     <row r="359" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="41" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C359" s="9"/>
       <c r="D359" s="9"/>
@@ -22060,11 +22056,11 @@
         <v>108</v>
       </c>
       <c r="H359" s="9"/>
-      <c r="J359" s="9"/>
+      <c r="J359" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K359" s="9"/>
-      <c r="L359" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L359" s="9"/>
       <c r="M359" s="9"/>
       <c r="N359" s="9"/>
       <c r="O359" s="9"/>
@@ -22093,7 +22089,7 @@
     <row r="360" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="41" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C360" s="9"/>
       <c r="D360" s="9"/>
@@ -22104,11 +22100,11 @@
       </c>
       <c r="H360" s="9"/>
       <c r="J360" s="9"/>
-      <c r="K360" s="9"/>
+      <c r="K360" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L360" s="9"/>
-      <c r="M360" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M360" s="9"/>
       <c r="N360" s="9"/>
       <c r="O360" s="9"/>
       <c r="P360" s="9"/>
@@ -22136,7 +22132,7 @@
     <row r="361" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="41" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C361" s="9"/>
       <c r="D361" s="9"/>
@@ -22148,11 +22144,11 @@
       <c r="H361" s="9"/>
       <c r="J361" s="9"/>
       <c r="K361" s="9"/>
-      <c r="L361" s="9"/>
+      <c r="L361" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M361" s="9"/>
-      <c r="N361" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N361" s="9"/>
       <c r="O361" s="9"/>
       <c r="P361" s="9"/>
       <c r="Q361" s="9"/>
@@ -22179,7 +22175,7 @@
     <row r="362" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="41" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C362" s="9"/>
       <c r="D362" s="9"/>
@@ -22192,11 +22188,11 @@
       <c r="J362" s="9"/>
       <c r="K362" s="9"/>
       <c r="L362" s="9"/>
-      <c r="M362" s="9"/>
+      <c r="M362" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N362" s="9"/>
-      <c r="O362" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O362" s="9"/>
       <c r="P362" s="9"/>
       <c r="Q362" s="9"/>
       <c r="R362" s="9"/>
@@ -22222,7 +22218,7 @@
     <row r="363" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="41" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C363" s="9"/>
       <c r="D363" s="9"/>
@@ -22232,21 +22228,21 @@
         <v>108</v>
       </c>
       <c r="H363" s="9"/>
-      <c r="J363" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J363" s="9"/>
       <c r="K363" s="9"/>
       <c r="L363" s="9"/>
       <c r="M363" s="9"/>
-      <c r="N363" s="9"/>
+      <c r="N363" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O363" s="9"/>
       <c r="P363" s="9"/>
       <c r="Q363" s="9"/>
       <c r="R363" s="9"/>
-      <c r="T363" s="9"/>
-      <c r="U363" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T363" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U363" s="9"/>
       <c r="V363" s="9"/>
       <c r="W363" s="9"/>
       <c r="X363" s="9"/>
@@ -22254,7 +22250,9 @@
       <c r="Z363" s="9"/>
       <c r="AA363" s="9"/>
       <c r="AB363" s="9"/>
-      <c r="AD363" s="9"/>
+      <c r="AD363" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE363" s="9"/>
       <c r="AF363" s="9"/>
       <c r="AG363" s="9"/>
@@ -22263,7 +22261,7 @@
     <row r="364" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="41" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C364" s="9"/>
       <c r="D364" s="9"/>
@@ -22274,20 +22272,20 @@
       </c>
       <c r="H364" s="9"/>
       <c r="J364" s="9"/>
-      <c r="K364" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K364" s="9"/>
       <c r="L364" s="9"/>
       <c r="M364" s="9"/>
       <c r="N364" s="9"/>
-      <c r="O364" s="9"/>
+      <c r="O364" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P364" s="9"/>
       <c r="Q364" s="9"/>
       <c r="R364" s="9"/>
-      <c r="T364" s="9"/>
-      <c r="U364" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T364" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U364" s="9"/>
       <c r="V364" s="9"/>
       <c r="W364" s="9"/>
       <c r="X364" s="9"/>
@@ -22295,7 +22293,9 @@
       <c r="Z364" s="9"/>
       <c r="AA364" s="9"/>
       <c r="AB364" s="9"/>
-      <c r="AD364" s="9"/>
+      <c r="AD364" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE364" s="9"/>
       <c r="AF364" s="9"/>
       <c r="AG364" s="9"/>
@@ -22304,7 +22304,7 @@
     <row r="365" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="41" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C365" s="9"/>
       <c r="D365" s="9"/>
@@ -22314,11 +22314,11 @@
         <v>108</v>
       </c>
       <c r="H365" s="9"/>
-      <c r="J365" s="9"/>
+      <c r="J365" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K365" s="9"/>
-      <c r="L365" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L365" s="9"/>
       <c r="M365" s="9"/>
       <c r="N365" s="9"/>
       <c r="O365" s="9"/>
@@ -22345,7 +22345,7 @@
     <row r="366" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="41" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C366" s="9"/>
       <c r="D366" s="9"/>
@@ -22356,11 +22356,11 @@
       </c>
       <c r="H366" s="9"/>
       <c r="J366" s="9"/>
-      <c r="K366" s="9"/>
+      <c r="K366" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L366" s="9"/>
-      <c r="M366" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M366" s="9"/>
       <c r="N366" s="9"/>
       <c r="O366" s="9"/>
       <c r="P366" s="9"/>
@@ -22386,7 +22386,7 @@
     <row r="367" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="41" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C367" s="9"/>
       <c r="D367" s="9"/>
@@ -22398,11 +22398,11 @@
       <c r="H367" s="9"/>
       <c r="J367" s="9"/>
       <c r="K367" s="9"/>
-      <c r="L367" s="9"/>
+      <c r="L367" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M367" s="9"/>
-      <c r="N367" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N367" s="9"/>
       <c r="O367" s="9"/>
       <c r="P367" s="9"/>
       <c r="Q367" s="9"/>
@@ -22427,7 +22427,7 @@
     <row r="368" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="41" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C368" s="9"/>
       <c r="D368" s="9"/>
@@ -22440,11 +22440,11 @@
       <c r="J368" s="9"/>
       <c r="K368" s="9"/>
       <c r="L368" s="9"/>
-      <c r="M368" s="9"/>
+      <c r="M368" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N368" s="9"/>
-      <c r="O368" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O368" s="9"/>
       <c r="P368" s="9"/>
       <c r="Q368" s="9"/>
       <c r="R368" s="9"/>
@@ -22468,7 +22468,7 @@
     <row r="369" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="41" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C369" s="9"/>
       <c r="D369" s="9"/>
@@ -22478,22 +22478,22 @@
         <v>108</v>
       </c>
       <c r="H369" s="9"/>
-      <c r="J369" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J369" s="9"/>
       <c r="K369" s="9"/>
       <c r="L369" s="9"/>
       <c r="M369" s="9"/>
-      <c r="N369" s="9"/>
+      <c r="N369" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O369" s="9"/>
       <c r="P369" s="9"/>
       <c r="Q369" s="9"/>
       <c r="R369" s="9"/>
       <c r="T369" s="9"/>
-      <c r="U369" s="9"/>
-      <c r="V369" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U369" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V369" s="9"/>
       <c r="W369" s="9"/>
       <c r="X369" s="9"/>
       <c r="Y369" s="9"/>
@@ -22509,7 +22509,7 @@
     <row r="370" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="41" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C370" s="9"/>
       <c r="D370" s="9"/>
@@ -22520,21 +22520,21 @@
       </c>
       <c r="H370" s="9"/>
       <c r="J370" s="9"/>
-      <c r="K370" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K370" s="9"/>
       <c r="L370" s="9"/>
       <c r="M370" s="9"/>
       <c r="N370" s="9"/>
-      <c r="O370" s="9"/>
+      <c r="O370" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P370" s="9"/>
       <c r="Q370" s="9"/>
       <c r="R370" s="9"/>
       <c r="T370" s="9"/>
-      <c r="U370" s="9"/>
-      <c r="V370" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U370" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V370" s="9"/>
       <c r="W370" s="9"/>
       <c r="X370" s="9"/>
       <c r="Y370" s="9"/>
@@ -22550,7 +22550,7 @@
     <row r="371" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="41" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C371" s="9"/>
       <c r="D371" s="9"/>
@@ -22560,11 +22560,11 @@
         <v>108</v>
       </c>
       <c r="H371" s="9"/>
-      <c r="J371" s="9"/>
+      <c r="J371" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K371" s="9"/>
-      <c r="L371" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L371" s="9"/>
       <c r="M371" s="9"/>
       <c r="N371" s="9"/>
       <c r="O371" s="9"/>
@@ -22591,7 +22591,7 @@
     <row r="372" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="41" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C372" s="9"/>
       <c r="D372" s="9"/>
@@ -22602,11 +22602,11 @@
       </c>
       <c r="H372" s="9"/>
       <c r="J372" s="9"/>
-      <c r="K372" s="9"/>
+      <c r="K372" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L372" s="9"/>
-      <c r="M372" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M372" s="9"/>
       <c r="N372" s="9"/>
       <c r="O372" s="9"/>
       <c r="P372" s="9"/>
@@ -22632,7 +22632,7 @@
     <row r="373" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="41" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C373" s="9"/>
       <c r="D373" s="9"/>
@@ -22644,11 +22644,11 @@
       <c r="H373" s="9"/>
       <c r="J373" s="9"/>
       <c r="K373" s="9"/>
-      <c r="L373" s="9"/>
+      <c r="L373" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M373" s="9"/>
-      <c r="N373" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N373" s="9"/>
       <c r="O373" s="9"/>
       <c r="P373" s="9"/>
       <c r="Q373" s="9"/>
@@ -22673,7 +22673,7 @@
     <row r="374" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="41" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C374" s="9"/>
       <c r="D374" s="9"/>
@@ -22686,11 +22686,11 @@
       <c r="J374" s="9"/>
       <c r="K374" s="9"/>
       <c r="L374" s="9"/>
-      <c r="M374" s="9"/>
+      <c r="M374" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N374" s="9"/>
-      <c r="O374" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O374" s="9"/>
       <c r="P374" s="9"/>
       <c r="Q374" s="9"/>
       <c r="R374" s="9"/>
@@ -22714,7 +22714,7 @@
     <row r="375" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="41" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C375" s="9"/>
       <c r="D375" s="9"/>
@@ -22724,23 +22724,23 @@
         <v>108</v>
       </c>
       <c r="H375" s="9"/>
-      <c r="J375" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J375" s="9"/>
       <c r="K375" s="9"/>
       <c r="L375" s="9"/>
       <c r="M375" s="9"/>
-      <c r="N375" s="9"/>
+      <c r="N375" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O375" s="9"/>
       <c r="P375" s="9"/>
       <c r="Q375" s="9"/>
       <c r="R375" s="9"/>
       <c r="T375" s="9"/>
       <c r="U375" s="9"/>
-      <c r="V375" s="9"/>
-      <c r="W375" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V375" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W375" s="9"/>
       <c r="X375" s="9"/>
       <c r="Y375" s="9"/>
       <c r="Z375" s="9"/>
@@ -22755,7 +22755,7 @@
     <row r="376" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="41" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C376" s="9"/>
       <c r="D376" s="9"/>
@@ -22766,22 +22766,22 @@
       </c>
       <c r="H376" s="9"/>
       <c r="J376" s="9"/>
-      <c r="K376" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K376" s="9"/>
       <c r="L376" s="9"/>
       <c r="M376" s="9"/>
       <c r="N376" s="9"/>
-      <c r="O376" s="9"/>
+      <c r="O376" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P376" s="9"/>
       <c r="Q376" s="9"/>
       <c r="R376" s="9"/>
       <c r="T376" s="9"/>
       <c r="U376" s="9"/>
-      <c r="V376" s="9"/>
-      <c r="W376" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V376" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W376" s="9"/>
       <c r="X376" s="9"/>
       <c r="Y376" s="9"/>
       <c r="Z376" s="9"/>
@@ -22796,7 +22796,7 @@
     <row r="377" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="41" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C377" s="9"/>
       <c r="D377" s="9"/>
@@ -22806,11 +22806,11 @@
         <v>108</v>
       </c>
       <c r="H377" s="9"/>
-      <c r="J377" s="9"/>
+      <c r="J377" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K377" s="9"/>
-      <c r="L377" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L377" s="9"/>
       <c r="M377" s="9"/>
       <c r="N377" s="9"/>
       <c r="O377" s="9"/>
@@ -22837,7 +22837,7 @@
     <row r="378" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="41" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C378" s="9"/>
       <c r="D378" s="9"/>
@@ -22848,11 +22848,11 @@
       </c>
       <c r="H378" s="9"/>
       <c r="J378" s="9"/>
-      <c r="K378" s="9"/>
+      <c r="K378" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L378" s="9"/>
-      <c r="M378" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M378" s="9"/>
       <c r="N378" s="9"/>
       <c r="O378" s="9"/>
       <c r="P378" s="9"/>
@@ -22878,7 +22878,7 @@
     <row r="379" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="41" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C379" s="9"/>
       <c r="D379" s="9"/>
@@ -22890,11 +22890,11 @@
       <c r="H379" s="9"/>
       <c r="J379" s="9"/>
       <c r="K379" s="9"/>
-      <c r="L379" s="9"/>
+      <c r="L379" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M379" s="9"/>
-      <c r="N379" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N379" s="9"/>
       <c r="O379" s="9"/>
       <c r="P379" s="9"/>
       <c r="Q379" s="9"/>
@@ -22919,7 +22919,7 @@
     <row r="380" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="41" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C380" s="9"/>
       <c r="D380" s="9"/>
@@ -22932,11 +22932,11 @@
       <c r="J380" s="9"/>
       <c r="K380" s="9"/>
       <c r="L380" s="9"/>
-      <c r="M380" s="9"/>
+      <c r="M380" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N380" s="9"/>
-      <c r="O380" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O380" s="9"/>
       <c r="P380" s="9"/>
       <c r="Q380" s="9"/>
       <c r="R380" s="9"/>
@@ -22958,25 +22958,25 @@
       <c r="AI380" s="8"/>
     </row>
     <row r="381" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A381" s="6">
-        <v>107</v>
-      </c>
-      <c r="B381" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C381" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A381" s="6"/>
+      <c r="B381" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="C381" s="9"/>
       <c r="D381" s="9"/>
       <c r="E381" s="9"/>
       <c r="F381" s="9"/>
-      <c r="G381" s="9"/>
+      <c r="G381" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H381" s="9"/>
       <c r="J381" s="9"/>
       <c r="K381" s="9"/>
       <c r="L381" s="9"/>
       <c r="M381" s="9"/>
-      <c r="N381" s="9"/>
+      <c r="N381" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O381" s="9"/>
       <c r="P381" s="9"/>
       <c r="Q381" s="9"/>
@@ -22984,7 +22984,9 @@
       <c r="T381" s="9"/>
       <c r="U381" s="9"/>
       <c r="V381" s="9"/>
-      <c r="W381" s="9"/>
+      <c r="W381" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X381" s="9"/>
       <c r="Y381" s="9"/>
       <c r="Z381" s="9"/>
@@ -22996,15 +22998,85 @@
       <c r="AG381" s="9"/>
       <c r="AI381" s="8"/>
     </row>
+    <row r="382" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A382" s="6"/>
+      <c r="B382" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="C382" s="9"/>
+      <c r="D382" s="9"/>
+      <c r="E382" s="9"/>
+      <c r="F382" s="9"/>
+      <c r="G382" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H382" s="9"/>
+      <c r="J382" s="9"/>
+      <c r="K382" s="9"/>
+      <c r="L382" s="9"/>
+      <c r="M382" s="9"/>
+      <c r="N382" s="9"/>
+      <c r="O382" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P382" s="9"/>
+      <c r="Q382" s="9"/>
+      <c r="R382" s="9"/>
+      <c r="T382" s="9"/>
+      <c r="U382" s="9"/>
+      <c r="V382" s="9"/>
+      <c r="W382" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X382" s="9"/>
+      <c r="Y382" s="9"/>
+      <c r="Z382" s="9"/>
+      <c r="AA382" s="9"/>
+      <c r="AB382" s="9"/>
+      <c r="AD382" s="9"/>
+      <c r="AE382" s="9"/>
+      <c r="AF382" s="9"/>
+      <c r="AG382" s="9"/>
+      <c r="AI382" s="8"/>
+    </row>
     <row r="383" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B383" s="5"/>
-      <c r="C383" s="5"/>
-      <c r="D383" s="5"/>
-    </row>
-    <row r="384" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B384" s="5"/>
-      <c r="C384" s="5"/>
-      <c r="D384" s="5"/>
+      <c r="A383" s="6">
+        <v>107</v>
+      </c>
+      <c r="B383" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C383" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D383" s="9"/>
+      <c r="E383" s="9"/>
+      <c r="F383" s="9"/>
+      <c r="G383" s="9"/>
+      <c r="H383" s="9"/>
+      <c r="J383" s="9"/>
+      <c r="K383" s="9"/>
+      <c r="L383" s="9"/>
+      <c r="M383" s="9"/>
+      <c r="N383" s="9"/>
+      <c r="O383" s="9"/>
+      <c r="P383" s="9"/>
+      <c r="Q383" s="9"/>
+      <c r="R383" s="9"/>
+      <c r="T383" s="9"/>
+      <c r="U383" s="9"/>
+      <c r="V383" s="9"/>
+      <c r="W383" s="9"/>
+      <c r="X383" s="9"/>
+      <c r="Y383" s="9"/>
+      <c r="Z383" s="9"/>
+      <c r="AA383" s="9"/>
+      <c r="AB383" s="9"/>
+      <c r="AD383" s="9"/>
+      <c r="AE383" s="9"/>
+      <c r="AF383" s="9"/>
+      <c r="AG383" s="9"/>
+      <c r="AI383" s="8"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B385" s="5"/>
@@ -23075,6 +23147,16 @@
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B399" s="5"/>
+      <c r="C399" s="5"/>
+      <c r="D399" s="5"/>
+    </row>
+    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B400" s="5"/>
+      <c r="C400" s="5"/>
+      <c r="D400" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Commands.xlsx
+++ b/Commands.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Blad2!$A$1:$H$383</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Blad2!$A$1:$H$385</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="475">
   <si>
     <t>IF</t>
   </si>
@@ -1438,6 +1438,12 @@
   </si>
   <si>
     <t>TICKERZERO</t>
+  </si>
+  <si>
+    <t>DIGZERO</t>
+  </si>
+  <si>
+    <t>DIGVAL</t>
   </si>
 </sst>
 </file>
@@ -7580,13 +7586,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI400"/>
+  <dimension ref="A1:AI402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C174" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W322" sqref="W322"/>
+      <selection pane="bottomRight" activeCell="B86" sqref="B86:B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11225,7 +11231,7 @@
       <c r="A85" s="6">
         <v>25</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C85" s="9"/>
@@ -11265,14 +11271,14 @@
       <c r="AI85" s="8"/>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
-        <v>26</v>
-      </c>
-      <c r="B86" s="43" t="s">
-        <v>48</v>
+      <c r="A86" s="6"/>
+      <c r="B86" s="41" t="s">
+        <v>473</v>
       </c>
       <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
+      <c r="D86" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -11303,23 +11309,21 @@
       <c r="AF86" s="9"/>
       <c r="AG86" s="9"/>
       <c r="AH86" s="2"/>
-      <c r="AI86" s="8" t="s">
-        <v>190</v>
-      </c>
+      <c r="AI86" s="8"/>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="41" t="s">
-        <v>232</v>
+        <v>474</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
-      <c r="F87" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F87" s="9"/>
       <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
+      <c r="H87" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="I87" s="2"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
@@ -11349,16 +11353,16 @@
       <c r="AI87" s="8"/>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="41" t="s">
-        <v>417</v>
+      <c r="A88" s="6">
+        <v>26</v>
+      </c>
+      <c r="B88" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
-      <c r="F88" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F88" s="9"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="2"/>
@@ -11387,12 +11391,14 @@
       <c r="AF88" s="9"/>
       <c r="AG88" s="9"/>
       <c r="AH88" s="2"/>
-      <c r="AI88" s="8"/>
+      <c r="AI88" s="8" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="41" t="s">
-        <v>418</v>
+        <v>232</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -11433,7 +11439,7 @@
     <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="41" t="s">
-        <v>233</v>
+        <v>417</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -11472,16 +11478,16 @@
       <c r="AI90" s="8"/>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
-        <v>27</v>
-      </c>
-      <c r="B91" s="43" t="s">
-        <v>69</v>
+      <c r="A91" s="6"/>
+      <c r="B91" s="41" t="s">
+        <v>418</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
+      <c r="F91" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="2"/>
@@ -11515,7 +11521,7 @@
     <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -11534,14 +11540,10 @@
       <c r="O92" s="9"/>
       <c r="P92" s="9"/>
       <c r="Q92" s="9"/>
-      <c r="R92" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="R92" s="9"/>
       <c r="S92" s="2"/>
       <c r="T92" s="9"/>
-      <c r="U92" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U92" s="9"/>
       <c r="V92" s="9"/>
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
@@ -11558,16 +11560,16 @@
       <c r="AI92" s="8"/>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="41" t="s">
-        <v>235</v>
+      <c r="A93" s="6">
+        <v>27</v>
+      </c>
+      <c r="B93" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
-      <c r="F93" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F93" s="9"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="2"/>
@@ -11579,16 +11581,12 @@
       <c r="O93" s="9"/>
       <c r="P93" s="9"/>
       <c r="Q93" s="9"/>
-      <c r="R93" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="R93" s="9"/>
       <c r="S93" s="2"/>
       <c r="T93" s="9"/>
       <c r="U93" s="9"/>
       <c r="V93" s="9"/>
-      <c r="W93" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W93" s="9"/>
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
@@ -11605,15 +11603,15 @@
     <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F94" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="2"/>
       <c r="J94" s="9"/>
@@ -11650,15 +11648,15 @@
     <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="41" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F95" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="2"/>
       <c r="J95" s="9"/>
@@ -11693,19 +11691,17 @@
       <c r="AI95" s="8"/>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
-        <v>28</v>
-      </c>
-      <c r="B96" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A96" s="6"/>
+      <c r="B96" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
+      <c r="G96" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H96" s="9"/>
       <c r="I96" s="2"/>
       <c r="J96" s="9"/>
@@ -11716,10 +11712,14 @@
       <c r="O96" s="9"/>
       <c r="P96" s="9"/>
       <c r="Q96" s="9"/>
-      <c r="R96" s="9"/>
+      <c r="R96" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="S96" s="2"/>
       <c r="T96" s="9"/>
-      <c r="U96" s="9"/>
+      <c r="U96" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V96" s="9"/>
       <c r="W96" s="9"/>
       <c r="X96" s="9"/>
@@ -11736,19 +11736,17 @@
       <c r="AI96" s="8"/>
     </row>
     <row r="97" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
-        <v>29</v>
-      </c>
-      <c r="B97" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A97" s="6"/>
+      <c r="B97" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
+      <c r="G97" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H97" s="9"/>
       <c r="I97" s="2"/>
       <c r="J97" s="9"/>
@@ -11759,12 +11757,16 @@
       <c r="O97" s="9"/>
       <c r="P97" s="9"/>
       <c r="Q97" s="9"/>
-      <c r="R97" s="9"/>
+      <c r="R97" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="S97" s="2"/>
       <c r="T97" s="9"/>
       <c r="U97" s="9"/>
       <c r="V97" s="9"/>
-      <c r="W97" s="9"/>
+      <c r="W97" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
@@ -11780,10 +11782,10 @@
     </row>
     <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>108</v>
@@ -11823,10 +11825,10 @@
     </row>
     <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>108</v>
@@ -11866,10 +11868,10 @@
     </row>
     <row r="100" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B100" s="42" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>108</v>
@@ -11909,10 +11911,10 @@
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>108</v>
@@ -11952,12 +11954,14 @@
     </row>
     <row r="102" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <v>34</v>
-      </c>
-      <c r="B102" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C102" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="B102" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
@@ -11992,16 +11996,18 @@
       <c r="AI102" s="8"/>
     </row>
     <row r="103" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
-      <c r="B103" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="C103" s="9"/>
+      <c r="A103" s="6">
+        <v>33</v>
+      </c>
+      <c r="B103" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F103" s="9"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="2"/>
@@ -12033,18 +12039,18 @@
       <c r="AI103" s="8"/>
     </row>
     <row r="104" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
-      <c r="B104" s="41" t="s">
-        <v>239</v>
+      <c r="A104" s="6">
+        <v>34</v>
+      </c>
+      <c r="B104" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
-      <c r="H104" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H104" s="9"/>
       <c r="I104" s="2"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -12074,18 +12080,16 @@
       <c r="AI104" s="8"/>
     </row>
     <row r="105" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A105" s="6">
-        <v>35</v>
-      </c>
-      <c r="B105" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A105" s="6"/>
+      <c r="B105" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
+      <c r="F105" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="2"/>
@@ -12117,18 +12121,19 @@
       <c r="AI105" s="8"/>
     </row>
     <row r="106" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A106" s="6">
-        <v>36</v>
-      </c>
-      <c r="B106" s="43" t="s">
-        <v>61</v>
+      <c r="A106" s="6"/>
+      <c r="B106" s="41" t="s">
+        <v>239</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
+      <c r="H106" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I106" s="2"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
@@ -12138,6 +12143,7 @@
       <c r="P106" s="9"/>
       <c r="Q106" s="9"/>
       <c r="R106" s="9"/>
+      <c r="S106" s="2"/>
       <c r="T106" s="9"/>
       <c r="U106" s="9"/>
       <c r="V106" s="9"/>
@@ -12147,25 +12153,30 @@
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
       <c r="AB106" s="9"/>
+      <c r="AC106" s="2"/>
       <c r="AD106" s="9"/>
       <c r="AE106" s="9"/>
       <c r="AF106" s="9"/>
       <c r="AG106" s="9"/>
+      <c r="AH106" s="2"/>
       <c r="AI106" s="8"/>
     </row>
     <row r="107" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
-      <c r="B107" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="C107" s="9"/>
+      <c r="A107" s="6">
+        <v>35</v>
+      </c>
+      <c r="B107" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F107" s="9"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
+      <c r="I107" s="2"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
@@ -12175,6 +12186,7 @@
       <c r="P107" s="9"/>
       <c r="Q107" s="9"/>
       <c r="R107" s="9"/>
+      <c r="S107" s="2"/>
       <c r="T107" s="9"/>
       <c r="U107" s="9"/>
       <c r="V107" s="9"/>
@@ -12184,25 +12196,27 @@
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
+      <c r="AC107" s="2"/>
       <c r="AD107" s="9"/>
       <c r="AE107" s="9"/>
       <c r="AF107" s="9"/>
       <c r="AG107" s="9"/>
+      <c r="AH107" s="2"/>
       <c r="AI107" s="8"/>
     </row>
     <row r="108" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
-      <c r="B108" s="41" t="s">
-        <v>241</v>
+      <c r="A108" s="6">
+        <v>36</v>
+      </c>
+      <c r="B108" s="43" t="s">
+        <v>61</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
-      <c r="H108" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
@@ -12228,16 +12242,16 @@
       <c r="AI108" s="8"/>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A109" s="6">
-        <v>37</v>
-      </c>
-      <c r="B109" s="43" t="s">
-        <v>79</v>
+      <c r="A109" s="6"/>
+      <c r="B109" s="41" t="s">
+        <v>240</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
+      <c r="F109" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="J109" s="9"/>
@@ -12266,183 +12280,179 @@
     </row>
     <row r="110" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
-      <c r="B110" s="45" t="s">
-        <v>459</v>
-      </c>
-      <c r="C110" s="48"/>
-      <c r="D110" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E110" s="48"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="49"/>
-      <c r="J110" s="48"/>
-      <c r="K110" s="48"/>
-      <c r="L110" s="48"/>
-      <c r="M110" s="48"/>
-      <c r="N110" s="48"/>
-      <c r="O110" s="48"/>
-      <c r="P110" s="48"/>
-      <c r="Q110" s="48"/>
-      <c r="R110" s="48"/>
-      <c r="S110" s="49"/>
-      <c r="T110" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="U110" s="48"/>
-      <c r="V110" s="48"/>
-      <c r="W110" s="48"/>
-      <c r="X110" s="48"/>
-      <c r="Y110" s="48"/>
-      <c r="Z110" s="48"/>
-      <c r="AA110" s="48"/>
-      <c r="AB110" s="48"/>
-      <c r="AC110" s="49"/>
-      <c r="AD110" s="48"/>
-      <c r="AE110" s="48"/>
-      <c r="AF110" s="48"/>
-      <c r="AG110" s="48"/>
-      <c r="AH110" s="49"/>
-      <c r="AI110" s="50" t="s">
-        <v>464</v>
-      </c>
+      <c r="B110" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="9"/>
+      <c r="T110" s="9"/>
+      <c r="U110" s="9"/>
+      <c r="V110" s="9"/>
+      <c r="W110" s="9"/>
+      <c r="X110" s="9"/>
+      <c r="Y110" s="9"/>
+      <c r="Z110" s="9"/>
+      <c r="AA110" s="9"/>
+      <c r="AB110" s="9"/>
+      <c r="AD110" s="9"/>
+      <c r="AE110" s="9"/>
+      <c r="AF110" s="9"/>
+      <c r="AG110" s="9"/>
+      <c r="AI110" s="8"/>
     </row>
     <row r="111" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
-      <c r="B111" s="45" t="s">
-        <v>460</v>
-      </c>
-      <c r="C111" s="48"/>
-      <c r="D111" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48"/>
-      <c r="G111" s="48"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="49"/>
-      <c r="J111" s="48"/>
-      <c r="K111" s="48"/>
-      <c r="L111" s="48"/>
-      <c r="M111" s="48"/>
-      <c r="N111" s="48"/>
-      <c r="O111" s="48"/>
-      <c r="P111" s="48"/>
-      <c r="Q111" s="48"/>
-      <c r="R111" s="48"/>
-      <c r="S111" s="49"/>
-      <c r="T111" s="48"/>
-      <c r="U111" s="48"/>
-      <c r="V111" s="48"/>
-      <c r="W111" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="X111" s="48"/>
-      <c r="Y111" s="48"/>
-      <c r="Z111" s="48"/>
-      <c r="AA111" s="48"/>
-      <c r="AB111" s="48"/>
-      <c r="AC111" s="49"/>
-      <c r="AD111" s="48"/>
-      <c r="AE111" s="48"/>
-      <c r="AF111" s="48"/>
-      <c r="AG111" s="48"/>
-      <c r="AH111" s="49"/>
-      <c r="AI111" s="50" t="s">
-        <v>464</v>
-      </c>
+      <c r="A111" s="6">
+        <v>37</v>
+      </c>
+      <c r="B111" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
+      <c r="R111" s="9"/>
+      <c r="T111" s="9"/>
+      <c r="U111" s="9"/>
+      <c r="V111" s="9"/>
+      <c r="W111" s="9"/>
+      <c r="X111" s="9"/>
+      <c r="Y111" s="9"/>
+      <c r="Z111" s="9"/>
+      <c r="AA111" s="9"/>
+      <c r="AB111" s="9"/>
+      <c r="AD111" s="9"/>
+      <c r="AE111" s="9"/>
+      <c r="AF111" s="9"/>
+      <c r="AG111" s="9"/>
+      <c r="AI111" s="8"/>
     </row>
     <row r="112" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
-      <c r="B112" s="41" t="s">
-        <v>461</v>
-      </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="J112" s="9"/>
-      <c r="K112" s="9"/>
-      <c r="L112" s="9"/>
-      <c r="M112" s="9"/>
-      <c r="N112" s="9"/>
-      <c r="O112" s="9"/>
-      <c r="P112" s="9"/>
-      <c r="Q112" s="9"/>
-      <c r="R112" s="9"/>
-      <c r="T112" s="9"/>
-      <c r="U112" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="V112" s="9"/>
-      <c r="W112" s="9"/>
-      <c r="X112" s="9"/>
-      <c r="Y112" s="9"/>
-      <c r="Z112" s="9"/>
-      <c r="AA112" s="9"/>
-      <c r="AB112" s="9"/>
-      <c r="AD112" s="9"/>
-      <c r="AE112" s="9"/>
-      <c r="AF112" s="9"/>
-      <c r="AG112" s="9"/>
-      <c r="AI112" s="8"/>
+      <c r="B112" s="45" t="s">
+        <v>459</v>
+      </c>
+      <c r="C112" s="48"/>
+      <c r="D112" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E112" s="48"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="49"/>
+      <c r="J112" s="48"/>
+      <c r="K112" s="48"/>
+      <c r="L112" s="48"/>
+      <c r="M112" s="48"/>
+      <c r="N112" s="48"/>
+      <c r="O112" s="48"/>
+      <c r="P112" s="48"/>
+      <c r="Q112" s="48"/>
+      <c r="R112" s="48"/>
+      <c r="S112" s="49"/>
+      <c r="T112" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="U112" s="48"/>
+      <c r="V112" s="48"/>
+      <c r="W112" s="48"/>
+      <c r="X112" s="48"/>
+      <c r="Y112" s="48"/>
+      <c r="Z112" s="48"/>
+      <c r="AA112" s="48"/>
+      <c r="AB112" s="48"/>
+      <c r="AC112" s="49"/>
+      <c r="AD112" s="48"/>
+      <c r="AE112" s="48"/>
+      <c r="AF112" s="48"/>
+      <c r="AG112" s="48"/>
+      <c r="AH112" s="49"/>
+      <c r="AI112" s="50" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="113" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
-      <c r="B113" s="44" t="s">
-        <v>462</v>
-      </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9"/>
-      <c r="M113" s="9"/>
-      <c r="N113" s="9"/>
-      <c r="O113" s="9"/>
-      <c r="P113" s="9"/>
-      <c r="Q113" s="9"/>
-      <c r="R113" s="9"/>
-      <c r="T113" s="9"/>
-      <c r="U113" s="9"/>
-      <c r="V113" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="W113" s="9"/>
-      <c r="X113" s="9"/>
-      <c r="Y113" s="9"/>
-      <c r="Z113" s="9"/>
-      <c r="AA113" s="9"/>
-      <c r="AB113" s="9"/>
-      <c r="AD113" s="9"/>
-      <c r="AE113" s="9"/>
-      <c r="AF113" s="9"/>
-      <c r="AG113" s="9"/>
-      <c r="AI113" s="8"/>
+      <c r="B113" s="45" t="s">
+        <v>460</v>
+      </c>
+      <c r="C113" s="48"/>
+      <c r="D113" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E113" s="48"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="49"/>
+      <c r="J113" s="48"/>
+      <c r="K113" s="48"/>
+      <c r="L113" s="48"/>
+      <c r="M113" s="48"/>
+      <c r="N113" s="48"/>
+      <c r="O113" s="48"/>
+      <c r="P113" s="48"/>
+      <c r="Q113" s="48"/>
+      <c r="R113" s="48"/>
+      <c r="S113" s="49"/>
+      <c r="T113" s="48"/>
+      <c r="U113" s="48"/>
+      <c r="V113" s="48"/>
+      <c r="W113" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="X113" s="48"/>
+      <c r="Y113" s="48"/>
+      <c r="Z113" s="48"/>
+      <c r="AA113" s="48"/>
+      <c r="AB113" s="48"/>
+      <c r="AC113" s="49"/>
+      <c r="AD113" s="48"/>
+      <c r="AE113" s="48"/>
+      <c r="AF113" s="48"/>
+      <c r="AG113" s="48"/>
+      <c r="AH113" s="49"/>
+      <c r="AI113" s="50" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="114" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="41" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
+      <c r="D114" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="E114" s="9"/>
-      <c r="F114" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F114" s="9"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="J114" s="9"/>
@@ -12454,10 +12464,10 @@
       <c r="P114" s="9"/>
       <c r="Q114" s="9"/>
       <c r="R114" s="9"/>
-      <c r="T114" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U114" s="9"/>
+      <c r="T114" s="9"/>
+      <c r="U114" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V114" s="9"/>
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
@@ -12473,15 +12483,15 @@
     </row>
     <row r="115" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
-      <c r="B115" s="41" t="s">
-        <v>243</v>
+      <c r="B115" s="44" t="s">
+        <v>462</v>
       </c>
       <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
+      <c r="D115" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="E115" s="9"/>
-      <c r="F115" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F115" s="9"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="J115" s="9"/>
@@ -12495,10 +12505,10 @@
       <c r="R115" s="9"/>
       <c r="T115" s="9"/>
       <c r="U115" s="9"/>
-      <c r="V115" s="9"/>
-      <c r="W115" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V115" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W115" s="9"/>
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
@@ -12513,7 +12523,7 @@
     <row r="116" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="41" t="s">
-        <v>242</v>
+        <v>455</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
@@ -12532,10 +12542,10 @@
       <c r="P116" s="9"/>
       <c r="Q116" s="9"/>
       <c r="R116" s="9"/>
-      <c r="T116" s="9"/>
-      <c r="U116" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T116" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U116" s="9"/>
       <c r="V116" s="9"/>
       <c r="W116" s="9"/>
       <c r="X116" s="9"/>
@@ -12551,8 +12561,8 @@
     </row>
     <row r="117" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
-      <c r="B117" s="44" t="s">
-        <v>456</v>
+      <c r="B117" s="41" t="s">
+        <v>243</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -12573,10 +12583,10 @@
       <c r="R117" s="9"/>
       <c r="T117" s="9"/>
       <c r="U117" s="9"/>
-      <c r="V117" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="W117" s="9"/>
+      <c r="V117" s="9"/>
+      <c r="W117" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
@@ -12590,62 +12600,56 @@
     </row>
     <row r="118" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
-      <c r="B118" s="45" t="s">
-        <v>457</v>
-      </c>
-      <c r="C118" s="48"/>
-      <c r="D118" s="48"/>
-      <c r="E118" s="48"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="48"/>
-      <c r="H118" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="I118" s="49"/>
-      <c r="J118" s="48"/>
-      <c r="K118" s="48"/>
-      <c r="L118" s="48"/>
-      <c r="M118" s="48"/>
-      <c r="N118" s="48"/>
-      <c r="O118" s="48"/>
-      <c r="P118" s="48"/>
-      <c r="Q118" s="48"/>
-      <c r="R118" s="48"/>
-      <c r="S118" s="49"/>
-      <c r="T118" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="U118" s="48"/>
-      <c r="V118" s="48"/>
-      <c r="W118" s="48"/>
-      <c r="X118" s="48"/>
-      <c r="Y118" s="48"/>
-      <c r="Z118" s="48"/>
-      <c r="AA118" s="48"/>
-      <c r="AB118" s="48"/>
-      <c r="AC118" s="49"/>
-      <c r="AD118" s="48"/>
-      <c r="AE118" s="48"/>
-      <c r="AF118" s="48"/>
-      <c r="AG118" s="48"/>
-      <c r="AH118" s="49"/>
-      <c r="AI118" s="50" t="s">
-        <v>464</v>
-      </c>
+      <c r="B118" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="9"/>
+      <c r="T118" s="9"/>
+      <c r="U118" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V118" s="9"/>
+      <c r="W118" s="9"/>
+      <c r="X118" s="9"/>
+      <c r="Y118" s="9"/>
+      <c r="Z118" s="9"/>
+      <c r="AA118" s="9"/>
+      <c r="AB118" s="9"/>
+      <c r="AD118" s="9"/>
+      <c r="AE118" s="9"/>
+      <c r="AF118" s="9"/>
+      <c r="AG118" s="9"/>
+      <c r="AI118" s="8"/>
     </row>
     <row r="119" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
-      <c r="B119" s="41" t="s">
-        <v>245</v>
+      <c r="B119" s="44" t="s">
+        <v>456</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
+      <c r="F119" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G119" s="9"/>
-      <c r="H119" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
@@ -12657,10 +12661,10 @@
       <c r="R119" s="9"/>
       <c r="T119" s="9"/>
       <c r="U119" s="9"/>
-      <c r="V119" s="9"/>
-      <c r="W119" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V119" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W119" s="9"/>
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
@@ -12674,47 +12678,53 @@
     </row>
     <row r="120" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
-      <c r="B120" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J120" s="9"/>
-      <c r="K120" s="9"/>
-      <c r="L120" s="9"/>
-      <c r="M120" s="9"/>
-      <c r="N120" s="9"/>
-      <c r="O120" s="9"/>
-      <c r="P120" s="9"/>
-      <c r="Q120" s="9"/>
-      <c r="R120" s="9"/>
-      <c r="T120" s="9"/>
-      <c r="U120" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="V120" s="9"/>
-      <c r="W120" s="9"/>
-      <c r="X120" s="9"/>
-      <c r="Y120" s="9"/>
-      <c r="Z120" s="9"/>
-      <c r="AA120" s="9"/>
-      <c r="AB120" s="9"/>
-      <c r="AD120" s="9"/>
-      <c r="AE120" s="9"/>
-      <c r="AF120" s="9"/>
-      <c r="AG120" s="9"/>
-      <c r="AI120" s="8"/>
+      <c r="B120" s="45" t="s">
+        <v>457</v>
+      </c>
+      <c r="C120" s="48"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="I120" s="49"/>
+      <c r="J120" s="48"/>
+      <c r="K120" s="48"/>
+      <c r="L120" s="48"/>
+      <c r="M120" s="48"/>
+      <c r="N120" s="48"/>
+      <c r="O120" s="48"/>
+      <c r="P120" s="48"/>
+      <c r="Q120" s="48"/>
+      <c r="R120" s="48"/>
+      <c r="S120" s="49"/>
+      <c r="T120" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="U120" s="48"/>
+      <c r="V120" s="48"/>
+      <c r="W120" s="48"/>
+      <c r="X120" s="48"/>
+      <c r="Y120" s="48"/>
+      <c r="Z120" s="48"/>
+      <c r="AA120" s="48"/>
+      <c r="AB120" s="48"/>
+      <c r="AC120" s="49"/>
+      <c r="AD120" s="48"/>
+      <c r="AE120" s="48"/>
+      <c r="AF120" s="48"/>
+      <c r="AG120" s="48"/>
+      <c r="AH120" s="49"/>
+      <c r="AI120" s="50" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="121" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
-      <c r="B121" s="44" t="s">
-        <v>458</v>
+      <c r="B121" s="41" t="s">
+        <v>245</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -12735,10 +12745,10 @@
       <c r="R121" s="9"/>
       <c r="T121" s="9"/>
       <c r="U121" s="9"/>
-      <c r="V121" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="W121" s="9"/>
+      <c r="V121" s="9"/>
+      <c r="W121" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X121" s="9"/>
       <c r="Y121" s="9"/>
       <c r="Z121" s="9"/>
@@ -12752,17 +12762,17 @@
     </row>
     <row r="122" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
-      <c r="B122" s="41" t="s">
-        <v>451</v>
+      <c r="B122" s="44" t="s">
+        <v>244</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
@@ -12773,7 +12783,9 @@
       <c r="Q122" s="9"/>
       <c r="R122" s="9"/>
       <c r="T122" s="9"/>
-      <c r="U122" s="9"/>
+      <c r="U122" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V122" s="9"/>
       <c r="W122" s="9"/>
       <c r="X122" s="9"/>
@@ -12789,17 +12801,17 @@
     </row>
     <row r="123" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
-      <c r="B123" s="41" t="s">
-        <v>452</v>
+      <c r="B123" s="44" t="s">
+        <v>458</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
@@ -12811,7 +12823,9 @@
       <c r="R123" s="9"/>
       <c r="T123" s="9"/>
       <c r="U123" s="9"/>
-      <c r="V123" s="9"/>
+      <c r="V123" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="W123" s="9"/>
       <c r="X123" s="9"/>
       <c r="Y123" s="9"/>
@@ -12827,7 +12841,7 @@
     <row r="124" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="41" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -12864,7 +12878,7 @@
     <row r="125" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="41" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -12899,19 +12913,17 @@
       <c r="AI125" s="8"/>
     </row>
     <row r="126" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A126" s="6">
-        <v>38</v>
-      </c>
-      <c r="B126" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A126" s="6"/>
+      <c r="B126" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
+      <c r="G126" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
@@ -12938,17 +12950,17 @@
       <c r="AI126" s="8"/>
     </row>
     <row r="127" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A127" s="6">
-        <v>39</v>
-      </c>
-      <c r="B127" s="43" t="s">
-        <v>26</v>
+      <c r="A127" s="6"/>
+      <c r="B127" s="41" t="s">
+        <v>454</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
+      <c r="G127" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
@@ -12975,16 +12987,18 @@
       <c r="AI127" s="8"/>
     </row>
     <row r="128" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A128" s="6"/>
-      <c r="B128" s="41" t="s">
-        <v>402</v>
-      </c>
-      <c r="C128" s="9"/>
+      <c r="A128" s="6">
+        <v>38</v>
+      </c>
+      <c r="B128" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="J128" s="9"/>
@@ -13012,18 +13026,18 @@
       <c r="AI128" s="8"/>
     </row>
     <row r="129" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A129" s="6"/>
-      <c r="B129" s="41" t="s">
-        <v>403</v>
+      <c r="A129" s="6">
+        <v>39</v>
+      </c>
+      <c r="B129" s="43" t="s">
+        <v>26</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
-      <c r="H129" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
@@ -13049,16 +13063,16 @@
       <c r="AI129" s="8"/>
     </row>
     <row r="130" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A130" s="6">
-        <v>40</v>
-      </c>
-      <c r="B130" s="43" t="s">
-        <v>15</v>
+      <c r="A130" s="6"/>
+      <c r="B130" s="41" t="s">
+        <v>402</v>
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
+      <c r="F130" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="J130" s="9"/>
@@ -13088,14 +13102,16 @@
     <row r="131" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="41" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
+      <c r="H131" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
@@ -13105,9 +13121,7 @@
       <c r="P131" s="9"/>
       <c r="Q131" s="9"/>
       <c r="R131" s="9"/>
-      <c r="T131" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T131" s="9"/>
       <c r="U131" s="9"/>
       <c r="V131" s="9"/>
       <c r="W131" s="9"/>
@@ -13116,25 +13130,23 @@
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
       <c r="AB131" s="9"/>
-      <c r="AD131" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD131" s="9"/>
       <c r="AE131" s="9"/>
       <c r="AF131" s="9"/>
       <c r="AG131" s="9"/>
       <c r="AI131" s="8"/>
     </row>
     <row r="132" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A132" s="6"/>
-      <c r="B132" s="41" t="s">
-        <v>419</v>
+      <c r="A132" s="6">
+        <v>40</v>
+      </c>
+      <c r="B132" s="43" t="s">
+        <v>15</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="J132" s="9"/>
@@ -13164,16 +13176,14 @@
     <row r="133" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="41" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
-      <c r="H133" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
@@ -13183,7 +13193,9 @@
       <c r="P133" s="9"/>
       <c r="Q133" s="9"/>
       <c r="R133" s="9"/>
-      <c r="T133" s="9"/>
+      <c r="T133" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="U133" s="9"/>
       <c r="V133" s="9"/>
       <c r="W133" s="9"/>
@@ -13192,23 +13204,25 @@
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
       <c r="AB133" s="9"/>
-      <c r="AD133" s="9"/>
+      <c r="AD133" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE133" s="9"/>
       <c r="AF133" s="9"/>
       <c r="AG133" s="9"/>
       <c r="AI133" s="8"/>
     </row>
     <row r="134" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A134" s="6">
-        <v>41</v>
-      </c>
-      <c r="B134" s="43" t="s">
-        <v>0</v>
+      <c r="A134" s="6"/>
+      <c r="B134" s="41" t="s">
+        <v>419</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
+      <c r="F134" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
       <c r="J134" s="9"/>
@@ -13238,19 +13252,17 @@
     <row r="135" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="41" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F135" s="9"/>
       <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
-      <c r="J135" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H135" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
       <c r="M135" s="9"/>
@@ -13259,9 +13271,7 @@
       <c r="P135" s="9"/>
       <c r="Q135" s="9"/>
       <c r="R135" s="9"/>
-      <c r="T135" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T135" s="9"/>
       <c r="U135" s="9"/>
       <c r="V135" s="9"/>
       <c r="W135" s="9"/>
@@ -13270,31 +13280,27 @@
       <c r="Z135" s="9"/>
       <c r="AA135" s="9"/>
       <c r="AB135" s="9"/>
-      <c r="AD135" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD135" s="9"/>
       <c r="AE135" s="9"/>
       <c r="AF135" s="9"/>
       <c r="AG135" s="9"/>
       <c r="AI135" s="8"/>
     </row>
     <row r="136" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A136" s="6"/>
-      <c r="B136" s="41" t="s">
-        <v>397</v>
+      <c r="A136" s="6">
+        <v>41</v>
+      </c>
+      <c r="B136" s="43" t="s">
+        <v>0</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F136" s="9"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="J136" s="9"/>
-      <c r="K136" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K136" s="9"/>
       <c r="L136" s="9"/>
       <c r="M136" s="9"/>
       <c r="N136" s="9"/>
@@ -13302,9 +13308,7 @@
       <c r="P136" s="9"/>
       <c r="Q136" s="9"/>
       <c r="R136" s="9"/>
-      <c r="T136" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T136" s="9"/>
       <c r="U136" s="9"/>
       <c r="V136" s="9"/>
       <c r="W136" s="9"/>
@@ -13313,9 +13317,7 @@
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
       <c r="AB136" s="9"/>
-      <c r="AD136" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD136" s="9"/>
       <c r="AE136" s="9"/>
       <c r="AF136" s="9"/>
       <c r="AG136" s="9"/>
@@ -13324,7 +13326,7 @@
     <row r="137" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="41" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -13334,11 +13336,11 @@
       </c>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
-      <c r="J137" s="9"/>
+      <c r="J137" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K137" s="9"/>
-      <c r="L137" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L137" s="9"/>
       <c r="M137" s="9"/>
       <c r="N137" s="9"/>
       <c r="O137" s="9"/>
@@ -13367,7 +13369,7 @@
     <row r="138" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
@@ -13378,11 +13380,11 @@
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="J138" s="9"/>
-      <c r="K138" s="9"/>
+      <c r="K138" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L138" s="9"/>
-      <c r="M138" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M138" s="9"/>
       <c r="N138" s="9"/>
       <c r="O138" s="9"/>
       <c r="P138" s="9"/>
@@ -13410,7 +13412,7 @@
     <row r="139" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="41" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
@@ -13422,11 +13424,11 @@
       <c r="H139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
-      <c r="L139" s="9"/>
+      <c r="L139" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M139" s="9"/>
-      <c r="N139" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N139" s="9"/>
       <c r="O139" s="9"/>
       <c r="P139" s="9"/>
       <c r="Q139" s="9"/>
@@ -13453,7 +13455,7 @@
     <row r="140" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="41" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
@@ -13466,11 +13468,11 @@
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c r="L140" s="9"/>
-      <c r="M140" s="9"/>
+      <c r="M140" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N140" s="9"/>
-      <c r="O140" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O140" s="9"/>
       <c r="P140" s="9"/>
       <c r="Q140" s="9"/>
       <c r="R140" s="9"/>
@@ -13496,7 +13498,7 @@
     <row r="141" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="41" t="s">
-        <v>246</v>
+        <v>399</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -13506,21 +13508,21 @@
       </c>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
-      <c r="J141" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c r="L141" s="9"/>
       <c r="M141" s="9"/>
-      <c r="N141" s="9"/>
+      <c r="N141" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O141" s="9"/>
       <c r="P141" s="9"/>
       <c r="Q141" s="9"/>
       <c r="R141" s="9"/>
-      <c r="T141" s="9"/>
-      <c r="U141" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T141" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U141" s="9"/>
       <c r="V141" s="9"/>
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
@@ -13528,7 +13530,9 @@
       <c r="Z141" s="9"/>
       <c r="AA141" s="9"/>
       <c r="AB141" s="9"/>
-      <c r="AD141" s="9"/>
+      <c r="AD141" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE141" s="9"/>
       <c r="AF141" s="9"/>
       <c r="AG141" s="9"/>
@@ -13537,7 +13541,7 @@
     <row r="142" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="41" t="s">
-        <v>247</v>
+        <v>400</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -13548,20 +13552,20 @@
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
       <c r="J142" s="9"/>
-      <c r="K142" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K142" s="9"/>
       <c r="L142" s="9"/>
       <c r="M142" s="9"/>
       <c r="N142" s="9"/>
-      <c r="O142" s="9"/>
+      <c r="O142" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P142" s="9"/>
       <c r="Q142" s="9"/>
       <c r="R142" s="9"/>
-      <c r="T142" s="9"/>
-      <c r="U142" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T142" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U142" s="9"/>
       <c r="V142" s="9"/>
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
@@ -13569,7 +13573,9 @@
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
       <c r="AB142" s="9"/>
-      <c r="AD142" s="9"/>
+      <c r="AD142" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE142" s="9"/>
       <c r="AF142" s="9"/>
       <c r="AG142" s="9"/>
@@ -13578,7 +13584,7 @@
     <row r="143" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="41" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
@@ -13588,11 +13594,11 @@
       </c>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
-      <c r="J143" s="9"/>
+      <c r="J143" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K143" s="9"/>
-      <c r="L143" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L143" s="9"/>
       <c r="M143" s="9"/>
       <c r="N143" s="9"/>
       <c r="O143" s="9"/>
@@ -13619,7 +13625,7 @@
     <row r="144" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
@@ -13630,11 +13636,11 @@
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="J144" s="9"/>
-      <c r="K144" s="9"/>
+      <c r="K144" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L144" s="9"/>
-      <c r="M144" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M144" s="9"/>
       <c r="N144" s="9"/>
       <c r="O144" s="9"/>
       <c r="P144" s="9"/>
@@ -13660,7 +13666,7 @@
     <row r="145" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
@@ -13672,11 +13678,11 @@
       <c r="H145" s="9"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
-      <c r="L145" s="9"/>
+      <c r="L145" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M145" s="9"/>
-      <c r="N145" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N145" s="9"/>
       <c r="O145" s="9"/>
       <c r="P145" s="9"/>
       <c r="Q145" s="9"/>
@@ -13701,7 +13707,7 @@
     <row r="146" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="41" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
@@ -13714,11 +13720,11 @@
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
       <c r="L146" s="9"/>
-      <c r="M146" s="9"/>
+      <c r="M146" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N146" s="9"/>
-      <c r="O146" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O146" s="9"/>
       <c r="P146" s="9"/>
       <c r="Q146" s="9"/>
       <c r="R146" s="9"/>
@@ -13742,7 +13748,7 @@
     <row r="147" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
@@ -13752,22 +13758,22 @@
       </c>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
-      <c r="J147" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J147" s="9"/>
       <c r="K147" s="9"/>
       <c r="L147" s="9"/>
       <c r="M147" s="9"/>
-      <c r="N147" s="9"/>
+      <c r="N147" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O147" s="9"/>
       <c r="P147" s="9"/>
       <c r="Q147" s="9"/>
       <c r="R147" s="9"/>
       <c r="T147" s="9"/>
-      <c r="U147" s="9"/>
-      <c r="V147" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U147" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V147" s="9"/>
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
       <c r="Y147" s="9"/>
@@ -13783,7 +13789,7 @@
     <row r="148" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="41" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
@@ -13794,21 +13800,21 @@
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
       <c r="J148" s="9"/>
-      <c r="K148" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K148" s="9"/>
       <c r="L148" s="9"/>
       <c r="M148" s="9"/>
       <c r="N148" s="9"/>
-      <c r="O148" s="9"/>
+      <c r="O148" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P148" s="9"/>
       <c r="Q148" s="9"/>
       <c r="R148" s="9"/>
       <c r="T148" s="9"/>
-      <c r="U148" s="9"/>
-      <c r="V148" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U148" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V148" s="9"/>
       <c r="W148" s="9"/>
       <c r="X148" s="9"/>
       <c r="Y148" s="9"/>
@@ -13824,7 +13830,7 @@
     <row r="149" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="41" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
@@ -13834,11 +13840,11 @@
       </c>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
-      <c r="J149" s="9"/>
+      <c r="J149" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K149" s="9"/>
-      <c r="L149" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L149" s="9"/>
       <c r="M149" s="9"/>
       <c r="N149" s="9"/>
       <c r="O149" s="9"/>
@@ -13865,7 +13871,7 @@
     <row r="150" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="41" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
@@ -13876,11 +13882,11 @@
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
       <c r="J150" s="9"/>
-      <c r="K150" s="9"/>
+      <c r="K150" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L150" s="9"/>
-      <c r="M150" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M150" s="9"/>
       <c r="N150" s="9"/>
       <c r="O150" s="9"/>
       <c r="P150" s="9"/>
@@ -13906,7 +13912,7 @@
     <row r="151" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="41" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
@@ -13918,11 +13924,11 @@
       <c r="H151" s="9"/>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
-      <c r="L151" s="9"/>
+      <c r="L151" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M151" s="9"/>
-      <c r="N151" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N151" s="9"/>
       <c r="O151" s="9"/>
       <c r="P151" s="9"/>
       <c r="Q151" s="9"/>
@@ -13947,7 +13953,7 @@
     <row r="152" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="41" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
@@ -13960,11 +13966,11 @@
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
       <c r="L152" s="9"/>
-      <c r="M152" s="9"/>
+      <c r="M152" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N152" s="9"/>
-      <c r="O152" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O152" s="9"/>
       <c r="P152" s="9"/>
       <c r="Q152" s="9"/>
       <c r="R152" s="9"/>
@@ -13988,7 +13994,7 @@
     <row r="153" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="41" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
@@ -13998,23 +14004,23 @@
       </c>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
-      <c r="J153" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J153" s="9"/>
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
       <c r="M153" s="9"/>
-      <c r="N153" s="9"/>
+      <c r="N153" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O153" s="9"/>
       <c r="P153" s="9"/>
       <c r="Q153" s="9"/>
       <c r="R153" s="9"/>
       <c r="T153" s="9"/>
       <c r="U153" s="9"/>
-      <c r="V153" s="9"/>
-      <c r="W153" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V153" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W153" s="9"/>
       <c r="X153" s="9"/>
       <c r="Y153" s="9"/>
       <c r="Z153" s="9"/>
@@ -14029,7 +14035,7 @@
     <row r="154" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="41" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -14040,22 +14046,22 @@
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
       <c r="J154" s="9"/>
-      <c r="K154" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K154" s="9"/>
       <c r="L154" s="9"/>
       <c r="M154" s="9"/>
       <c r="N154" s="9"/>
-      <c r="O154" s="9"/>
+      <c r="O154" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P154" s="9"/>
       <c r="Q154" s="9"/>
       <c r="R154" s="9"/>
       <c r="T154" s="9"/>
       <c r="U154" s="9"/>
-      <c r="V154" s="9"/>
-      <c r="W154" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V154" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W154" s="9"/>
       <c r="X154" s="9"/>
       <c r="Y154" s="9"/>
       <c r="Z154" s="9"/>
@@ -14070,7 +14076,7 @@
     <row r="155" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -14080,11 +14086,11 @@
       </c>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
-      <c r="J155" s="9"/>
+      <c r="J155" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K155" s="9"/>
-      <c r="L155" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L155" s="9"/>
       <c r="M155" s="9"/>
       <c r="N155" s="9"/>
       <c r="O155" s="9"/>
@@ -14111,7 +14117,7 @@
     <row r="156" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="41" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -14122,11 +14128,11 @@
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
       <c r="J156" s="9"/>
-      <c r="K156" s="9"/>
+      <c r="K156" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L156" s="9"/>
-      <c r="M156" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M156" s="9"/>
       <c r="N156" s="9"/>
       <c r="O156" s="9"/>
       <c r="P156" s="9"/>
@@ -14152,7 +14158,7 @@
     <row r="157" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="41" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
@@ -14164,11 +14170,11 @@
       <c r="H157" s="9"/>
       <c r="J157" s="9"/>
       <c r="K157" s="9"/>
-      <c r="L157" s="9"/>
+      <c r="L157" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M157" s="9"/>
-      <c r="N157" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N157" s="9"/>
       <c r="O157" s="9"/>
       <c r="P157" s="9"/>
       <c r="Q157" s="9"/>
@@ -14193,7 +14199,7 @@
     <row r="158" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="41" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
@@ -14206,11 +14212,11 @@
       <c r="J158" s="9"/>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
-      <c r="M158" s="9"/>
+      <c r="M158" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N158" s="9"/>
-      <c r="O158" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O158" s="9"/>
       <c r="P158" s="9"/>
       <c r="Q158" s="9"/>
       <c r="R158" s="9"/>
@@ -14234,41 +14240,39 @@
     <row r="159" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="41" t="s">
-        <v>395</v>
+        <v>274</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F159" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G159" s="9"/>
       <c r="H159" s="9"/>
-      <c r="J159" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J159" s="9"/>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
       <c r="M159" s="9"/>
-      <c r="N159" s="9"/>
+      <c r="N159" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O159" s="9"/>
       <c r="P159" s="9"/>
       <c r="Q159" s="9"/>
       <c r="R159" s="9"/>
-      <c r="T159" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T159" s="9"/>
       <c r="U159" s="9"/>
       <c r="V159" s="9"/>
-      <c r="W159" s="9"/>
+      <c r="W159" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X159" s="9"/>
       <c r="Y159" s="9"/>
       <c r="Z159" s="9"/>
       <c r="AA159" s="9"/>
       <c r="AB159" s="9"/>
-      <c r="AD159" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD159" s="9"/>
       <c r="AE159" s="9"/>
       <c r="AF159" s="9"/>
       <c r="AG159" s="9"/>
@@ -14277,41 +14281,39 @@
     <row r="160" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="41" t="s">
-        <v>391</v>
+        <v>275</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F160" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G160" s="9"/>
       <c r="H160" s="9"/>
       <c r="J160" s="9"/>
-      <c r="K160" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K160" s="9"/>
       <c r="L160" s="9"/>
       <c r="M160" s="9"/>
       <c r="N160" s="9"/>
-      <c r="O160" s="9"/>
+      <c r="O160" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P160" s="9"/>
       <c r="Q160" s="9"/>
       <c r="R160" s="9"/>
-      <c r="T160" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T160" s="9"/>
       <c r="U160" s="9"/>
       <c r="V160" s="9"/>
-      <c r="W160" s="9"/>
+      <c r="W160" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X160" s="9"/>
       <c r="Y160" s="9"/>
       <c r="Z160" s="9"/>
       <c r="AA160" s="9"/>
       <c r="AB160" s="9"/>
-      <c r="AD160" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD160" s="9"/>
       <c r="AE160" s="9"/>
       <c r="AF160" s="9"/>
       <c r="AG160" s="9"/>
@@ -14320,7 +14322,7 @@
     <row r="161" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="41" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
@@ -14330,11 +14332,11 @@
         <v>108</v>
       </c>
       <c r="H161" s="9"/>
-      <c r="J161" s="9"/>
+      <c r="J161" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K161" s="9"/>
-      <c r="L161" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L161" s="9"/>
       <c r="M161" s="9"/>
       <c r="N161" s="9"/>
       <c r="O161" s="9"/>
@@ -14363,7 +14365,7 @@
     <row r="162" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
@@ -14374,11 +14376,11 @@
       </c>
       <c r="H162" s="9"/>
       <c r="J162" s="9"/>
-      <c r="K162" s="9"/>
+      <c r="K162" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L162" s="9"/>
-      <c r="M162" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M162" s="9"/>
       <c r="N162" s="9"/>
       <c r="O162" s="9"/>
       <c r="P162" s="9"/>
@@ -14406,7 +14408,7 @@
     <row r="163" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="41" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -14418,11 +14420,11 @@
       <c r="H163" s="9"/>
       <c r="J163" s="9"/>
       <c r="K163" s="9"/>
-      <c r="L163" s="9"/>
+      <c r="L163" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M163" s="9"/>
-      <c r="N163" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N163" s="9"/>
       <c r="O163" s="9"/>
       <c r="P163" s="9"/>
       <c r="Q163" s="9"/>
@@ -14449,7 +14451,7 @@
     <row r="164" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="41" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -14462,11 +14464,11 @@
       <c r="J164" s="9"/>
       <c r="K164" s="9"/>
       <c r="L164" s="9"/>
-      <c r="M164" s="9"/>
+      <c r="M164" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N164" s="9"/>
-      <c r="O164" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O164" s="9"/>
       <c r="P164" s="9"/>
       <c r="Q164" s="9"/>
       <c r="R164" s="9"/>
@@ -14492,7 +14494,7 @@
     <row r="165" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="41" t="s">
-        <v>258</v>
+        <v>393</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -14502,21 +14504,21 @@
         <v>108</v>
       </c>
       <c r="H165" s="9"/>
-      <c r="J165" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J165" s="9"/>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
       <c r="M165" s="9"/>
-      <c r="N165" s="9"/>
+      <c r="N165" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O165" s="9"/>
       <c r="P165" s="9"/>
       <c r="Q165" s="9"/>
       <c r="R165" s="9"/>
-      <c r="T165" s="9"/>
-      <c r="U165" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T165" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U165" s="9"/>
       <c r="V165" s="9"/>
       <c r="W165" s="9"/>
       <c r="X165" s="9"/>
@@ -14524,7 +14526,9 @@
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
       <c r="AB165" s="9"/>
-      <c r="AD165" s="9"/>
+      <c r="AD165" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE165" s="9"/>
       <c r="AF165" s="9"/>
       <c r="AG165" s="9"/>
@@ -14533,7 +14537,7 @@
     <row r="166" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="41" t="s">
-        <v>259</v>
+        <v>394</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -14544,20 +14548,20 @@
       </c>
       <c r="H166" s="9"/>
       <c r="J166" s="9"/>
-      <c r="K166" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K166" s="9"/>
       <c r="L166" s="9"/>
       <c r="M166" s="9"/>
       <c r="N166" s="9"/>
-      <c r="O166" s="9"/>
+      <c r="O166" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P166" s="9"/>
       <c r="Q166" s="9"/>
       <c r="R166" s="9"/>
-      <c r="T166" s="9"/>
-      <c r="U166" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T166" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U166" s="9"/>
       <c r="V166" s="9"/>
       <c r="W166" s="9"/>
       <c r="X166" s="9"/>
@@ -14565,7 +14569,9 @@
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
       <c r="AB166" s="9"/>
-      <c r="AD166" s="9"/>
+      <c r="AD166" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE166" s="9"/>
       <c r="AF166" s="9"/>
       <c r="AG166" s="9"/>
@@ -14574,7 +14580,7 @@
     <row r="167" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="41" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -14584,11 +14590,11 @@
         <v>108</v>
       </c>
       <c r="H167" s="9"/>
-      <c r="J167" s="9"/>
+      <c r="J167" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K167" s="9"/>
-      <c r="L167" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L167" s="9"/>
       <c r="M167" s="9"/>
       <c r="N167" s="9"/>
       <c r="O167" s="9"/>
@@ -14615,7 +14621,7 @@
     <row r="168" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="41" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
@@ -14626,11 +14632,11 @@
       </c>
       <c r="H168" s="9"/>
       <c r="J168" s="9"/>
-      <c r="K168" s="9"/>
+      <c r="K168" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L168" s="9"/>
-      <c r="M168" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M168" s="9"/>
       <c r="N168" s="9"/>
       <c r="O168" s="9"/>
       <c r="P168" s="9"/>
@@ -14656,7 +14662,7 @@
     <row r="169" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
@@ -14668,11 +14674,11 @@
       <c r="H169" s="9"/>
       <c r="J169" s="9"/>
       <c r="K169" s="9"/>
-      <c r="L169" s="9"/>
+      <c r="L169" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M169" s="9"/>
-      <c r="N169" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N169" s="9"/>
       <c r="O169" s="9"/>
       <c r="P169" s="9"/>
       <c r="Q169" s="9"/>
@@ -14697,7 +14703,7 @@
     <row r="170" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="41" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
@@ -14710,11 +14716,11 @@
       <c r="J170" s="9"/>
       <c r="K170" s="9"/>
       <c r="L170" s="9"/>
-      <c r="M170" s="9"/>
+      <c r="M170" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N170" s="9"/>
-      <c r="O170" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O170" s="9"/>
       <c r="P170" s="9"/>
       <c r="Q170" s="9"/>
       <c r="R170" s="9"/>
@@ -14738,7 +14744,7 @@
     <row r="171" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
@@ -14748,22 +14754,22 @@
         <v>108</v>
       </c>
       <c r="H171" s="9"/>
-      <c r="J171" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J171" s="9"/>
       <c r="K171" s="9"/>
       <c r="L171" s="9"/>
       <c r="M171" s="9"/>
-      <c r="N171" s="9"/>
+      <c r="N171" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O171" s="9"/>
       <c r="P171" s="9"/>
       <c r="Q171" s="9"/>
       <c r="R171" s="9"/>
       <c r="T171" s="9"/>
-      <c r="U171" s="9"/>
-      <c r="V171" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U171" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V171" s="9"/>
       <c r="W171" s="9"/>
       <c r="X171" s="9"/>
       <c r="Y171" s="9"/>
@@ -14779,7 +14785,7 @@
     <row r="172" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="41" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
@@ -14790,21 +14796,21 @@
       </c>
       <c r="H172" s="9"/>
       <c r="J172" s="9"/>
-      <c r="K172" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K172" s="9"/>
       <c r="L172" s="9"/>
       <c r="M172" s="9"/>
       <c r="N172" s="9"/>
-      <c r="O172" s="9"/>
+      <c r="O172" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P172" s="9"/>
       <c r="Q172" s="9"/>
       <c r="R172" s="9"/>
       <c r="T172" s="9"/>
-      <c r="U172" s="9"/>
-      <c r="V172" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U172" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V172" s="9"/>
       <c r="W172" s="9"/>
       <c r="X172" s="9"/>
       <c r="Y172" s="9"/>
@@ -14820,7 +14826,7 @@
     <row r="173" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="41" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -14830,11 +14836,11 @@
         <v>108</v>
       </c>
       <c r="H173" s="9"/>
-      <c r="J173" s="9"/>
+      <c r="J173" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K173" s="9"/>
-      <c r="L173" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L173" s="9"/>
       <c r="M173" s="9"/>
       <c r="N173" s="9"/>
       <c r="O173" s="9"/>
@@ -14861,7 +14867,7 @@
     <row r="174" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="41" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
@@ -14872,11 +14878,11 @@
       </c>
       <c r="H174" s="9"/>
       <c r="J174" s="9"/>
-      <c r="K174" s="9"/>
+      <c r="K174" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L174" s="9"/>
-      <c r="M174" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M174" s="9"/>
       <c r="N174" s="9"/>
       <c r="O174" s="9"/>
       <c r="P174" s="9"/>
@@ -14902,7 +14908,7 @@
     <row r="175" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="41" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
@@ -14914,11 +14920,11 @@
       <c r="H175" s="9"/>
       <c r="J175" s="9"/>
       <c r="K175" s="9"/>
-      <c r="L175" s="9"/>
+      <c r="L175" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M175" s="9"/>
-      <c r="N175" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N175" s="9"/>
       <c r="O175" s="9"/>
       <c r="P175" s="9"/>
       <c r="Q175" s="9"/>
@@ -14943,7 +14949,7 @@
     <row r="176" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="41" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
@@ -14956,11 +14962,11 @@
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
-      <c r="M176" s="9"/>
+      <c r="M176" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N176" s="9"/>
-      <c r="O176" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O176" s="9"/>
       <c r="P176" s="9"/>
       <c r="Q176" s="9"/>
       <c r="R176" s="9"/>
@@ -14984,7 +14990,7 @@
     <row r="177" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="41" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
@@ -14994,23 +15000,23 @@
         <v>108</v>
       </c>
       <c r="H177" s="9"/>
-      <c r="J177" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J177" s="9"/>
       <c r="K177" s="9"/>
       <c r="L177" s="9"/>
       <c r="M177" s="9"/>
-      <c r="N177" s="9"/>
+      <c r="N177" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O177" s="9"/>
       <c r="P177" s="9"/>
       <c r="Q177" s="9"/>
       <c r="R177" s="9"/>
       <c r="T177" s="9"/>
       <c r="U177" s="9"/>
-      <c r="V177" s="9"/>
-      <c r="W177" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V177" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W177" s="9"/>
       <c r="X177" s="9"/>
       <c r="Y177" s="9"/>
       <c r="Z177" s="9"/>
@@ -15025,7 +15031,7 @@
     <row r="178" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="41" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
@@ -15036,22 +15042,22 @@
       </c>
       <c r="H178" s="9"/>
       <c r="J178" s="9"/>
-      <c r="K178" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K178" s="9"/>
       <c r="L178" s="9"/>
       <c r="M178" s="9"/>
       <c r="N178" s="9"/>
-      <c r="O178" s="9"/>
+      <c r="O178" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P178" s="9"/>
       <c r="Q178" s="9"/>
       <c r="R178" s="9"/>
       <c r="T178" s="9"/>
       <c r="U178" s="9"/>
-      <c r="V178" s="9"/>
-      <c r="W178" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V178" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W178" s="9"/>
       <c r="X178" s="9"/>
       <c r="Y178" s="9"/>
       <c r="Z178" s="9"/>
@@ -15066,7 +15072,7 @@
     <row r="179" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
@@ -15076,11 +15082,11 @@
         <v>108</v>
       </c>
       <c r="H179" s="9"/>
-      <c r="J179" s="9"/>
+      <c r="J179" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K179" s="9"/>
-      <c r="L179" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L179" s="9"/>
       <c r="M179" s="9"/>
       <c r="N179" s="9"/>
       <c r="O179" s="9"/>
@@ -15107,7 +15113,7 @@
     <row r="180" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
@@ -15118,11 +15124,11 @@
       </c>
       <c r="H180" s="9"/>
       <c r="J180" s="9"/>
-      <c r="K180" s="9"/>
+      <c r="K180" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L180" s="9"/>
-      <c r="M180" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M180" s="9"/>
       <c r="N180" s="9"/>
       <c r="O180" s="9"/>
       <c r="P180" s="9"/>
@@ -15148,7 +15154,7 @@
     <row r="181" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
@@ -15160,11 +15166,11 @@
       <c r="H181" s="9"/>
       <c r="J181" s="9"/>
       <c r="K181" s="9"/>
-      <c r="L181" s="9"/>
+      <c r="L181" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M181" s="9"/>
-      <c r="N181" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N181" s="9"/>
       <c r="O181" s="9"/>
       <c r="P181" s="9"/>
       <c r="Q181" s="9"/>
@@ -15189,7 +15195,7 @@
     <row r="182" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
@@ -15202,11 +15208,11 @@
       <c r="J182" s="9"/>
       <c r="K182" s="9"/>
       <c r="L182" s="9"/>
-      <c r="M182" s="9"/>
+      <c r="M182" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N182" s="9"/>
-      <c r="O182" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O182" s="9"/>
       <c r="P182" s="9"/>
       <c r="Q182" s="9"/>
       <c r="R182" s="9"/>
@@ -15228,23 +15234,25 @@
       <c r="AI182" s="8"/>
     </row>
     <row r="183" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A183" s="6">
-        <v>42</v>
-      </c>
-      <c r="B183" s="43" t="s">
-        <v>191</v>
+      <c r="A183" s="6"/>
+      <c r="B183" s="41" t="s">
+        <v>280</v>
       </c>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
-      <c r="G183" s="9"/>
+      <c r="G183" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H183" s="9"/>
       <c r="J183" s="9"/>
       <c r="K183" s="9"/>
       <c r="L183" s="9"/>
       <c r="M183" s="9"/>
-      <c r="N183" s="9"/>
+      <c r="N183" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O183" s="9"/>
       <c r="P183" s="9"/>
       <c r="Q183" s="9"/>
@@ -15252,7 +15260,9 @@
       <c r="T183" s="9"/>
       <c r="U183" s="9"/>
       <c r="V183" s="9"/>
-      <c r="W183" s="9"/>
+      <c r="W183" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X183" s="9"/>
       <c r="Y183" s="9"/>
       <c r="Z183" s="9"/>
@@ -15267,29 +15277,33 @@
     <row r="184" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>108</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C184" s="9"/>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
-      <c r="G184" s="9"/>
+      <c r="G184" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H184" s="9"/>
       <c r="J184" s="9"/>
       <c r="K184" s="9"/>
       <c r="L184" s="9"/>
       <c r="M184" s="9"/>
       <c r="N184" s="9"/>
-      <c r="O184" s="9"/>
+      <c r="O184" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P184" s="9"/>
       <c r="Q184" s="9"/>
       <c r="R184" s="9"/>
       <c r="T184" s="9"/>
       <c r="U184" s="9"/>
       <c r="V184" s="9"/>
-      <c r="W184" s="9"/>
+      <c r="W184" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X184" s="9"/>
       <c r="Y184" s="9"/>
       <c r="Z184" s="9"/>
@@ -15303,14 +15317,12 @@
     </row>
     <row r="185" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B185" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>108</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
@@ -15343,7 +15355,7 @@
     <row r="186" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C186" s="9" t="s">
         <v>108</v>
@@ -15379,12 +15391,14 @@
     </row>
     <row r="187" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B187" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C187" s="9"/>
+        <v>192</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
@@ -15404,9 +15418,7 @@
       <c r="V187" s="9"/>
       <c r="W187" s="9"/>
       <c r="X187" s="9"/>
-      <c r="Y187" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="Y187" s="9"/>
       <c r="Z187" s="9"/>
       <c r="AA187" s="9"/>
       <c r="AB187" s="9"/>
@@ -15419,9 +15431,11 @@
     <row r="188" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C188" s="9"/>
+        <v>125</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
@@ -15452,9 +15466,11 @@
       <c r="AI188" s="8"/>
     </row>
     <row r="189" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A189" s="6"/>
-      <c r="B189" s="41" t="s">
-        <v>413</v>
+      <c r="A189" s="6">
+        <v>44</v>
+      </c>
+      <c r="B189" s="43" t="s">
+        <v>16</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
@@ -15476,7 +15492,9 @@
       <c r="V189" s="9"/>
       <c r="W189" s="9"/>
       <c r="X189" s="9"/>
-      <c r="Y189" s="9"/>
+      <c r="Y189" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="Z189" s="9"/>
       <c r="AA189" s="9"/>
       <c r="AB189" s="9"/>
@@ -15487,15 +15505,11 @@
       <c r="AI189" s="8"/>
     </row>
     <row r="190" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A190" s="6">
-        <v>45</v>
-      </c>
-      <c r="B190" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="C190" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A190" s="6"/>
+      <c r="B190" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C190" s="9"/>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
@@ -15526,15 +15540,11 @@
       <c r="AI190" s="8"/>
     </row>
     <row r="191" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A191" s="6">
-        <v>46</v>
-      </c>
-      <c r="B191" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A191" s="6"/>
+      <c r="B191" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="C191" s="9"/>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
@@ -15566,12 +15576,14 @@
     </row>
     <row r="192" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
-        <v>47</v>
-      </c>
-      <c r="B192" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C192" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="B192" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
@@ -15602,16 +15614,18 @@
       <c r="AI192" s="8"/>
     </row>
     <row r="193" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A193" s="6"/>
-      <c r="B193" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="C193" s="9"/>
+      <c r="A193" s="6">
+        <v>46</v>
+      </c>
+      <c r="B193" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
-      <c r="F193" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F193" s="9"/>
       <c r="G193" s="9"/>
       <c r="H193" s="9"/>
       <c r="J193" s="9"/>
@@ -15639,18 +15653,18 @@
       <c r="AI193" s="8"/>
     </row>
     <row r="194" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A194" s="6"/>
-      <c r="B194" s="41" t="s">
-        <v>283</v>
+      <c r="A194" s="6">
+        <v>47</v>
+      </c>
+      <c r="B194" s="43" t="s">
+        <v>38</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
       <c r="G194" s="9"/>
-      <c r="H194" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H194" s="9"/>
       <c r="J194" s="9"/>
       <c r="K194" s="9"/>
       <c r="L194" s="9"/>
@@ -15676,16 +15690,16 @@
       <c r="AI194" s="8"/>
     </row>
     <row r="195" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A195" s="6">
-        <v>48</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>120</v>
+      <c r="A195" s="6"/>
+      <c r="B195" s="41" t="s">
+        <v>282</v>
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
-      <c r="F195" s="9"/>
+      <c r="F195" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
       <c r="J195" s="9"/>
@@ -15704,9 +15718,7 @@
       <c r="X195" s="9"/>
       <c r="Y195" s="9"/>
       <c r="Z195" s="9"/>
-      <c r="AA195" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AA195" s="9"/>
       <c r="AB195" s="9"/>
       <c r="AD195" s="9"/>
       <c r="AE195" s="9"/>
@@ -15715,18 +15727,18 @@
       <c r="AI195" s="8"/>
     </row>
     <row r="196" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A196" s="6">
-        <v>49</v>
-      </c>
-      <c r="B196" s="43" t="s">
-        <v>54</v>
+      <c r="A196" s="6"/>
+      <c r="B196" s="41" t="s">
+        <v>283</v>
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
       <c r="G196" s="9"/>
-      <c r="H196" s="9"/>
+      <c r="H196" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J196" s="9"/>
       <c r="K196" s="9"/>
       <c r="L196" s="9"/>
@@ -15752,16 +15764,16 @@
       <c r="AI196" s="8"/>
     </row>
     <row r="197" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A197" s="6"/>
-      <c r="B197" s="41" t="s">
-        <v>284</v>
+      <c r="A197" s="6">
+        <v>48</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
-      <c r="F197" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F197" s="9"/>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
       <c r="J197" s="9"/>
@@ -15780,7 +15792,9 @@
       <c r="X197" s="9"/>
       <c r="Y197" s="9"/>
       <c r="Z197" s="9"/>
-      <c r="AA197" s="9"/>
+      <c r="AA197" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AB197" s="9"/>
       <c r="AD197" s="9"/>
       <c r="AE197" s="9"/>
@@ -15789,18 +15803,18 @@
       <c r="AI197" s="8"/>
     </row>
     <row r="198" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A198" s="6"/>
-      <c r="B198" s="41" t="s">
-        <v>285</v>
+      <c r="A198" s="6">
+        <v>49</v>
+      </c>
+      <c r="B198" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
       <c r="G198" s="9"/>
-      <c r="H198" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H198" s="9"/>
       <c r="J198" s="9"/>
       <c r="K198" s="9"/>
       <c r="L198" s="9"/>
@@ -15826,18 +15840,16 @@
       <c r="AI198" s="8"/>
     </row>
     <row r="199" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A199" s="6">
-        <v>50</v>
-      </c>
-      <c r="B199" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A199" s="6"/>
+      <c r="B199" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="C199" s="9"/>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
-      <c r="F199" s="9"/>
+      <c r="F199" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
       <c r="J199" s="9"/>
@@ -15865,18 +15877,18 @@
       <c r="AI199" s="8"/>
     </row>
     <row r="200" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A200" s="6">
-        <v>51</v>
-      </c>
-      <c r="B200" s="43" t="s">
-        <v>72</v>
+      <c r="A200" s="6"/>
+      <c r="B200" s="41" t="s">
+        <v>285</v>
       </c>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
       <c r="G200" s="9"/>
-      <c r="H200" s="9"/>
+      <c r="H200" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J200" s="9"/>
       <c r="K200" s="9"/>
       <c r="L200" s="9"/>
@@ -15890,9 +15902,7 @@
       <c r="U200" s="9"/>
       <c r="V200" s="9"/>
       <c r="W200" s="9"/>
-      <c r="X200" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="X200" s="9"/>
       <c r="Y200" s="9"/>
       <c r="Z200" s="9"/>
       <c r="AA200" s="9"/>
@@ -15904,14 +15914,16 @@
       <c r="AI200" s="8"/>
     </row>
     <row r="201" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A201" s="6"/>
-      <c r="B201" s="41" t="s">
-        <v>445</v>
-      </c>
-      <c r="C201" s="9"/>
-      <c r="D201" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A201" s="6">
+        <v>50</v>
+      </c>
+      <c r="B201" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D201" s="9"/>
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
       <c r="G201" s="9"/>
@@ -15941,18 +15953,18 @@
       <c r="AI201" s="8"/>
     </row>
     <row r="202" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A202" s="6"/>
-      <c r="B202" s="41" t="s">
-        <v>446</v>
+      <c r="A202" s="6">
+        <v>51</v>
+      </c>
+      <c r="B202" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
       <c r="G202" s="9"/>
-      <c r="H202" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H202" s="9"/>
       <c r="J202" s="9"/>
       <c r="K202" s="9"/>
       <c r="L202" s="9"/>
@@ -15966,7 +15978,9 @@
       <c r="U202" s="9"/>
       <c r="V202" s="9"/>
       <c r="W202" s="9"/>
-      <c r="X202" s="9"/>
+      <c r="X202" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="Y202" s="9"/>
       <c r="Z202" s="9"/>
       <c r="AA202" s="9"/>
@@ -15980,14 +15994,14 @@
     <row r="203" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="41" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C203" s="9"/>
-      <c r="D203" s="9"/>
+      <c r="D203" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="E203" s="9"/>
-      <c r="F203" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F203" s="9"/>
       <c r="G203" s="9"/>
       <c r="H203" s="9"/>
       <c r="J203" s="9"/>
@@ -16017,16 +16031,16 @@
     <row r="204" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="41" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
-      <c r="G204" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H204" s="9"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J204" s="9"/>
       <c r="K204" s="9"/>
       <c r="L204" s="9"/>
@@ -16052,16 +16066,16 @@
       <c r="AI204" s="8"/>
     </row>
     <row r="205" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A205" s="6">
-        <v>52</v>
-      </c>
-      <c r="B205" s="43" t="s">
-        <v>150</v>
+      <c r="A205" s="6"/>
+      <c r="B205" s="41" t="s">
+        <v>447</v>
       </c>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
-      <c r="F205" s="9"/>
+      <c r="F205" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G205" s="9"/>
       <c r="H205" s="9"/>
       <c r="J205" s="9"/>
@@ -16091,15 +16105,15 @@
     <row r="206" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="41" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
-      <c r="F206" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G206" s="9"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H206" s="9"/>
       <c r="J206" s="9"/>
       <c r="K206" s="9"/>
@@ -16110,9 +16124,7 @@
       <c r="P206" s="9"/>
       <c r="Q206" s="9"/>
       <c r="R206" s="9"/>
-      <c r="T206" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T206" s="9"/>
       <c r="U206" s="9"/>
       <c r="V206" s="9"/>
       <c r="W206" s="9"/>
@@ -16121,25 +16133,23 @@
       <c r="Z206" s="9"/>
       <c r="AA206" s="9"/>
       <c r="AB206" s="9"/>
-      <c r="AD206" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD206" s="9"/>
       <c r="AE206" s="9"/>
       <c r="AF206" s="9"/>
       <c r="AG206" s="9"/>
       <c r="AI206" s="8"/>
     </row>
     <row r="207" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A207" s="6"/>
-      <c r="B207" s="41" t="s">
-        <v>286</v>
+      <c r="A207" s="6">
+        <v>52</v>
+      </c>
+      <c r="B207" s="43" t="s">
+        <v>150</v>
       </c>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
-      <c r="F207" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F207" s="9"/>
       <c r="G207" s="9"/>
       <c r="H207" s="9"/>
       <c r="J207" s="9"/>
@@ -16152,9 +16162,7 @@
       <c r="Q207" s="9"/>
       <c r="R207" s="9"/>
       <c r="T207" s="9"/>
-      <c r="U207" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U207" s="9"/>
       <c r="V207" s="9"/>
       <c r="W207" s="9"/>
       <c r="X207" s="9"/>
@@ -16171,7 +16179,7 @@
     <row r="208" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="41" t="s">
-        <v>287</v>
+        <v>389</v>
       </c>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
@@ -16190,18 +16198,20 @@
       <c r="P208" s="9"/>
       <c r="Q208" s="9"/>
       <c r="R208" s="9"/>
-      <c r="T208" s="9"/>
+      <c r="T208" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="U208" s="9"/>
-      <c r="V208" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V208" s="9"/>
       <c r="W208" s="9"/>
       <c r="X208" s="9"/>
       <c r="Y208" s="9"/>
       <c r="Z208" s="9"/>
       <c r="AA208" s="9"/>
       <c r="AB208" s="9"/>
-      <c r="AD208" s="9"/>
+      <c r="AD208" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE208" s="9"/>
       <c r="AF208" s="9"/>
       <c r="AG208" s="9"/>
@@ -16210,7 +16220,7 @@
     <row r="209" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="41" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
@@ -16230,11 +16240,11 @@
       <c r="Q209" s="9"/>
       <c r="R209" s="9"/>
       <c r="T209" s="9"/>
-      <c r="U209" s="9"/>
+      <c r="U209" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V209" s="9"/>
-      <c r="W209" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W209" s="9"/>
       <c r="X209" s="9"/>
       <c r="Y209" s="9"/>
       <c r="Z209" s="9"/>
@@ -16249,15 +16259,15 @@
     <row r="210" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="41" t="s">
-        <v>388</v>
+        <v>287</v>
       </c>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
-      <c r="F210" s="9"/>
-      <c r="G210" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F210" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G210" s="9"/>
       <c r="H210" s="9"/>
       <c r="J210" s="9"/>
       <c r="K210" s="9"/>
@@ -16268,20 +16278,18 @@
       <c r="P210" s="9"/>
       <c r="Q210" s="9"/>
       <c r="R210" s="9"/>
-      <c r="T210" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T210" s="9"/>
       <c r="U210" s="9"/>
-      <c r="V210" s="9"/>
+      <c r="V210" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="W210" s="9"/>
       <c r="X210" s="9"/>
       <c r="Y210" s="9"/>
       <c r="Z210" s="9"/>
       <c r="AA210" s="9"/>
       <c r="AB210" s="9"/>
-      <c r="AD210" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD210" s="9"/>
       <c r="AE210" s="9"/>
       <c r="AF210" s="9"/>
       <c r="AG210" s="9"/>
@@ -16290,15 +16298,15 @@
     <row r="211" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
-      <c r="F211" s="9"/>
-      <c r="G211" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F211" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G211" s="9"/>
       <c r="H211" s="9"/>
       <c r="J211" s="9"/>
       <c r="K211" s="9"/>
@@ -16310,11 +16318,11 @@
       <c r="Q211" s="9"/>
       <c r="R211" s="9"/>
       <c r="T211" s="9"/>
-      <c r="U211" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U211" s="9"/>
       <c r="V211" s="9"/>
-      <c r="W211" s="9"/>
+      <c r="W211" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X211" s="9"/>
       <c r="Y211" s="9"/>
       <c r="Z211" s="9"/>
@@ -16329,7 +16337,7 @@
     <row r="212" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="41" t="s">
-        <v>290</v>
+        <v>388</v>
       </c>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
@@ -16348,18 +16356,20 @@
       <c r="P212" s="9"/>
       <c r="Q212" s="9"/>
       <c r="R212" s="9"/>
-      <c r="T212" s="9"/>
+      <c r="T212" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="U212" s="9"/>
-      <c r="V212" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V212" s="9"/>
       <c r="W212" s="9"/>
       <c r="X212" s="9"/>
       <c r="Y212" s="9"/>
       <c r="Z212" s="9"/>
       <c r="AA212" s="9"/>
       <c r="AB212" s="9"/>
-      <c r="AD212" s="9"/>
+      <c r="AD212" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE212" s="9"/>
       <c r="AF212" s="9"/>
       <c r="AG212" s="9"/>
@@ -16368,7 +16378,7 @@
     <row r="213" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="41" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
@@ -16388,11 +16398,11 @@
       <c r="Q213" s="9"/>
       <c r="R213" s="9"/>
       <c r="T213" s="9"/>
-      <c r="U213" s="9"/>
+      <c r="U213" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V213" s="9"/>
-      <c r="W213" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W213" s="9"/>
       <c r="X213" s="9"/>
       <c r="Y213" s="9"/>
       <c r="Z213" s="9"/>
@@ -16405,17 +16415,17 @@
       <c r="AI213" s="8"/>
     </row>
     <row r="214" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A214" s="6">
-        <v>53</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>45</v>
+      <c r="A214" s="6"/>
+      <c r="B214" s="41" t="s">
+        <v>290</v>
       </c>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
-      <c r="G214" s="9"/>
+      <c r="G214" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H214" s="9"/>
       <c r="J214" s="9"/>
       <c r="K214" s="9"/>
@@ -16428,14 +16438,14 @@
       <c r="R214" s="9"/>
       <c r="T214" s="9"/>
       <c r="U214" s="9"/>
-      <c r="V214" s="9"/>
+      <c r="V214" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="W214" s="9"/>
       <c r="X214" s="9"/>
       <c r="Y214" s="9"/>
       <c r="Z214" s="9"/>
-      <c r="AA214" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AA214" s="9"/>
       <c r="AB214" s="9"/>
       <c r="AD214" s="9"/>
       <c r="AE214" s="9"/>
@@ -16444,17 +16454,17 @@
       <c r="AI214" s="8"/>
     </row>
     <row r="215" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A215" s="6">
-        <v>54</v>
-      </c>
-      <c r="B215" s="43" t="s">
-        <v>91</v>
+      <c r="A215" s="6"/>
+      <c r="B215" s="41" t="s">
+        <v>291</v>
       </c>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
       <c r="F215" s="9"/>
-      <c r="G215" s="9"/>
+      <c r="G215" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H215" s="9"/>
       <c r="J215" s="9"/>
       <c r="K215" s="9"/>
@@ -16468,7 +16478,9 @@
       <c r="T215" s="9"/>
       <c r="U215" s="9"/>
       <c r="V215" s="9"/>
-      <c r="W215" s="9"/>
+      <c r="W215" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X215" s="9"/>
       <c r="Y215" s="9"/>
       <c r="Z215" s="9"/>
@@ -16481,14 +16493,14 @@
       <c r="AI215" s="8"/>
     </row>
     <row r="216" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A216" s="6"/>
-      <c r="B216" s="41" t="s">
-        <v>431</v>
+      <c r="A216" s="6">
+        <v>53</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C216" s="9"/>
-      <c r="D216" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="D216" s="9"/>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
       <c r="G216" s="9"/>
@@ -16509,7 +16521,9 @@
       <c r="X216" s="9"/>
       <c r="Y216" s="9"/>
       <c r="Z216" s="9"/>
-      <c r="AA216" s="9"/>
+      <c r="AA216" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AB216" s="9"/>
       <c r="AD216" s="9"/>
       <c r="AE216" s="9"/>
@@ -16518,16 +16532,16 @@
       <c r="AI216" s="8"/>
     </row>
     <row r="217" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A217" s="6"/>
-      <c r="B217" s="41" t="s">
-        <v>292</v>
+      <c r="A217" s="6">
+        <v>54</v>
+      </c>
+      <c r="B217" s="43" t="s">
+        <v>91</v>
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
-      <c r="F217" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F217" s="9"/>
       <c r="G217" s="9"/>
       <c r="H217" s="9"/>
       <c r="J217" s="9"/>
@@ -16557,16 +16571,16 @@
     <row r="218" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="41" t="s">
-        <v>293</v>
+        <v>431</v>
       </c>
       <c r="C218" s="9"/>
-      <c r="D218" s="9"/>
+      <c r="D218" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
       <c r="G218" s="9"/>
-      <c r="H218" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H218" s="9"/>
       <c r="J218" s="9"/>
       <c r="K218" s="9"/>
       <c r="L218" s="9"/>
@@ -16592,16 +16606,16 @@
       <c r="AI218" s="8"/>
     </row>
     <row r="219" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A219" s="6">
-        <v>55</v>
-      </c>
-      <c r="B219" s="43" t="s">
-        <v>68</v>
+      <c r="A219" s="6"/>
+      <c r="B219" s="41" t="s">
+        <v>292</v>
       </c>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
-      <c r="F219" s="9"/>
+      <c r="F219" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G219" s="9"/>
       <c r="H219" s="9"/>
       <c r="J219" s="9"/>
@@ -16631,16 +16645,16 @@
     <row r="220" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
-      <c r="F220" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F220" s="9"/>
       <c r="G220" s="9"/>
-      <c r="H220" s="9"/>
+      <c r="H220" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J220" s="9"/>
       <c r="K220" s="9"/>
       <c r="L220" s="9"/>
@@ -16649,13 +16663,9 @@
       <c r="O220" s="9"/>
       <c r="P220" s="9"/>
       <c r="Q220" s="9"/>
-      <c r="R220" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="R220" s="9"/>
       <c r="T220" s="9"/>
-      <c r="U220" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U220" s="9"/>
       <c r="V220" s="9"/>
       <c r="W220" s="9"/>
       <c r="X220" s="9"/>
@@ -16670,16 +16680,16 @@
       <c r="AI220" s="8"/>
     </row>
     <row r="221" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A221" s="6"/>
-      <c r="B221" s="41" t="s">
-        <v>295</v>
+      <c r="A221" s="6">
+        <v>55</v>
+      </c>
+      <c r="B221" s="43" t="s">
+        <v>68</v>
       </c>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
-      <c r="F221" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F221" s="9"/>
       <c r="G221" s="9"/>
       <c r="H221" s="9"/>
       <c r="J221" s="9"/>
@@ -16690,14 +16700,10 @@
       <c r="O221" s="9"/>
       <c r="P221" s="9"/>
       <c r="Q221" s="9"/>
-      <c r="R221" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="R221" s="9"/>
       <c r="T221" s="9"/>
       <c r="U221" s="9"/>
-      <c r="V221" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V221" s="9"/>
       <c r="W221" s="9"/>
       <c r="X221" s="9"/>
       <c r="Y221" s="9"/>
@@ -16713,7 +16719,7 @@
     <row r="222" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="41" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
@@ -16735,11 +16741,11 @@
         <v>108</v>
       </c>
       <c r="T222" s="9"/>
-      <c r="U222" s="9"/>
+      <c r="U222" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V222" s="9"/>
-      <c r="W222" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W222" s="9"/>
       <c r="X222" s="9"/>
       <c r="Y222" s="9"/>
       <c r="Z222" s="9"/>
@@ -16754,15 +16760,15 @@
     <row r="223" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="41" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
-      <c r="F223" s="9"/>
-      <c r="G223" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F223" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G223" s="9"/>
       <c r="H223" s="9"/>
       <c r="J223" s="9"/>
       <c r="K223" s="9"/>
@@ -16776,10 +16782,10 @@
         <v>108</v>
       </c>
       <c r="T223" s="9"/>
-      <c r="U223" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="V223" s="9"/>
+      <c r="U223" s="9"/>
+      <c r="V223" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="W223" s="9"/>
       <c r="X223" s="9"/>
       <c r="Y223" s="9"/>
@@ -16795,15 +16801,15 @@
     <row r="224" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="41" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
-      <c r="F224" s="9"/>
-      <c r="G224" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F224" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G224" s="9"/>
       <c r="H224" s="9"/>
       <c r="J224" s="9"/>
       <c r="K224" s="9"/>
@@ -16818,10 +16824,10 @@
       </c>
       <c r="T224" s="9"/>
       <c r="U224" s="9"/>
-      <c r="V224" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="W224" s="9"/>
+      <c r="V224" s="9"/>
+      <c r="W224" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X224" s="9"/>
       <c r="Y224" s="9"/>
       <c r="Z224" s="9"/>
@@ -16836,7 +16842,7 @@
     <row r="225" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
@@ -16858,11 +16864,11 @@
         <v>108</v>
       </c>
       <c r="T225" s="9"/>
-      <c r="U225" s="9"/>
+      <c r="U225" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V225" s="9"/>
-      <c r="W225" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W225" s="9"/>
       <c r="X225" s="9"/>
       <c r="Y225" s="9"/>
       <c r="Z225" s="9"/>
@@ -16875,17 +16881,17 @@
       <c r="AI225" s="8"/>
     </row>
     <row r="226" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A226" s="6">
-        <v>56</v>
-      </c>
-      <c r="B226" s="43" t="s">
-        <v>133</v>
+      <c r="A226" s="6"/>
+      <c r="B226" s="41" t="s">
+        <v>298</v>
       </c>
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
       <c r="F226" s="9"/>
-      <c r="G226" s="9"/>
+      <c r="G226" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H226" s="9"/>
       <c r="J226" s="9"/>
       <c r="K226" s="9"/>
@@ -16895,10 +16901,14 @@
       <c r="O226" s="9"/>
       <c r="P226" s="9"/>
       <c r="Q226" s="9"/>
-      <c r="R226" s="9"/>
+      <c r="R226" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="T226" s="9"/>
       <c r="U226" s="9"/>
-      <c r="V226" s="9"/>
+      <c r="V226" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="W226" s="9"/>
       <c r="X226" s="9"/>
       <c r="Y226" s="9"/>
@@ -16913,16 +16923,16 @@
     </row>
     <row r="227" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
-      <c r="B227" s="40" t="s">
-        <v>300</v>
+      <c r="B227" s="41" t="s">
+        <v>299</v>
       </c>
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
-      <c r="F227" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G227" s="9"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H227" s="9"/>
       <c r="J227" s="9"/>
       <c r="K227" s="9"/>
@@ -16932,11 +16942,15 @@
       <c r="O227" s="9"/>
       <c r="P227" s="9"/>
       <c r="Q227" s="9"/>
-      <c r="R227" s="9"/>
+      <c r="R227" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="T227" s="9"/>
       <c r="U227" s="9"/>
       <c r="V227" s="9"/>
-      <c r="W227" s="9"/>
+      <c r="W227" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X227" s="9"/>
       <c r="Y227" s="9"/>
       <c r="Z227" s="9"/>
@@ -16949,18 +16963,18 @@
       <c r="AI227" s="8"/>
     </row>
     <row r="228" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A228" s="6"/>
-      <c r="B228" s="40" t="s">
-        <v>301</v>
+      <c r="A228" s="6">
+        <v>56</v>
+      </c>
+      <c r="B228" s="43" t="s">
+        <v>133</v>
       </c>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
       <c r="F228" s="9"/>
       <c r="G228" s="9"/>
-      <c r="H228" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H228" s="9"/>
       <c r="J228" s="9"/>
       <c r="K228" s="9"/>
       <c r="L228" s="9"/>
@@ -16986,18 +17000,16 @@
       <c r="AI228" s="8"/>
     </row>
     <row r="229" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A229" s="6">
-        <v>57</v>
-      </c>
-      <c r="B229" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C229" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A229" s="6"/>
+      <c r="B229" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="C229" s="9"/>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
-      <c r="F229" s="9"/>
+      <c r="F229" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G229" s="9"/>
       <c r="H229" s="9"/>
       <c r="J229" s="9"/>
@@ -17025,20 +17037,18 @@
       <c r="AI229" s="8"/>
     </row>
     <row r="230" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A230" s="6">
-        <v>58</v>
-      </c>
-      <c r="B230" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C230" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A230" s="6"/>
+      <c r="B230" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="C230" s="9"/>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
       <c r="F230" s="9"/>
       <c r="G230" s="9"/>
-      <c r="H230" s="9"/>
+      <c r="H230" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J230" s="9"/>
       <c r="K230" s="9"/>
       <c r="L230" s="9"/>
@@ -17065,12 +17075,14 @@
     </row>
     <row r="231" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
-        <v>59</v>
-      </c>
-      <c r="B231" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C231" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="B231" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
       <c r="F231" s="9"/>
@@ -17101,16 +17113,18 @@
       <c r="AI231" s="8"/>
     </row>
     <row r="232" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A232" s="6"/>
-      <c r="B232" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="C232" s="9"/>
+      <c r="A232" s="6">
+        <v>58</v>
+      </c>
+      <c r="B232" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
-      <c r="F232" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F232" s="9"/>
       <c r="G232" s="9"/>
       <c r="H232" s="9"/>
       <c r="J232" s="9"/>
@@ -17138,18 +17152,18 @@
       <c r="AI232" s="8"/>
     </row>
     <row r="233" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A233" s="6"/>
-      <c r="B233" s="40" t="s">
-        <v>303</v>
+      <c r="A233" s="6">
+        <v>59</v>
+      </c>
+      <c r="B233" s="43" t="s">
+        <v>78</v>
       </c>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
       <c r="F233" s="9"/>
       <c r="G233" s="9"/>
-      <c r="H233" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H233" s="9"/>
       <c r="J233" s="9"/>
       <c r="K233" s="9"/>
       <c r="L233" s="9"/>
@@ -17175,16 +17189,16 @@
       <c r="AI233" s="8"/>
     </row>
     <row r="234" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A234" s="6">
-        <v>60</v>
-      </c>
-      <c r="B234" s="43" t="s">
-        <v>37</v>
+      <c r="A234" s="6"/>
+      <c r="B234" s="40" t="s">
+        <v>302</v>
       </c>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
-      <c r="F234" s="9"/>
+      <c r="F234" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G234" s="9"/>
       <c r="H234" s="9"/>
       <c r="J234" s="9"/>
@@ -17213,15 +17227,17 @@
     </row>
     <row r="235" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
-      <c r="B235" s="41" t="s">
-        <v>432</v>
+      <c r="B235" s="40" t="s">
+        <v>303</v>
       </c>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
       <c r="F235" s="9"/>
       <c r="G235" s="9"/>
-      <c r="H235" s="9"/>
+      <c r="H235" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J235" s="9"/>
       <c r="K235" s="9"/>
       <c r="L235" s="9"/>
@@ -17231,9 +17247,7 @@
       <c r="P235" s="9"/>
       <c r="Q235" s="9"/>
       <c r="R235" s="9"/>
-      <c r="T235" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T235" s="9"/>
       <c r="U235" s="9"/>
       <c r="V235" s="9"/>
       <c r="W235" s="9"/>
@@ -17242,25 +17256,23 @@
       <c r="Z235" s="9"/>
       <c r="AA235" s="9"/>
       <c r="AB235" s="9"/>
-      <c r="AD235" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD235" s="9"/>
       <c r="AE235" s="9"/>
       <c r="AF235" s="9"/>
       <c r="AG235" s="9"/>
       <c r="AI235" s="8"/>
     </row>
     <row r="236" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A236" s="6"/>
-      <c r="B236" s="41" t="s">
-        <v>304</v>
+      <c r="A236" s="6">
+        <v>60</v>
+      </c>
+      <c r="B236" s="43" t="s">
+        <v>37</v>
       </c>
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
-      <c r="F236" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F236" s="9"/>
       <c r="G236" s="9"/>
       <c r="H236" s="9"/>
       <c r="J236" s="9"/>
@@ -17290,16 +17302,14 @@
     <row r="237" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="41" t="s">
-        <v>305</v>
+        <v>432</v>
       </c>
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
       <c r="F237" s="9"/>
       <c r="G237" s="9"/>
-      <c r="H237" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H237" s="9"/>
       <c r="J237" s="9"/>
       <c r="K237" s="9"/>
       <c r="L237" s="9"/>
@@ -17309,7 +17319,9 @@
       <c r="P237" s="9"/>
       <c r="Q237" s="9"/>
       <c r="R237" s="9"/>
-      <c r="T237" s="9"/>
+      <c r="T237" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="U237" s="9"/>
       <c r="V237" s="9"/>
       <c r="W237" s="9"/>
@@ -17318,25 +17330,25 @@
       <c r="Z237" s="9"/>
       <c r="AA237" s="9"/>
       <c r="AB237" s="9"/>
-      <c r="AD237" s="9"/>
+      <c r="AD237" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE237" s="9"/>
       <c r="AF237" s="9"/>
       <c r="AG237" s="9"/>
       <c r="AI237" s="8"/>
     </row>
     <row r="238" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A238" s="6">
-        <v>61</v>
-      </c>
-      <c r="B238" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A238" s="6"/>
+      <c r="B238" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="C238" s="9"/>
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
-      <c r="F238" s="9"/>
+      <c r="F238" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G238" s="9"/>
       <c r="H238" s="9"/>
       <c r="J238" s="9"/>
@@ -17364,20 +17376,18 @@
       <c r="AI238" s="8"/>
     </row>
     <row r="239" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A239" s="6">
-        <v>62</v>
-      </c>
-      <c r="B239" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A239" s="6"/>
+      <c r="B239" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="C239" s="9"/>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
       <c r="F239" s="9"/>
       <c r="G239" s="9"/>
-      <c r="H239" s="9"/>
+      <c r="H239" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J239" s="9"/>
       <c r="K239" s="9"/>
       <c r="L239" s="9"/>
@@ -17404,10 +17414,10 @@
     </row>
     <row r="240" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="C240" s="9" t="s">
         <v>108</v>
@@ -17443,10 +17453,10 @@
     </row>
     <row r="241" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>108</v>
@@ -17482,10 +17492,10 @@
     </row>
     <row r="242" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C242" s="9" t="s">
         <v>108</v>
@@ -17521,12 +17531,14 @@
     </row>
     <row r="243" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
-        <v>66</v>
-      </c>
-      <c r="B243" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C243" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D243" s="9"/>
       <c r="E243" s="9"/>
       <c r="F243" s="9"/>
@@ -17557,16 +17569,18 @@
       <c r="AI243" s="8"/>
     </row>
     <row r="244" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A244" s="6"/>
-      <c r="B244" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="C244" s="9"/>
+      <c r="A244" s="6">
+        <v>65</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
-      <c r="F244" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F244" s="9"/>
       <c r="G244" s="9"/>
       <c r="H244" s="9"/>
       <c r="J244" s="9"/>
@@ -17579,9 +17593,7 @@
       <c r="Q244" s="9"/>
       <c r="R244" s="9"/>
       <c r="T244" s="9"/>
-      <c r="U244" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U244" s="9"/>
       <c r="V244" s="9"/>
       <c r="W244" s="9"/>
       <c r="X244" s="9"/>
@@ -17596,16 +17608,16 @@
       <c r="AI244" s="8"/>
     </row>
     <row r="245" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A245" s="6"/>
-      <c r="B245" s="40" t="s">
-        <v>307</v>
+      <c r="A245" s="6">
+        <v>66</v>
+      </c>
+      <c r="B245" s="43" t="s">
+        <v>83</v>
       </c>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
-      <c r="F245" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F245" s="9"/>
       <c r="G245" s="9"/>
       <c r="H245" s="9"/>
       <c r="J245" s="9"/>
@@ -17619,9 +17631,7 @@
       <c r="R245" s="9"/>
       <c r="T245" s="9"/>
       <c r="U245" s="9"/>
-      <c r="V245" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V245" s="9"/>
       <c r="W245" s="9"/>
       <c r="X245" s="9"/>
       <c r="Y245" s="9"/>
@@ -17637,7 +17647,7 @@
     <row r="246" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="40" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
@@ -17657,11 +17667,11 @@
       <c r="Q246" s="9"/>
       <c r="R246" s="9"/>
       <c r="T246" s="9"/>
-      <c r="U246" s="9"/>
+      <c r="U246" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V246" s="9"/>
-      <c r="W246" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W246" s="9"/>
       <c r="X246" s="9"/>
       <c r="Y246" s="9"/>
       <c r="Z246" s="9"/>
@@ -17676,15 +17686,15 @@
     <row r="247" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="40" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
-      <c r="F247" s="9"/>
-      <c r="G247" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F247" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G247" s="9"/>
       <c r="H247" s="9"/>
       <c r="J247" s="9"/>
       <c r="K247" s="9"/>
@@ -17696,10 +17706,10 @@
       <c r="Q247" s="9"/>
       <c r="R247" s="9"/>
       <c r="T247" s="9"/>
-      <c r="U247" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="V247" s="9"/>
+      <c r="U247" s="9"/>
+      <c r="V247" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="W247" s="9"/>
       <c r="X247" s="9"/>
       <c r="Y247" s="9"/>
@@ -17715,15 +17725,15 @@
     <row r="248" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="40" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
-      <c r="F248" s="9"/>
-      <c r="G248" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F248" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G248" s="9"/>
       <c r="H248" s="9"/>
       <c r="J248" s="9"/>
       <c r="K248" s="9"/>
@@ -17736,10 +17746,10 @@
       <c r="R248" s="9"/>
       <c r="T248" s="9"/>
       <c r="U248" s="9"/>
-      <c r="V248" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="W248" s="9"/>
+      <c r="V248" s="9"/>
+      <c r="W248" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X248" s="9"/>
       <c r="Y248" s="9"/>
       <c r="Z248" s="9"/>
@@ -17754,7 +17764,7 @@
     <row r="249" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
@@ -17774,11 +17784,11 @@
       <c r="Q249" s="9"/>
       <c r="R249" s="9"/>
       <c r="T249" s="9"/>
-      <c r="U249" s="9"/>
+      <c r="U249" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V249" s="9"/>
-      <c r="W249" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W249" s="9"/>
       <c r="X249" s="9"/>
       <c r="Y249" s="9"/>
       <c r="Z249" s="9"/>
@@ -17793,16 +17803,16 @@
     <row r="250" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="40" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
       <c r="E250" s="9"/>
       <c r="F250" s="9"/>
-      <c r="G250" s="9"/>
-      <c r="H250" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="G250" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H250" s="9"/>
       <c r="J250" s="9"/>
       <c r="K250" s="9"/>
       <c r="L250" s="9"/>
@@ -17813,10 +17823,10 @@
       <c r="Q250" s="9"/>
       <c r="R250" s="9"/>
       <c r="T250" s="9"/>
-      <c r="U250" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="V250" s="9"/>
+      <c r="U250" s="9"/>
+      <c r="V250" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="W250" s="9"/>
       <c r="X250" s="9"/>
       <c r="Y250" s="9"/>
@@ -17832,16 +17842,16 @@
     <row r="251" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="40" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
       <c r="E251" s="9"/>
       <c r="F251" s="9"/>
-      <c r="G251" s="9"/>
-      <c r="H251" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="G251" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H251" s="9"/>
       <c r="J251" s="9"/>
       <c r="K251" s="9"/>
       <c r="L251" s="9"/>
@@ -17853,10 +17863,10 @@
       <c r="R251" s="9"/>
       <c r="T251" s="9"/>
       <c r="U251" s="9"/>
-      <c r="V251" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="W251" s="9"/>
+      <c r="V251" s="9"/>
+      <c r="W251" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X251" s="9"/>
       <c r="Y251" s="9"/>
       <c r="Z251" s="9"/>
@@ -17871,7 +17881,7 @@
     <row r="252" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="40" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C252" s="9"/>
       <c r="D252" s="9"/>
@@ -17891,11 +17901,11 @@
       <c r="Q252" s="9"/>
       <c r="R252" s="9"/>
       <c r="T252" s="9"/>
-      <c r="U252" s="9"/>
+      <c r="U252" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V252" s="9"/>
-      <c r="W252" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W252" s="9"/>
       <c r="X252" s="9"/>
       <c r="Y252" s="9"/>
       <c r="Z252" s="9"/>
@@ -17908,18 +17918,18 @@
       <c r="AI252" s="8"/>
     </row>
     <row r="253" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A253" s="6">
-        <v>67</v>
-      </c>
-      <c r="B253" s="43" t="s">
-        <v>41</v>
+      <c r="A253" s="6"/>
+      <c r="B253" s="40" t="s">
+        <v>313</v>
       </c>
       <c r="C253" s="9"/>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
       <c r="F253" s="9"/>
       <c r="G253" s="9"/>
-      <c r="H253" s="9"/>
+      <c r="H253" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J253" s="9"/>
       <c r="K253" s="9"/>
       <c r="L253" s="9"/>
@@ -17931,14 +17941,14 @@
       <c r="R253" s="9"/>
       <c r="T253" s="9"/>
       <c r="U253" s="9"/>
-      <c r="V253" s="9"/>
+      <c r="V253" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="W253" s="9"/>
       <c r="X253" s="9"/>
       <c r="Y253" s="9"/>
       <c r="Z253" s="9"/>
-      <c r="AA253" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AA253" s="9"/>
       <c r="AB253" s="9"/>
       <c r="AD253" s="9"/>
       <c r="AE253" s="9"/>
@@ -17948,177 +17958,183 @@
     </row>
     <row r="254" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
-      <c r="B254" s="45" t="s">
+      <c r="B254" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="C254" s="9"/>
+      <c r="D254" s="9"/>
+      <c r="E254" s="9"/>
+      <c r="F254" s="9"/>
+      <c r="G254" s="9"/>
+      <c r="H254" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J254" s="9"/>
+      <c r="K254" s="9"/>
+      <c r="L254" s="9"/>
+      <c r="M254" s="9"/>
+      <c r="N254" s="9"/>
+      <c r="O254" s="9"/>
+      <c r="P254" s="9"/>
+      <c r="Q254" s="9"/>
+      <c r="R254" s="9"/>
+      <c r="T254" s="9"/>
+      <c r="U254" s="9"/>
+      <c r="V254" s="9"/>
+      <c r="W254" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X254" s="9"/>
+      <c r="Y254" s="9"/>
+      <c r="Z254" s="9"/>
+      <c r="AA254" s="9"/>
+      <c r="AB254" s="9"/>
+      <c r="AD254" s="9"/>
+      <c r="AE254" s="9"/>
+      <c r="AF254" s="9"/>
+      <c r="AG254" s="9"/>
+      <c r="AI254" s="8"/>
+    </row>
+    <row r="255" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A255" s="6">
+        <v>67</v>
+      </c>
+      <c r="B255" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C255" s="9"/>
+      <c r="D255" s="9"/>
+      <c r="E255" s="9"/>
+      <c r="F255" s="9"/>
+      <c r="G255" s="9"/>
+      <c r="H255" s="9"/>
+      <c r="J255" s="9"/>
+      <c r="K255" s="9"/>
+      <c r="L255" s="9"/>
+      <c r="M255" s="9"/>
+      <c r="N255" s="9"/>
+      <c r="O255" s="9"/>
+      <c r="P255" s="9"/>
+      <c r="Q255" s="9"/>
+      <c r="R255" s="9"/>
+      <c r="T255" s="9"/>
+      <c r="U255" s="9"/>
+      <c r="V255" s="9"/>
+      <c r="W255" s="9"/>
+      <c r="X255" s="9"/>
+      <c r="Y255" s="9"/>
+      <c r="Z255" s="9"/>
+      <c r="AA255" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB255" s="9"/>
+      <c r="AD255" s="9"/>
+      <c r="AE255" s="9"/>
+      <c r="AF255" s="9"/>
+      <c r="AG255" s="9"/>
+      <c r="AI255" s="8"/>
+    </row>
+    <row r="256" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A256" s="6"/>
+      <c r="B256" s="45" t="s">
         <v>416</v>
       </c>
-      <c r="C254" s="48"/>
-      <c r="D254" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E254" s="48"/>
-      <c r="F254" s="48"/>
-      <c r="G254" s="48"/>
-      <c r="H254" s="48"/>
-      <c r="I254" s="49"/>
-      <c r="J254" s="48"/>
-      <c r="K254" s="48"/>
-      <c r="L254" s="48"/>
-      <c r="M254" s="48"/>
-      <c r="N254" s="48"/>
-      <c r="O254" s="48"/>
-      <c r="P254" s="48"/>
-      <c r="Q254" s="48"/>
-      <c r="R254" s="48"/>
-      <c r="S254" s="49"/>
-      <c r="T254" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="U254" s="48"/>
-      <c r="V254" s="48"/>
-      <c r="W254" s="48"/>
-      <c r="X254" s="48"/>
-      <c r="Y254" s="48"/>
-      <c r="Z254" s="48"/>
-      <c r="AA254" s="48"/>
-      <c r="AB254" s="48"/>
-      <c r="AC254" s="49"/>
-      <c r="AD254" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE254" s="48"/>
-      <c r="AF254" s="48"/>
-      <c r="AG254" s="48"/>
-      <c r="AH254" s="49"/>
-      <c r="AI254" s="50" t="s">
+      <c r="C256" s="48"/>
+      <c r="D256" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E256" s="48"/>
+      <c r="F256" s="48"/>
+      <c r="G256" s="48"/>
+      <c r="H256" s="48"/>
+      <c r="I256" s="49"/>
+      <c r="J256" s="48"/>
+      <c r="K256" s="48"/>
+      <c r="L256" s="48"/>
+      <c r="M256" s="48"/>
+      <c r="N256" s="48"/>
+      <c r="O256" s="48"/>
+      <c r="P256" s="48"/>
+      <c r="Q256" s="48"/>
+      <c r="R256" s="48"/>
+      <c r="S256" s="49"/>
+      <c r="T256" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="U256" s="48"/>
+      <c r="V256" s="48"/>
+      <c r="W256" s="48"/>
+      <c r="X256" s="48"/>
+      <c r="Y256" s="48"/>
+      <c r="Z256" s="48"/>
+      <c r="AA256" s="48"/>
+      <c r="AB256" s="48"/>
+      <c r="AC256" s="49"/>
+      <c r="AD256" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE256" s="48"/>
+      <c r="AF256" s="48"/>
+      <c r="AG256" s="48"/>
+      <c r="AH256" s="49"/>
+      <c r="AI256" s="50" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="255" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A255" s="6"/>
-      <c r="B255" s="45" t="s">
-        <v>415</v>
-      </c>
-      <c r="C255" s="48"/>
-      <c r="D255" s="48"/>
-      <c r="E255" s="48"/>
-      <c r="F255" s="48"/>
-      <c r="G255" s="48"/>
-      <c r="H255" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="I255" s="49"/>
-      <c r="J255" s="48"/>
-      <c r="K255" s="48"/>
-      <c r="L255" s="48"/>
-      <c r="M255" s="48"/>
-      <c r="N255" s="48"/>
-      <c r="O255" s="48"/>
-      <c r="P255" s="48"/>
-      <c r="Q255" s="48"/>
-      <c r="R255" s="48"/>
-      <c r="S255" s="49"/>
-      <c r="T255" s="48"/>
-      <c r="U255" s="48"/>
-      <c r="V255" s="48"/>
-      <c r="W255" s="48"/>
-      <c r="X255" s="48"/>
-      <c r="Y255" s="48"/>
-      <c r="Z255" s="48"/>
-      <c r="AA255" s="48"/>
-      <c r="AB255" s="48"/>
-      <c r="AC255" s="49"/>
-      <c r="AD255" s="48"/>
-      <c r="AE255" s="48"/>
-      <c r="AF255" s="48"/>
-      <c r="AG255" s="48"/>
-      <c r="AH255" s="49"/>
-      <c r="AI255" s="50" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="256" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A256" s="6">
-        <v>68</v>
-      </c>
-      <c r="B256" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C256" s="9"/>
-      <c r="D256" s="9"/>
-      <c r="E256" s="9"/>
-      <c r="F256" s="9"/>
-      <c r="G256" s="9"/>
-      <c r="H256" s="9"/>
-      <c r="J256" s="9"/>
-      <c r="K256" s="9"/>
-      <c r="L256" s="9"/>
-      <c r="M256" s="9"/>
-      <c r="N256" s="9"/>
-      <c r="O256" s="9"/>
-      <c r="P256" s="9"/>
-      <c r="Q256" s="9"/>
-      <c r="R256" s="9"/>
-      <c r="T256" s="9"/>
-      <c r="U256" s="9"/>
-      <c r="V256" s="9"/>
-      <c r="W256" s="9"/>
-      <c r="X256" s="9"/>
-      <c r="Y256" s="9"/>
-      <c r="Z256" s="9"/>
-      <c r="AA256" s="9"/>
-      <c r="AB256" s="9"/>
-      <c r="AD256" s="9"/>
-      <c r="AE256" s="9"/>
-      <c r="AF256" s="9"/>
-      <c r="AG256" s="9"/>
-      <c r="AI256" s="8"/>
     </row>
     <row r="257" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
-      <c r="B257" s="41" t="s">
-        <v>433</v>
-      </c>
-      <c r="C257" s="9"/>
-      <c r="D257" s="9"/>
-      <c r="E257" s="9"/>
-      <c r="F257" s="9"/>
-      <c r="G257" s="9"/>
-      <c r="H257" s="9"/>
-      <c r="J257" s="9"/>
-      <c r="K257" s="9"/>
-      <c r="L257" s="9"/>
-      <c r="M257" s="9"/>
-      <c r="N257" s="9"/>
-      <c r="O257" s="9"/>
-      <c r="P257" s="9"/>
-      <c r="Q257" s="9"/>
-      <c r="R257" s="9"/>
-      <c r="T257" s="9"/>
-      <c r="U257" s="9"/>
-      <c r="V257" s="9"/>
-      <c r="W257" s="9"/>
-      <c r="X257" s="9"/>
-      <c r="Y257" s="9"/>
-      <c r="Z257" s="9"/>
-      <c r="AA257" s="9"/>
-      <c r="AB257" s="9"/>
-      <c r="AD257" s="9"/>
-      <c r="AE257" s="9"/>
-      <c r="AF257" s="9"/>
-      <c r="AG257" s="9"/>
-      <c r="AI257" s="8"/>
+      <c r="B257" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="C257" s="48"/>
+      <c r="D257" s="48"/>
+      <c r="E257" s="48"/>
+      <c r="F257" s="48"/>
+      <c r="G257" s="48"/>
+      <c r="H257" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="I257" s="49"/>
+      <c r="J257" s="48"/>
+      <c r="K257" s="48"/>
+      <c r="L257" s="48"/>
+      <c r="M257" s="48"/>
+      <c r="N257" s="48"/>
+      <c r="O257" s="48"/>
+      <c r="P257" s="48"/>
+      <c r="Q257" s="48"/>
+      <c r="R257" s="48"/>
+      <c r="S257" s="49"/>
+      <c r="T257" s="48"/>
+      <c r="U257" s="48"/>
+      <c r="V257" s="48"/>
+      <c r="W257" s="48"/>
+      <c r="X257" s="48"/>
+      <c r="Y257" s="48"/>
+      <c r="Z257" s="48"/>
+      <c r="AA257" s="48"/>
+      <c r="AB257" s="48"/>
+      <c r="AC257" s="49"/>
+      <c r="AD257" s="48"/>
+      <c r="AE257" s="48"/>
+      <c r="AF257" s="48"/>
+      <c r="AG257" s="48"/>
+      <c r="AH257" s="49"/>
+      <c r="AI257" s="50" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="258" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A258" s="6"/>
-      <c r="B258" s="41" t="s">
-        <v>434</v>
+      <c r="A258" s="6">
+        <v>68</v>
+      </c>
+      <c r="B258" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="C258" s="9"/>
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
-      <c r="F258" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F258" s="9"/>
       <c r="G258" s="9"/>
       <c r="H258" s="9"/>
       <c r="J258" s="9"/>
@@ -18148,16 +18164,14 @@
     <row r="259" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="41" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C259" s="9"/>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
       <c r="F259" s="9"/>
       <c r="G259" s="9"/>
-      <c r="H259" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H259" s="9"/>
       <c r="J259" s="9"/>
       <c r="K259" s="9"/>
       <c r="L259" s="9"/>
@@ -18183,16 +18197,16 @@
       <c r="AI259" s="8"/>
     </row>
     <row r="260" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A260" s="6">
-        <v>69</v>
-      </c>
-      <c r="B260" s="43" t="s">
-        <v>62</v>
+      <c r="A260" s="6"/>
+      <c r="B260" s="41" t="s">
+        <v>434</v>
       </c>
       <c r="C260" s="9"/>
       <c r="D260" s="9"/>
       <c r="E260" s="9"/>
-      <c r="F260" s="9"/>
+      <c r="F260" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G260" s="9"/>
       <c r="H260" s="9"/>
       <c r="J260" s="9"/>
@@ -18222,19 +18236,13 @@
     <row r="261" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="41" t="s">
-        <v>62</v>
+        <v>435</v>
       </c>
       <c r="C261" s="9"/>
-      <c r="D261" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="D261" s="9"/>
       <c r="E261" s="9"/>
-      <c r="F261" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G261" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F261" s="9"/>
+      <c r="G261" s="9"/>
       <c r="H261" s="9" t="s">
         <v>108</v>
       </c>
@@ -18247,43 +18255,27 @@
       <c r="P261" s="9"/>
       <c r="Q261" s="9"/>
       <c r="R261" s="9"/>
-      <c r="T261" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U261" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="V261" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="W261" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T261" s="9"/>
+      <c r="U261" s="9"/>
+      <c r="V261" s="9"/>
+      <c r="W261" s="9"/>
       <c r="X261" s="9"/>
       <c r="Y261" s="9"/>
       <c r="Z261" s="9"/>
       <c r="AA261" s="9"/>
       <c r="AB261" s="9"/>
-      <c r="AD261" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE261" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF261" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG261" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD261" s="9"/>
+      <c r="AE261" s="9"/>
+      <c r="AF261" s="9"/>
+      <c r="AG261" s="9"/>
       <c r="AI261" s="8"/>
     </row>
     <row r="262" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B262" s="43" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C262" s="9"/>
       <c r="D262" s="9"/>
@@ -18318,14 +18310,22 @@
     <row r="263" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="41" t="s">
-        <v>422</v>
+        <v>62</v>
       </c>
       <c r="C263" s="9"/>
-      <c r="D263" s="9"/>
+      <c r="D263" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="E263" s="9"/>
-      <c r="F263" s="9"/>
-      <c r="G263" s="9"/>
-      <c r="H263" s="9"/>
+      <c r="F263" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G263" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H263" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J263" s="9"/>
       <c r="K263" s="9"/>
       <c r="L263" s="9"/>
@@ -18338,9 +18338,15 @@
       <c r="T263" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="U263" s="9"/>
-      <c r="V263" s="9"/>
-      <c r="W263" s="9"/>
+      <c r="U263" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V263" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W263" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X263" s="9"/>
       <c r="Y263" s="9"/>
       <c r="Z263" s="9"/>
@@ -18349,24 +18355,30 @@
       <c r="AD263" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AE263" s="9"/>
-      <c r="AF263" s="9"/>
-      <c r="AG263" s="9"/>
+      <c r="AE263" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF263" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG263" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AI263" s="8"/>
     </row>
     <row r="264" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A264" s="6"/>
-      <c r="B264" s="41" t="s">
-        <v>316</v>
+      <c r="A264" s="6">
+        <v>70</v>
+      </c>
+      <c r="B264" s="43" t="s">
+        <v>20</v>
       </c>
       <c r="C264" s="9"/>
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
       <c r="F264" s="9"/>
       <c r="G264" s="9"/>
-      <c r="H264" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H264" s="9"/>
       <c r="J264" s="9"/>
       <c r="K264" s="9"/>
       <c r="L264" s="9"/>
@@ -18394,14 +18406,12 @@
     <row r="265" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="41" t="s">
-        <v>315</v>
+        <v>422</v>
       </c>
       <c r="C265" s="9"/>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
-      <c r="F265" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F265" s="9"/>
       <c r="G265" s="9"/>
       <c r="H265" s="9"/>
       <c r="J265" s="9"/>
@@ -18413,7 +18423,9 @@
       <c r="P265" s="9"/>
       <c r="Q265" s="9"/>
       <c r="R265" s="9"/>
-      <c r="T265" s="9"/>
+      <c r="T265" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="U265" s="9"/>
       <c r="V265" s="9"/>
       <c r="W265" s="9"/>
@@ -18422,25 +18434,27 @@
       <c r="Z265" s="9"/>
       <c r="AA265" s="9"/>
       <c r="AB265" s="9"/>
-      <c r="AD265" s="9"/>
+      <c r="AD265" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE265" s="9"/>
       <c r="AF265" s="9"/>
       <c r="AG265" s="9"/>
       <c r="AI265" s="8"/>
     </row>
     <row r="266" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A266" s="6">
-        <v>71</v>
-      </c>
-      <c r="B266" s="43" t="s">
-        <v>27</v>
+      <c r="A266" s="6"/>
+      <c r="B266" s="41" t="s">
+        <v>316</v>
       </c>
       <c r="C266" s="9"/>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
       <c r="F266" s="9"/>
       <c r="G266" s="9"/>
-      <c r="H266" s="9"/>
+      <c r="H266" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J266" s="9"/>
       <c r="K266" s="9"/>
       <c r="L266" s="9"/>
@@ -18468,7 +18482,7 @@
     <row r="267" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="41" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C267" s="9"/>
       <c r="D267" s="9"/>
@@ -18503,18 +18517,18 @@
       <c r="AI267" s="8"/>
     </row>
     <row r="268" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A268" s="6"/>
-      <c r="B268" s="41" t="s">
-        <v>318</v>
+      <c r="A268" s="6">
+        <v>71</v>
+      </c>
+      <c r="B268" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
       <c r="F268" s="9"/>
       <c r="G268" s="9"/>
-      <c r="H268" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H268" s="9"/>
       <c r="J268" s="9"/>
       <c r="K268" s="9"/>
       <c r="L268" s="9"/>
@@ -18540,16 +18554,16 @@
       <c r="AI268" s="8"/>
     </row>
     <row r="269" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A269" s="6">
-        <v>72</v>
-      </c>
-      <c r="B269" s="43" t="s">
-        <v>80</v>
+      <c r="A269" s="6"/>
+      <c r="B269" s="41" t="s">
+        <v>317</v>
       </c>
       <c r="C269" s="9"/>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
-      <c r="F269" s="9"/>
+      <c r="F269" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G269" s="9"/>
       <c r="H269" s="9"/>
       <c r="J269" s="9"/>
@@ -18579,16 +18593,16 @@
     <row r="270" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="41" t="s">
-        <v>407</v>
+        <v>318</v>
       </c>
       <c r="C270" s="9"/>
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
-      <c r="F270" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F270" s="9"/>
       <c r="G270" s="9"/>
-      <c r="H270" s="9"/>
+      <c r="H270" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J270" s="9"/>
       <c r="K270" s="9"/>
       <c r="L270" s="9"/>
@@ -18614,17 +18628,17 @@
       <c r="AI270" s="8"/>
     </row>
     <row r="271" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A271" s="6"/>
-      <c r="B271" s="41" t="s">
-        <v>408</v>
+      <c r="A271" s="6">
+        <v>72</v>
+      </c>
+      <c r="B271" s="43" t="s">
+        <v>80</v>
       </c>
       <c r="C271" s="9"/>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
       <c r="F271" s="9"/>
-      <c r="G271" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="G271" s="9"/>
       <c r="H271" s="9"/>
       <c r="J271" s="9"/>
       <c r="K271" s="9"/>
@@ -18651,18 +18665,16 @@
       <c r="AI271" s="8"/>
     </row>
     <row r="272" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A272" s="6">
-        <v>73</v>
-      </c>
-      <c r="B272" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C272" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A272" s="6"/>
+      <c r="B272" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="C272" s="9"/>
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
-      <c r="F272" s="9"/>
+      <c r="F272" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G272" s="9"/>
       <c r="H272" s="9"/>
       <c r="J272" s="9"/>
@@ -18690,19 +18702,17 @@
       <c r="AI272" s="8"/>
     </row>
     <row r="273" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A273" s="6">
-        <v>74</v>
-      </c>
-      <c r="B273" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C273" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A273" s="6"/>
+      <c r="B273" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="C273" s="9"/>
       <c r="D273" s="9"/>
       <c r="E273" s="9"/>
       <c r="F273" s="9"/>
-      <c r="G273" s="9"/>
+      <c r="G273" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H273" s="9"/>
       <c r="J273" s="9"/>
       <c r="K273" s="9"/>
@@ -18730,10 +18740,10 @@
     </row>
     <row r="274" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
+        <v>73</v>
+      </c>
+      <c r="B274" s="42" t="s">
         <v>75</v>
-      </c>
-      <c r="B274" s="43" t="s">
-        <v>132</v>
       </c>
       <c r="C274" s="9" t="s">
         <v>108</v>
@@ -18768,11 +18778,15 @@
       <c r="AI274" s="8"/>
     </row>
     <row r="275" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A275" s="6"/>
-      <c r="B275" s="41" t="s">
-        <v>441</v>
-      </c>
-      <c r="C275" s="9"/>
+      <c r="A275" s="6">
+        <v>74</v>
+      </c>
+      <c r="B275" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
       <c r="F275" s="9"/>
@@ -18803,18 +18817,20 @@
       <c r="AI275" s="8"/>
     </row>
     <row r="276" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A276" s="6"/>
-      <c r="B276" s="41" t="s">
-        <v>443</v>
-      </c>
-      <c r="C276" s="9"/>
+      <c r="A276" s="6">
+        <v>75</v>
+      </c>
+      <c r="B276" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
       <c r="F276" s="9"/>
       <c r="G276" s="9"/>
-      <c r="H276" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H276" s="9"/>
       <c r="J276" s="9"/>
       <c r="K276" s="9"/>
       <c r="L276" s="9"/>
@@ -18842,14 +18858,12 @@
     <row r="277" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C277" s="9"/>
       <c r="D277" s="9"/>
       <c r="E277" s="9"/>
-      <c r="F277" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F277" s="9"/>
       <c r="G277" s="9"/>
       <c r="H277" s="9"/>
       <c r="J277" s="9"/>
@@ -18879,16 +18893,16 @@
     <row r="278" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C278" s="9"/>
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
       <c r="F278" s="9"/>
-      <c r="G278" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H278" s="9"/>
+      <c r="G278" s="9"/>
+      <c r="H278" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J278" s="9"/>
       <c r="K278" s="9"/>
       <c r="L278" s="9"/>
@@ -18914,16 +18928,16 @@
       <c r="AI278" s="8"/>
     </row>
     <row r="279" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A279" s="6">
-        <v>76</v>
-      </c>
-      <c r="B279" s="43" t="s">
-        <v>66</v>
+      <c r="A279" s="6"/>
+      <c r="B279" s="41" t="s">
+        <v>442</v>
       </c>
       <c r="C279" s="9"/>
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
-      <c r="F279" s="9"/>
+      <c r="F279" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G279" s="9"/>
       <c r="H279" s="9"/>
       <c r="J279" s="9"/>
@@ -18953,13 +18967,15 @@
     <row r="280" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="41" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C280" s="9"/>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
       <c r="F280" s="9"/>
-      <c r="G280" s="9"/>
+      <c r="G280" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H280" s="9"/>
       <c r="J280" s="9"/>
       <c r="K280" s="9"/>
@@ -18986,16 +19002,16 @@
       <c r="AI280" s="8"/>
     </row>
     <row r="281" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A281" s="6"/>
-      <c r="B281" s="41" t="s">
-        <v>319</v>
+      <c r="A281" s="6">
+        <v>76</v>
+      </c>
+      <c r="B281" s="43" t="s">
+        <v>66</v>
       </c>
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
-      <c r="F281" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F281" s="9"/>
       <c r="G281" s="9"/>
       <c r="H281" s="9"/>
       <c r="J281" s="9"/>
@@ -19025,16 +19041,14 @@
     <row r="282" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="41" t="s">
-        <v>320</v>
+        <v>436</v>
       </c>
       <c r="C282" s="9"/>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
       <c r="F282" s="9"/>
       <c r="G282" s="9"/>
-      <c r="H282" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H282" s="9"/>
       <c r="J282" s="9"/>
       <c r="K282" s="9"/>
       <c r="L282" s="9"/>
@@ -19060,18 +19074,16 @@
       <c r="AI282" s="8"/>
     </row>
     <row r="283" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A283" s="6">
-        <v>77</v>
-      </c>
-      <c r="B283" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C283" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A283" s="6"/>
+      <c r="B283" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="C283" s="9"/>
       <c r="D283" s="9"/>
       <c r="E283" s="9"/>
-      <c r="F283" s="9"/>
+      <c r="F283" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G283" s="9"/>
       <c r="H283" s="9"/>
       <c r="J283" s="9"/>
@@ -19099,20 +19111,18 @@
       <c r="AI283" s="8"/>
     </row>
     <row r="284" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A284" s="6">
-        <v>78</v>
-      </c>
-      <c r="B284" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C284" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A284" s="6"/>
+      <c r="B284" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="C284" s="9"/>
       <c r="D284" s="9"/>
       <c r="E284" s="9"/>
       <c r="F284" s="9"/>
       <c r="G284" s="9"/>
-      <c r="H284" s="9"/>
+      <c r="H284" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J284" s="9"/>
       <c r="K284" s="9"/>
       <c r="L284" s="9"/>
@@ -19139,12 +19149,14 @@
     </row>
     <row r="285" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
-        <v>79</v>
-      </c>
-      <c r="B285" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C285" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="B285" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D285" s="9"/>
       <c r="E285" s="9"/>
       <c r="F285" s="9"/>
@@ -19175,16 +19187,18 @@
       <c r="AI285" s="8"/>
     </row>
     <row r="286" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A286" s="6"/>
-      <c r="B286" s="41" t="s">
-        <v>321</v>
-      </c>
-      <c r="C286" s="9"/>
+      <c r="A286" s="6">
+        <v>78</v>
+      </c>
+      <c r="B286" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C286" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
-      <c r="F286" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F286" s="9"/>
       <c r="G286" s="9"/>
       <c r="H286" s="9"/>
       <c r="J286" s="9"/>
@@ -19212,18 +19226,18 @@
       <c r="AI286" s="8"/>
     </row>
     <row r="287" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A287" s="6"/>
-      <c r="B287" s="41" t="s">
-        <v>322</v>
+      <c r="A287" s="6">
+        <v>79</v>
+      </c>
+      <c r="B287" s="43" t="s">
+        <v>28</v>
       </c>
       <c r="C287" s="9"/>
       <c r="D287" s="9"/>
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
       <c r="G287" s="9"/>
-      <c r="H287" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H287" s="9"/>
       <c r="J287" s="9"/>
       <c r="K287" s="9"/>
       <c r="L287" s="9"/>
@@ -19249,18 +19263,16 @@
       <c r="AI287" s="8"/>
     </row>
     <row r="288" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A288" s="6">
-        <v>80</v>
-      </c>
-      <c r="B288" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C288" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A288" s="6"/>
+      <c r="B288" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="C288" s="9"/>
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
-      <c r="F288" s="9"/>
+      <c r="F288" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G288" s="9"/>
       <c r="H288" s="9"/>
       <c r="J288" s="9"/>
@@ -19288,20 +19300,18 @@
       <c r="AI288" s="8"/>
     </row>
     <row r="289" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A289" s="6">
-        <v>81</v>
-      </c>
-      <c r="B289" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C289" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A289" s="6"/>
+      <c r="B289" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="C289" s="9"/>
       <c r="D289" s="9"/>
       <c r="E289" s="9"/>
       <c r="F289" s="9"/>
       <c r="G289" s="9"/>
-      <c r="H289" s="9"/>
+      <c r="H289" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J289" s="9"/>
       <c r="K289" s="9"/>
       <c r="L289" s="9"/>
@@ -19328,10 +19338,10 @@
     </row>
     <row r="290" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B290" s="42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C290" s="9" t="s">
         <v>108</v>
@@ -19367,10 +19377,10 @@
     </row>
     <row r="291" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B291" s="42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C291" s="9" t="s">
         <v>108</v>
@@ -19406,10 +19416,10 @@
     </row>
     <row r="292" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B292" s="42" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="C292" s="9" t="s">
         <v>108</v>
@@ -19445,10 +19455,10 @@
     </row>
     <row r="293" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B293" s="42" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="C293" s="9" t="s">
         <v>108</v>
@@ -19484,10 +19494,10 @@
     </row>
     <row r="294" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B294" s="42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C294" s="9" t="s">
         <v>108</v>
@@ -19523,10 +19533,10 @@
     </row>
     <row r="295" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
-        <v>87</v>
-      </c>
-      <c r="B295" s="8" t="s">
-        <v>76</v>
+        <v>85</v>
+      </c>
+      <c r="B295" s="42" t="s">
+        <v>118</v>
       </c>
       <c r="C295" s="9" t="s">
         <v>108</v>
@@ -19562,12 +19572,14 @@
     </row>
     <row r="296" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
-        <v>88</v>
-      </c>
-      <c r="B296" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C296" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="B296" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
@@ -19598,16 +19610,18 @@
       <c r="AI296" s="8"/>
     </row>
     <row r="297" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A297" s="6"/>
-      <c r="B297" s="40" t="s">
-        <v>323</v>
-      </c>
-      <c r="C297" s="9"/>
+      <c r="A297" s="6">
+        <v>87</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D297" s="9"/>
       <c r="E297" s="9"/>
-      <c r="F297" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F297" s="9"/>
       <c r="G297" s="9"/>
       <c r="H297" s="9"/>
       <c r="J297" s="9"/>
@@ -19635,18 +19649,18 @@
       <c r="AI297" s="8"/>
     </row>
     <row r="298" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A298" s="6"/>
-      <c r="B298" s="40" t="s">
-        <v>324</v>
+      <c r="A298" s="6">
+        <v>88</v>
+      </c>
+      <c r="B298" s="43" t="s">
+        <v>32</v>
       </c>
       <c r="C298" s="9"/>
       <c r="D298" s="9"/>
       <c r="E298" s="9"/>
       <c r="F298" s="9"/>
       <c r="G298" s="9"/>
-      <c r="H298" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H298" s="9"/>
       <c r="J298" s="9"/>
       <c r="K298" s="9"/>
       <c r="L298" s="9"/>
@@ -19672,16 +19686,16 @@
       <c r="AI298" s="8"/>
     </row>
     <row r="299" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A299" s="6">
-        <v>89</v>
-      </c>
-      <c r="B299" s="43" t="s">
-        <v>24</v>
+      <c r="A299" s="6"/>
+      <c r="B299" s="40" t="s">
+        <v>323</v>
       </c>
       <c r="C299" s="9"/>
       <c r="D299" s="9"/>
       <c r="E299" s="9"/>
-      <c r="F299" s="9"/>
+      <c r="F299" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G299" s="9"/>
       <c r="H299" s="9"/>
       <c r="J299" s="9"/>
@@ -19710,17 +19724,17 @@
     </row>
     <row r="300" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
-      <c r="B300" s="41" t="s">
-        <v>325</v>
+      <c r="B300" s="40" t="s">
+        <v>324</v>
       </c>
       <c r="C300" s="9"/>
       <c r="D300" s="9"/>
       <c r="E300" s="9"/>
-      <c r="F300" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F300" s="9"/>
       <c r="G300" s="9"/>
-      <c r="H300" s="9"/>
+      <c r="H300" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J300" s="9"/>
       <c r="K300" s="9"/>
       <c r="L300" s="9"/>
@@ -19731,9 +19745,7 @@
       <c r="Q300" s="9"/>
       <c r="R300" s="9"/>
       <c r="T300" s="9"/>
-      <c r="U300" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U300" s="9"/>
       <c r="V300" s="9"/>
       <c r="W300" s="9"/>
       <c r="X300" s="9"/>
@@ -19748,16 +19760,16 @@
       <c r="AI300" s="8"/>
     </row>
     <row r="301" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A301" s="6"/>
-      <c r="B301" s="41" t="s">
-        <v>326</v>
+      <c r="A301" s="6">
+        <v>89</v>
+      </c>
+      <c r="B301" s="43" t="s">
+        <v>24</v>
       </c>
       <c r="C301" s="9"/>
       <c r="D301" s="9"/>
       <c r="E301" s="9"/>
-      <c r="F301" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F301" s="9"/>
       <c r="G301" s="9"/>
       <c r="H301" s="9"/>
       <c r="J301" s="9"/>
@@ -19770,9 +19782,7 @@
       <c r="Q301" s="9"/>
       <c r="R301" s="9"/>
       <c r="T301" s="9"/>
-      <c r="U301" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U301" s="9"/>
       <c r="V301" s="9"/>
       <c r="W301" s="9"/>
       <c r="X301" s="9"/>
@@ -19789,16 +19799,16 @@
     <row r="302" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="41" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C302" s="9"/>
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
-      <c r="F302" s="9"/>
+      <c r="F302" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G302" s="9"/>
-      <c r="H302" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H302" s="9"/>
       <c r="J302" s="9"/>
       <c r="K302" s="9"/>
       <c r="L302" s="9"/>
@@ -19809,11 +19819,11 @@
       <c r="Q302" s="9"/>
       <c r="R302" s="9"/>
       <c r="T302" s="9"/>
-      <c r="U302" s="9"/>
+      <c r="U302" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V302" s="9"/>
-      <c r="W302" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W302" s="9"/>
       <c r="X302" s="9"/>
       <c r="Y302" s="9"/>
       <c r="Z302" s="9"/>
@@ -19828,12 +19838,14 @@
     <row r="303" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="41" t="s">
-        <v>430</v>
+        <v>326</v>
       </c>
       <c r="C303" s="9"/>
       <c r="D303" s="9"/>
       <c r="E303" s="9"/>
-      <c r="F303" s="9"/>
+      <c r="F303" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G303" s="9"/>
       <c r="H303" s="9"/>
       <c r="J303" s="9"/>
@@ -19845,10 +19857,10 @@
       <c r="P303" s="9"/>
       <c r="Q303" s="9"/>
       <c r="R303" s="9"/>
-      <c r="T303" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U303" s="9"/>
+      <c r="T303" s="9"/>
+      <c r="U303" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V303" s="9"/>
       <c r="W303" s="9"/>
       <c r="X303" s="9"/>
@@ -19856,9 +19868,7 @@
       <c r="Z303" s="9"/>
       <c r="AA303" s="9"/>
       <c r="AB303" s="9"/>
-      <c r="AD303" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD303" s="9"/>
       <c r="AE303" s="9"/>
       <c r="AF303" s="9"/>
       <c r="AG303" s="9"/>
@@ -19867,7 +19877,7 @@
     <row r="304" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C304" s="9"/>
       <c r="D304" s="9"/>
@@ -19904,15 +19914,11 @@
       <c r="AI304" s="8"/>
     </row>
     <row r="305" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A305" s="6">
-        <v>90</v>
-      </c>
-      <c r="B305" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C305" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A305" s="6"/>
+      <c r="B305" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="C305" s="9"/>
       <c r="D305" s="9"/>
       <c r="E305" s="9"/>
       <c r="F305" s="9"/>
@@ -19927,7 +19933,9 @@
       <c r="P305" s="9"/>
       <c r="Q305" s="9"/>
       <c r="R305" s="9"/>
-      <c r="T305" s="9"/>
+      <c r="T305" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="U305" s="9"/>
       <c r="V305" s="9"/>
       <c r="W305" s="9"/>
@@ -19936,27 +19944,27 @@
       <c r="Z305" s="9"/>
       <c r="AA305" s="9"/>
       <c r="AB305" s="9"/>
-      <c r="AD305" s="9"/>
+      <c r="AD305" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE305" s="9"/>
       <c r="AF305" s="9"/>
       <c r="AG305" s="9"/>
       <c r="AI305" s="8"/>
     </row>
     <row r="306" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A306" s="6">
-        <v>91</v>
-      </c>
-      <c r="B306" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C306" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A306" s="6"/>
+      <c r="B306" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="C306" s="9"/>
       <c r="D306" s="9"/>
       <c r="E306" s="9"/>
       <c r="F306" s="9"/>
       <c r="G306" s="9"/>
-      <c r="H306" s="9"/>
+      <c r="H306" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J306" s="9"/>
       <c r="K306" s="9"/>
       <c r="L306" s="9"/>
@@ -19969,7 +19977,9 @@
       <c r="T306" s="9"/>
       <c r="U306" s="9"/>
       <c r="V306" s="9"/>
-      <c r="W306" s="9"/>
+      <c r="W306" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X306" s="9"/>
       <c r="Y306" s="9"/>
       <c r="Z306" s="9"/>
@@ -19983,12 +19993,14 @@
     </row>
     <row r="307" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
-        <v>92</v>
-      </c>
-      <c r="B307" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C307" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="B307" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C307" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D307" s="9"/>
       <c r="E307" s="9"/>
       <c r="F307" s="9"/>
@@ -20019,16 +20031,18 @@
       <c r="AI307" s="8"/>
     </row>
     <row r="308" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A308" s="6"/>
-      <c r="B308" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="C308" s="9"/>
+      <c r="A308" s="6">
+        <v>91</v>
+      </c>
+      <c r="B308" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C308" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D308" s="9"/>
       <c r="E308" s="9"/>
-      <c r="F308" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F308" s="9"/>
       <c r="G308" s="9"/>
       <c r="H308" s="9"/>
       <c r="J308" s="9"/>
@@ -20056,18 +20070,18 @@
       <c r="AI308" s="8"/>
     </row>
     <row r="309" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A309" s="6"/>
-      <c r="B309" s="41" t="s">
-        <v>384</v>
+      <c r="A309" s="6">
+        <v>92</v>
+      </c>
+      <c r="B309" s="43" t="s">
+        <v>70</v>
       </c>
       <c r="C309" s="9"/>
       <c r="D309" s="9"/>
       <c r="E309" s="9"/>
       <c r="F309" s="9"/>
       <c r="G309" s="9"/>
-      <c r="H309" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H309" s="9"/>
       <c r="J309" s="9"/>
       <c r="K309" s="9"/>
       <c r="L309" s="9"/>
@@ -20093,18 +20107,16 @@
       <c r="AI309" s="8"/>
     </row>
     <row r="310" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A310" s="6">
-        <v>93</v>
-      </c>
-      <c r="B310" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C310" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A310" s="6"/>
+      <c r="B310" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="C310" s="9"/>
       <c r="D310" s="9"/>
       <c r="E310" s="9"/>
-      <c r="F310" s="9"/>
+      <c r="F310" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G310" s="9"/>
       <c r="H310" s="9"/>
       <c r="J310" s="9"/>
@@ -20132,20 +20144,18 @@
       <c r="AI310" s="8"/>
     </row>
     <row r="311" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A311" s="6">
-        <v>94</v>
-      </c>
-      <c r="B311" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C311" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A311" s="6"/>
+      <c r="B311" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="C311" s="9"/>
       <c r="D311" s="9"/>
       <c r="E311" s="9"/>
       <c r="F311" s="9"/>
       <c r="G311" s="9"/>
-      <c r="H311" s="9"/>
+      <c r="H311" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J311" s="9"/>
       <c r="K311" s="9"/>
       <c r="L311" s="9"/>
@@ -20172,10 +20182,10 @@
     </row>
     <row r="312" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B312" s="42" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C312" s="9" t="s">
         <v>108</v>
@@ -20211,12 +20221,14 @@
     </row>
     <row r="313" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
-        <v>96</v>
-      </c>
-      <c r="B313" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C313" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B313" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D313" s="9"/>
       <c r="E313" s="9"/>
       <c r="F313" s="9"/>
@@ -20235,9 +20247,7 @@
       <c r="U313" s="9"/>
       <c r="V313" s="9"/>
       <c r="W313" s="9"/>
-      <c r="X313" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="X313" s="9"/>
       <c r="Y313" s="9"/>
       <c r="Z313" s="9"/>
       <c r="AA313" s="9"/>
@@ -20249,14 +20259,16 @@
       <c r="AI313" s="8"/>
     </row>
     <row r="314" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A314" s="6"/>
-      <c r="B314" s="41" t="s">
-        <v>469</v>
-      </c>
-      <c r="C314" s="9"/>
-      <c r="D314" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A314" s="6">
+        <v>95</v>
+      </c>
+      <c r="B314" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D314" s="9"/>
       <c r="E314" s="9"/>
       <c r="F314" s="9"/>
       <c r="G314" s="9"/>
@@ -20286,18 +20298,18 @@
       <c r="AI314" s="8"/>
     </row>
     <row r="315" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A315" s="6"/>
-      <c r="B315" s="41" t="s">
-        <v>428</v>
+      <c r="A315" s="6">
+        <v>96</v>
+      </c>
+      <c r="B315" s="43" t="s">
+        <v>73</v>
       </c>
       <c r="C315" s="9"/>
       <c r="D315" s="9"/>
       <c r="E315" s="9"/>
       <c r="F315" s="9"/>
       <c r="G315" s="9"/>
-      <c r="H315" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H315" s="9"/>
       <c r="J315" s="9"/>
       <c r="K315" s="9"/>
       <c r="L315" s="9"/>
@@ -20311,7 +20323,9 @@
       <c r="U315" s="9"/>
       <c r="V315" s="9"/>
       <c r="W315" s="9"/>
-      <c r="X315" s="9"/>
+      <c r="X315" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="Y315" s="9"/>
       <c r="Z315" s="9"/>
       <c r="AA315" s="9"/>
@@ -20325,14 +20339,14 @@
     <row r="316" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="41" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="C316" s="9"/>
-      <c r="D316" s="9"/>
+      <c r="D316" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="E316" s="9"/>
-      <c r="F316" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F316" s="9"/>
       <c r="G316" s="9"/>
       <c r="H316" s="9"/>
       <c r="J316" s="9"/>
@@ -20362,16 +20376,16 @@
     <row r="317" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="41" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="C317" s="9"/>
       <c r="D317" s="9"/>
       <c r="E317" s="9"/>
       <c r="F317" s="9"/>
-      <c r="G317" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H317" s="9"/>
+      <c r="G317" s="9"/>
+      <c r="H317" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J317" s="9"/>
       <c r="K317" s="9"/>
       <c r="L317" s="9"/>
@@ -20397,18 +20411,16 @@
       <c r="AI317" s="8"/>
     </row>
     <row r="318" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A318" s="6">
-        <v>97</v>
-      </c>
-      <c r="B318" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C318" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A318" s="6"/>
+      <c r="B318" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="C318" s="9"/>
       <c r="D318" s="9"/>
       <c r="E318" s="9"/>
-      <c r="F318" s="9"/>
+      <c r="F318" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G318" s="9"/>
       <c r="H318" s="9"/>
       <c r="J318" s="9"/>
@@ -20436,19 +20448,17 @@
       <c r="AI318" s="8"/>
     </row>
     <row r="319" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A319" s="6">
-        <v>98</v>
-      </c>
-      <c r="B319" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C319" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A319" s="6"/>
+      <c r="B319" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="C319" s="9"/>
       <c r="D319" s="9"/>
       <c r="E319" s="9"/>
       <c r="F319" s="9"/>
-      <c r="G319" s="9"/>
+      <c r="G319" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H319" s="9"/>
       <c r="J319" s="9"/>
       <c r="K319" s="9"/>
@@ -20476,10 +20486,10 @@
     </row>
     <row r="320" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B320" s="42" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C320" s="9" t="s">
         <v>108</v>
@@ -20515,12 +20525,14 @@
     </row>
     <row r="321" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
-        <v>100</v>
-      </c>
-      <c r="B321" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C321" s="9"/>
+        <v>98</v>
+      </c>
+      <c r="B321" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D321" s="9"/>
       <c r="E321" s="9"/>
       <c r="F321" s="9"/>
@@ -20551,14 +20563,16 @@
       <c r="AI321" s="8"/>
     </row>
     <row r="322" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A322" s="6"/>
-      <c r="B322" s="41" t="s">
-        <v>472</v>
-      </c>
-      <c r="C322" s="9"/>
-      <c r="D322" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A322" s="6">
+        <v>99</v>
+      </c>
+      <c r="B322" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C322" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D322" s="9"/>
       <c r="E322" s="9"/>
       <c r="F322" s="9"/>
       <c r="G322" s="9"/>
@@ -20588,18 +20602,18 @@
       <c r="AI322" s="8"/>
     </row>
     <row r="323" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A323" s="6"/>
-      <c r="B323" s="41" t="s">
-        <v>331</v>
+      <c r="A323" s="6">
+        <v>100</v>
+      </c>
+      <c r="B323" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="C323" s="9"/>
       <c r="D323" s="9"/>
       <c r="E323" s="9"/>
       <c r="F323" s="9"/>
       <c r="G323" s="9"/>
-      <c r="H323" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H323" s="9"/>
       <c r="J323" s="9"/>
       <c r="K323" s="9"/>
       <c r="L323" s="9"/>
@@ -20612,9 +20626,7 @@
       <c r="T323" s="9"/>
       <c r="U323" s="9"/>
       <c r="V323" s="9"/>
-      <c r="W323" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W323" s="9"/>
       <c r="X323" s="9"/>
       <c r="Y323" s="9"/>
       <c r="Z323" s="9"/>
@@ -20629,16 +20641,16 @@
     <row r="324" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="41" t="s">
-        <v>332</v>
+        <v>472</v>
       </c>
       <c r="C324" s="9"/>
-      <c r="D324" s="9"/>
+      <c r="D324" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="E324" s="9"/>
       <c r="F324" s="9"/>
       <c r="G324" s="9"/>
-      <c r="H324" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H324" s="9"/>
       <c r="J324" s="9"/>
       <c r="K324" s="9"/>
       <c r="L324" s="9"/>
@@ -20649,9 +20661,7 @@
       <c r="Q324" s="9"/>
       <c r="R324" s="9"/>
       <c r="T324" s="9"/>
-      <c r="U324" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U324" s="9"/>
       <c r="V324" s="9"/>
       <c r="W324" s="9"/>
       <c r="X324" s="9"/>
@@ -20668,16 +20678,16 @@
     <row r="325" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="41" t="s">
-        <v>471</v>
+        <v>331</v>
       </c>
       <c r="C325" s="9"/>
       <c r="D325" s="9"/>
       <c r="E325" s="9"/>
-      <c r="F325" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F325" s="9"/>
       <c r="G325" s="9"/>
-      <c r="H325" s="9"/>
+      <c r="H325" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J325" s="9"/>
       <c r="K325" s="9"/>
       <c r="L325" s="9"/>
@@ -20687,12 +20697,12 @@
       <c r="P325" s="9"/>
       <c r="Q325" s="9"/>
       <c r="R325" s="9"/>
-      <c r="T325" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T325" s="9"/>
       <c r="U325" s="9"/>
       <c r="V325" s="9"/>
-      <c r="W325" s="9"/>
+      <c r="W325" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X325" s="9"/>
       <c r="Y325" s="9"/>
       <c r="Z325" s="9"/>
@@ -20707,16 +20717,16 @@
     <row r="326" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="41" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C326" s="9"/>
       <c r="D326" s="9"/>
       <c r="E326" s="9"/>
-      <c r="F326" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F326" s="9"/>
       <c r="G326" s="9"/>
-      <c r="H326" s="9"/>
+      <c r="H326" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J326" s="9"/>
       <c r="K326" s="9"/>
       <c r="L326" s="9"/>
@@ -20727,11 +20737,11 @@
       <c r="Q326" s="9"/>
       <c r="R326" s="9"/>
       <c r="T326" s="9"/>
-      <c r="U326" s="9"/>
+      <c r="U326" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V326" s="9"/>
-      <c r="W326" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="W326" s="9"/>
       <c r="X326" s="9"/>
       <c r="Y326" s="9"/>
       <c r="Z326" s="9"/>
@@ -20746,7 +20756,7 @@
     <row r="327" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="41" t="s">
-        <v>329</v>
+        <v>471</v>
       </c>
       <c r="C327" s="9"/>
       <c r="D327" s="9"/>
@@ -20765,10 +20775,10 @@
       <c r="P327" s="9"/>
       <c r="Q327" s="9"/>
       <c r="R327" s="9"/>
-      <c r="T327" s="9"/>
-      <c r="U327" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T327" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U327" s="9"/>
       <c r="V327" s="9"/>
       <c r="W327" s="9"/>
       <c r="X327" s="9"/>
@@ -20783,18 +20793,16 @@
       <c r="AI327" s="8"/>
     </row>
     <row r="328" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A328" s="6">
-        <v>101</v>
-      </c>
-      <c r="B328" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C328" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A328" s="6"/>
+      <c r="B328" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="C328" s="9"/>
       <c r="D328" s="9"/>
       <c r="E328" s="9"/>
-      <c r="F328" s="9"/>
+      <c r="F328" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G328" s="9"/>
       <c r="H328" s="9"/>
       <c r="J328" s="9"/>
@@ -20809,7 +20817,9 @@
       <c r="T328" s="9"/>
       <c r="U328" s="9"/>
       <c r="V328" s="9"/>
-      <c r="W328" s="9"/>
+      <c r="W328" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X328" s="9"/>
       <c r="Y328" s="9"/>
       <c r="Z328" s="9"/>
@@ -20822,18 +20832,16 @@
       <c r="AI328" s="8"/>
     </row>
     <row r="329" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A329" s="6">
-        <v>102</v>
-      </c>
-      <c r="B329" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C329" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A329" s="6"/>
+      <c r="B329" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="C329" s="9"/>
       <c r="D329" s="9"/>
       <c r="E329" s="9"/>
-      <c r="F329" s="9"/>
+      <c r="F329" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G329" s="9"/>
       <c r="H329" s="9"/>
       <c r="J329" s="9"/>
@@ -20846,7 +20854,9 @@
       <c r="Q329" s="9"/>
       <c r="R329" s="9"/>
       <c r="T329" s="9"/>
-      <c r="U329" s="9"/>
+      <c r="U329" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="V329" s="9"/>
       <c r="W329" s="9"/>
       <c r="X329" s="9"/>
@@ -20862,12 +20872,14 @@
     </row>
     <row r="330" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
-        <v>103</v>
-      </c>
-      <c r="B330" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C330" s="9"/>
+        <v>101</v>
+      </c>
+      <c r="B330" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C330" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D330" s="9"/>
       <c r="E330" s="9"/>
       <c r="F330" s="9"/>
@@ -20898,16 +20910,18 @@
       <c r="AI330" s="8"/>
     </row>
     <row r="331" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A331" s="6"/>
-      <c r="B331" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="C331" s="9"/>
+      <c r="A331" s="6">
+        <v>102</v>
+      </c>
+      <c r="B331" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C331" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D331" s="9"/>
       <c r="E331" s="9"/>
-      <c r="F331" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F331" s="9"/>
       <c r="G331" s="9"/>
       <c r="H331" s="9"/>
       <c r="J331" s="9"/>
@@ -20935,18 +20949,18 @@
       <c r="AI331" s="8"/>
     </row>
     <row r="332" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A332" s="6"/>
-      <c r="B332" s="40" t="s">
-        <v>334</v>
+      <c r="A332" s="6">
+        <v>103</v>
+      </c>
+      <c r="B332" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="C332" s="9"/>
       <c r="D332" s="9"/>
       <c r="E332" s="9"/>
       <c r="F332" s="9"/>
       <c r="G332" s="9"/>
-      <c r="H332" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="H332" s="9"/>
       <c r="J332" s="9"/>
       <c r="K332" s="9"/>
       <c r="L332" s="9"/>
@@ -20972,18 +20986,16 @@
       <c r="AI332" s="8"/>
     </row>
     <row r="333" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A333" s="6">
-        <v>105</v>
-      </c>
-      <c r="B333" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C333" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A333" s="6"/>
+      <c r="B333" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="C333" s="9"/>
       <c r="D333" s="9"/>
       <c r="E333" s="9"/>
-      <c r="F333" s="9"/>
+      <c r="F333" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="G333" s="9"/>
       <c r="H333" s="9"/>
       <c r="J333" s="9"/>
@@ -21011,18 +21023,18 @@
       <c r="AI333" s="8"/>
     </row>
     <row r="334" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A334" s="6">
-        <v>106</v>
-      </c>
-      <c r="B334" s="43" t="s">
-        <v>1</v>
+      <c r="A334" s="6"/>
+      <c r="B334" s="40" t="s">
+        <v>334</v>
       </c>
       <c r="C334" s="9"/>
       <c r="D334" s="9"/>
       <c r="E334" s="9"/>
       <c r="F334" s="9"/>
       <c r="G334" s="9"/>
-      <c r="H334" s="9"/>
+      <c r="H334" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="J334" s="9"/>
       <c r="K334" s="9"/>
       <c r="L334" s="9"/>
@@ -21048,21 +21060,21 @@
       <c r="AI334" s="8"/>
     </row>
     <row r="335" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A335" s="6"/>
-      <c r="B335" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="C335" s="9"/>
+      <c r="A335" s="6">
+        <v>105</v>
+      </c>
+      <c r="B335" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C335" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D335" s="9"/>
       <c r="E335" s="9"/>
-      <c r="F335" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F335" s="9"/>
       <c r="G335" s="9"/>
       <c r="H335" s="9"/>
-      <c r="J335" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J335" s="9"/>
       <c r="K335" s="9"/>
       <c r="L335" s="9"/>
       <c r="M335" s="9"/>
@@ -21071,9 +21083,7 @@
       <c r="P335" s="9"/>
       <c r="Q335" s="9"/>
       <c r="R335" s="9"/>
-      <c r="T335" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T335" s="9"/>
       <c r="U335" s="9"/>
       <c r="V335" s="9"/>
       <c r="W335" s="9"/>
@@ -21082,31 +21092,27 @@
       <c r="Z335" s="9"/>
       <c r="AA335" s="9"/>
       <c r="AB335" s="9"/>
-      <c r="AD335" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD335" s="9"/>
       <c r="AE335" s="9"/>
       <c r="AF335" s="9"/>
       <c r="AG335" s="9"/>
       <c r="AI335" s="8"/>
     </row>
     <row r="336" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A336" s="6"/>
-      <c r="B336" s="41" t="s">
-        <v>336</v>
+      <c r="A336" s="6">
+        <v>106</v>
+      </c>
+      <c r="B336" s="43" t="s">
+        <v>1</v>
       </c>
       <c r="C336" s="9"/>
       <c r="D336" s="9"/>
       <c r="E336" s="9"/>
-      <c r="F336" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F336" s="9"/>
       <c r="G336" s="9"/>
       <c r="H336" s="9"/>
       <c r="J336" s="9"/>
-      <c r="K336" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K336" s="9"/>
       <c r="L336" s="9"/>
       <c r="M336" s="9"/>
       <c r="N336" s="9"/>
@@ -21114,9 +21120,7 @@
       <c r="P336" s="9"/>
       <c r="Q336" s="9"/>
       <c r="R336" s="9"/>
-      <c r="T336" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T336" s="9"/>
       <c r="U336" s="9"/>
       <c r="V336" s="9"/>
       <c r="W336" s="9"/>
@@ -21125,9 +21129,7 @@
       <c r="Z336" s="9"/>
       <c r="AA336" s="9"/>
       <c r="AB336" s="9"/>
-      <c r="AD336" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD336" s="9"/>
       <c r="AE336" s="9"/>
       <c r="AF336" s="9"/>
       <c r="AG336" s="9"/>
@@ -21136,7 +21138,7 @@
     <row r="337" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="41" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C337" s="9"/>
       <c r="D337" s="9"/>
@@ -21146,11 +21148,11 @@
       </c>
       <c r="G337" s="9"/>
       <c r="H337" s="9"/>
-      <c r="J337" s="9"/>
+      <c r="J337" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K337" s="9"/>
-      <c r="L337" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L337" s="9"/>
       <c r="M337" s="9"/>
       <c r="N337" s="9"/>
       <c r="O337" s="9"/>
@@ -21179,7 +21181,7 @@
     <row r="338" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="41" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C338" s="9"/>
       <c r="D338" s="9"/>
@@ -21190,11 +21192,11 @@
       <c r="G338" s="9"/>
       <c r="H338" s="9"/>
       <c r="J338" s="9"/>
-      <c r="K338" s="9"/>
+      <c r="K338" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L338" s="9"/>
-      <c r="M338" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M338" s="9"/>
       <c r="N338" s="9"/>
       <c r="O338" s="9"/>
       <c r="P338" s="9"/>
@@ -21222,7 +21224,7 @@
     <row r="339" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="41" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C339" s="9"/>
       <c r="D339" s="9"/>
@@ -21234,11 +21236,11 @@
       <c r="H339" s="9"/>
       <c r="J339" s="9"/>
       <c r="K339" s="9"/>
-      <c r="L339" s="9"/>
+      <c r="L339" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M339" s="9"/>
-      <c r="N339" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N339" s="9"/>
       <c r="O339" s="9"/>
       <c r="P339" s="9"/>
       <c r="Q339" s="9"/>
@@ -21265,7 +21267,7 @@
     <row r="340" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="41" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C340" s="9"/>
       <c r="D340" s="9"/>
@@ -21278,11 +21280,11 @@
       <c r="J340" s="9"/>
       <c r="K340" s="9"/>
       <c r="L340" s="9"/>
-      <c r="M340" s="9"/>
+      <c r="M340" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N340" s="9"/>
-      <c r="O340" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O340" s="9"/>
       <c r="P340" s="9"/>
       <c r="Q340" s="9"/>
       <c r="R340" s="9"/>
@@ -21308,7 +21310,7 @@
     <row r="341" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="41" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
@@ -21318,21 +21320,21 @@
       </c>
       <c r="G341" s="9"/>
       <c r="H341" s="9"/>
-      <c r="J341" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J341" s="9"/>
       <c r="K341" s="9"/>
       <c r="L341" s="9"/>
       <c r="M341" s="9"/>
-      <c r="N341" s="9"/>
+      <c r="N341" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O341" s="9"/>
       <c r="P341" s="9"/>
       <c r="Q341" s="9"/>
       <c r="R341" s="9"/>
-      <c r="T341" s="9"/>
-      <c r="U341" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T341" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U341" s="9"/>
       <c r="V341" s="9"/>
       <c r="W341" s="9"/>
       <c r="X341" s="9"/>
@@ -21340,7 +21342,9 @@
       <c r="Z341" s="9"/>
       <c r="AA341" s="9"/>
       <c r="AB341" s="9"/>
-      <c r="AD341" s="9"/>
+      <c r="AD341" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE341" s="9"/>
       <c r="AF341" s="9"/>
       <c r="AG341" s="9"/>
@@ -21349,7 +21353,7 @@
     <row r="342" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="41" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
@@ -21360,20 +21364,20 @@
       <c r="G342" s="9"/>
       <c r="H342" s="9"/>
       <c r="J342" s="9"/>
-      <c r="K342" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K342" s="9"/>
       <c r="L342" s="9"/>
       <c r="M342" s="9"/>
       <c r="N342" s="9"/>
-      <c r="O342" s="9"/>
+      <c r="O342" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P342" s="9"/>
       <c r="Q342" s="9"/>
       <c r="R342" s="9"/>
-      <c r="T342" s="9"/>
-      <c r="U342" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T342" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U342" s="9"/>
       <c r="V342" s="9"/>
       <c r="W342" s="9"/>
       <c r="X342" s="9"/>
@@ -21381,7 +21385,9 @@
       <c r="Z342" s="9"/>
       <c r="AA342" s="9"/>
       <c r="AB342" s="9"/>
-      <c r="AD342" s="9"/>
+      <c r="AD342" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE342" s="9"/>
       <c r="AF342" s="9"/>
       <c r="AG342" s="9"/>
@@ -21390,7 +21396,7 @@
     <row r="343" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C343" s="9"/>
       <c r="D343" s="9"/>
@@ -21400,11 +21406,11 @@
       </c>
       <c r="G343" s="9"/>
       <c r="H343" s="9"/>
-      <c r="J343" s="9"/>
+      <c r="J343" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K343" s="9"/>
-      <c r="L343" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L343" s="9"/>
       <c r="M343" s="9"/>
       <c r="N343" s="9"/>
       <c r="O343" s="9"/>
@@ -21431,7 +21437,7 @@
     <row r="344" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="41" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C344" s="9"/>
       <c r="D344" s="9"/>
@@ -21442,11 +21448,11 @@
       <c r="G344" s="9"/>
       <c r="H344" s="9"/>
       <c r="J344" s="9"/>
-      <c r="K344" s="9"/>
+      <c r="K344" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L344" s="9"/>
-      <c r="M344" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M344" s="9"/>
       <c r="N344" s="9"/>
       <c r="O344" s="9"/>
       <c r="P344" s="9"/>
@@ -21472,7 +21478,7 @@
     <row r="345" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
@@ -21484,11 +21490,11 @@
       <c r="H345" s="9"/>
       <c r="J345" s="9"/>
       <c r="K345" s="9"/>
-      <c r="L345" s="9"/>
+      <c r="L345" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M345" s="9"/>
-      <c r="N345" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N345" s="9"/>
       <c r="O345" s="9"/>
       <c r="P345" s="9"/>
       <c r="Q345" s="9"/>
@@ -21513,7 +21519,7 @@
     <row r="346" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="41" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
@@ -21526,11 +21532,11 @@
       <c r="J346" s="9"/>
       <c r="K346" s="9"/>
       <c r="L346" s="9"/>
-      <c r="M346" s="9"/>
+      <c r="M346" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N346" s="9"/>
-      <c r="O346" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O346" s="9"/>
       <c r="P346" s="9"/>
       <c r="Q346" s="9"/>
       <c r="R346" s="9"/>
@@ -21554,7 +21560,7 @@
     <row r="347" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="41" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C347" s="9"/>
       <c r="D347" s="9"/>
@@ -21564,22 +21570,22 @@
       </c>
       <c r="G347" s="9"/>
       <c r="H347" s="9"/>
-      <c r="J347" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J347" s="9"/>
       <c r="K347" s="9"/>
       <c r="L347" s="9"/>
       <c r="M347" s="9"/>
-      <c r="N347" s="9"/>
+      <c r="N347" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O347" s="9"/>
       <c r="P347" s="9"/>
       <c r="Q347" s="9"/>
       <c r="R347" s="9"/>
       <c r="T347" s="9"/>
-      <c r="U347" s="9"/>
-      <c r="V347" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U347" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V347" s="9"/>
       <c r="W347" s="9"/>
       <c r="X347" s="9"/>
       <c r="Y347" s="9"/>
@@ -21595,7 +21601,7 @@
     <row r="348" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="41" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C348" s="9"/>
       <c r="D348" s="9"/>
@@ -21606,21 +21612,21 @@
       <c r="G348" s="9"/>
       <c r="H348" s="9"/>
       <c r="J348" s="9"/>
-      <c r="K348" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K348" s="9"/>
       <c r="L348" s="9"/>
       <c r="M348" s="9"/>
       <c r="N348" s="9"/>
-      <c r="O348" s="9"/>
+      <c r="O348" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P348" s="9"/>
       <c r="Q348" s="9"/>
       <c r="R348" s="9"/>
       <c r="T348" s="9"/>
-      <c r="U348" s="9"/>
-      <c r="V348" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U348" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V348" s="9"/>
       <c r="W348" s="9"/>
       <c r="X348" s="9"/>
       <c r="Y348" s="9"/>
@@ -21636,7 +21642,7 @@
     <row r="349" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="41" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
@@ -21646,11 +21652,11 @@
       </c>
       <c r="G349" s="9"/>
       <c r="H349" s="9"/>
-      <c r="J349" s="9"/>
+      <c r="J349" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K349" s="9"/>
-      <c r="L349" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L349" s="9"/>
       <c r="M349" s="9"/>
       <c r="N349" s="9"/>
       <c r="O349" s="9"/>
@@ -21677,7 +21683,7 @@
     <row r="350" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="41" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C350" s="9"/>
       <c r="D350" s="9"/>
@@ -21688,11 +21694,11 @@
       <c r="G350" s="9"/>
       <c r="H350" s="9"/>
       <c r="J350" s="9"/>
-      <c r="K350" s="9"/>
+      <c r="K350" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L350" s="9"/>
-      <c r="M350" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M350" s="9"/>
       <c r="N350" s="9"/>
       <c r="O350" s="9"/>
       <c r="P350" s="9"/>
@@ -21718,7 +21724,7 @@
     <row r="351" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="41" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C351" s="9"/>
       <c r="D351" s="9"/>
@@ -21730,11 +21736,11 @@
       <c r="H351" s="9"/>
       <c r="J351" s="9"/>
       <c r="K351" s="9"/>
-      <c r="L351" s="9"/>
+      <c r="L351" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M351" s="9"/>
-      <c r="N351" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N351" s="9"/>
       <c r="O351" s="9"/>
       <c r="P351" s="9"/>
       <c r="Q351" s="9"/>
@@ -21759,7 +21765,7 @@
     <row r="352" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C352" s="9"/>
       <c r="D352" s="9"/>
@@ -21772,11 +21778,11 @@
       <c r="J352" s="9"/>
       <c r="K352" s="9"/>
       <c r="L352" s="9"/>
-      <c r="M352" s="9"/>
+      <c r="M352" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N352" s="9"/>
-      <c r="O352" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O352" s="9"/>
       <c r="P352" s="9"/>
       <c r="Q352" s="9"/>
       <c r="R352" s="9"/>
@@ -21800,7 +21806,7 @@
     <row r="353" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="41" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C353" s="9"/>
       <c r="D353" s="9"/>
@@ -21810,23 +21816,23 @@
       </c>
       <c r="G353" s="9"/>
       <c r="H353" s="9"/>
-      <c r="J353" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J353" s="9"/>
       <c r="K353" s="9"/>
       <c r="L353" s="9"/>
       <c r="M353" s="9"/>
-      <c r="N353" s="9"/>
+      <c r="N353" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O353" s="9"/>
       <c r="P353" s="9"/>
       <c r="Q353" s="9"/>
       <c r="R353" s="9"/>
       <c r="T353" s="9"/>
       <c r="U353" s="9"/>
-      <c r="V353" s="9"/>
-      <c r="W353" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V353" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W353" s="9"/>
       <c r="X353" s="9"/>
       <c r="Y353" s="9"/>
       <c r="Z353" s="9"/>
@@ -21841,7 +21847,7 @@
     <row r="354" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="41" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C354" s="9"/>
       <c r="D354" s="9"/>
@@ -21852,22 +21858,22 @@
       <c r="G354" s="9"/>
       <c r="H354" s="9"/>
       <c r="J354" s="9"/>
-      <c r="K354" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K354" s="9"/>
       <c r="L354" s="9"/>
       <c r="M354" s="9"/>
       <c r="N354" s="9"/>
-      <c r="O354" s="9"/>
+      <c r="O354" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P354" s="9"/>
       <c r="Q354" s="9"/>
       <c r="R354" s="9"/>
       <c r="T354" s="9"/>
       <c r="U354" s="9"/>
-      <c r="V354" s="9"/>
-      <c r="W354" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V354" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W354" s="9"/>
       <c r="X354" s="9"/>
       <c r="Y354" s="9"/>
       <c r="Z354" s="9"/>
@@ -21882,7 +21888,7 @@
     <row r="355" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="41" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C355" s="9"/>
       <c r="D355" s="9"/>
@@ -21892,11 +21898,11 @@
       </c>
       <c r="G355" s="9"/>
       <c r="H355" s="9"/>
-      <c r="J355" s="9"/>
+      <c r="J355" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K355" s="9"/>
-      <c r="L355" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L355" s="9"/>
       <c r="M355" s="9"/>
       <c r="N355" s="9"/>
       <c r="O355" s="9"/>
@@ -21923,7 +21929,7 @@
     <row r="356" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="41" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C356" s="9"/>
       <c r="D356" s="9"/>
@@ -21934,11 +21940,11 @@
       <c r="G356" s="9"/>
       <c r="H356" s="9"/>
       <c r="J356" s="9"/>
-      <c r="K356" s="9"/>
+      <c r="K356" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L356" s="9"/>
-      <c r="M356" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M356" s="9"/>
       <c r="N356" s="9"/>
       <c r="O356" s="9"/>
       <c r="P356" s="9"/>
@@ -21964,7 +21970,7 @@
     <row r="357" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="41" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C357" s="9"/>
       <c r="D357" s="9"/>
@@ -21976,11 +21982,11 @@
       <c r="H357" s="9"/>
       <c r="J357" s="9"/>
       <c r="K357" s="9"/>
-      <c r="L357" s="9"/>
+      <c r="L357" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M357" s="9"/>
-      <c r="N357" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N357" s="9"/>
       <c r="O357" s="9"/>
       <c r="P357" s="9"/>
       <c r="Q357" s="9"/>
@@ -22005,7 +22011,7 @@
     <row r="358" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="41" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C358" s="9"/>
       <c r="D358" s="9"/>
@@ -22018,11 +22024,11 @@
       <c r="J358" s="9"/>
       <c r="K358" s="9"/>
       <c r="L358" s="9"/>
-      <c r="M358" s="9"/>
+      <c r="M358" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N358" s="9"/>
-      <c r="O358" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O358" s="9"/>
       <c r="P358" s="9"/>
       <c r="Q358" s="9"/>
       <c r="R358" s="9"/>
@@ -22046,41 +22052,39 @@
     <row r="359" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="41" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C359" s="9"/>
       <c r="D359" s="9"/>
       <c r="E359" s="9"/>
-      <c r="F359" s="9"/>
-      <c r="G359" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F359" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G359" s="9"/>
       <c r="H359" s="9"/>
-      <c r="J359" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J359" s="9"/>
       <c r="K359" s="9"/>
       <c r="L359" s="9"/>
       <c r="M359" s="9"/>
-      <c r="N359" s="9"/>
+      <c r="N359" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O359" s="9"/>
       <c r="P359" s="9"/>
       <c r="Q359" s="9"/>
       <c r="R359" s="9"/>
-      <c r="T359" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T359" s="9"/>
       <c r="U359" s="9"/>
       <c r="V359" s="9"/>
-      <c r="W359" s="9"/>
+      <c r="W359" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X359" s="9"/>
       <c r="Y359" s="9"/>
       <c r="Z359" s="9"/>
       <c r="AA359" s="9"/>
       <c r="AB359" s="9"/>
-      <c r="AD359" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD359" s="9"/>
       <c r="AE359" s="9"/>
       <c r="AF359" s="9"/>
       <c r="AG359" s="9"/>
@@ -22089,41 +22093,39 @@
     <row r="360" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="41" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C360" s="9"/>
       <c r="D360" s="9"/>
       <c r="E360" s="9"/>
-      <c r="F360" s="9"/>
-      <c r="G360" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="F360" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G360" s="9"/>
       <c r="H360" s="9"/>
       <c r="J360" s="9"/>
-      <c r="K360" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K360" s="9"/>
       <c r="L360" s="9"/>
       <c r="M360" s="9"/>
       <c r="N360" s="9"/>
-      <c r="O360" s="9"/>
+      <c r="O360" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P360" s="9"/>
       <c r="Q360" s="9"/>
       <c r="R360" s="9"/>
-      <c r="T360" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T360" s="9"/>
       <c r="U360" s="9"/>
       <c r="V360" s="9"/>
-      <c r="W360" s="9"/>
+      <c r="W360" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X360" s="9"/>
       <c r="Y360" s="9"/>
       <c r="Z360" s="9"/>
       <c r="AA360" s="9"/>
       <c r="AB360" s="9"/>
-      <c r="AD360" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="AD360" s="9"/>
       <c r="AE360" s="9"/>
       <c r="AF360" s="9"/>
       <c r="AG360" s="9"/>
@@ -22132,7 +22134,7 @@
     <row r="361" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="41" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C361" s="9"/>
       <c r="D361" s="9"/>
@@ -22142,11 +22144,11 @@
         <v>108</v>
       </c>
       <c r="H361" s="9"/>
-      <c r="J361" s="9"/>
+      <c r="J361" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K361" s="9"/>
-      <c r="L361" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L361" s="9"/>
       <c r="M361" s="9"/>
       <c r="N361" s="9"/>
       <c r="O361" s="9"/>
@@ -22175,7 +22177,7 @@
     <row r="362" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="41" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C362" s="9"/>
       <c r="D362" s="9"/>
@@ -22186,11 +22188,11 @@
       </c>
       <c r="H362" s="9"/>
       <c r="J362" s="9"/>
-      <c r="K362" s="9"/>
+      <c r="K362" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L362" s="9"/>
-      <c r="M362" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M362" s="9"/>
       <c r="N362" s="9"/>
       <c r="O362" s="9"/>
       <c r="P362" s="9"/>
@@ -22218,7 +22220,7 @@
     <row r="363" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="41" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C363" s="9"/>
       <c r="D363" s="9"/>
@@ -22230,11 +22232,11 @@
       <c r="H363" s="9"/>
       <c r="J363" s="9"/>
       <c r="K363" s="9"/>
-      <c r="L363" s="9"/>
+      <c r="L363" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M363" s="9"/>
-      <c r="N363" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N363" s="9"/>
       <c r="O363" s="9"/>
       <c r="P363" s="9"/>
       <c r="Q363" s="9"/>
@@ -22261,7 +22263,7 @@
     <row r="364" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="41" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C364" s="9"/>
       <c r="D364" s="9"/>
@@ -22274,11 +22276,11 @@
       <c r="J364" s="9"/>
       <c r="K364" s="9"/>
       <c r="L364" s="9"/>
-      <c r="M364" s="9"/>
+      <c r="M364" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N364" s="9"/>
-      <c r="O364" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O364" s="9"/>
       <c r="P364" s="9"/>
       <c r="Q364" s="9"/>
       <c r="R364" s="9"/>
@@ -22304,7 +22306,7 @@
     <row r="365" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="41" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C365" s="9"/>
       <c r="D365" s="9"/>
@@ -22314,21 +22316,21 @@
         <v>108</v>
       </c>
       <c r="H365" s="9"/>
-      <c r="J365" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J365" s="9"/>
       <c r="K365" s="9"/>
       <c r="L365" s="9"/>
       <c r="M365" s="9"/>
-      <c r="N365" s="9"/>
+      <c r="N365" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O365" s="9"/>
       <c r="P365" s="9"/>
       <c r="Q365" s="9"/>
       <c r="R365" s="9"/>
-      <c r="T365" s="9"/>
-      <c r="U365" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T365" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U365" s="9"/>
       <c r="V365" s="9"/>
       <c r="W365" s="9"/>
       <c r="X365" s="9"/>
@@ -22336,7 +22338,9 @@
       <c r="Z365" s="9"/>
       <c r="AA365" s="9"/>
       <c r="AB365" s="9"/>
-      <c r="AD365" s="9"/>
+      <c r="AD365" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE365" s="9"/>
       <c r="AF365" s="9"/>
       <c r="AG365" s="9"/>
@@ -22345,7 +22349,7 @@
     <row r="366" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="41" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C366" s="9"/>
       <c r="D366" s="9"/>
@@ -22356,20 +22360,20 @@
       </c>
       <c r="H366" s="9"/>
       <c r="J366" s="9"/>
-      <c r="K366" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K366" s="9"/>
       <c r="L366" s="9"/>
       <c r="M366" s="9"/>
       <c r="N366" s="9"/>
-      <c r="O366" s="9"/>
+      <c r="O366" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P366" s="9"/>
       <c r="Q366" s="9"/>
       <c r="R366" s="9"/>
-      <c r="T366" s="9"/>
-      <c r="U366" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="T366" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U366" s="9"/>
       <c r="V366" s="9"/>
       <c r="W366" s="9"/>
       <c r="X366" s="9"/>
@@ -22377,7 +22381,9 @@
       <c r="Z366" s="9"/>
       <c r="AA366" s="9"/>
       <c r="AB366" s="9"/>
-      <c r="AD366" s="9"/>
+      <c r="AD366" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="AE366" s="9"/>
       <c r="AF366" s="9"/>
       <c r="AG366" s="9"/>
@@ -22386,7 +22392,7 @@
     <row r="367" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="41" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C367" s="9"/>
       <c r="D367" s="9"/>
@@ -22396,11 +22402,11 @@
         <v>108</v>
       </c>
       <c r="H367" s="9"/>
-      <c r="J367" s="9"/>
+      <c r="J367" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K367" s="9"/>
-      <c r="L367" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L367" s="9"/>
       <c r="M367" s="9"/>
       <c r="N367" s="9"/>
       <c r="O367" s="9"/>
@@ -22427,7 +22433,7 @@
     <row r="368" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="41" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C368" s="9"/>
       <c r="D368" s="9"/>
@@ -22438,11 +22444,11 @@
       </c>
       <c r="H368" s="9"/>
       <c r="J368" s="9"/>
-      <c r="K368" s="9"/>
+      <c r="K368" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L368" s="9"/>
-      <c r="M368" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M368" s="9"/>
       <c r="N368" s="9"/>
       <c r="O368" s="9"/>
       <c r="P368" s="9"/>
@@ -22468,7 +22474,7 @@
     <row r="369" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="41" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C369" s="9"/>
       <c r="D369" s="9"/>
@@ -22480,11 +22486,11 @@
       <c r="H369" s="9"/>
       <c r="J369" s="9"/>
       <c r="K369" s="9"/>
-      <c r="L369" s="9"/>
+      <c r="L369" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M369" s="9"/>
-      <c r="N369" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N369" s="9"/>
       <c r="O369" s="9"/>
       <c r="P369" s="9"/>
       <c r="Q369" s="9"/>
@@ -22509,7 +22515,7 @@
     <row r="370" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="41" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C370" s="9"/>
       <c r="D370" s="9"/>
@@ -22522,11 +22528,11 @@
       <c r="J370" s="9"/>
       <c r="K370" s="9"/>
       <c r="L370" s="9"/>
-      <c r="M370" s="9"/>
+      <c r="M370" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N370" s="9"/>
-      <c r="O370" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O370" s="9"/>
       <c r="P370" s="9"/>
       <c r="Q370" s="9"/>
       <c r="R370" s="9"/>
@@ -22550,7 +22556,7 @@
     <row r="371" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="41" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C371" s="9"/>
       <c r="D371" s="9"/>
@@ -22560,22 +22566,22 @@
         <v>108</v>
       </c>
       <c r="H371" s="9"/>
-      <c r="J371" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J371" s="9"/>
       <c r="K371" s="9"/>
       <c r="L371" s="9"/>
       <c r="M371" s="9"/>
-      <c r="N371" s="9"/>
+      <c r="N371" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O371" s="9"/>
       <c r="P371" s="9"/>
       <c r="Q371" s="9"/>
       <c r="R371" s="9"/>
       <c r="T371" s="9"/>
-      <c r="U371" s="9"/>
-      <c r="V371" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U371" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V371" s="9"/>
       <c r="W371" s="9"/>
       <c r="X371" s="9"/>
       <c r="Y371" s="9"/>
@@ -22591,7 +22597,7 @@
     <row r="372" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="41" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C372" s="9"/>
       <c r="D372" s="9"/>
@@ -22602,21 +22608,21 @@
       </c>
       <c r="H372" s="9"/>
       <c r="J372" s="9"/>
-      <c r="K372" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K372" s="9"/>
       <c r="L372" s="9"/>
       <c r="M372" s="9"/>
       <c r="N372" s="9"/>
-      <c r="O372" s="9"/>
+      <c r="O372" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P372" s="9"/>
       <c r="Q372" s="9"/>
       <c r="R372" s="9"/>
       <c r="T372" s="9"/>
-      <c r="U372" s="9"/>
-      <c r="V372" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="U372" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V372" s="9"/>
       <c r="W372" s="9"/>
       <c r="X372" s="9"/>
       <c r="Y372" s="9"/>
@@ -22632,7 +22638,7 @@
     <row r="373" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="41" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C373" s="9"/>
       <c r="D373" s="9"/>
@@ -22642,11 +22648,11 @@
         <v>108</v>
       </c>
       <c r="H373" s="9"/>
-      <c r="J373" s="9"/>
+      <c r="J373" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K373" s="9"/>
-      <c r="L373" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L373" s="9"/>
       <c r="M373" s="9"/>
       <c r="N373" s="9"/>
       <c r="O373" s="9"/>
@@ -22673,7 +22679,7 @@
     <row r="374" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="41" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C374" s="9"/>
       <c r="D374" s="9"/>
@@ -22684,11 +22690,11 @@
       </c>
       <c r="H374" s="9"/>
       <c r="J374" s="9"/>
-      <c r="K374" s="9"/>
+      <c r="K374" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L374" s="9"/>
-      <c r="M374" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M374" s="9"/>
       <c r="N374" s="9"/>
       <c r="O374" s="9"/>
       <c r="P374" s="9"/>
@@ -22714,7 +22720,7 @@
     <row r="375" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="41" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C375" s="9"/>
       <c r="D375" s="9"/>
@@ -22726,11 +22732,11 @@
       <c r="H375" s="9"/>
       <c r="J375" s="9"/>
       <c r="K375" s="9"/>
-      <c r="L375" s="9"/>
+      <c r="L375" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M375" s="9"/>
-      <c r="N375" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N375" s="9"/>
       <c r="O375" s="9"/>
       <c r="P375" s="9"/>
       <c r="Q375" s="9"/>
@@ -22755,7 +22761,7 @@
     <row r="376" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="41" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C376" s="9"/>
       <c r="D376" s="9"/>
@@ -22768,11 +22774,11 @@
       <c r="J376" s="9"/>
       <c r="K376" s="9"/>
       <c r="L376" s="9"/>
-      <c r="M376" s="9"/>
+      <c r="M376" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N376" s="9"/>
-      <c r="O376" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O376" s="9"/>
       <c r="P376" s="9"/>
       <c r="Q376" s="9"/>
       <c r="R376" s="9"/>
@@ -22796,7 +22802,7 @@
     <row r="377" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="41" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C377" s="9"/>
       <c r="D377" s="9"/>
@@ -22806,23 +22812,23 @@
         <v>108</v>
       </c>
       <c r="H377" s="9"/>
-      <c r="J377" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="J377" s="9"/>
       <c r="K377" s="9"/>
       <c r="L377" s="9"/>
       <c r="M377" s="9"/>
-      <c r="N377" s="9"/>
+      <c r="N377" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O377" s="9"/>
       <c r="P377" s="9"/>
       <c r="Q377" s="9"/>
       <c r="R377" s="9"/>
       <c r="T377" s="9"/>
       <c r="U377" s="9"/>
-      <c r="V377" s="9"/>
-      <c r="W377" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V377" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W377" s="9"/>
       <c r="X377" s="9"/>
       <c r="Y377" s="9"/>
       <c r="Z377" s="9"/>
@@ -22837,7 +22843,7 @@
     <row r="378" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="41" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C378" s="9"/>
       <c r="D378" s="9"/>
@@ -22848,22 +22854,22 @@
       </c>
       <c r="H378" s="9"/>
       <c r="J378" s="9"/>
-      <c r="K378" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="K378" s="9"/>
       <c r="L378" s="9"/>
       <c r="M378" s="9"/>
       <c r="N378" s="9"/>
-      <c r="O378" s="9"/>
+      <c r="O378" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="P378" s="9"/>
       <c r="Q378" s="9"/>
       <c r="R378" s="9"/>
       <c r="T378" s="9"/>
       <c r="U378" s="9"/>
-      <c r="V378" s="9"/>
-      <c r="W378" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="V378" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="W378" s="9"/>
       <c r="X378" s="9"/>
       <c r="Y378" s="9"/>
       <c r="Z378" s="9"/>
@@ -22878,7 +22884,7 @@
     <row r="379" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="41" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C379" s="9"/>
       <c r="D379" s="9"/>
@@ -22888,11 +22894,11 @@
         <v>108</v>
       </c>
       <c r="H379" s="9"/>
-      <c r="J379" s="9"/>
+      <c r="J379" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K379" s="9"/>
-      <c r="L379" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="L379" s="9"/>
       <c r="M379" s="9"/>
       <c r="N379" s="9"/>
       <c r="O379" s="9"/>
@@ -22919,7 +22925,7 @@
     <row r="380" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="41" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C380" s="9"/>
       <c r="D380" s="9"/>
@@ -22930,11 +22936,11 @@
       </c>
       <c r="H380" s="9"/>
       <c r="J380" s="9"/>
-      <c r="K380" s="9"/>
+      <c r="K380" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L380" s="9"/>
-      <c r="M380" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="M380" s="9"/>
       <c r="N380" s="9"/>
       <c r="O380" s="9"/>
       <c r="P380" s="9"/>
@@ -22960,7 +22966,7 @@
     <row r="381" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="41" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C381" s="9"/>
       <c r="D381" s="9"/>
@@ -22972,11 +22978,11 @@
       <c r="H381" s="9"/>
       <c r="J381" s="9"/>
       <c r="K381" s="9"/>
-      <c r="L381" s="9"/>
+      <c r="L381" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="M381" s="9"/>
-      <c r="N381" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="N381" s="9"/>
       <c r="O381" s="9"/>
       <c r="P381" s="9"/>
       <c r="Q381" s="9"/>
@@ -23001,7 +23007,7 @@
     <row r="382" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="41" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C382" s="9"/>
       <c r="D382" s="9"/>
@@ -23014,11 +23020,11 @@
       <c r="J382" s="9"/>
       <c r="K382" s="9"/>
       <c r="L382" s="9"/>
-      <c r="M382" s="9"/>
+      <c r="M382" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="N382" s="9"/>
-      <c r="O382" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="O382" s="9"/>
       <c r="P382" s="9"/>
       <c r="Q382" s="9"/>
       <c r="R382" s="9"/>
@@ -23040,25 +23046,25 @@
       <c r="AI382" s="8"/>
     </row>
     <row r="383" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A383" s="6">
-        <v>107</v>
-      </c>
-      <c r="B383" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C383" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="A383" s="6"/>
+      <c r="B383" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="C383" s="9"/>
       <c r="D383" s="9"/>
       <c r="E383" s="9"/>
       <c r="F383" s="9"/>
-      <c r="G383" s="9"/>
+      <c r="G383" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H383" s="9"/>
       <c r="J383" s="9"/>
       <c r="K383" s="9"/>
       <c r="L383" s="9"/>
       <c r="M383" s="9"/>
-      <c r="N383" s="9"/>
+      <c r="N383" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="O383" s="9"/>
       <c r="P383" s="9"/>
       <c r="Q383" s="9"/>
@@ -23066,7 +23072,9 @@
       <c r="T383" s="9"/>
       <c r="U383" s="9"/>
       <c r="V383" s="9"/>
-      <c r="W383" s="9"/>
+      <c r="W383" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="X383" s="9"/>
       <c r="Y383" s="9"/>
       <c r="Z383" s="9"/>
@@ -23078,85 +23086,165 @@
       <c r="AG383" s="9"/>
       <c r="AI383" s="8"/>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B385" s="5"/>
-      <c r="C385" s="5"/>
-      <c r="D385" s="5"/>
-    </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B386" s="5"/>
-      <c r="C386" s="5"/>
-      <c r="D386" s="5"/>
-    </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A384" s="6"/>
+      <c r="B384" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="C384" s="9"/>
+      <c r="D384" s="9"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="9"/>
+      <c r="G384" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H384" s="9"/>
+      <c r="J384" s="9"/>
+      <c r="K384" s="9"/>
+      <c r="L384" s="9"/>
+      <c r="M384" s="9"/>
+      <c r="N384" s="9"/>
+      <c r="O384" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P384" s="9"/>
+      <c r="Q384" s="9"/>
+      <c r="R384" s="9"/>
+      <c r="T384" s="9"/>
+      <c r="U384" s="9"/>
+      <c r="V384" s="9"/>
+      <c r="W384" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X384" s="9"/>
+      <c r="Y384" s="9"/>
+      <c r="Z384" s="9"/>
+      <c r="AA384" s="9"/>
+      <c r="AB384" s="9"/>
+      <c r="AD384" s="9"/>
+      <c r="AE384" s="9"/>
+      <c r="AF384" s="9"/>
+      <c r="AG384" s="9"/>
+      <c r="AI384" s="8"/>
+    </row>
+    <row r="385" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A385" s="6">
+        <v>107</v>
+      </c>
+      <c r="B385" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C385" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D385" s="9"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="9"/>
+      <c r="G385" s="9"/>
+      <c r="H385" s="9"/>
+      <c r="J385" s="9"/>
+      <c r="K385" s="9"/>
+      <c r="L385" s="9"/>
+      <c r="M385" s="9"/>
+      <c r="N385" s="9"/>
+      <c r="O385" s="9"/>
+      <c r="P385" s="9"/>
+      <c r="Q385" s="9"/>
+      <c r="R385" s="9"/>
+      <c r="T385" s="9"/>
+      <c r="U385" s="9"/>
+      <c r="V385" s="9"/>
+      <c r="W385" s="9"/>
+      <c r="X385" s="9"/>
+      <c r="Y385" s="9"/>
+      <c r="Z385" s="9"/>
+      <c r="AA385" s="9"/>
+      <c r="AB385" s="9"/>
+      <c r="AD385" s="9"/>
+      <c r="AE385" s="9"/>
+      <c r="AF385" s="9"/>
+      <c r="AG385" s="9"/>
+      <c r="AI385" s="8"/>
+    </row>
+    <row r="387" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
+    </row>
+    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B401" s="5"/>
+      <c r="C401" s="5"/>
+      <c r="D401" s="5"/>
+    </row>
+    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B402" s="5"/>
+      <c r="C402" s="5"/>
+      <c r="D402" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
